--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA5F596-7410-4DF7-9535-94B06094C12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A9E75-4916-45C5-A700-16ECBAE993C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="316">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -57,11 +56,6 @@
     <t>6- Liste las carreras STEM que ofrece su universidad y para cada uno de ellas especifique el número de matriculados, discriminado por género (hombre/mujer)</t>
   </si>
   <si>
-    <t>7- ¿Cuáles son las tasas de deserción, discriminadas por género (hombre/mujer), en las carreras STEM que ofrece su universidad?  Por favor, proporcione las tasas de deserción de la siguiente manera: 
--Tasa de deserción en el primer año:
-- Tasa de deserción en general:</t>
-  </si>
-  <si>
     <t>8- ¿Cuál es el porcentaje de estudiantes de pregrado de su universidad que provienen de colegios públicos? ¿Cuál es el porcentaje de estudiantes de pregrado de su universidad que provienen de colegios privados? ¿Cuál es el porcentaje de estudiantes de pregrado de su universidad que provienen del extranjero? Al responder a esta pregunta, considere únicamente a los estudiantes que están inscritos en los programas/carreras STEM mencionados en la pregunta 6.</t>
   </si>
   <si>
@@ -69,14 +63,6 @@
   </si>
   <si>
     <t>10- ¿Cuál es el porcentaje de estudiantes de pregrado que son originarios de la ciudad donde se encuentra ubicada la universidad? ¿Cuál es el porcentaje de estudiantes de pregrado que provienen de regiones o ciudades aledañas a la ciudad donde se encuentra ubicada su universidad? Al responder a esta pregunta, considere únicamente a los estudiantes que están inscritos en los programas/carreras STEM mencionados en la pregunta 6.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11- Indique el porcentaje de estudiantes de pregrado, según su edad. Considere los siguientes grupos de edades predefinidos:
-- 16 años o menos:
-- 17 años:
-- 18 años:
-- 19 años o más:
-</t>
   </si>
   <si>
     <t>Si es posible adjunte en un archivo Word o Excel las tablas con los datos proporcionados en la PARTE I.II (cada pregunta); esto con el fin de tener los datos de manera ordenada.</t>
@@ -100,10 +86,6 @@
     <t>Por favor, proporciona el recurso multimedia (infografía, video o podcast) correspondiente a la pregunta 12 aquí</t>
   </si>
   <si>
-    <t>13- ¿Cuáles son los resultados más destacados de su universidad en cuanto al aumento de interés de los estudiantes en carreras STEM por actividades organizadas y realizadas en conjunto con los colegios? Para responder a esta pregunta tenga en cuenta:
-13.1- ¿Cuántos de los estudiantes de colegio que participaron en las actividades descritas en la pregunta 12 han ingresado a carreras STEM durante el período comprendido entre los años 2022 y 2024? De esos estudiantes que ingresaron, ¿Cuántos siguen estudiando y cuántos lograron graduarse?</t>
-  </si>
-  <si>
     <t>14- ¿Cuáles son las lecciones aprendidas y oportunidades de mejora identificadas por su universidad tras la implementación de las actividades mencionadas en la pregunta 12?</t>
   </si>
   <si>
@@ -146,14 +128,6 @@
   </si>
   <si>
     <t>Por favor, proporciona el recurso multimedia (infografía, video o podcast) correspondiente a la pregunta 22 aquí</t>
-  </si>
-  <si>
-    <t>23- ¿Qué porcentaje de estudiantes de carreras STEM en su universidad recibe algún tipo de apoyo financiero para sus estudios de pregrado? De ese porcentaje, ¿Cuántos corresponden a estudiantes de poblaciones subrepresentadas? 
-Por favor, proporcione información para estudiantes de pregrado diferenciado por género (hombre/mujer). Adicionalmente, indique la información para cada una de las poblaciones subrepresentadas mencionadas a continuación: 
-- Grupo étnico 
-- Discapacitados o con capacidades excepcionales
-- Desplazada o desmovilizado
-- Ingreso económico bajo</t>
   </si>
   <si>
     <t xml:space="preserve">24- ¿Qué matriz de calificación o criterios tiene en cuenta su universidad para otorgar becas o apoyos financieros a estudiantes de pregrado en carreras STEM? </t>
@@ -483,12 +457,6 @@
   </si>
   <si>
     <t xml:space="preserve">Para poder controlar la deserción en primer lugar es necesario priorizar estas carreras a nivel de política universitaria para que luego estas políticas permitan desarrollar programas específicos de control de deserción dentro de estas carreras. </t>
-  </si>
-  <si>
-    <t>No, no estoy de acuerdo</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>Norberto José Rojas Mercedes</t>
@@ -1365,79 +1333,574 @@
     <t>4a-  En su país ¿Cuál es el porcentaje de estudiantes en la educación media que estudian en colegios rurales? ¿Cuál es el porcentaje de estudiantes en la educación media que estudian en colegios urbanos?</t>
   </si>
   <si>
-    <t xml:space="preserve">4b- En su país ¿Cuál es la distribución porcentual (%) por ingreso familiar de los estudiantes en la educación media? Considere los siguientes grupos predefinidos:
-- Menos de 1 salario mínimo legal vigente:
-- Entre 2 y 5 salarios mínimos legales vigentes:
-- Entre 6 y 10  salarios mínimos legales vigentes:
-- Más de 10 salarios mínimos legales vigentes:
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>1b- ¿ Cuál es el porcentaje de madres de los estudiantes que poseen los siguientes niveles de educación?  Primaria completa;Bachillerato completo: Técnico o tecnólogo completo; Licenciatura o grado universitario completo; Posgrado o maestría completo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2b- ¿ Cuál es el porcentaje de padres de los estudiantes que poseen los siguientes niveles de educación?: Primaria completa;Bachillerato completo: Técnico o tecnólogo completo; Licenciatura o grado universitario completo; Posgrado o maestría completo
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3b-  Indique el porcentaje de estudiantes que pertenecen a cada una de las siguientes poblaciones subrepresentadas: Grupo étnico  Discapacitados o con capacidades excepcionales; Desplazada o desmovilizado; Ingreso económico bajo
 </t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1b- ¿ Cuál es el porcentaje de madres de los estudiantes que poseen los siguientes niveles de educación?  </t>
+      <t xml:space="preserve">4b- En su país ¿Cuál es la distribución porcentual (%) por ingreso familiar de los estudiantes en la educación media? Considere los siguientes grupos predefinidos: </t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Primaria completa;Bachillerato completo: Técnico o tecnólogo completo; Licenciatura o grado universitario completo; Posgrado o maestría completo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2b- ¿ Cuál es el porcentaje de padres de los estudiantes que poseen los siguientes niveles de educación?: </t>
+      <t xml:space="preserve"> Menos de 1 salario mínimo legal vigente/ Entre 2 y 5 salarios mínimos legales vigentes/ Entre 6 y 10  salarios mínimos legales vigentes/ Más de 10 salarios mínimos legales vigentes</t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>Primaria completa;Bachillerato completo: Técnico o tecnólogo completo; Licenciatura o grado universitario completo; Posgrado o maestría completo</t>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>7- ¿Cuáles son las tasas de deserción, discriminadas por género (hombre/mujer), en las carreras STEM que ofrece su universidad?  Por favor, proporcione las tasas de deserción de la siguiente manera: Tasa de deserción en el primer año/ Tasa de deserción en general</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11- Indique el porcentaje de estudiantes de pregrado, según su edad. Considere los siguientes grupos de edades predefinidos: </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">3b-  Indique el porcentaje de estudiantes que pertenecen a cada una de las siguientes poblaciones subrepresentadas: </t>
+      <t>16 años o menos/ 17 años/ 18 años/ 19 años o más</t>
     </r>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Aptos Display"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Grupo étnico  Discapacitados o con capacidades excepcionales; Desplazada o desmovilizado; Ingreso económico bajo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>13- ¿Cuáles son los resultados más destacados de su universidad en cuanto al aumento de interés de los estudiantes en carreras STEM por actividades organizadas y realizadas en conjunto con los colegios? Para responder a esta pregunta tenga en cuenta:
+13.1- ¿Cuántos de los estudiantes de colegio que participaron en las actividades descritas en la pregunta 12 han ingresado a carreras STEM durante el período comprendido entre los años 2022 y 2024? De esos estudiantes que ingresaron, ¿Cuántos siguen estudiando y cuántos lograron graduarse?</t>
+  </si>
+  <si>
+    <t>23- ¿Qué porcentaje de estudiantes de carreras STEM en su universidad recibe algún tipo de apoyo financiero para sus estudios de pregrado? De ese porcentaje, ¿Cuántos corresponden a estudiantes de poblaciones subrepresentadas? 
+Por favor, proporcione información para estudiantes de pregrado diferenciado por género (hombre/mujer). Adicionalmente, indique la información para cada una de las poblaciones subrepresentadas mencionadas a continuación: Grupo étnico / Discapacitados o con capacidades excepcionales/ Desplazada o desmovilizado / Ingreso económico bajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total: 12, 360
+Hombre: 5,278
+Mujer: 7,029
+</t>
+  </si>
+  <si>
+    <t>Carrera / Total / Hombre / Mujer
+Ingeniería Civil /  432  / 345 / 87
+Ingeniería Eléctrica y concentraciones  / 76  / 64 / 12
+Ingeniería Electromecánica y concentraciones  / 5 /  5 / 0
+Ingeniería Electrónica / 2 /  1 /  1
+Ingeniería en Ciencias de la Computación / 397 /  351 / 46
+Ingeniería en Mecatrónica / 104 /  89 / 15
+Ingeniería Industrial y de Sistemas /  417 / 268  / 149
+Ingeniería Mecánica / 73 / 68 / 5
+Ingeniería Telemática / 210 / 160 / 50</t>
+  </si>
+  <si>
+    <t>1. ¿Cuál es el porcentaje de estudiantes de pregrado de su universidad que provienen de colegios públicos? 
+Dato no existente
+2. ¿Cuál es el porcentaje de estudiantes de pregrado de su universidad que provienen de colegios privados? 
+Dato no existente
+3. ¿Cuál es el porcentaje de estudiantes de pregrado de su universidad que provienen del extranjero? 8.44%</t>
+  </si>
+  <si>
+    <t>1. ¿Cuál es el porcentaje de estudiantes de pregrado que son originarios de la ciudad donde se encuentra ubicada la universidad? 
+Santiago / 927
+Santo Domingo / 625
+2. ¿Cuál es el porcentaje de estudiantes de pregrado que provienen de regiones o ciudades aledañas a la ciudad donde se encuentra ubicada su universidad? Dato desconocido 
+Cuatrimestre enero - abril</t>
+  </si>
+  <si>
+    <t>Cuatrimestre enero - abril
+16 años o menos: 0.2%
+17 años: 0.0%
+18 años: 1.6%
+19 años o más 98.2%</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1r9RKgHXTd6qrIDUFmD9GM3M1lSN_JrMc, https://drive.google.com/open?id=1ETgvvacRqKb7WcIzVRk6_DAls_O2n-lX</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD 1:
+-Tipo de actividad: OPEN HOUSE
+-Su principal objetivo/ problema que pretende abordar:  actividad académica que busca apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios de diferentes centros educativos.
+-Formato de la actividad (virtual, presencial, blended): PRESENCIAL
+-Frecuencia: CADA CICLO
+-Estrategia(s) de comunicación: PERIODICO
+-Público objetivo: COLEGIOS
+-Lugar donde se desarrolla la actividad: CAMPUS SANTIAGO / CAMPUS SANTO DOMINGO
+-Estrategias que se utilizaron para garantizar el éxito de la actividad:
+Establecer alianzas con colegios y centros educativos para promover la actividad entre sus estudiantes.
+Enviar invitaciones y material promocional a través de los canales de comunicación de los colegios (boletines, redes sociales, anuncios en clases).
+Publicar anuncios y artículos en periódicos locales y regionales.
+Utilizar redes sociales y la página web de la universidad para promocionar el evento.
+Enviar boletines informativos a las bases de datos de contactos existentes.
+Implementar campañas publicitarias en radio y televisión local.
+ACTIVIDAD 2:
+-Tipo de actividad: VISITA A COLEGIOS
+-Su principal objetivo/ problema que pretende abordar:  Actividad académica que busca apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios de diferentes centros educativos y que estos conozcan la institución.
+-Formato de la actividad (virtual, presencial, blended): PRESENCIAL
+-Frecuencia: CADA CICLO
+-Estrategia(s) de comunicación: PERIODICO
+-Público objetivo: COLEGIOS
+-Lugar donde se desarrolla la actividad: CAMPUS SANTIAGO / CAMPUS SANTO DOMINGO
+-Estrategias que se utilizaron para garantizar el éxito de la actividad:
+Establecer alianzas con colegios y centros educativos para promover la actividad entre sus estudiantes.
+Enviar invitaciones y material promocional a través de los canales de comunicación de los colegios (boletines, redes sociales, anuncios en clases).
+Publicar anuncios y artículos en periódicos locales y regionales.
+Utilizar redes sociales y la página web de la universidad para promocionar el evento.
+Enviar boletines informativos a las bases de datos de contactos existentes.
+Implementar campañas publicitarias en radio y televisión local.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1BSPV-LG15Qr1FfWloUh1T30Cd4S38uxJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En cuanto al aumento de interés de los estudiantes en carreras STEM, los resultados más destacados muestran un notable incremento en el porcentaje de nuevos ingresos en ingeniería, alcanzando un 23.4% en el ciclo 2023-2024-1, el porcentaje más alto registrado en los últimos ciclos. A pesar de las fluctuaciones previas, con descensos significativos en los ciclos 2021-2022-3 (3.78%) y 2022-2023-3 (3.60%), se observa una tendencia positiva a partir del ciclo 2022-2023-1, donde el porcentaje de nuevos ingresos fue del 18.75%. Este aumento coincide con la implementación de actividades organizadas en conjunto con colegios, como visitas a centros educativos, lo que sugiere la efectividad de estas estrategias en fomentar el interés por carreras STEM entre los jóvenes preuniversitarios. Las colaboraciones y estrategias de comunicación han sido cruciales para que los estudiantes preuniversitarios comprendan y valoren mejor las oportunidades en el campo de la ingeniería.
+CICLO / TOTAL DE ESTUDIANTES INGENIERÍAS  / PORCENTAJE DE NUEVO INGRESO
+2021-2022-1	 / 1782 / 15.77%
+2021-2022-2	 / 1625 / 13.11%
+2021-2022-3	 / 1534 / 3.78%
+2022-2023-1 / 1691 / 18.75%
+2022-2023-2	 / 1591 / 9.11%
+2022-2023-3	 / 1502 / 3.6%
+2023-2024-1 / 1761 / 23.4%
+13.1- ¿Cuántos de los estudiantes de colegio que participaron en las actividades descritas en la pregunta 12 han ingresado a carreras STEM durante el período comprendido entre los años 2022 y 2024? De esos estudiantes que ingresaron, ¿Cuántos siguen estudiando y cuántos lograron graduarse?
+DATO DESCONOCIDO
+</t>
+  </si>
+  <si>
+    <t>Las lecciones aprendidas tras la implementación de actividades para apoyar la toma de decisiones de carreras en jóvenes preuniversitarios incluyen la importancia de la colaboración con colegios, la eficacia de utilizar múltiples canales de comunicación como redes sociales y medios locales, y la necesidad de una planificación anticipada y coordinación logística para asegurar la disponibilidad de recursos e instalaciones. Además, se ha identificado el valor de las actividades interactivas y talleres prácticos, que permiten a los estudiantes explorar diferentes carreras de manera tangible, y la necesidad de ofrecer asesoramiento personalizado y recursos informativos detallados. Las oportunidades de mejora incluyen fortalecer aún más las alianzas con centros educativos, optimizar la estrategia de comunicación para llegar a un público más amplio, y mejorar la experiencia interactiva para los estudiantes durante las visitas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACTIVIDAD 1:
+* Tipo de actividad:
+Seminario
+* Su principal objetivo/problema que pretende abordar:
+Promover una perspectiva integral de la Ingeniería Industrial y de Sistemas, mostrando áreas poco conocidas y oportunidades de desarrollo en este campo.
+*Formato de la actividad:
+Presencial
+*Frecuencia:
+Anual
+*Lugar donde se desarrolla la actividad:
+Campus de la Pontificia Universidad Católica Madre y Maestra (PUCMM), Santiago, R.D.
+*Público objetivo:
+Abierto al público interesado en la carrera
+*¿La actividad cumplió con su objetivo principal? ¿Cómo se evalúa su impacto?:
+Sí, la actividad cumplió con su objetivo principal. Su impacto se evaluó a través de la participación activa de los estudiantes en conferencias, charlas, paneles y visitas a empresas, así como en la adquisición de conocimientos sobre nuevas tendencias y oportunidades en la industria.
+ACTIVIDAD 2
+*Tipo de actividad:
+Seminario
+* Su principal objetivo/problema que pretende abordar:
+Garantizar el desarrollo profesional de estudiantes con conocimientos actualizados sobre el crecimiento de las ciudades y los retos e innovaciones en la Ingeniería Civil.
+* Formato de la actividad:
+Presencial
+*Frecuencia:
+Anual
+*Lugar donde se desarrolla la actividad:
+Auditorio de Ciencia de la Salud, Pontificia Universidad Católica Madre y Maestra (PUCMM), Santiago, R.D.
+* Público objetivo:
+Estudiantes de Ingeniería Civil y carreras afines
+*¿La actividad cumplió con su objetivo principal? ¿Cómo se evalúa su impacto?:
+Sí, la actividad cumplió con su objetivo principal. Su impacto se evaluó a través de la participación activa en charlas, entrevistas, paneles y otras actividades, así como la adquisición de conocimientos sobre la planificación y ejecución de mega obras y la construcción de ciudades más sostenibles y resilientes.
+ACTIVIDAD 3
+*Tipo de actividad:
+Entrega de certificaciones
+*Su principal objetivo/problema que pretende abordar:
+Reconocer y certificar a los estudiantes de ingeniería en áreas especializadas de alta demanda en el mercado laboral.
+*Formato de la actividad:
+Presencial
+*Frecuencia:
+Ocasional (previo a la ceremonia de graduación)
+*Lugar donde se desarrolla la actividad:
+Campus Santo Domingo, Pontificia Universidad Católica Madre y Maestra (PUCMM)
+*Público objetivo:
+Abierto al público interesado en la carrera
+*¿La actividad cumplió con su objetivo principal? ¿Cómo se evalúa su impacto?:
+Sí, la actividad cumplió con su objetivo principal. Su impacto se evalúa mediante la entrega de certificaciones a los estudiantes, que representan su compromiso y capacidad de especialización en áreas clave del mercado laboral, así como a través de la valoración positiva y reconocimiento por parte de la comunidad académica y profesional.
+ACTIVIDAD 4
+*Tipo de actividad:
+Charla experiencial
+*Su principal objetivo/problema que pretende abordar:
+Proporcionar a los estudiantes conocimientos y experiencias sobre el mercado laboral de las telecomunicaciones y cómo ha evolucionado con el tiempo.
+*ormato de la actividad:
+Presencial
+*Frecuencia:
+Parte del panel
+*Lugar donde se desarrolla la actividad:
+Auditorio de Ciencias de Ingeniería, campus de Santiago, Pontificia Universidad Católica Madre y Maestra (PUCMM)
+*Público objetivo:
+Estudiantes de Ingeniería Telemática y carreras afines
+*¿La actividad cumplió con su objetivo principal? ¿Cómo se evalúa su impacto?:
+Sí, la actividad cumplió con su objetivo principal. El impacto se evalúa mediante la participación activa de los estudiantes en las charlas y la interacción con los ponentes, quienes compartieron sus experiencias y conocimientos sobre el mercado laboral y la Inteligencia Artificial.
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1mFAqZg1pwV-Li0ta-ZmvH-We-Sl5SFLl, https://drive.google.com/open?id=1IUk9lhbSd1ZkeoOZuGPon3_BNau8F5n_, https://drive.google.com/open?id=1YEozll751A5B9HqQeKjUh1uDUjNCn5aT, https://drive.google.com/open?id=1yS8cLDELkfkARBBpq3fLVoKQUuq8omQX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las lecciones aprendidas de las actividades enfocadas en la promoción de las carreras y la captación de nuevos alumnos incluyen la importancia de mantener a los estudiantes preuniversitarios y universitarios informados sobre las últimas tendencias en campos como la Ingeniería Telemática y Civil. El intercambio de experiencias reales con egresados y profesionales ha demostrado ser efectivo para proporcionar una visión práctica del mercado laboral y despertar el interés de los estudiantes. La participación activa en seminarios, paneles y charlas es crucial para su compromiso y comprensión de las oportunidades disponibles. Las oportunidades de mejora identificadas abarcan la diversificación de temas, la incorporación de talleres prácticos que permitan a los estudiantes experimentar de primera mano las aplicaciones de sus futuros estudios, y la implementación de un sistema de seguimiento y mentoría para brindar apoyo continuo. </t>
+  </si>
+  <si>
+    <t>La estrategia de comunicación utilizada por la Pontificia Universidad Católica Madre y Maestra (PUCMM) para potenciar la promoción de carreras STEM incluye la organización de actividades como el Open House. Esta actividad académica se realiza de forma presencial cada ciclo en los campus de Santiago y Santo Domingo, y está dirigida a estudiantes preuniversitarios de diferentes colegios. La comunicación se lleva a cabo a través de la distribución de invitaciones y material promocional en colegios, así como la publicación de anuncios y artículos en periódicos locales y regionales. Además, se utilizan redes sociales y la página web de la universidad para promocionar el evento, y se envían boletines informativos a las bases de datos de contactos existentes. También se implementan campañas publicitarias en radio y televisión local para aumentar la visibilidad y el alcance de la actividad. Estas estrategias aseguran una comunicación efectiva y amplia, promoviendo activamente las carreras STEM entre los jóvenes.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10IgIHwqa72q4Q4wzwOQaUyPi3rOG-gX_</t>
+  </si>
+  <si>
+    <t>La Pontificia Universidad Católica Madre y Maestra (PUCMM) utiliza una variedad de herramientas y plataformas para divulgar actividades enfocadas en la promoción de carreras STEM. Entre ellas se incluyen:
+Página Web: Utilizada para proporcionar información detallada sobre las actividades, programas académicos y noticias relevantes.
+Redes Sociales:
+Instagram: Para compartir imágenes, videos y stories sobre eventos y actividades, llegando a una audiencia joven y activa.
+Facebook: Para crear eventos, compartir publicaciones y videos en directo, facilitando la interacción con estudiantes, padres y la comunidad en general.
+Medios de Comunicación Tradicionales:
+Periódicos Locales y Regionales: Publicación de anuncios y artículos para llegar a una audiencia más amplia.
+Radio y Televisión Local: Implementación de campañas publicitarias para aumentar la visibilidad y el alcance de las actividades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esta informacion no esta declarada. </t>
+  </si>
+  <si>
+    <t>Gracias a la estrategia de comunicación implementada, que incluye actividades como el Open House, la Pontificia Universidad Católica Madre y Maestra (PUCMM) ha visto un aumento significativo en el interés por carreras STEM. En el ciclo 2023-2024-1, el porcentaje de nuevos ingresos en ingeniería alcanzó un 23.4%, el más alto de los ciclos recientes. A pesar de bajas en ciclos anteriores, como 2021-2022-3 (3.78%) y 2022-2023-3 (3.60%), desde el ciclo 2022-2023-1 con un 18.75%, se ha observado una tendencia creciente. Estos resultados reflejan la efectividad de la estrategia de comunicación en atraer a más estudiantes hacia las carreras STEM.</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Pontificia Universidad Católica Madre y Maestra (PUCMM) ofrece una variedad de programas de becas y ayuda financiera para estudiantes de colegios que deseen cursar estudios de pregrado, aunque no están dirigidos exclusivamente a carreras STEM. Entre estos programas se incluyen:
+Becas Deportivas: Para estudiantes que destacan en actividades deportivas, fomentando un equilibrio entre el deporte y los estudios.
+Becas Institucionales: Ofrecidas por diversas organizaciones y empresas en colaboración con la universidad, disponibles para una amplia gama de carreras.
+Becas de la Fundación Madre y Maestra: La Fundación Madre y Maestra cuenta con un Programa de Becas en el que se reciben aportaciones de empresas, organizaciones y personas que deseen colaborar en virtud del bienestar social de la República Dominicana. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10YdjC5g22nrtcLaO4cG2lMWikbaTZlNx</t>
+  </si>
+  <si>
+    <t>Dato desconocido</t>
+  </si>
+  <si>
+    <t>Algunos de los criterios a evaluar son, el promedio del bachillerato en las materias básicas, los ingresos familiares y el resultado de su examen de admisión. No serán evaluados casos que no hayan remitido la documentación requerida.
+Completar el formulario en línea y enviar.
+Ser de nacionalidad dominicana o estar naturalizado.
+Haber sido admitido por la Universidad (Debe dirigirse al departamento de admisiones del TEP).
+Tener una calificación promedio mayor o igual a los 90 puntos en el bachillerato.
+Obtener un promedio igual o superior a 550 puntos en el examen de admisión (POMA).
+Documentos que debe adjuntar
+Cédula de Identidad y Electoral.
+Copia de acta de nacimiento.
+Récord de notas de bachillerato (actualizado hasta la fecha).
+Certificado de Conclusión de Bachiller (en caso de no tenerlo, queda pendiente).
+Carta de motivación y/o solicitud dirigida al Licdo. Eduardo José Reinoso Pérez, Director Ejecutivo de la Fundación Madre y Maestra, con un máximo de 600 palabras solicitando la beca y explicando las razones por las cuales entiende que califica para ser becario y resaltando su potencial académico y voluntariado.
+Dos cartas de recomendación.
+Carta de trabajo del padre, madre y/o tutor o Declaración jurada de ingresos si es propietario o forma parte de una sociedad comercial.
+Copia de la última factura del servicio de electricidad del lugar donde reside.
+Copia del último pago de matrícula de la institución de procedencia.</t>
+  </si>
+  <si>
+    <t>Página Web y Redes Sociales:
+La universidad utiliza su página web y plataformas de redes sociales como Instagram, Facebook y Twitter para promocionar y proporcionar información actualizada sobre los programas de apoyo financiero.</t>
+  </si>
+  <si>
+    <t>No disponible.</t>
+  </si>
+  <si>
+    <t>No exclusivo para STEM. 
+https://orientacion.pucmm.edu.do/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tenemos. </t>
+  </si>
+  <si>
+    <t>No disponible</t>
+  </si>
+  <si>
+    <t>d) 6-8 años</t>
+  </si>
+  <si>
+    <t>d) 41-48 años</t>
+  </si>
+  <si>
+    <t>b) Departamento de Comunicaciones</t>
+  </si>
+  <si>
+    <t>No de forma directa para STEM. Los mayores desafíos que enfrenta el personal encargado de actividades de promoción de carreras incluyen la competencia con otras universidades, limitaciones presupuestarias, la necesidad de mantenerse al día con los cambios tecnológicos y asegurar la diversidad e inclusión. Para abordar estos desafíos, se han implementado estrategias como la colaboración con colegios y organizaciones, campañas de sensibilización, optimización de recursos y búsqueda de financiamiento adicional, capacitación continua del personal, diversificación de canales de comunicación. Además, se han trabajado en más campañas publicitarias y se ha destinado un presupuesto adicional para responder a estas necesidades, mejorando la visibilidad y atractivo de las carreras y garantizando que la información llegue a una audiencia amplia y diversa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El primer paso para abordar los desafíos en la atracción de estudiantes a carreras STEM  es definir un modelo específico para STEM, en lugar de utilizar un enfoque genérico aplicable a todas las carreras. Entre los principales desafíos identificados se encuentran la competencia con otras universidades que también promueven carreras STEM, lo que dificulta destacar entre la oferta académica disponible. Además, existe un conocimiento limitado sobre las oportunidades y beneficios de las carreras STEM entre los estudiantes y sus familias, lo que reduce el interés en estas disciplinas. Definir un modelo específico para STEM permitirá a la universidad abordar estos desafíos de manera más efectiva.
+</t>
+  </si>
+  <si>
+    <t>Si no existe un modelo o programa destinado solo para STEM; se hacen actividades que responden parcialmente a ello; pero debe ser un acapite universitario solo para esto. Debemos iniciar por ahí.</t>
+  </si>
+  <si>
+    <t>Mirnalin Cherubin</t>
+  </si>
+  <si>
+    <t>mirnalincherubin@pucmm.edu.do</t>
+  </si>
+  <si>
+    <t>PUCMM</t>
+  </si>
+  <si>
+    <t>Al primer semestre de 2020, la UC cuenta con 33.025 alumnos regulares totales: 27.895 de pregrado, 3.301 de magíster, 1.258 de doctorado y 571 de postítulo. Al primer semestre de 2020, un 51,9% de los alumnos totales de la UC son mujeres. A nivel de postgrado, los estudiantes son mayoritariamente hombres: un 57,7% de los alumnos de magíster y un 56,6% de los de doctorado son de sexo masculino (UC Chile, 2020). 
+Fuente: Anuario 2019-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para esta encuesta estaremos considerando la información correspondiente a la Escuela de Ingeniería de la UC. Actualmente hay dos programas de pregrado, Licenciatura en Ciencias de la Ingeniería y Licenciatura en Ciencias de la Computación.  
+En la Escuela de Ingeniería hay 5.042 matriculados (hombres y mujeres) (2020, Anuario Oficial) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de deserción se cuenta como porcentaje de estudiantes que se encuentran no vigentes por: 
+- Renuncia , Abandono , Rendimiento académico 
+A la fecha, el porcentaje de deserción de Ingeniería es de 3.2%. El abandono se da mayoritariamente en segundo año, momento donde se produce una migración saliente desde ingeniería. En términos de género, la deserción femenina corresponde a un 36% de la deserción total. Este valor se mantiene constante en el tiempo si ampliamos el análisis a años anteriores a régimen de continuidad). 
+Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El modelo chileno de educación secundaria considera tres grandes grupos de colegios: 
+- Colegios de administración pública: 12.10% (2024) 
+- Colegios particulares con subvención pública: 19.98% (2024) 
+- Colegios particulares: 67.92% (2024) 
+En la categoría de colegios públicos, se asume la equivalencia sociodemográfica de los dos primeros grupos. 
+Por otro lado, la población de nacionalidad extranjera en pregrado corresponde a un 4% de la matrícula. Si consideramos a estudiantes extranjeros provenientes de Latinoamérica no chilenos, va en aumento sostenido desde 2020 
+Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la carrera de Licenciatura en Ciencias de la Ingeniería, para el año 2024, 23.94% son de regiones distintas a la Metropolitana de Santiago. Para la Licenciatura en Ciencias de la Computación, para el año 2024%, 17.92% son de regiones distintas a Santiago.  
+Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">16 años o menos: 0.2%
+17 años: 0.8%
+18 años: 13.6%
+19 años o más: 85.4%
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1J8yhrLybimJusp3-15gp52TlraCivwW5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Yb3YmosFcBEFGa4Z15TRqccQYCWpvbDv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- SaviaLab
+Tipo de Actividad: Taller formativo
+Link: https://savialab.fia.cl/
+Organización y realización: Diseñado y ejecutado por la Universidad Católica de Chile, desde la unidad académica DILAB, con financiamiento de la Fundación para la Innovación Agraria (FIA) de Chile.
+Descripción: SaviaLab ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos. Dirigido a profesores de liceos rurales, el programa capacita a desarrollar proyectos innovadores con estudiantes de enseñanza media.
+2- Interescolar Descifra
+Link: https://www.redcrecemos.cl/colegios/dagoberto-godoy-lo-prado/noticias/tdg-lo-prado-participa-en-torneo-interescolar-descifra-orientado-a
+Tipo de Actividad: Torneo competitivo
+Organización y realización: Diseñado por Fundación Enseña Chile, con apoyo logístico y ejecución de la Universidad Católica de Chile desde la subdirección de Preingeniería.
+Descripción: Interescolar Descifra es un torneo competitivo que fomenta la colaboración y el pensamiento crítico entre estudiantes de enseñanza media. Los desafíos en equipo integran conocimientos teóricos para encontrar soluciones innovadoras.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre todos los programas y actividades concretas que organiza la Escuela de Ingeniería en conjunto con colegios, se ha podido observar que en 2023 había 11 estudiantes matriculados que fueron a estos programas, mientras que en 2024 esta cifra aumentó a 62. Aún no se han hecho estudios de cuántos estudiantes han logrado graduarse y cuantos siguen estudiando.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tras la implementación de las actividades mencionadas, la Escuela de Ingeniería ha identificado importantes lecciones aprendidas y oportunidades de mejora.  
+Se ha destacado la necesidad de adaptar estrategias de enseñanza-aprendizaje para el rango etario de los escolares, lo cual ha resultado en una mayor participación y compromiso. Además, la integración de técnicas virtuales ha permitido alcanzar a estudiantes que enfrentan limitaciones de horario para asistir físicamente a la universidad, aunque se reconoce la continua necesidad de desarrollar actividades que aseguren un aprendizaje efectivo en entornos virtuales.  
+La inclusión de herramientas que abordan la neurodiversidad y consideran diferentes contextos sociales ha mejorado significativamente la experiencia educativa, si bien se busca expandir el conocimiento y aplicación de estas herramientas para atender mejor las necesidades diversas de las comunidades educativas.  
+Finalmente, la gestión eficiente y la definición clara de parámetros horarios han optimizado la organización y eficiencia operativa, destacando la importancia de mantener estos estándares para garantizar el éxito continuo de los programas educativos. </t>
+  </si>
+  <si>
+    <t>Academia STEM: https://www.ing.uc.cl/vinculacion-con-el-medio/preingenieria/academia-stem-uc/
+Organizado por la Escuela de Ingeniería UC, este taller formativo se enfoca en explorar temas STEAM entre escolares de 1ro a 4to medio y egresados. Se realiza presencialmente dos veces al año durante vacaciones, con clases semanales. La difusión se hace por redes sociales, web UC y medios, asegurando alta participación. Indicadores de éxito incluyen alta finalización, evaluaciones de aprendizaje y NPS, garantizando pertinencia con metodologías adaptadas y planificación anticipada.
+Coding:https://www.ing.uc.cl/vinculacion-con-el-medio/preingenieria/seeding-clases-de-programacion-para-escolares/
+Este taller, también de la Escuela de Ingeniería UC, introduce a estudiantes de 7mo a 2do medio en programación. Clases presenciales semanales durante 10 sesiones, con difusión por Instagram y web UC. Indicadores de éxito similares, con énfasis en adaptación de contenidos y metodologías, evaluación continua y ajuste según demanda.
+Taller STEM para el Día de la Mujer en Ingeniería:
+Dirigido a adolescentes mujeres de 1ro a 4to medio, este taller anual aborda temas STEM con baja representación femenina. Organizado por la UC, con apoyo del Banco Scotiabank, se difunde por Instagram y web UC. Indicadores de éxito destacan alta finalización y actualización periódica según demanda y necesidades.
+Escuelas Tecnológicas:https://www.ing.uc.cl/vinculacion-con-el-medio/preingenieria/escuelas-tecnologicas/
+Este taller de la unidad DILAB de la UC está diseñado para adolescentes de 11 a 15 años, enfocándose en prototipado y tecnologías físico-tecnológicas. Se realiza intensivamente durante vacaciones de verano e invierno, con difusión por redes sociales, web UC y correos. Indicadores de éxito incluyen alta finalización, adaptación de contenidos y metodologías, evaluación continua y becas facilitadoras.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1lx_ymprme7o1646e9SnHdL8HUYett3B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tras la implementación de las actividades mencionadas, la Escuela de Ingeniería ha identificado importantes lecciones aprendidas y oportunidades de mejora.  
+Se ha destacado la necesidad de adaptar estrategias de enseñanza-aprendizaje para el rango etario de los escolares, lo cual ha resultado en una mayor participación y compromiso. Además, la integración de técnicas virtuales ha permitido alcanzar a estudiantes que enfrentan limitaciones de horario para asistir físicamente a la universidad.
+La inclusión de herramientas que abordan la neurodiversidad y consideran diferentes contextos sociales. 
+Finalmente, la gestión eficiente y la definición clara de parámetros horarios han optimizado la organización y eficiencia operativa, destacando la importancia de mantener estos estándares para garantizar el éxito continuo de los programas educativos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se emplean redes sociales como Instagram, LinkedIn, entre otras, además del sitio web de Ingeniería UC y ocasionalmente medios de comunicación nacionales, para difundir y proporcionar información sobre las actividades. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=119ibR84DqNM1H8BBsAkEziEzzEMSVHRN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Página web (https://ing.uc.cl), Instagram, Linkedin, Facebook y youtube. </t>
+  </si>
+  <si>
+    <t>Sin información</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aún no hay análisis del éxito del uso de redes sociales y/u otros medios de comunicación y sus efectos en el aumento de interés en carreras de STEM.  </t>
+  </si>
+  <si>
+    <t>Estas son las becas y oportunidades de financiamiento para estudiantes que desean estudiar en la UC, para todas las carreras.
+Gratuidad: Beneficio total de matrícula y arancel para estudiantes del 60% de menores ingresos.
+Becas de Arancel: Apoyo económico del Ministerio de Educación, como la Beca Bicentenario.
+Créditos Universitarios: Préstamos que cubren hasta el 100% del costo de estudios.
+Pase Escolar: Subsidio en transporte público mediante tarjeta estudiantil.
+Becas Junaeb: Apoyo para gastos relacionados con estudios universitarios.
+Premio a la Excelencia Académica: Reconocimiento al mérito académico con cobertura parcial o total del arancel.
+Beca Cardenal Raúl Silva Henríquez: Apoyo para alumnos del 7º decil que no acceden a Gratuidad.
+Beca Cristóbal Conde: Ayuda a estudiantes destacados académicamente con necesidad de financiamiento.
+Beca Complementaria Endowment UC: Cubre parte de la brecha entre el arancel oficial y el de referencia para familias vulnerables.
+Beca de Residencia: Financiamiento de residencia en Santiago para estudiantes de regiones con alta necesidad socioeconómica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El porcentaje de estudiantes que cursan ingeniería y están con algún tipo de financiamiento corresponde al 29.2%. De estos, el 61.2% pertenece a grupos subrepresentación por ingreso socioeconómico. Un supuesto importante dentro de esta población es que se asume que dentro de este grupo existe interseccionalidad de categorías de subrepresentación.
+Grupo étnico: pueblos originarios 8 estudiantes
+Discapacidades o capacidades excepcionales: 81 estudiantes
+Desplazados o movilizados (extranjeros con visa en tramite): 27 estudiantes
+Ingreso económico bajo: 384 estudiantes
+Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El principal criterio es socioeconómico, en base a la inscripción oportuna de los estudiantes en el Formulario Único de Acreditación Socioeconómica. El criterio secundario es el rendimiento semestral que reportan las Facultades.
+Fuente: Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t>- Academia STEM: Cursos prácticos y de exploración científico-tecnológica para escolares en los que se trabajan temáticas como la inteligencia artificial, robótica, programación, ingeniería gastronómica, entre muchos otros.
+- Escuelas Tecnológicas: Entretenida semana para la experimentación con tecnologías, ciencias y la cultura "maker", a través de proyectos que requieren fabricación, programación, prototipado y un toque de creatividad.
+- Technovation Girls: Technovation Girls Challenge es uno de los concursos internacionales de emprendimiento tecnológico más importantes a nivel global.
+- CODING: Programa formativo para fomentar el aprendizaje de la programación en la comunidad escolar y sus usos en la actualidad. En este curso los ylas participantes podrán aprender a programar en el lenguaje Python.
+- Bootcamp STEM Docente UC: Cursos de integración de conocimientos desde la ciencia, tecnología y matemáticas en temáticas como la Inteligencia artificial, robótica, toma de decisión para el aula basada en datos, entre otros para docentes de colegios, liceos e instituciones secundarias.
+- Charlas en liceos y colegios: Realizamos charlas divulgativas para dar a conocer Ingeniería UC: malla curricular, vías de admisión, grados académicos, posibilidades de internacionalización, apoyos y beneficios y vida universitaria, en los establecimientos educacionales.
+- Visiting: Visitas desde colegios y liceos al Campus UC. Desde la malla curricular, vías de admisión, grados académicos, posibilidades de internacionalización apoyos y beneficios hasta la vida universitaria escolares podrán conocer más sobre Ingeniería UC en sesiones divulgativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La tasa de deserción (considerando las tres categorías) es de 8%, de los cuales 78% renunciaron a Ingeniería (por motivos vocacionales), 6% no tuvieron rendimiento académico suficiente, y 16% abandonaron (es decir, no informaron a la universidad de su retiro). 
+La UC tiene la siguiente clasificación para conocer la deserción académica:  
+- No vigencia por abandono: corresponde a estudiantes que no informan a la Universidad de su situación de no continuar en la carrera. En tal caso, quedan vetados de postular nuevamente a universidades del Consejo de Rectores de Universidades Chilenas. No es un caso frecuente de abandono. 
+- No vigente por renuncia: Corresponde a estudiantes que informan a la universidad de no continuar estudios en la carrera. La mayor proporción es por vocación. 
+- No vigente por rendimiento académico: Estudiantes que no cumplieron con aprobación suficiente para continuar en Ingeniería. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existen los siguientes programas de acompañamiento para estudiantes. Estos están organizados y manejados por distintas direcciones de la Escuela de Ingeniería, incluyendo la Dirección de Pregrado, Bienestar, Mujeres y Pre Ingeniería.
+Orientadoras Académicas: Psicólogas educacionales en la Dirección de Pregrado, proporcionan apoyo integral a estudiantes de Ingeniería UC, abordando dificultades académicas, emocionales y personales para asegurar el éxito académico y bienestar.
+ODOC: Iniciativa estudiantil para guiar y apoyar en procesos académicos y administrativos mediante material y asistencia personalizada.
+GOING UC: Organización estudiantil que ofrece ayudantías, "estudiatones" y talleres de herramientas computacionales, incluyendo actividades de género, presenciales y online.
+SAI: Espacio donde estudiantes reciben apoyo de ayudantes expertos en ciencias básicas para resolver dudas, profundizar en materias y acceder a contenido virtual.
+Ayudantes de bienestar: Apoyan estudiantes con dificultades académicas o personales, proporcionando seguimiento y derivación a redes de apoyo como salud mental, ajustando evaluaciones si es necesario.
+Para mujeres específicamente hay: 
+Mentoring mujeres: Mentorías entre estudiantes de 4° y 5° año con profesionales de la industria para establecer redes y prepararse para el mundo laboral.
+Technovation Girls: Iniciativa desde Preingeniería para fomentar la participación femenina en tecnología e innovación.
+Cenas de Mujeres en Ingeniería: Eventos semestrales que reúnen a mujeres estudiantes y profesionales de la industria para crear redes y compartir experiencias.
+Estudiatones de Mujeres: Jornadas de estudio exclusivas para mujeres enfocadas en cursos desafiantes como cálculo y álgebra lineal.
+Encuentros con Académicas: Eventos vocacionales que promueven la ingeniería entre mujeres, facilitando encuentros con profesoras para descubrir vocaciones. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las estrategias nombradas en la pregunta 27 han funcionado para mejorar la retención estudiantil en carreras STEM. Todos proveen apoyo a los estudiantes con distintas necesidades durante sus carreras. </t>
+  </si>
+  <si>
+    <t>Mentoring mujeres: Mentorías destinadas a mujeres de 4° y 5° año de la Escuela de Ingeniería. Las estudiantes son mentoreadas por profesionales activas de la industria. El objetivo del programa es construir una red entre alumnas y profesionales que las conecte a los desafíos del mundo laboral.
+Technovation Girls: Información desde Preingeniería
+Cenas de Mujeres en Ingeniería: Cenas semestrales y masivas para mujeres miembros de la comunidad de la Escuela de Ingeniería. En las cenas, también están presentes mujeres en la industria, líderes de cada especialidad, quienes comparten con las estudiantes y generan redes.
+Estudiatones de Mujeres: Jornadas de estudio exclusivas para mujeres, con especial énfasis en cursos masivos de alta complejidad (cálculo, álgebra lineal y cursos físicos).
+Encuentros con Académicas: Jornadas vocacionales para estudiantes y profesoras. Los encuentros tienen el objetivo de promover la inscripción de especialidad en ingeniería y descubrir vocación en la comunidad femenina de la Escuela.</t>
+  </si>
+  <si>
+    <t>No particularmente, salvo lo de arriba. Dado que la proporción de género en deserción es similar a la población general de Ingeniería.</t>
+  </si>
+  <si>
+    <t>Ingenieras en empresas: A lo largo del año se realizan distintas visitas a empresas con el objetivo de dar a conocer a las alumnas cómo ha sido la experiencia laboral de las ingenieras que trabajan en dicha empresa, cómo se han desarrollado como profesionales, cómo lidiar con situaciones complejas en el trabajo y cómo equilibrar la vida familiar con la laboral. Se han visitado las empresas Microsoft, IBM, Accenture, Fluor, Bechtel y BCG.
+Semana de la Ingeniera: Semana para las estudiantes de Ingeniería UC dedicada a visibilizar a las mujeres ingenieras y generar redes. Se realizan diferentes actividades, entre ellas charlas de ingenieras destacadas, desayuno con exalumnas, almuerzo con profesoras y profesionales de la Escuela de Ingeniería.
+Mentorías: Este proyecto busca acercar el rol de la mujer en el mundo laboral a las alumnas de la Escuela de Ingeniería UC y contribuir en su desarrollo personal, a través de una relación con una mentora Ingeniera.
+Talleres: La Escuela de Ingeniería implementa distintos talleres que aportan al crecimiento, desarrollo de habilidades de liderazgo y diseño de carrera de las alumnas de Ingeniería UC. Todos estos talleres son impartidos por organizaciones profesionales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actualmente son 158 profesores de jornada completa en la Escuela de Ingeniería, 25 (15.82%) son mujeres. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenciatura o Maestría dependiendo si son ayudantes o profesionales del equipo. Puede variar. </t>
+  </si>
+  <si>
+    <t>d) 76-100%</t>
+  </si>
+  <si>
+    <t>d) Facultad de Ingeniería</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algunos de los principales desafíos son:
+1- Desarrollar estrategias para facilitar la participación de estudiantes cuyos horarios no permiten venir a la universidad. 
+2-Establecer límites claros en nuestras capacidades de gestión para nuestras actividades. 3-Definir parámetros respecto al tiempo, considerando que no siempre se puede participar en actividades fuera del horario laboral del personal del equipo. 
+Estos desafíos se están abordando con el tema, analizando oportunidades de mejora después de cada actividad e implementando cambios cuando sea necesario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basado en la información recolectada, los principales desafíos que enfrenta nuestra universidad al momento de atraer estudiantes a carreras STEM incluyen: 
+Percepción y estereotipos: Combatir percepciones negativas o estereotipos sobre las carreras STEM, especialmente entre estudiantes jóvenes y sus familias. 
+Acceso y equidad: Superar barreras de acceso relacionadas con la preparación previa en ciencias y matemáticas, así como la disponibilidad de recursos educativos en diferentes contextos socioeconómicos de los estudiantes.  
+Orientación y apoyo: Mejorar la orientación vocacional desde etapas tempranas para destacar las oportunidades y el impacto positivo de las carreras STEM en la sociedad. 
+Relevancia y actualización: Asegurar que los programas y currículos estén alineados con las demandas actuales del mercado laboral y las tendencias tecnológicas emergentes. 
+Participación de mujeres: Fomentar la participación equitativa de mujeres en las carreras STEM mediante programas de mentoría, redes de apoyo y actividades que promuevan modelos a seguir femeninos en el campo. 
+Colaboración y visibilidad: Fortalecer las colaboraciones con la industria y otras instituciones (como colegios) para ofrecer experiencias prácticas y proyectos que aumenten la relevancia y la visibilidad de las carreras STEM. </t>
+  </si>
+  <si>
+    <t>Basado en la información recolectada, la Universidad Católica y la Escuela de Ingeniería enfrentan desafíos significativos para retener estudiantes en carreras STEM. Uno de los principales obstáculos es la dificultad que algunos estudiantes enfrentan en los cursos introductorios de matemáticas y ciencias, lo cual puede resultar en altas tasas de deserción durante el primer año. Es crucial proporcionar programas de nivelación y apoyo académico adecuados para asegurar que los estudiantes tengan las herramientas necesarias para tener éxito en sus cursos.
+Además, la falta de suficiente apoyo académico, especialmente en cursos más avanzados, y la percepción negativa sobre la dificultad y utilidad de las carreras STEM también contribuyen a este problema. Es fundamental abordar la falta de un sentido de pertenencia entre grupos minoritarios, como estudiantes extranjeros y aquellos con discapacidades, así como promover la participación activa de las mujeres en las STEM. Esto implica crear entornos inclusivos que apoyen a todos los estudiantes a lo largo de sus carreras, asegurando que se sientan acompañados y valorados dentro de la comunidad académica.</t>
+  </si>
+  <si>
+    <t>Izabel.antle@uc.cl</t>
+  </si>
+  <si>
+    <t>Izabel Antle</t>
+  </si>
+  <si>
+    <t>izabel.antle@uc.cl</t>
+  </si>
+  <si>
+    <t>Pontificia Universidad Católica de Chile (UC Chile)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay 3.631.067 estudiantes en Chile. 20% son estudiantes de educación media, para un total de 726.213 estudiantes en educación media (MINEDUC, 2023).  
+En la educación media, hay aproximadamente 374,724 hombres y 351,489 mujeres matriculados (MINEDUC, 2023).  
+Fuente: https://centroestudios.mineduc.cl/2023/11/02/base-de-datos-matricula-oficial-2023-disponible/#:~:text=La%20mayor%20parte%20de%20la,y%2048%2C4%25%20respectivamente.
+</t>
+  </si>
+  <si>
+    <t>En Chile, la educación media abarca generalmente desde el 1° medio hasta el 4° medio, lo que corresponde a los siguientes niveles y edades típicas:
+1° medio: 14-15 años
+2° medio: 15-16 años
+3° medio: 16-17 años
+4° medio: 17-18 años</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El 2023 se observa una tasa de desvinculación de 1,66 que corresponde a 50.814 estudiantes desvinculados de todos los niveles educativos, lo que representa un incremento de 0,2 puntos porcentuales respecto a la tasa del año 2022. 
+</t>
+  </si>
+  <si>
+    <t>Para todos los niveles educativos, gran parte de la matrícula nacional está concentrada en comunas urbanas (92,3%), mientras que la matrícula rural alcanza el 7,7% (MINEDUC, 2023)
+Fuente: https://centroestudios.mineduc.cl/2023/11/02/base-de-datos-matricula-oficial-2023-disponible/#:~:text=Hay%201.874.598%20hombres%20y,alcanza%20el%207%2C7%25.</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1910,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1455,33 +1918,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <sz val="9"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1496,18 +1975,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,828 +2210,1124 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BE6"/>
+  <dimension ref="A1:BF7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="63" width="18.85546875" customWidth="1"/>
+    <col min="1" max="63" width="18.85546875" style="5" customWidth="1"/>
+    <col min="64" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="6" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:58" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="M1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="AN1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>45441.386124675926</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>45449.659126099534</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>45442.385238391202</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>45443.65026149305</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE5" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>45475.813380277774</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AM1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV1" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB1" s="5" t="s">
+      <c r="P6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>45470.624809907407</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BC1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>45441.386124675926</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="S7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AU2" s="1" t="s">
+      <c r="T7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AW2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>45449.292586655094</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>45449.659126099534</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>45442.385238391202</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AN5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>45443.65026149305</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM6" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AN6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AO6" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR6" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AS6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AT6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AU6" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>0.39710000000000001</v>
-      </c>
-      <c r="AW6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AY6" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AZ6" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="BA6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="BB6" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="BC6" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="BD6" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="BE6" s="1" t="s">
-        <v>223</v>
+      <c r="BA7" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF7" s="4" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2556,14 +3336,21 @@
     <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="AF2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="W4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AF4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AU4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="V5" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
-    <hyperlink ref="W5" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
-    <hyperlink ref="Y5" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
-    <hyperlink ref="AL5" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
-    <hyperlink ref="AC6" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
+    <hyperlink ref="W3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AF3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AU3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V4" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
+    <hyperlink ref="W4" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
+    <hyperlink ref="Y4" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
+    <hyperlink ref="AL4" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
+    <hyperlink ref="AC5" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
+    <hyperlink ref="Y6" r:id="rId13" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
+    <hyperlink ref="AF6" r:id="rId14" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
+    <hyperlink ref="AL6" r:id="rId15" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
+    <hyperlink ref="V7" r:id="rId16" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
+    <hyperlink ref="W7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
+    <hyperlink ref="AC7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
+    <hyperlink ref="AF7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650A9E75-4916-45C5-A700-16ECBAE993C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EFD8F-F141-4106-8547-A1F7A1EB23DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="316">
-  <si>
-    <t>Marca temporal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="315">
   <si>
     <t>Antes de comenzar la encuesta, es importante informarle que los datos proporcionados serán tratados de forma confidencial y utilizados únicamente para los fines del proyecto ELA4ATTRACT ¿Está de acuerdo con el tratamiento de sus datos para este propósito?</t>
   </si>
@@ -1907,9 +1904,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1975,7 +1969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1983,12 +1977,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2210,19 +2202,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="63" width="18.85546875" style="5" customWidth="1"/>
-    <col min="64" max="16384" width="12.5703125" style="5"/>
+    <col min="1" max="62" width="18.85546875" style="4" customWidth="1"/>
+    <col min="63" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2233,13 +2225,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>222</v>
@@ -2251,7 +2243,7 @@
         <v>224</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>227</v>
@@ -2263,16 +2255,16 @@
         <v>229</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>4</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -2281,10 +2273,10 @@
         <v>8</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>10</v>
@@ -2296,10 +2288,10 @@
         <v>12</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>14</v>
@@ -2335,10 +2327,10 @@
         <v>24</v>
       </c>
       <c r="AL1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>26</v>
@@ -2391,966 +2383,945 @@
       <c r="BD1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:57" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>45441.386124675926</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="4" t="s">
+    <row r="3" spans="1:57" ht="12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="E3" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN4" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO4" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ4" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS4" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT4" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AW4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BB4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD4" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM6" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN6" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ6" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AR6" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AS6" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE7" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>45449.659126099534</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>45442.385238391202</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>45443.65026149305</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AV5" s="7">
-        <v>0.39710000000000001</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>45475.813380277774</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>45470.624809907407</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW7" s="4" t="s">
+      <c r="AZ7" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AX7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BA7" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BB7" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BC7" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="BD7" s="4" t="s">
+      <c r="BD7" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="BE7" s="4" t="s">
+      <c r="BE7" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AF2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="W3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AF3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AU3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="V4" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
-    <hyperlink ref="W4" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
-    <hyperlink ref="Y4" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
-    <hyperlink ref="AL4" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
-    <hyperlink ref="AC5" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
-    <hyperlink ref="Y6" r:id="rId13" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
-    <hyperlink ref="AF6" r:id="rId14" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
-    <hyperlink ref="AL6" r:id="rId15" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
-    <hyperlink ref="V7" r:id="rId16" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
-    <hyperlink ref="W7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
-    <hyperlink ref="AC7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
-    <hyperlink ref="AF7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
+    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AB2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AE2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AE3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AT3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="U4" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
+    <hyperlink ref="V4" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
+    <hyperlink ref="X4" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
+    <hyperlink ref="AK4" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
+    <hyperlink ref="AB5" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
+    <hyperlink ref="X6" r:id="rId13" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
+    <hyperlink ref="AE6" r:id="rId14" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
+    <hyperlink ref="AK6" r:id="rId15" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
+    <hyperlink ref="U7" r:id="rId16" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
+    <hyperlink ref="V7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
+    <hyperlink ref="AB7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
+    <hyperlink ref="AE7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EFD8F-F141-4106-8547-A1F7A1EB23DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7FE04-05B4-41AD-97B7-47A60F49A411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="316">
+  <si>
+    <t>Marca temporal</t>
+  </si>
   <si>
     <t>Antes de comenzar la encuesta, es importante informarle que los datos proporcionados serán tratados de forma confidencial y utilizados únicamente para los fines del proyecto ELA4ATTRACT ¿Está de acuerdo con el tratamiento de sus datos para este propósito?</t>
   </si>
@@ -1904,6 +1907,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1969,7 +1975,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1977,10 +1983,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2202,19 +2210,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BE7"/>
+  <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="BI1" sqref="BI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="62" width="18.85546875" style="4" customWidth="1"/>
-    <col min="63" max="16384" width="12.5703125" style="4"/>
+    <col min="1" max="63" width="18.85546875" style="5" customWidth="1"/>
+    <col min="64" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:58" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2225,13 +2233,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>220</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>221</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>222</v>
@@ -2243,7 +2251,7 @@
         <v>224</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>227</v>
@@ -2255,16 +2263,16 @@
         <v>229</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>4</v>
+        <v>230</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>7</v>
@@ -2273,10 +2281,10 @@
         <v>8</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>231</v>
+        <v>9</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>10</v>
@@ -2288,10 +2296,10 @@
         <v>12</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>232</v>
+        <v>13</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>13</v>
+        <v>233</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>14</v>
@@ -2327,10 +2335,10 @@
         <v>24</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>25</v>
+        <v>234</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>26</v>
@@ -2383,945 +2391,954 @@
       <c r="BD1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="BE1" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP3" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD4" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="BE4" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE5" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+    </row>
+    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY2" s="3" t="s">
+      <c r="L6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AR6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AU6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AV6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB6" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="BC6" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BE6" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BA2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:57" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:57" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG4" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH4" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI4" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AJ4" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AL4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AM4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AN4" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX4" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="BD4" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:57" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU5" s="6">
-        <v>0.39710000000000001</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AL6" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM6" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="AN6" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AP6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AQ6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AR6" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AS6" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AU6" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="AV6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AW6" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX6" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="BA7" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="BE7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="BF7" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="AJ7" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="AL7" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AM7" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN7" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="AO7" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AP7" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="AQ7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AR7" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="AS7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="BA7" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="BC7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="BD7" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="BE7" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="X2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AB2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AE2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="V3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AE3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AT3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="U4" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
-    <hyperlink ref="V4" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
-    <hyperlink ref="X4" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
-    <hyperlink ref="AK4" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
-    <hyperlink ref="AB5" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
-    <hyperlink ref="X6" r:id="rId13" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
-    <hyperlink ref="AE6" r:id="rId14" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
-    <hyperlink ref="AK6" r:id="rId15" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
-    <hyperlink ref="U7" r:id="rId16" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
-    <hyperlink ref="V7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
-    <hyperlink ref="AB7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
-    <hyperlink ref="AE7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
+    <hyperlink ref="W2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AF2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="W3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AF3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AU3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V4" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
+    <hyperlink ref="W4" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
+    <hyperlink ref="Y4" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
+    <hyperlink ref="AL4" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
+    <hyperlink ref="AC5" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
+    <hyperlink ref="Y6" r:id="rId13" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
+    <hyperlink ref="AF6" r:id="rId14" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
+    <hyperlink ref="AL6" r:id="rId15" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
+    <hyperlink ref="V7" r:id="rId16" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
+    <hyperlink ref="W7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
+    <hyperlink ref="AC7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
+    <hyperlink ref="AF7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB7FE04-05B4-41AD-97B7-47A60F49A411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18437A83-C567-4124-904D-B532FEDC0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Antes de comenzar la encuesta, es importante informarle que los datos proporcionados serán tratados de forma confidencial y utilizados únicamente para los fines del proyecto ELA4ATTRACT ¿Está de acuerdo con el tratamiento de sus datos para este propósito?</t>
-  </si>
-  <si>
-    <t>Nombre completo de quién coordina el diligenciamiento de la encuesta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correo electrónico institucional </t>
   </si>
   <si>
     <t>Universidad</t>
@@ -1004,12 +998,6 @@
 - profundizando acciones e iniciativas entre departamentos y asociaciones estudiantiles y graduados/as.</t>
   </si>
   <si>
-    <t xml:space="preserve">Maria Alejandra Acosta Álvarez </t>
-  </si>
-  <si>
-    <t>mariaa.acosta@javeriana.edu.co</t>
-  </si>
-  <si>
     <t>Pontificia Universidad Javeriana</t>
   </si>
   <si>
@@ -1902,6 +1890,18 @@
     <t>Para todos los niveles educativos, gran parte de la matrícula nacional está concentrada en comunas urbanas (92,3%), mientras que la matrícula rural alcanza el 7,7% (MINEDUC, 2023)
 Fuente: https://centroestudios.mineduc.cl/2023/11/02/base-de-datos-matricula-oficial-2023-disponible/#:~:text=Hay%201.874.598%20hombres%20y,alcanza%20el%207%2C7%25.</t>
   </si>
+  <si>
+    <t>Nombre completo del responsable del diligenciamiento de la encuesta</t>
+  </si>
+  <si>
+    <t>Lope H. Barrero</t>
+  </si>
+  <si>
+    <t>lopehugo@javeriana.edu.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correo electrónico institucional del socio responsable </t>
+  </si>
 </sst>
 </file>
 
@@ -1910,7 +1910,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1942,6 +1942,14 @@
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1972,10 +1980,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1992,8 +2001,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2213,7 +2224,7 @@
   <dimension ref="A1:BF7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="BI1" sqref="BI1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2230,1092 +2241,1092 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AM1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="R2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="W2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AA2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AE2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AF2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="4" t="s">
+      <c r="AG2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AH2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AI2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="4" t="s">
+      <c r="AJ2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" s="4" t="s">
+      <c r="AM2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AK2" s="4" t="s">
+      <c r="AN2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AO2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="4" t="s">
+      <c r="AP2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AP2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AT2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AV2" s="4" t="s">
+      <c r="AX2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AW2" s="4" t="s">
+      <c r="AY2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="BA2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="BB2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="BB2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="W3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="Z3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AF3" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AG3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AH3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AM3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="AK3" s="4" t="s">
+      <c r="AN3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="AN3" s="4" t="s">
+      <c r="AP3" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="AQ3" s="4" t="s">
+      <c r="AS3" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="AS3" s="4" t="s">
+      <c r="AU3" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AW3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="AX3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="L4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="X4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="Z4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="AA4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AL4" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AM4" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AN4" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AP4" s="4" t="s">
+      <c r="AR4" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AU4" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AV4" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AW4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB4" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="BC4" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AW4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BD4" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>175</v>
-      </c>
     </row>
-    <row r="5" spans="1:58" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:58" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="N5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="R5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="S5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="T5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="U5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="X5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="Z5" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="AA5" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="AC5" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AE5" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AG5" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AC5" s="6" t="s">
+      <c r="AH5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AI5" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AJ5" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AN5" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AQ5" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AR5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AS5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AT5" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AU5" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="AV5" s="7">
         <v>0.39710000000000001</v>
       </c>
       <c r="AW5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD5" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AX5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="BE5" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="4" t="s">
+      <c r="Y6" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="Z6" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="AC6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AF6" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AG6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AL6" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AM6" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AN6" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AP6" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AR6" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AU6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AV6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX6" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AY6" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AR6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="BC6" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AV6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AX6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AY6" s="4" t="s">
+      <c r="BE6" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="J7" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>315</v>
-      </c>
       <c r="O7" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="V7" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="W7" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="Z7" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="AA7" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="AB7" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="AC7" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="AD7" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AE7" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AF7" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AG7" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AH7" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="AF7" s="6" t="s">
+      <c r="AJ7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK7" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AM7" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AN7" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AR7" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AS7" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="AP7" s="4" t="s">
+      <c r="AT7" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AU7" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="AR7" s="4" t="s">
+      <c r="AV7" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AW7" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AX7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA7" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="AU7" s="4" t="s">
+      <c r="BB7" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="BC7" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="AW7" s="4" t="s">
+      <c r="BD7" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="AX7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BE7" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BF7" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -3339,6 +3350,7 @@
     <hyperlink ref="W7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
     <hyperlink ref="AC7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
     <hyperlink ref="AF7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
+    <hyperlink ref="D5" r:id="rId20" xr:uid="{57D62C1D-393D-435A-9A1B-0D02167BBBBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18437A83-C567-4124-904D-B532FEDC0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD256061-B882-4DB5-8560-A7433E0F7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="502">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1063,18 +1064,6 @@
 Fuente: Base de datos Secretaría facultad de ingeniería 2024</t>
   </si>
   <si>
-    <t>-  Tasa de deserción en general (interanual de 4 a 5 años):
-Bioingeniería: 27.71%
-Ing Redes y Telecomunicaciones: 50.00%
-Ingeniería Civil: 33.38%
-Ingeniería de Sistemas: 28.16%
-Ingeniería Electrónica: 38.25%
-Ingeniería Industrial: 26.59%
-Ingeniería Mecánica: 19.28%
-Ingeniería Mecatrónica: 18.09%
-Fuente: Base de datos Secretaría facultad de ingeniería 2024</t>
-  </si>
-  <si>
     <t>Colegios públicos: 13%
 Colegios privados: 83%
 Extranjeros: 2%
@@ -1205,9 +1194,6 @@
 Fuente: DIRECCIÓN DE MERCADEO DE PROGRAMAS ACADÉMICOS</t>
   </si>
   <si>
-    <t>Si. Dentro de los recorridos del edificio de ingeniería, se hace un recorrido por laboratorios de aproximadamente 2 a 4 horas en las cuales se hacen talleres que les permitan interactuar con utensilios y tecnologías del laboratorio. Estas actividades son para niños de cualquier edad desde pequeños hasta de mayor edad.</t>
-  </si>
-  <si>
     <t>No hay definidas ayudas financieras para exclusivamente carrera STEM, nuestras becas aplican para todos los programas de pregrado y posgrado que ofrece la Universidad, los cuales son aprobadas por la Vicerrectoría Académica para estudiantes con excelentes rendimientos académicos y el comité de Rectoría para las becas por evaluación socioeconómicas, culturares, grupos étnicos entre otros. 
 Becas:
 -Bachiller Destacado: la Pontificia Universidad Javeriana semestralmente asigna once (11) Becas Bachiller Destacado por el 80% del valor de la matrícula, a través de convocatorias que se llevan a cabo. 
@@ -1224,23 +1210,6 @@
 Total de estudiantes con descuentos: 470
 Total estudiantes con apoyos: 853
 Porcentaje del total de estudiantes con apoyos: 29,7%</t>
-  </si>
-  <si>
-    <t>Por excelencia académica, por necesidad económica, becas y apoyo por movilidad, estímulos financieros, apoyos para estudiantes de grupos étnicos y becas de fondos externos (auxilio alimentario y de sostenimiento).</t>
-  </si>
-  <si>
-    <t>Las estrategias para divulgación y promoción de los programas de pregrado y posgrado son manejados por la Dirección de Mercadeo de la Universidad, a continuación relaciono el enlace donde encontrará el portafolio de servicios de dicha dirección:
-https://intranet.javeriana.edu.co/web/vicerrectoria-academica/direccion-de-mercadeo-de-programas-academicos</t>
-  </si>
-  <si>
-    <t>Para la deserción hay 3 categorías:
-1. Retiros voluntarios.
-2. Obligatorios por rendimiento académico que se puede dar por:
-    - Estar 3 semestres consecutivos en prueba académica (promedio ponderado 
-      por debajo del pedido por carrera).
-    - Por acatos disciplinarios.
-3. Retiros por estar 4 semestres consecutivos son formalizar matrícula sin 
-    ningún tipo de aviso</t>
   </si>
   <si>
     <t>SATIS (Sistema de Alertas Tempranas, Intervención y Seguimiento)
@@ -1335,55 +1304,7 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">4b- En su país ¿Cuál es la distribución porcentual (%) por ingreso familiar de los estudiantes en la educación media? Considere los siguientes grupos predefinidos: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Menos de 1 salario mínimo legal vigente/ Entre 2 y 5 salarios mínimos legales vigentes/ Entre 6 y 10  salarios mínimos legales vigentes/ Más de 10 salarios mínimos legales vigentes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t>7- ¿Cuáles son las tasas de deserción, discriminadas por género (hombre/mujer), en las carreras STEM que ofrece su universidad?  Por favor, proporcione las tasas de deserción de la siguiente manera: Tasa de deserción en el primer año/ Tasa de deserción en general</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11- Indique el porcentaje de estudiantes de pregrado, según su edad. Considere los siguientes grupos de edades predefinidos: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-      </rPr>
-      <t>16 años o menos/ 17 años/ 18 años/ 19 años o más</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Aptos Display"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>13- ¿Cuáles son los resultados más destacados de su universidad en cuanto al aumento de interés de los estudiantes en carreras STEM por actividades organizadas y realizadas en conjunto con los colegios? Para responder a esta pregunta tenga en cuenta:
@@ -1661,16 +1582,6 @@
 Fuente: Anuario 2019-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">Para esta encuesta estaremos considerando la información correspondiente a la Escuela de Ingeniería de la UC. Actualmente hay dos programas de pregrado, Licenciatura en Ciencias de la Ingeniería y Licenciatura en Ciencias de la Computación.  
-En la Escuela de Ingeniería hay 5.042 matriculados (hombres y mujeres) (2020, Anuario Oficial) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de deserción se cuenta como porcentaje de estudiantes que se encuentran no vigentes por: 
-- Renuncia , Abandono , Rendimiento académico 
-A la fecha, el porcentaje de deserción de Ingeniería es de 3.2%. El abandono se da mayoritariamente en segundo año, momento donde se produce una migración saliente desde ingeniería. En términos de género, la deserción femenina corresponde a un 36% de la deserción total. Este valor se mantiene constante en el tiempo si ampliamos el análisis a años anteriores a régimen de continuidad). 
-Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
-  </si>
-  <si>
     <t xml:space="preserve">El modelo chileno de educación secundaria considera tres grandes grupos de colegios: 
 - Colegios de administración pública: 12.10% (2024) 
 - Colegios particulares con subvención pública: 19.98% (2024) 
@@ -1680,10 +1591,6 @@
 Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
   </si>
   <si>
-    <t xml:space="preserve">En la carrera de Licenciatura en Ciencias de la Ingeniería, para el año 2024, 23.94% son de regiones distintas a la Metropolitana de Santiago. Para la Licenciatura en Ciencias de la Computación, para el año 2024%, 17.92% son de regiones distintas a Santiago.  
-Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
-  </si>
-  <si>
     <t xml:space="preserve">16 años o menos: 0.2%
 17 años: 0.8%
 18 años: 13.6%
@@ -1695,19 +1602,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1Yb3YmosFcBEFGa4Z15TRqccQYCWpvbDv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1- SaviaLab
-Tipo de Actividad: Taller formativo
-Link: https://savialab.fia.cl/
-Organización y realización: Diseñado y ejecutado por la Universidad Católica de Chile, desde la unidad académica DILAB, con financiamiento de la Fundación para la Innovación Agraria (FIA) de Chile.
-Descripción: SaviaLab ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos. Dirigido a profesores de liceos rurales, el programa capacita a desarrollar proyectos innovadores con estudiantes de enseñanza media.
-2- Interescolar Descifra
-Link: https://www.redcrecemos.cl/colegios/dagoberto-godoy-lo-prado/noticias/tdg-lo-prado-participa-en-torneo-interescolar-descifra-orientado-a
-Tipo de Actividad: Torneo competitivo
-Organización y realización: Diseñado por Fundación Enseña Chile, con apoyo logístico y ejecución de la Universidad Católica de Chile desde la subdirección de Preingeniería.
-Descripción: Interescolar Descifra es un torneo competitivo que fomenta la colaboración y el pensamiento crítico entre estudiantes de enseñanza media. Los desafíos en equipo integran conocimientos teóricos para encontrar soluciones innovadoras.
-</t>
   </si>
   <si>
     <t xml:space="preserve">Entre todos los programas y actividades concretas que organiza la Escuela de Ingeniería en conjunto con colegios, se ha podido observar que en 2023 había 11 estudiantes matriculados que fueron a estos programas, mientras que en 2024 esta cifra aumentó a 62. Aún no se han hecho estudios de cuántos estudiantes han logrado graduarse y cuantos siguen estudiando.  </t>
@@ -1747,23 +1641,7 @@
     <t xml:space="preserve">Página web (https://ing.uc.cl), Instagram, Linkedin, Facebook y youtube. </t>
   </si>
   <si>
-    <t>Sin información</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aún no hay análisis del éxito del uso de redes sociales y/u otros medios de comunicación y sus efectos en el aumento de interés en carreras de STEM.  </t>
-  </si>
-  <si>
-    <t>Estas son las becas y oportunidades de financiamiento para estudiantes que desean estudiar en la UC, para todas las carreras.
-Gratuidad: Beneficio total de matrícula y arancel para estudiantes del 60% de menores ingresos.
-Becas de Arancel: Apoyo económico del Ministerio de Educación, como la Beca Bicentenario.
-Créditos Universitarios: Préstamos que cubren hasta el 100% del costo de estudios.
-Pase Escolar: Subsidio en transporte público mediante tarjeta estudiantil.
-Becas Junaeb: Apoyo para gastos relacionados con estudios universitarios.
-Premio a la Excelencia Académica: Reconocimiento al mérito académico con cobertura parcial o total del arancel.
-Beca Cardenal Raúl Silva Henríquez: Apoyo para alumnos del 7º decil que no acceden a Gratuidad.
-Beca Cristóbal Conde: Ayuda a estudiantes destacados académicamente con necesidad de financiamiento.
-Beca Complementaria Endowment UC: Cubre parte de la brecha entre el arancel oficial y el de referencia para familias vulnerables.
-Beca de Residencia: Financiamiento de residencia en Santiago para estudiantes de regiones con alta necesidad socioeconómica.</t>
   </si>
   <si>
     <t xml:space="preserve">El porcentaje de estudiantes que cursan ingeniería y están con algún tipo de financiamiento corresponde al 29.2%. De estos, el 61.2% pertenece a grupos subrepresentación por ingreso socioeconómico. Un supuesto importante dentro de esta población es que se asume que dentro de este grupo existe interseccionalidad de categorías de subrepresentación.
@@ -1772,10 +1650,6 @@
 Desplazados o movilizados (extranjeros con visa en tramite): 27 estudiantes
 Ingreso económico bajo: 384 estudiantes
 Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El principal criterio es socioeconómico, en base a la inscripción oportuna de los estudiantes en el Formulario Único de Acreditación Socioeconómica. El criterio secundario es el rendimiento semestral que reportan las Facultades.
-Fuente: Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
   </si>
   <si>
     <t>- Academia STEM: Cursos prácticos y de exploración científico-tecnológica para escolares en los que se trabajan temáticas como la inteligencia artificial, robótica, programación, ingeniería gastronómica, entre muchos otros.
@@ -1785,13 +1659,6 @@
 - Bootcamp STEM Docente UC: Cursos de integración de conocimientos desde la ciencia, tecnología y matemáticas en temáticas como la Inteligencia artificial, robótica, toma de decisión para el aula basada en datos, entre otros para docentes de colegios, liceos e instituciones secundarias.
 - Charlas en liceos y colegios: Realizamos charlas divulgativas para dar a conocer Ingeniería UC: malla curricular, vías de admisión, grados académicos, posibilidades de internacionalización, apoyos y beneficios y vida universitaria, en los establecimientos educacionales.
 - Visiting: Visitas desde colegios y liceos al Campus UC. Desde la malla curricular, vías de admisión, grados académicos, posibilidades de internacionalización apoyos y beneficios hasta la vida universitaria escolares podrán conocer más sobre Ingeniería UC en sesiones divulgativas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La tasa de deserción (considerando las tres categorías) es de 8%, de los cuales 78% renunciaron a Ingeniería (por motivos vocacionales), 6% no tuvieron rendimiento académico suficiente, y 16% abandonaron (es decir, no informaron a la universidad de su retiro). 
-La UC tiene la siguiente clasificación para conocer la deserción académica:  
-- No vigencia por abandono: corresponde a estudiantes que no informan a la Universidad de su situación de no continuar en la carrera. En tal caso, quedan vetados de postular nuevamente a universidades del Consejo de Rectores de Universidades Chilenas. No es un caso frecuente de abandono. 
-- No vigente por renuncia: Corresponde a estudiantes que informan a la universidad de no continuar estudios en la carrera. La mayor proporción es por vocación. 
-- No vigente por rendimiento académico: Estudiantes que no cumplieron con aprobación suficiente para continuar en Ingeniería. </t>
   </si>
   <si>
     <t xml:space="preserve">Existen los siguientes programas de acompañamiento para estudiantes. Estos están organizados y manejados por distintas direcciones de la Escuela de Ingeniería, incluyendo la Dirección de Pregrado, Bienestar, Mujeres y Pre Ingeniería.
@@ -1902,6 +1769,915 @@
   <si>
     <t xml:space="preserve">Correo electrónico institucional del socio responsable </t>
   </si>
+  <si>
+    <t>Tasa de deserción en general (interanual de 4 a 5 años):
+Bioingeniería: 27.71%
+Ing Redes y Telecomunicaciones: 50.00%
+Ingeniería Civil: 33.38%
+Ingeniería de Sistemas: 28.16%
+Ingeniería Electrónica: 38.25%
+Ingeniería Industrial: 26.59%
+Ingeniería Mecánica: 19.28%
+Ingeniería Mecatrónica: 18.09%
+                                                                                                                                                                                                                                                                                                                                                                       Nuestra universidad no cuenta actualmente con información específica sobre la tasa de deserción en el primer año. Estamos trabajando en obtener estos datos y los compartiremos tan pronto como estén disponibles. Sin embargo, los datos no son del primer año, sino para el primer semestre, y se llama “de abandono” en la Javeriana.
+Fuente: Base de datos Secretaría facultad de ingeniería 2024</t>
+  </si>
+  <si>
+    <t>Si. Dentro de los recorridos del edificio de ingeniería, se hace un recorrido por laboratorios de aproximadamente 2 a 4 horas en las cuales se hacen talleres que les permitan interactuar con utensilios y tecnologías del laboratorio. Estas actividades son para niños de cualquier edad desde pequeños hasta de mayor edad. Se envían invitaciones a colegios que quieran la experiencia, y se programa con anticipación la experiencia a demanda. En algunas ocasiones, los profesores de los colegios piden que las actividades tengan foco en unos temas particulares, por ejemplo, sostenibilidad. La experiencia puede ser para grupos pequeños (ejemplo, 10-20 estudiantes), pero hemos hecho hasta para 120 estudiantes. Los temas son diversos incluyendo, por ejemplo, microbiología, análisis de estructuras, sísmica, análisis de aguas, transformación de energía, biomecánica, robótica, entre otras.</t>
+  </si>
+  <si>
+    <t>Por excelencia académica, por necesidad económica, becas y apoyo por movilidad, estímulos financieros, apoyos para estudiantes de grupos étnicos y becas de fondos externos (auxilio alimentario y de sostenimiento). Los criterios de selección para otorgar cada una de las becas y/o apoyos financieros en nuestra universidad la puedes consultar en el siguiente enlace donde se detalla cada uno de ellos becas.javeriana.edu.co/estudiantes, y actualmente no se consideren criterios específicos de género.</t>
+  </si>
+  <si>
+    <t>Las estrategias para divulgación y promoción de los programas de pregrado y posgrado son manejados por la Dirección de Mercadeo de la Universidad. Para divulgar y promocionar los apoyos financieros, utilizamos diversos canales como nuestra página web pública, boletines informativos, y eventos informativos presenciales y virtuales. Aquí se detalla el contenido del portafolio de servicios:
+      Portafolio de Servicios
+La Javeriana cuenta con un amplio portafolio de servicios de información, acompañamiento y asesoría, que responde a las necesidades que tienen aspirantes, sus familias y colegios en el proceso de selección de carrera y universidad. Teniendo en cuenta que este no es un proceso lineal, sino que se da en distintos momentos con diferentes necesidades de información y acompañamiento, la oferta incluida en el portafolio consta de una serie de actividades complementarias distribuidas en los siguientes ejes:
+Esta es tu Universidad: Eligiendo la Javeriana
+Este espacio busca que los aspirantes, padres de familia, directivos y profesores de los colegios tengan un acercamiento directo con la Javeriana y conozcan los programas académicos, los perfiles de ingreso, los campos de desempeño profesional y el ambiente universitario, como insumos para el proceso de toma de decisión sobre la carrera y la universidad. Para lograr este objetivo la Dirección de Mercadeo pone a disposición las siguientes actividades:
+Expojaveriana.
+Visitas guiadas en la Universidad.
+Ferias Universitarias en colegios de Bogotá y regiones.
+Exposiciones temáticas por áreas de conocimiento.
+Encuentros con directivos de colegios.
+Apoyo a colegios en el proceso de admisión.
+Eventos en la Javeriana por áreas del conocimiento.
+Acompañamiento a Aspirantes
+Como apoyo a los jóvenes y padres de familia que están en el proceso de búsqueda de carrera y universidad, se pone a disposición este servicio que ofrece acompañamiento de egresados javerianos, con base en su propia experiencia y proporcionan herramientas para reflexionar sobre la opción vocacional.
+Centro de Atención a Aspirantes:
+Es un punto de atención físico en la Universidad que ofrece el servicio de información personalizada, para todos los que requieran apoyo para su proceso de toma de decisión de carrera y de universidad o apoyo en el proceso de inscripción. La atención puede ser de manera presencial, en jornada continua de lunes a viernes de 8:00 a.m. a 5:00 p.m. en las instalaciones de la Universidad, o de manera virtual agendando el espacio de acuerdo con la disponibilidad de agenda.
+UCollege Javeriano: UCollege Javeriano es un programa que permitirá explorar los intereses profesionales de los aspirantes para identificar y avanzar en un proyecto de vida académico. El aspirante podrá desarrollar sus competencias y habilidades para una mejor adaptación a la vida universitaria preparándolo para la admisión a la oferta de pregrados de la Javeriana.
+Validación de Asignaturas
+La Universidad Javeriana ofrece la opción de validación de algunas asignaturas para los estudiantes procedentes de Colegios de Bachillerato Internacional (IB), colegios con programa de Educación Internacional de la Universidad de Cambridge, colegios suizos que hayan presentado la Matura, colegios con afiliación al College Board a través del Advanced Placement (AP), colegios alemanes que hayan presentado el examen ABITUR y del Colegio Italiano Leonardo Da Vinci.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para la deserción hay 3 categorías:
+1. Retiros voluntarios.
+2. Obligatorios por rendimiento académico que se puede dar por:
+    - Estar 3 semestres consecutivos en prueba académica (promedio ponderado 
+      por debajo del pedido por carrera).
+    - Por acatos disciplinarios.
+3. Retiros por estar 4 semestres consecutivos son formalizar matrícula sin 
+    ningún tipo de aviso           
+                                                                                                                                                                                                                                                                                                                                                                                Además de las categorías mencionadas, algunas razones específicas que manifiestan directamente los estudiantes incluyen dificultades económicas, falta de adaptación al ambiente universitario, y problemas personales o familiares. Estas razones son comunes entre nuestra comunidad estudiantil.                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para esta encuesta estaremos considerando la información correspondiente a la Escuela de Ingeniería de la UC. Actualmente hay dos programas de pregrado, Licenciatura en Ciencias de la Ingeniería y Licenciatura en Ciencias de la Computación.  
+•	5402 – Estudiantes en la carrera de Ingeniería Civil (Licenciatura en Ciencias de la Ingeniería)
+•	175 – Estudiantes en la carrera de Licenciatura en Ciencias de la Computación
+•	Total: 5577 estudiantes (2024) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de deserción se cuenta como porcentaje de estudiantes que se encuentran no vigentes por: 
+- Renuncia , Abandono , Rendimiento académico 
+A la fecha, el porcentaje de deserción de Ingeniería es de 3.2%. El abandono se da mayoritariamente en segundo año, momento donde se produce una migración saliente desde ingeniería. En términos de género, la deserción femenina corresponde a un 36% de la deserción total. Este valor se mantiene constante en el tiempo si ampliamos el análisis a años anteriores a régimen de continuidad). 0.7% de estudiantes abandonan la carrera en el primer año, considerando el total de estudiantes matriculados desde el año 2013.
+Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la carrera de Licenciatura en Ciencias de la Ingeniería, para el año 2024, 23.94% son de regiones distintas a la Metropolitana de Santiago. Para la Licenciatura en Ciencias de la Computación, para el año 2024%, 17.92% son de regiones distintas a Santiago. Es importante resaltar que, el porcentaje restante corresponde a estudiantes que provienen de Santiago.
+Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t>1- SaviaLab
+Tipo de Actividad: Taller formativo
+Link: https://savialab.fia.cl/
+Organización y realización: Diseñado y ejecutado por la Universidad Católica de Chile, desde la unidad académica DILAB, con financiamiento de la Fundación para la Innovación Agraria (FIA) de Chile.
+Descripción: SaviaLab ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos. Dirigido a profesores de liceos rurales, el programa capacita a desarrollar proyectos innovadores con estudiantes de enseñanza media.
+Frecuencia: clases semanales entre abril y octubre en cada colegio participante, complementado con eventos presenciales en la Universidad.
+Comunicación: invitación por correo directa a directores de liceos con currículum técnico profesional agropecuario o científico humanista en entornos rurales.
+2- Interescolar Descifra
+Link: https://www.redcrecemos.cl/colegios/dagoberto-godoy-lo-prado/noticias/tdg-lo-prado-participa-en-torneo-interescolar-descifra-orientado-a
+Tipo de Actividad: Torneo competitivo
+Organización y realización: Diseñado por Fundación Enseña Chile, con apoyo logístico y ejecución de la Universidad Católica de Chile desde la subdirección de Preingeniería.
+Descripción: Interescolar Descifra es un torneo competitivo que fomenta la colaboración y el pensamiento crítico entre estudiantes de enseñanza media. Los desafíos en equipo integran conocimientos teóricos para encontrar soluciones innovadoras.
+Frecuencia: una vez al año
+Comunicación: difusión interna por Red Enseña Chile, por sus canales de comunicación.</t>
+  </si>
+  <si>
+    <t>No hay restricciones de plataforma, se pueden usar todas las plataformas disponibles para la difusión y comunicación.</t>
+  </si>
+  <si>
+    <t>No se han implementado Living Labs.</t>
+  </si>
+  <si>
+    <t>Estas son las becas y oportunidades de financiamiento para estudiantes que desean estudiar en la UC, para todas las carreras:
+o	Gratuidad: beneficio que cubre el total de matrícula y arancel para estudiantes del 60% de menores ingresos.
+o	Créditos Universitarios: préstamos que cubren hasta el 100% del costo de estudios.
+o	Pase Escolar: subsidio en transporte público mediante tarjeta estudiantil. Cubre el 73% del costo de transporte para todos los estudiantes de la educación media y superior.
+o	Becas Junaeb: apoyo para gastos relacionados con estudios universitarios. Hay dos tipos de Junaeb; la beca de alimentación que es de 45.000 CLP mensuales, y la beca de mantención que tiene un valor de 195.600 CLP mensuales.
+o	Premio a la Excelencia Académica: reconocimiento al mérito académico con cobertura parcial o total del arancel.
+o	Beca Cardenal Raúl Silva Henríquez: apoyo para alumnos del 7º decil que no acceden a Gratuidad. Cubre el total de arancel.
+o	Beca Cristóbal Conde: ayuda a estudiantes destacados académicamente con necesidad de financiamiento. Cubre como máximo la brecha entre el arancel oficial y el de referencia para familias vulnerables.
+o	Beca Complementaria Endowment UC: cubre parte de la brecha entre el arancel oficial y el de referencia para familias vulnerables.
+o	Beca de Residencia: financiamiento de residencia en Santiago para estudiantes de regiones con alta necesidad socioeconómica. Los valores de la beca pueden variar caso a caso considerando factores como precio de la residencia, etc.
+o	Matrícula de Honor: extensión parcial del arancel de matrícula para estudiantes con el mejor rendimiento académico de su major y cohorte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	El principal criterio que se evalúa es socioeconómico, en base a la inscripción oportuna de los estudiantes en el Formulario Único de Acreditación Socioeconómica dependiente del Ministerio de Educación. El criterio secundario es el rendimiento semestral que reportan las Facultades, que tiene en cuenta las notas y PPA de los estudiantes.
+•	No existen oportunidades de financiamiento específicas para mujeres.
+Fuente: Fuente: Dirección de Compromiso Público, Comunidad y Diversidad (Escuela de Ingeniería) </t>
+  </si>
+  <si>
+    <t>La tasa de deserción (considerando las tres categorías) es de 8%, de los cuales 78% renunciaron a Ingeniería (por motivos vocacionales), 6% no tuvieron rendimiento académico suficiente, y 16% abandonaron (es decir, no informaron a la universidad de su retiro).  Los estudiantes al momento de abandonar la carrera no registran motivos ni razones de su decisión, por lo que no se cuenta con esta información.
+La UC tiene la siguiente clasificación para conocer la deserción académica:  
+- No vigencia por abandono: corresponde a estudiantes que no informan a la Universidad de su situación de no continuar en la carrera. En tal caso, quedan vetados de postular nuevamente a universidades del Consejo de Rectores de Universidades Chilenas. No es un caso frecuente de abandono. 
+- No vigente por renuncia: Corresponde a estudiantes que informan a la universidad de no continuar estudios en la carrera. La mayor proporción es por vocación. 
+- No vigente por rendimiento académico: Estudiantes que no cumplieron con aprobación suficiente para continuar en Ingeniería.                                                                                                                           Los estudiantes al momento de abandonar la carrera no registran motivos ni razones de su decisión, por lo que no se cuenta con esta información.</t>
+  </si>
+  <si>
+    <t>Karen Hansen</t>
+  </si>
+  <si>
+    <t>karen.hansen@uchile.cl</t>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Primaria Completa: Un porcentaje significativo de madres tiene solo educación primaria completa, especialmente en sectores rurales o de menores ingresos. Este grupo representa aproximadamente un 15-20%​ (Biblioteca Digital Mineduc)​​ (Biblioteca Digital Mineduc)​.
+Bachillerato Completo: Muchas madres completan la educación media, y este nivel educativo es bastante común. Este grupo puede constituir alrededor del 30-40%​ (Biblioteca Digital Mineduc)​​ (Biblioteca Digital Mineduc)​.
+Técnico o Tecnólogo Completo: La educación técnica es popular en Chile, y un porcentaje considerable de madres tiene este nivel educativo. Este grupo podría representar aproximadamente un 15-25%​ (Biblioteca Digital Mineduc)​.
+Licenciatura o Grado Universitario Completo: Un porcentaje menor de madres tiene un grado universitario completo. Este porcentaje se estima entre el 15-25%​ (Biblioteca Digital Mineduc)​​ (DataSocial)​.
+Posgrado o Maestría Completo: Este es el grupo más pequeño, dado que el acceso a estudios de posgrado es más limitado. Este porcentaje puede estar en el rango del 5-10%​ (DataSocial)
+Fuentes: https://datasocial.ministeriodesarrollosocial.gob.cl/fichaIndicador/614/2</t>
+  </si>
+  <si>
+    <t>Primaria Completa: Un porcentaje significativo de padres tiene solo educación primaria completa, especialmente en sectores más vulnerables. Este grupo representa aproximadamente un 15-20% de los padres.
+Bachillerato Completo: Muchos padres completan la educación media, siendo este un nivel educativo común. Este grupo puede constituir alrededor del 30-40%.
+Técnico o Tecnólogo Completo: La educación técnica es bastante popular en Chile, y un número considerable de padres tiene este nivel educativo. Este grupo podría representar aproximadamente un 15-25%.
+Licenciatura o Grado Universitario Completo: Un porcentaje menor de padres tiene un grado universitario completo. Este porcentaje se estima entre el 15-25%.
+Posgrado o Maestría Completo: Este es el grupo más pequeño, ya que el acceso a estudios de posgrado es más limitado. Este porcentaje puede estar en el rango del 5-10%.
+Fuente: Ministerio de Educación de Chile y la Encuesta CASEN​ (Centro Estudios Mineduc)</t>
+  </si>
+  <si>
+    <t>Grupo étnico: Aproximadamente el 11% de los estudiantes en educación media se identifican como parte de algún grupo étnico, siendo los pueblos indígenas los más representativos.
+Discapacitados o con capacidades excepcionales: Cerca del 1.5% de los estudiantes tienen algún tipo de discapacidad registrada oficialmente. Este grupo incluye discapacidades físicas, sensoriales, intelectuales y del desarrollo.
+Desplazada o desmovilizado: No hay datos específicos sobre estudiantes desplazados o desmovilizados en el contexto educativo chileno disponible en las fuentes revisadas.
+Ingreso económico bajo: Alrededor del 60% de los estudiantes en educación media pertenecen a familias de ingreso económico bajo, ubicados en el primer y segundo quintil de ingresos.
+Fuentes: Fundación Con Trabajo: https://fundacioncontrabajo.cl/blog/cultura-inclusiva/discapacidad-en-chile/ ; MINEDUC https://www.mineduc.cl/mineduc-presenta-las-cifras-oficiales-de-asistencia-y-desvinculacion-2023-y-avances-en-las-medidas-para-la-reactivacion-educativa/ ; SENADIS https://senadis.gob.cl/sala_prensa/d/noticias/8932/iii-estudio-nacional-de-la-discapacidad-de-senadis-establece-que-el-191-de-la-poblacion-adulta-presenta-discapacidad-en-la-region-metropolitana</t>
+  </si>
+  <si>
+    <t>Menos de 1 salario mínimo legal vigente: Alrededor del 20% de los estudiantes de educación media pertenecen a familias que ganan menos de un salario mínimo.
+Entre 2 y 5 salarios mínimos legales vigentes: Este grupo representa aproximadamente el 50% de los estudiantes de educación media. La mayoría de los estudiantes proviene de familias con ingresos en este rango, lo que refleja una distribución concentrada en los quintiles medios y bajos.
+Entre 6 y 10 salarios mínimos legales vigentes: Un 20% de los estudiantes de educación media provienen de familias con ingresos entre 6 y 10 salarios mínimos. Este grupo incluye a familias de ingresos medios-altos.
+Más de 10 salarios mínimos legales vigentes: Aproximadamente el 10% de los estudiantes de educación media pertenecen a familias con ingresos superiores a 10 salarios mínimos, situándose en los quintiles más altos de ingresos.
+Fuentes: Centro de Estudios Mineduc, https://escolar.mineduc.cl/media/; Biblioteca Digital Mineduc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mujer: 19778
+Hombre: 17759
+Fuente: Datos internos Departamento de Pregrado
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARRERA  								MUJER		HOMBRE
+BIOLOGÍA CON MENCIÓN EN MEDIO AMBIENTE	164	85
+BIOQUÍMICA	193	167
+GEOLOGÍA	106	130
+INGENIERÍA AGRONÓMICA	281	404
+INGENIERÍA CIVIL	90	207
+INGENIERÍA CIVIL DE MINAS	25	52
+INGENIERÍA CIVIL ELÉCTRICA	82	408
+INGENIERÍA CIVIL EN BIOTECNOLOGÍA	65	57
+INGENIERÍA CIVIL EN COMPUTACIÓN	112	542
+INGENIERÍA CIVIL INDUSTRIAL	259	479
+INGENIERÍA CIVIL MATEMÁTICA	32	152
+INGENIERÍA CIVIL MECÁNICA	49	215
+INGENIERÍA CIVIL QUÍMICA	71	72
+INGENIERÍA EN ALIMENTOS	143	63
+INGENIERÍA EN BIOTECNOLOGÍA MOLECULAR	162	127
+INGENIERÍA EN RECURSOS HÍDRICOS	21	36
+INGENIERÍA EN RECURSOS NATURALES RENOVABLES	257	227
+INGENIERÍA EN SONIDO	35	165
+INGENIERÍA FORESTAL	174	161
+INGENIERÍA Y CIENCIAS  PLAN COMÚN	1123	2218
+LIC. EN CIENCIAS MENCIÓN BIOLOGÍA	49	58
+LIC. EN CIENCIAS MENCIÓN FÍSICA	27	116
+LIC. EN CIENCIAS MENCIÓN MATEMÁTICAS	23	71
+LIC. EN CIENCIAS MENCIÓN QUÍMICA	29	34
+LICENCIATURA EN CIENCIAS	18	45
+QUÍMICA	94	151
+QUÍMICA AMBIENTAL	86	64
+QUÍMICA Y FARMACIA	575	552
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No tenemos la tasa de retención separada por género
+Tasa de Retención 1° Año
+BIOLOGÍA CON MENCIÓN EN MEDIO AMBIENTE	83,72 %
+BIOQUÍMICA	92,73 %
+GEOLOGÍA	91,86 %
+INGENIERÍA AGRONÓMICA	84,42 %
+INGENIERÍA CIVIL	91,86%
+INGENIERÍA CIVIL DE MINAS	91,86%
+INGENIERÍA CIVIL ELÉCTRICA	91,86%
+INGENIERÍA CIVIL EN BIOTECNOLOGÍA	91,86%
+INGENIERÍA CIVIL EN COMPUTACIÓN	91,86%
+INGENIERÍA CIVIL INDUSTRIAL	91,86%
+INGENIERÍA CIVIL MATEMÁTICA	91,86%
+INGENIERÍA CIVIL MECÁNICA	91,86%
+INGENIERÍA CIVIL QUÍMICA	91,86%
+INGENIERÍA EN ALIMENTOS	94,12 %
+INGENIERÍA EN BIOTECNOLOGÍA MOLECULAR	93,48 %
+INGENIERÍA EN RECURSOS HÍDRICOS	CARRERA NUEVA
+INGENIERÍA EN RECURSOS NATURALES RENOVABLES	84,62 %
+INGENIERÍA EN SONIDO	79,07 %
+INGENIERÍA FORESTAL	82,05 %
+INGENIERÍA Y CIENCIAS  PLAN COMÚN	91,86%
+LIC. EN CIENCIAS MENCIÓN BIOLOGÍA	78,79%
+LIC. EN CIENCIAS MENCIÓN FÍSICA	87,88 %
+LIC. EN CIENCIAS MENCIÓN MATEMÁTICAS	73,08 %
+LIC. EN CIENCIAS MENCIÓN QUÍMICA	68,75 %
+QUÍMICA	81,82 %
+QUÍMICA AMBIENTAL	92,86 %
+QUÍMICA Y FARMACIA	91,08 %
+NO ENTIENDO QUE QUIERE DECIR DESERCIÓN GENERAL, HASTA QUÉ AÑO ES GENERAL? Aquí va la retención hasta el 3° año.
+BIOLOGÍA CON MENCIÓN EN MEDIO AMBIENTE	73.8 %
+BIOQUÍMICA	72.2 %
+GEOLOGÍA	85.1 %
+INGENIERÍA AGRONÓMICA	76.1 %
+INGENIERÍA CIVIL	85.1%
+INGENIERÍA CIVIL DE MINAS	85.1%
+INGENIERÍA CIVIL ELÉCTRICA	85.1%
+INGENIERÍA CIVIL EN BIOTECNOLOGÍA	85.1%
+INGENIERÍA CIVIL EN COMPUTACIÓN	85.1%
+INGENIERÍA CIVIL INDUSTRIAL	85.1%
+INGENIERÍA CIVIL MATEMÁTICA	85.1%
+INGENIERÍA CIVIL MECÁNICA	85.1%
+INGENIERÍA CIVIL QUÍMICA	85.1%
+INGENIERÍA EN ALIMENTOS	62.5 %
+INGENIERÍA EN BIOTECNOLOGÍA MOLECULAR	75 %
+INGENIERÍA EN RECURSOS HÍDRICOS	CARRERA NUEVA
+INGENIERÍA EN RECURSOS NATURALES RENOVABLES	79.6 %
+INGENIERÍA EN SONIDO	63.6 %
+INGENIERÍA FORESTAL	57.1 %
+INGENIERÍA Y CIENCIAS  PLAN COMÚN	85.1%
+LIC. EN CIENCIAS MENCIÓN BIOLOGÍA	51.4%
+LIC. EN CIENCIAS MENCIÓN FÍSICA	60 %
+LIC. EN CIENCIAS MENCIÓN MATEMÁTICAS	50 %
+LIC. EN CIENCIAS MENCIÓN QUÍMICA	
+QUÍMICA	64.1 %
+QUÍMICA AMBIENTAL	50 %
+QUÍMICA Y FARMACIA	86.1 %
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Públicos: 20.7%
+Privados: 22.8%
+Sin Información: 28%
+Extranjero: 0.4%
+</t>
+  </si>
+  <si>
+    <t>Estrato bajo:
+Representa aproximadamente el 30% de los estudiantes de pregrado.
+Estrato medio-bajo:
+Constituye alrededor del 40% de los estudiantes.
+Estrato medio:
+Incluye cerca del 20% de los estudiantes.
+Estrato medio-alto y alto:
+Juntos, estos estratos representan aproximadamente el 10% de los estudiantes de pregrado​ 
+Fuentes: Ministerio de Educación Superior​​ ;EducacionSuperior; Centro Estudios Mineduc; MinEduc​.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGIÓN DE LA UNIVERSIDAD: 72.4%
+REGIONES ALEDAÑAS (OHIGGINS Y VALPARAISO):  6.6%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16	años o menos: 0%
+17	años: 10.8%
+18	años: 59%
+19	años o más: 18.8%
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hPb9sdmhKRny_nzoiSsoANwUgYLBp4uH, https://drive.google.com/open?id=1JLmRq4oQikKpf9X6Fj1cAnpoh2wgjiTm, https://drive.google.com/open?id=17Z5818FyyWYhBrGbwIDYKtpLZdAlcH47, https://drive.google.com/open?id=1nSFJRZuZcPPmQN5Tmp1ZnPEybNYg0GtP</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1j-LT5uRhFX-RHdNPouIjSuwWCO9w8rfS</t>
+  </si>
+  <si>
+    <t>Organizamos visitas guiadas a nuestra facultad, lideradas por nuestro equipo de monitoras y monitores quienes además realizan en cada una de estas actividades charlas informativas, rondas de preguntas y visitas a los diferentes laboratorios. Estos espacios tienen una duración promedio de 2 horas y se realizan aproximadamente 15 al mes, con grupos de 10 hasta incluso 100 estudiantes.
+Por otro lado, participamos en todas las ferias universitarias que realizan los colegios, tanto en la región Metropolitana como en otras ciudades, donde instalamos stands liderados por nuestras y nuestros monitores con el objetivo de poder explicar cada uno de los planes de estudios con los que contamos, para resolver las dudas de cada estudiante. También hacemos charlas presenciales y si hay algún establecimiento que lo requiera, también se realizan de forma virtual.
+Estas actividades tienen por objetivo acortar la distancia entre las y los estudiantes de enseñanza media con el mundo universitario. La información que entregamos en estas activaciones van siempre ligadas a invitaciones para continuar vinculados a través de nuestras redes sociales, donde periódicamente estamos subiendo contenidos complementarios, enfocados en temas de preparación de postulaciones y de vida universitaria.
+Nosotros hace varios años que estamos trabajando una estrategia de fidelización con los colegios. A través de una matriz de seguimiento, estamos en constante comunicación con las y los encargados de orientación para informarles de nuestras actividades e invitarles a venir a nuestras dependencias para aportar con esta información a las y los alumnos.
+A nivel comunicacional, nosotros trabajamos en la planificación de contenidos. Las redes sociales que utilizamos (IG y Tik Tok) para comunicarnos con las y los potenciales postulantes se trabajan 4 líneas de acción:
+●	1) Compartir experiencias de terreno, laboratorio y materias, a un nivel testimonial de estudiantes, para presentar las alternativas de carreras que se imparten en la facultad
+●	2) Acompañamiento en su proceso de admisión con recordatorios de fechas importantes para postulaciones a beneficios y ayudas en la resolución de ejercicios de la PAES
+●	3) Responder oportunamente las consultas de cada usuario de nuestras redes, por medio de un chat de conversación e historias aclarando las dudas.
+●	4) Exponer las oportunidades de desarrollo que ofrece la vida universitaria en esta Facultad
+Finalmente, el trabajo realizado hace años viene dando sus frutos debido al sistema de seguimiento constante y la vinculación permanente con los establecimientos escolares. Ese es el pilar fundamental que luego decanta en que sean centenares de estudiantes los que participan mes a mes en las actividades que realizamos.
+Por favor, brinde una descripción detallada de cada actividad, incluyendo:
+o Tipo de actividad (workshop, grupo focal, mentoría, charla, convocatoria) o Su principal objetivo/ problema que pretende abordar o Formato de la actividad (virtual, presencial, blended)
+Buscamos dar a conocer a las posibles estudiantes de la Facultad las carreras que se imparten, las experiencias de diferentes académicas y de alumnas de las distintas especialidades de Ingeniería Civil, Geología,Geofísica y licenciaturas de Astronomía y Física.
+Difundir el programa de ingreso especial iniciado en la FCFM, PEG “(2014-2023) hoy parte de los programas del Ministerio de Educación. Más mujeres Científicas.
+De esta manera equilibrar el peso del sesgo social que promueve las carreras Stem principalmente a hombres por considerarse carreras “exigentes” y “masculinas”.
+Las actividades son de variado formato:
+●	Charlas expositivas: Espacio para relatos experienciales y preguntas. Realizadas por monitores estudiantes de las diferentes carreras formados para esta actividad. La frecuencia de estas actividades van en promedio de 15 mensuales.
+●	Conversatorios: Liderados por académicas y alumnas de la Facultad. Importancia de la participación de mujeres en las carreras de Ingeniería y Ciencias. Estos ciclos se realizan una vez al semestre.
+●	Encuentros con ex-alumnas de Ingeniería: Este espacio busca conocer la experiencia de quienes estudiaron en nuestra Facultad y que sus testimonios sean inspiradores para futuras alumnas.
+●	Actividades Virtuales: contamos con nuestro canal de youtube FCFM-Uchile Tv, donde queda el repositorios de las actividades transmitidas y grabadas.
+●	Instagram y Tik Tok. El contenido que se sube en estas plataformas está realizado en su mayoría por monitoras. En el proceso creativo también son ellas las que editan y publican los contenidos que mensualmente están proyectados para difundir la vida universitaria, dar a conocer las carreras y responder dudas a las y los escolares que buscan información. La frecuencia en la publicación es de 15 contenidos originales mensuales.
+●	Material impreso “Más mujeres para Ingeniería y Ciencias”, donde se promueven las carreras e Ingreso especial. Además se entrega material impreso con descripción de las carreras, oportunidades laborales que tiene cada disciplina, sus mallas curriculares y oportunidades de ingresos especiales, según cada caso. En tanto, la página web ofrece cápsulas de video con una descripción de cada carrera y contenidos semejantes a los folletos. Estos materiales son entregados en todas las actividades que participamos en el año.
+●	Visitas al campus, dependencias y laboratorios. Tenemos visitas durante todas las semanas. Son centenares de estudiantes que visitan la facultad mes a mes.
+Estrategia(s) de comunicación o Lugar donde se desarrolla la actividad
+Buscamos llegar a más estudiantes mediante la entrega de información horizontal a los estudiantes de enseñanza, a través del conocimiento y la experiencia de monitoras y monitores, quienes son estudiantes de las diferentes carreras que se imparten en la Facultad. Creemos firmemente en que un lenguaje simple y liderado por estudiantes de la Facultad elimina barreras de proximidad, genera confianza y empatía.
+En paralelo hemos desarrollado un robusto sistema de información complementaria. Folletos, sitio web, formularios de consulta y respuestas digitales crean nuestro ecosistema comunicacional, el cual permite mostrar de manera completa toda la información necesaria para el estudiante, ya sea sobre carreras, ingreso, postulaciones y vida universitaria.
+Las actividades de divulgación que realiza el área de Difusión Colegios se divide principalmente en dos lugares:
+-	Facultad de Ciencias Físicas y Matemáticas: Las visitas que tenemos son en nuestro campus. En una primera instancia llevamos a las y los estudiantes a una sala, donde les mostramos una presentación durante 45 minutos, entregando el detalle completo de cómo se ingresa a nuestra Facultad. La charla es realizada por nuestros monitores quienes también resuelven dudas y entregan la información necesaria a cada persona que lo solicite.
+-	Colegios: Visitamos establecimientos en todo el país. Instalamos un stand con material informativo y si el colegio lo requiere, también hacemos charlas explicativas.
+Estrategias que se utilizaron para garantizar el éxito de la actividad
+El trabajo consolidado de años nos ha permitido poder contar con una amplia agenda de contactos de establecimientos de educación media. Son varias las generaciones que nos han visitado y eso es producto de nuestra estrategia de fidelización que hemos impulsado. Constantes invitaciones, canales abiertos de comunicación son la clave para el éxito de este plan. Durante el segundo semestre del 2024 implementaremos una encuesta de evaluación para conocer los aspectos de mejora de nuestras actividades y estar siempre a la vanguardia en la forma de dar a conocer las informaciones.
+Describa actividades, las que considere más relevantes. Para cada actividad deberá proporcionar un recurso multimedia (infografía, video o podcast) a través de un enlace o adjunto.
+Sábados de Ingeniería y Ciencias: Un sábado del mes abrimos la facultad a toda aquella persona que tenga interés en conocer más de nuestra Facultad para que venga a conocer sus instalaciones, la información de las carreras. Este evento cuenta siempre con la participación de decenas de personas, principalmente estudiantes de enseñanza media que vienen acompañados con sus familias.
+https://www.instagram.com/p/C6ohduaOnCc/ - https://www.youtube.com/watch?v=RrmcLOig66w
+Ejercicios matemáticos: Previo a la rendición de las pruebas de selección, realizamos tutoriales para las personas que rendirán el examen, con el fin de que en nuestros perfiles digitales encuentren una ayuda que les permita resolver sus dudas. Estas actividades se realizan durante dos periodos en el año y cuentan con una gran cantidad de reproducciones.
+https://www.instagram.com/p/C7RzynZu5Cq/
+Paneles de conversación: Estos eventos abordan diferentes temáticas, tanto experienciales de académicas investigadoras, como de temáticas científicas específicas. Siempre tomando en cuenta la
+paridad de género. Estas actividades han generado un alto interés en las y los estudiantes, tanto internos como estudiantes de colegios. Esto queda demostrado por el aumento de reproducciones digitales de estos espacios.
+https://www.youtube.com/live/0rDOUIvwDic?si=-Wk3BtmxE4zLz2SJ
+ve/0rDOUIvwDic?si=-Wk3BtmxE4zLz2SJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.	¿Cuáles son los resultados más destacados de su universidad en cuanto al aumento de interés de los estudiantes en carreras STEM por actividades organizadas y realizadas en conjunto con los colegios? Para responder a esta pregunta tenga en cuenta:
+El aumento de porcentaje de mujeres ingresadas a la Facultad ha aumentado en torno al 10%.
+13.1.	¿Cuántos de los estudiantes de colegio que participaron en las actividades descritas en la pregunta 12 han ingresado a carreras STEM durante el período comprendido entre los años 2022 y 2024?
+Es importante destacar que la promoción de las carreras STEM y el programa de ingreso especial (80 cupos para los primeros puntajes obtenidos por mujeres bajo el puntaje de corte), ha permitido incrementar no sólo esa vía de ingreso si no que también el aumento de ingreso femenino por vía regular.
+Para el año 2024, el porcentaje de ingreso de mujeres a primer año alcanza el 32%, considerando el ingreso por cupo PEG. Sin contar esta vía de acceso, la proporción de mujeres sería de un 23%.
+De esos estudiantes que ingresaron, ¿Cuántos siguen estudiando y cuántos lograron graduarse?
+La deserción del ingreso especial es el mismo porcentaje que vía ingreso regular. Hasta la fecha, una vez iniciada la implementación de la Política de Equidad de género, han sido más de 660 las mujeres que han podido estudiar en la Facultad de Ciencias Físicas y Matemáticas de la Universidad de Chile, lo que equivale a un aumento del 65% del ingreso de mujeres (en comparación al año 2013), lo cual se traduce en que hoy el porcentaje de estudiantes mujeres oscila en torno al 33%. De no ser por la implementación de esta política, sería cercano al 20% del total de estudiantes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Principalmente, las acciones han estado centradas en visibilizar modelos con los cuales se puedan identificar y proyectar profesionalmente las futuras postulantes, tales como académicas y estudiantes en carreras Stem, lo que ha permitido incremetar el número de postulaciones de mujeres en nuestra Facultad en los últimos 10 años.
+El trabajo de visibilizar la necesidad de incrementar diversidad de género en las carreras tuvo su origen en un grupo de académicas e investigadoras de la FCFM que derivó en la Dirección de Diversidad y Género, que en la actualidad estudia y diseña las políticas de inclusión.
+El éxito de estas políticas de Inclusión: el trabajo conjunto con académicas e investigadoras, sumado a las alumnas de las carreras de la FCFM, permite que las futuras alumnas vean una alternativa de desarrollo profesional en Ingeniería y Ciencias.
+Posibilidades de mejora: incrementar las actividades académicas e investigadores en forma presencial en regiones.
+Realización cápsulas o formatos de larga duración como podcast en forma continua de temas de desarrollo científico de Ingeniería y Ciencias enfocado en un público de Enseñanza Media.
+</t>
+  </si>
+  <si>
+    <t>Este punto está contestado anteriormente</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19NCGYVvslmKFq34-U8DcaGjC-n8LMZ_-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se han realizado diferentes campañas y actividades a través de la Subdirección de Comunicaciones, quienes han realizado diferentes elementos gráficos (digitales y físicos) y han generado material audiovisual que principalmente da a conocer el impacto de los programas de equidad de género. Compartimos algunos enlaces a continuación:
+Difusión:
+●	https://youtu.be/OYg76UoQAXk?si=QIywi19yiyiNKqi_
+●	https://youtu.be/EFloXs1OvhE?si=BBfRgr4sfIg7kfr1
+Testimonial:
+●	https://youtu.be/hmQXH58omBc?si=Avod_1FVql5ZPYow
+●	https://youtu.be/6f4Vb7titLs?si=JuvyIlUw1_wjChb6
+La estrategia está enfocada en la generación de campañas informativas y de divulgación de las formas de acceso a nuestras carreras. Si se revisa en macro, todas las acciones que realizamos están entrelazadas, porque buscamos llegar de mejor manera a más colegios, con los contenidos anteriormente enviados, con las actividades en la Facultad y en cada una de las actividades donde participamos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la actualidad en el área de Difusión Colegios focalizamos nuestro trabajo de divulgación en las plataformas digitales. Nuestro equipo de monitoras y monitores trabaja en conjunto con el periodista del área en la generación constante de contenidos que permitan disipar toda duda que tengan para realizar una óptima postulación. Nuestros perfiles de Tik Tok e Instagram (detallados anteriormente) tienen como foco principal en potenciar la entrega de información, con un lenguaje cercano e inclusivo a las estudiantes. En la actualidad, nuestro crecimiento ha sido sostenido y del total de seguidores en nuestro perfil, el 48,7% son mujeres, porcentaje que se mantiene al alza este 2024.
+Una de las actividades que mejor funciona es el “Fono Difu”, instancia en que invitamos a las personas a realizar consultas y por lo general son nuestras monitoras que a través de videos responden cada una de las preguntas. Además, la mayoría de los contenidos son protagonizados por mujeres, quienes además de estar respondiendo dudas, muestran la vida universitaria, muestran actividades en terreno y además hacemos invitaciones constantemente para que vengan a conocer la Facultad o bien que estamos disponibles para ir a los colegios que nos requieran.
+</t>
+  </si>
+  <si>
+    <t>No tenemos una normativa que limite el uso de plataformas para estrategias de este estilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La experiencias que hemos realizado es un día con una académica e investigadora. Se trata del acompañamiento de una alumna destacada e interesada en carreras STEM, en un día habitual de una académica, acompañamiento a clases, ingreso a laboratorio y convivencia.
+Esta experiencia aporta a la estudiante una visión experiencial de algunos de los contenidos que se imparten en las carreras como investigaciones que se desarrollan en los laboratorios, dependiendo de la especialidad de la académica que guía la experiencia.
+</t>
+  </si>
+  <si>
+    <t>No existen becas ni ayudas financieras especialmente dirigidas a carreras STEM sino que son generales para diversos programas profesionales:
+Becas del Estado
+Gratuidad:
+Descripción: Cubre el arancel y matrícula de los estudiantes de menores ingresos que asisten a instituciones adscritas a la gratuidad.
+Requisitos: Pertenecer al 60% de menores ingresos, estar matriculado en una institución adscrita, y completar el Formulario Único de Acreditación Socioeconómica (FUAS).
+Beca Nuevo Milenio:
+Descripción: Dirigida a estudiantes que se matriculan en carreras técnicas de nivel superior.
+Requisitos: Pertenecer al 70% de menores ingresos y obtener un puntaje mínimo en la Prueba de Acceso a la Educación Superior (PAES).
+Beca Juan Gómez Millas:
+Descripción: Para estudiantes de origen chileno y extranjeros con permanencia definitiva que se matriculen en una carrera de pregrado.
+Requisitos: Pertenecer al 70% de menores ingresos y obtener un puntaje mínimo en la PAES.
+Beca Bicentenario:
+Descripción: Cubre el arancel de referencia para estudiantes matriculados en universidades del Consejo de Rectores (CRUCH) y algunas universidades privadas.
+Requisitos: Pertenecer al 70% de menores ingresos y obtener un puntaje mínimo en la PAES.
+Beca Vocación de Profesor:
+Descripción: Para estudiantes que ingresan a carreras de pedagogía, cubriendo arancel y matrícula.
+Requisitos: Pertenecer al 80% de menores ingresos y obtener un puntaje mínimo en la PAES.
+Ayudas Financieras
+Crédito con Aval del Estado (CAE):
+Descripción: Préstamo para financiar estudios de pregrado, que se paga después de egresar.
+Requisitos: Ser chileno, tener puntaje mínimo en la PAES y estar matriculado en una institución acreditada.
+Fondo Solidario de Crédito Universitario:
+Descripción: Préstamo estatal para estudiantes de universidades del CRUCH.
+Requisitos: Pertenecer al 80% de menores ingresos y obtener un puntaje mínimo en la PAES.
+Becas de las Universidades
+Beca de Excelencia Académica:
+Descripción: Ofrecida por muchas universidades para estudiantes con rendimiento académico sobresaliente.
+Requisitos: Varían según la universidad, pero generalmente requieren un alto rendimiento académico y pertenencia a ciertos quintiles de ingreso.
+Becas Institucionales:
+Descripción: Cada universidad ofrece diversas becas que pueden cubrir matrícula, arancel, o proporcionar estipendios para gastos de manutención.
+Requisitos: Los requisitos varían por institución y pueden basarse en criterios académicos, socioeconómicos, deportivos, culturales, entre otros.
+Becas Complementarias
+Beca de Alimentación para la Educación Superior (BAES):
+Descripción: Tarjeta de alimentación para estudiantes beneficiarios de becas o créditos del Estado.
+Requisitos: Ser beneficiario de becas del Estado y estar matriculado en una institución acreditada.
+Beca de Mantención:
+Descripción: Apoyo económico mensual para gastos personales de estudiantes de educación superior.
+Requisitos: Ser beneficiario de becas del Estado y estar matriculado en una institución acreditada.</t>
+  </si>
+  <si>
+    <t>Lamentablemente no pudimos obtener esta información</t>
+  </si>
+  <si>
+    <t>Como mencioné anteriormente no existen becas o apoyos financieros exclusivamente dirigidos a programas STEM, por lo que se realiza una difusión general de estas oportunidades</t>
+  </si>
+  <si>
+    <t>No identificado</t>
+  </si>
+  <si>
+    <t>En la Facultad de Ciencias Físicas y Matemáticas de la Universidad de Chile (FCFM), tenemos programas específicos para promover la equidad de género, incluyendo:
+- Decreto 681: Convocatorias exclusivas para mujeres en áreas donde su representación es menor al 40%, facilitando contrataciones en postdoctorados y posiciones académicas.
+- Programa PEG: Cupos de ingreso preferencial para mujeres en carreras de Ingeniería y Ciencias desde 2014, incrementando la matrícula femenina de menos del 20% a más del 30%.
+- Programa PEGA: Incentivos financieros para el ingreso de mujeres a la carrera académica, facilitando la contratación previa o durante el doctorado.
+- Promoción de investigación: Fondos concursables para impulsar investigaciones lideradas por mujeres y con perspectiva de género en áreas como minería y matemáticas.
+Estos programas han fortalecido nuestra comunidad académica y fomentado la igualdad de oportunidades en la FCFM.</t>
+  </si>
+  <si>
+    <t>En la Facultad de Ciencias Físicas y Matemáticas de la Universidad de Chile (FCFM), promovemos la inclusión de una Competencia Genérica de Igualdad de Género y No Discriminación en el currículum de ingeniería y ciencias. Esta competencia se integra en la formación de estudiantes para promover principios de igualdad y no discriminación en su ejercicio profesional e interacción social. Además, se implementan diversas iniciativas, incluyendo formación para estudiantes y organizaciones estudiantiles, un curso introductorio sobre género y políticas institucionales, pilotos en ramos de plan común, electivos sobre género en disciplinas específicas, y formación continua para el cuerpo académico en prácticas educativas igualitarias.</t>
+  </si>
+  <si>
+    <t>En la FCFM actualmente están contratadas como académicas jornada completa 46 mujeres que corresponden al 21% de la planta académica ordinaria. Este porcentaje ha mostrado un aumento importante, debido a las distintas políticas que están actualmente en funcionamiento.</t>
+  </si>
+  <si>
+    <t>e) más de 8 años</t>
+  </si>
+  <si>
+    <t>e) 49 -56 años</t>
+  </si>
+  <si>
+    <t>Nuestra universidad, al ser una de las mejores rankeadas del país, siempre cuenta con mayor número de postulantes en relación a la cantidad de cupos disponibles. Por tanto el mayor desafíos está en la brecha de género.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4b- En su país ¿Cuál es la distribución porcentual (%) por ingreso familiar de los estudiantes en la educación media? Considere los siguientes grupos predefinidos:  Menos de 1 salario mínimo legal vigente/ Entre 2 y 5 salarios mínimos legales vigentes/ Entre 6 y 10  salarios mínimos legales vigentes/ Más de 10 salarios mínimos legales vigentes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11- Indique el porcentaje de estudiantes de pregrado, según su edad. Considere los siguientes grupos de edades predefinidos: 16 años o menos/ 17 años/ 18 años/ 19 años o más
+</t>
+  </si>
+  <si>
+    <t>Nombre de la iniciativa</t>
+  </si>
+  <si>
+    <t>Objectivo</t>
+  </si>
+  <si>
+    <t>Resumen/Descripción</t>
+  </si>
+  <si>
+    <t>Duración/Frecuencia</t>
+  </si>
+  <si>
+    <t>Atracción/Retención</t>
+  </si>
+  <si>
+    <t>Tipo de actividad (workshop, grupo focal, mentoría, charla, convocatoria, etc)</t>
+  </si>
+  <si>
+    <t>Formato de la actividad (virtual, presencial, blended)</t>
+  </si>
+  <si>
+    <t>Público objetivo (egresados de colegio, estudiantes de colegio, padres de familia, mujeres, estudiantes de familias con bajos ingresos, minorías étnicas, comunidades rurales, otro)</t>
+  </si>
+  <si>
+    <t>Lugar del Eevnto</t>
+  </si>
+  <si>
+    <t>UNCUYO</t>
+  </si>
+  <si>
+    <t>LA VALIJA CIENTÍFICA</t>
+  </si>
+  <si>
+    <t>Preparatoria/Bachillerato</t>
+  </si>
+  <si>
+    <t>Estudiantes de últimos años de colegios secundarios y egresados de nivel medio</t>
+  </si>
+  <si>
+    <t>Feria / competencia</t>
+  </si>
+  <si>
+    <t>Presencial</t>
+  </si>
+  <si>
+    <t>La universidad no proporcionó esta información</t>
+  </si>
+  <si>
+    <t>Nave Universitaria, Mendoza</t>
+  </si>
+  <si>
+    <t>Promover vocaciones en los jóvenes por las Ciencias Experimentales y la valoración del quehacer científico desde temprana edad e incentivar a los docentes a una continua actualización en los contenidos.</t>
+  </si>
+  <si>
+    <t>Feria de ciencias / Olimpíada Argentina de Ciencias Junior</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>EXPO EDUCATIVA</t>
+  </si>
+  <si>
+    <t>Feria</t>
+  </si>
+  <si>
+    <t>Blended (evento presencial con actividades online y página web exclusiva)</t>
+  </si>
+  <si>
+    <t>Informar a estudiantes secundarios y egresados sobre oportunidades de estudio a nivel superior de grado y pregrado.</t>
+  </si>
+  <si>
+    <t>Evento anual presencial y virtual organizado por la UNCUYO para promocionar sus carreras con estudiantes secundarios como público objetivo.</t>
+  </si>
+  <si>
+    <t>FERIA DE CIENCIAS/ OLIMPÍADA ARGENTINA DE CIENCIAS JUNIOR</t>
+  </si>
+  <si>
+    <t>Primaria/Secundaria</t>
+  </si>
+  <si>
+    <t>Estudiantes de últimos años de colegios primarios y secundarios</t>
+  </si>
+  <si>
+    <t>Feria de ciencias y evaluaciones para las olimpiadas en diversos colegios de Mendoza.</t>
+  </si>
+  <si>
+    <t>CONCURSO EMPRENDE U</t>
+  </si>
+  <si>
+    <t>Competencia</t>
+  </si>
+  <si>
+    <t>Estimular entre los participantes de nivel primario y secundario la capacidad para abordar problemas en el contexto local, a través de ideas innovadoras respaldadas por avances tecnológicos que tengan un impacto positivo en los ámbitos social, ambiental, económico y cultural.</t>
+  </si>
+  <si>
+    <t>Atracción</t>
+  </si>
+  <si>
+    <t>República Dominicana</t>
+  </si>
+  <si>
+    <t>Talleres Hands On STEAM</t>
+  </si>
+  <si>
+    <t>Estudiantes de colegio</t>
+  </si>
+  <si>
+    <t>Talleres</t>
+  </si>
+  <si>
+    <t>Campus INTEC</t>
+  </si>
+  <si>
+    <t>Fomentar la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas</t>
+  </si>
+  <si>
+    <t>Actividades que fomentan la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas. Se realizan en el campus de manera trimestral.</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Visitas a centros educativos</t>
+  </si>
+  <si>
+    <t>Charlas</t>
+  </si>
+  <si>
+    <t>Centros educativos seleccionados</t>
+  </si>
+  <si>
+    <t>Mostrar la oferta académica disponible en el INTEC</t>
+  </si>
+  <si>
+    <t>Espacio breve que ceden los centros seleccionados para mostrar la oferta académica disponible; está sujeto a la disponibilidad de cada centro.</t>
+  </si>
+  <si>
+    <t>Según disponibilidad del centro educativo</t>
+  </si>
+  <si>
+    <t>Visitas guiadas individuales y grupales</t>
+  </si>
+  <si>
+    <t>Visitas guiadas</t>
+  </si>
+  <si>
+    <t>Conocer la oferta académica e informaciones relevantes de espacio, beneficios, servicios, laboratorios y áreas comunes de la institución</t>
+  </si>
+  <si>
+    <t>Grupos de interesados que visitan el campus y conocen la oferta académica e informaciones relevantes de espacio, beneficios, servicios, laboratorios y áreas comunes de la institución. Las individuales se realizan los viernes a las 3:30 p.m. y las grupales requieren de una coordinación previa conforme a la cantidad de estudiantes que estarán y disponibilidad del centro educativo.</t>
+  </si>
+  <si>
+    <t>Viernes a las 3:30 p.m. (visitas individuales), previa coordinación (visitas grupales)</t>
+  </si>
+  <si>
+    <t>Jornadas informativas y charlas de orientación vocacional</t>
+  </si>
+  <si>
+    <t>Charlas de orientación vocacional</t>
+  </si>
+  <si>
+    <t>Virtual/Presencial</t>
+  </si>
+  <si>
+    <t>Campus INTEC y centros educativos</t>
+  </si>
+  <si>
+    <t>Servicio de asesoría para que los interesados indecisos puedan tener claridad en la decisión a tomar sobre la carrera que les apasiona</t>
+  </si>
+  <si>
+    <t>Servicio de asesoría brindado en campus y centros educativos para que los interesados indecisos puedan tener un poco de claridad en la decisión a tomar sobre la carrera que les apasiona.</t>
+  </si>
+  <si>
+    <t>Según demanda</t>
+  </si>
+  <si>
+    <t>Destino ITBA</t>
+  </si>
+  <si>
+    <t>Charlas, talleres</t>
+  </si>
+  <si>
+    <t>ITBA, CABA, y provincias</t>
+  </si>
+  <si>
+    <t>Orientar a estudiantes sobre las carreras del ITBA</t>
+  </si>
+  <si>
+    <t>Charlas y talleres en el ITBA y colegios, con participación de 202 personas en la actividad especial 'Destino ITBA'</t>
+  </si>
+  <si>
+    <t>Semana de las vocaciones</t>
+  </si>
+  <si>
+    <t>Charlas y talleres en el ITBA y colegios, con participación de 113 personas en la actividad especial 'Semana de las vocaciones'</t>
+  </si>
+  <si>
+    <t>Future Day</t>
+  </si>
+  <si>
+    <t>Mostrar los desarrollos y laboratorios del ITBA</t>
+  </si>
+  <si>
+    <t>Actividad abierta a la comunidad donde se abren todos los laboratorios y los desarrollos (auto electrónico, el cohete, el auto de carrera) de la Universidad con una convocatoria de más de 1000 personas por edición.</t>
+  </si>
+  <si>
+    <t>Ferias universitarias en colegios</t>
+  </si>
+  <si>
+    <t>Estudiantes de colegio, a nivel nacional</t>
+  </si>
+  <si>
+    <t>Charla y dependiendo del espacio brindado desarrollos de talleres</t>
+  </si>
+  <si>
+    <t>Dentro de los colegios donde se acepte la invitación</t>
+  </si>
+  <si>
+    <t>Dar a conocer las carreras universitarias que brinda la universidad</t>
+  </si>
+  <si>
+    <t>Charlas y talleres para dar a conocer las carreras universitarias</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>Invitaciones internas a las instalaciones de la universidad para los colegios</t>
+  </si>
+  <si>
+    <t>Recorrido y charla</t>
+  </si>
+  <si>
+    <t>En las instalaciones de la universidad</t>
+  </si>
+  <si>
+    <t>Dar a conocer las carreras e instalaciones de la universidad</t>
+  </si>
+  <si>
+    <t>Recorrido por el edificio y los laboratorios de la universidad</t>
+  </si>
+  <si>
+    <t>Varias veces al año</t>
+  </si>
+  <si>
+    <t>Escuela de verano</t>
+  </si>
+  <si>
+    <t>Cursos de temas de carreras STEM</t>
+  </si>
+  <si>
+    <t>Enseñar acerca de diferentes temas como inteligencia artificial, blockchain entre otros a estudiantes de colegio que se inscriban y paguen el o los cursos</t>
+  </si>
+  <si>
+    <t>Cursos de temas como inteligencia artificial y blockchain</t>
+  </si>
+  <si>
+    <t>Dos veces al año</t>
+  </si>
+  <si>
+    <t>Hackathones</t>
+  </si>
+  <si>
+    <t>Concursos para estudiantes de colegios</t>
+  </si>
+  <si>
+    <t>Sumergirse en empresas reales para identificar una problemática y desarrollar soluciones innovadoras y aplicables</t>
+  </si>
+  <si>
+    <t>Concursos para estudiantes de colegios para desarrollar soluciones innovadoras</t>
+  </si>
+  <si>
+    <t>Una vez al año</t>
+  </si>
+  <si>
+    <t>Asistencia en la feria del libro</t>
+  </si>
+  <si>
+    <t>Egresados de colegio, estudiantes de colegio, padres de familia</t>
+  </si>
+  <si>
+    <t>Charla</t>
+  </si>
+  <si>
+    <t>En el centro de eventos donde se desarrolla anualmente la feria del libro en la capital</t>
+  </si>
+  <si>
+    <t>Charlas, talleres y demostraciones</t>
+  </si>
+  <si>
+    <t>Expojaveriana</t>
+  </si>
+  <si>
+    <t>Egresados de colegio, estudiantes de colegio</t>
+  </si>
+  <si>
+    <t>Charla, convocatoria</t>
+  </si>
+  <si>
+    <t>Charlas y recorridos por facultades con estudiantes y profesores</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD 1: OPEN HOUSE</t>
+  </si>
+  <si>
+    <t>Colegios</t>
+  </si>
+  <si>
+    <t>Open House</t>
+  </si>
+  <si>
+    <t>Campus Santiago / Campus Santo Domingo</t>
+  </si>
+  <si>
+    <t>Apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios</t>
+  </si>
+  <si>
+    <t>Establecer alianzas con colegios y centros educativos</t>
+  </si>
+  <si>
+    <t>Cada ciclo</t>
+  </si>
+  <si>
+    <t>ACTIVIDAD 2: VISITA A COLEGIOS</t>
+  </si>
+  <si>
+    <t>Visita a colegios</t>
+  </si>
+  <si>
+    <t>Apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios y que estos conozcan la institución</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rango de Edad/Nivel Escolar
+(Preparatoria/Bachillerato/Educación Media | Licenciatura (Pregrado)| Maestría)
+</t>
+  </si>
+  <si>
+    <t>SaviaLab</t>
+  </si>
+  <si>
+    <t>Profesores de liceos rurales</t>
+  </si>
+  <si>
+    <t>Taller formativo</t>
+  </si>
+  <si>
+    <t>Desarrollar proyectos innovadores con estudiantes de enseñanza media</t>
+  </si>
+  <si>
+    <t>Diseñado y ejecutado por la Universidad Católica de Chile, desde la unidad académica DILAB, con financiamiento de la Fundación para la Innovación Agraria (FIA) de Chile. Ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos.</t>
+  </si>
+  <si>
+    <t>Clases semanales entre abril y octubre en cada colegio participante, complementado con eventos presenciales en la Universidad.</t>
+  </si>
+  <si>
+    <t>Interescolar Descifra</t>
+  </si>
+  <si>
+    <t>Estudiantes de enseñanza media</t>
+  </si>
+  <si>
+    <t>Torneo competitivo</t>
+  </si>
+  <si>
+    <t>Fomentar la colaboración y el pensamiento crítico entre estudiantes de enseñanza media</t>
+  </si>
+  <si>
+    <t>Diseñado por Fundación Enseña Chile, con apoyo logístico y ejecución de la Universidad Católica de Chile desde la subdirección de Preingeniería. Fomenta la colaboración y el pensamiento crítico entre estudiantes de enseñanza media.</t>
+  </si>
+  <si>
+    <t>Academia STEM</t>
+  </si>
+  <si>
+    <t>Escolares y egresados</t>
+  </si>
+  <si>
+    <t>Explorar temas STEAM entre escolares de 1ro a 4to medio y egresados</t>
+  </si>
+  <si>
+    <t>Organizado por la Escuela de Ingeniería UC, este taller formativo se enfoca en explorar temas STEAM entre escolares de 1ro a 4to medio y egresados.</t>
+  </si>
+  <si>
+    <t>Dos veces al año durante vacaciones, con clases semanales.</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Estudiantes de 7mo a 2do medio</t>
+  </si>
+  <si>
+    <t>Taller</t>
+  </si>
+  <si>
+    <t>Introducir a estudiantes de 7mo a 2do medio en programación</t>
+  </si>
+  <si>
+    <t>Este taller, también de la Escuela de Ingeniería UC, introduce a estudiantes de 7mo a 2do medio en programación.</t>
+  </si>
+  <si>
+    <t>Clases presenciales semanales durante 10 sesiones</t>
+  </si>
+  <si>
+    <t>Taller STEM para el Día de la Mujer en Ingeniería</t>
+  </si>
+  <si>
+    <t>Adolescentes mujeres de 1ro a 4to medio</t>
+  </si>
+  <si>
+    <t>Abordar temas STEM con baja representación femenina</t>
+  </si>
+  <si>
+    <t>Dirigido a adolescentes mujeres de 1ro a 4to medio, este taller anual aborda temas STEM con baja representación femenina.</t>
+  </si>
+  <si>
+    <t>Escuelas Tecnológicas</t>
+  </si>
+  <si>
+    <t>Adolescentes de 11 a 15 años</t>
+  </si>
+  <si>
+    <t>Fomentar el prototipado y tecnologías físico-tecnológicas</t>
+  </si>
+  <si>
+    <t>Este taller de la unidad DILAB de la UC está diseñado para adolescentes de 11 a 15 años, enfocándose en prototipado y tecnologías físico-tecnológicas.</t>
+  </si>
+  <si>
+    <t>Intensivamente durante vacaciones de verano e invierno</t>
+  </si>
+  <si>
+    <t>Visitas guiadas y ferias universitarias</t>
+  </si>
+  <si>
+    <t>Charlas, visitas guiadas, ferias</t>
+  </si>
+  <si>
+    <t>Presencial, virtual</t>
+  </si>
+  <si>
+    <t>Acortar la distancia entre estudiantes de enseñanza media y el mundo universitario</t>
+  </si>
+  <si>
+    <t>Charlas informativas, rondas de preguntas y visitas a los diferentes laboratorios lideradas por monitoras y monitores. Participación en ferias universitarias y charlas en colegios, tanto en la región Metropolitana como en otras ciudades.</t>
+  </si>
+  <si>
+    <t>Duración promedio de 2 horas, aproximadamente 15 veces al mes. Charlas y visitas durante todo el año.</t>
+  </si>
+  <si>
+    <t>Licenciatura (Pregrado)</t>
+  </si>
 </sst>
 </file>
 
@@ -1910,7 +2686,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1937,12 +2713,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -1950,8 +2720,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1970,6 +2761,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1982,26 +2779,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2221,1112 +3056,1264 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF7"/>
+  <dimension ref="A1:BF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="63" width="18.85546875" style="5" customWidth="1"/>
-    <col min="64" max="16384" width="12.5703125" style="5"/>
+    <col min="1" max="63" width="18.85546875" style="7" customWidth="1"/>
+    <col min="64" max="16384" width="12.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:58" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU3" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AQ4" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AV4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="BC4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="BE4" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV5" s="11">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BC5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AE6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AM6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AN6" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AP6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AQ6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AS6" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AT6" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY6" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BB6" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BC6" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="BD6" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="BE6" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="AK7" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AM7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="AN7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AQ7" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="AR7" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="AS7" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AT7" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AU7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="AV7" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="AW7" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AX7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="AY7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AZ7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA7" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="BB7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="BC7" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="BD7" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="BE7" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="BF7" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" s="4" t="s">
+      <c r="F8" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC8" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL8" s="3"/>
+      <c r="AM8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AS8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="AU8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="AW8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AX8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="BA2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BA8" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BB3" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AV5" s="7">
-        <v>0.39710000000000001</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AO6" s="4" t="s">
+      <c r="BB8" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AP6" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>304</v>
+      <c r="BC8" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3351,7 +4338,1057 @@
     <hyperlink ref="AC7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
     <hyperlink ref="AF7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
     <hyperlink ref="D5" r:id="rId20" xr:uid="{57D62C1D-393D-435A-9A1B-0D02167BBBBD}"/>
+    <hyperlink ref="W8" r:id="rId21" xr:uid="{C8E2F297-8DC0-4EA9-957E-954715C49733}"/>
+    <hyperlink ref="AC8" r:id="rId22" xr:uid="{A0020179-35AE-4CD0-BBB8-1DBB7C26E259}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="3" customWidth="1"/>
+    <col min="6" max="12" width="18.7109375" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>376</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>371</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD256061-B882-4DB5-8560-A7433E0F7590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318EE573-05E1-4A20-BF07-69F1FBA479D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="501">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2324,9 +2324,6 @@
   </si>
   <si>
     <t>Atracción</t>
-  </si>
-  <si>
-    <t>República Dominicana</t>
   </si>
   <si>
     <t>Talleres Hands On STEAM</t>
@@ -4350,7 +4347,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="A19" sqref="A19:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4373,7 +4370,7 @@
         <v>352</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>359</v>
@@ -4554,22 +4551,22 @@
     </row>
     <row r="6" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>366</v>
@@ -4578,36 +4575,36 @@
         <v>384</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>392</v>
-      </c>
       <c r="L6" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>366</v>
@@ -4616,36 +4613,36 @@
         <v>384</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="L7" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>366</v>
@@ -4654,54 +4651,54 @@
         <v>384</v>
       </c>
       <c r="I8" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>403</v>
-      </c>
       <c r="L8" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>384</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="L9" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4712,16 +4709,16 @@
         <v>132</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>366</v>
@@ -4730,16 +4727,16 @@
         <v>384</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="K10" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4750,16 +4747,16 @@
         <v>132</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>366</v>
@@ -4768,10 +4765,10 @@
         <v>384</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>371</v>
@@ -4788,13 +4785,13 @@
         <v>132</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>373</v>
@@ -4806,10 +4803,10 @@
         <v>384</v>
       </c>
       <c r="I12" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>420</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>371</v>
@@ -4826,16 +4823,16 @@
         <v>174</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>366</v>
@@ -4844,16 +4841,16 @@
         <v>384</v>
       </c>
       <c r="I13" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="L13" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4864,16 +4861,16 @@
         <v>174</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>366</v>
@@ -4882,16 +4879,16 @@
         <v>384</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4902,16 +4899,16 @@
         <v>174</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>366</v>
@@ -4920,16 +4917,16 @@
         <v>384</v>
       </c>
       <c r="I15" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>438</v>
-      </c>
       <c r="L15" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4940,16 +4937,16 @@
         <v>174</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>366</v>
@@ -4958,16 +4955,16 @@
         <v>384</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>443</v>
-      </c>
       <c r="L16" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4978,16 +4975,16 @@
         <v>174</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>366</v>
@@ -4996,16 +4993,16 @@
         <v>384</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>371</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5016,16 +5013,16 @@
         <v>174</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>366</v>
@@ -5034,36 +5031,36 @@
         <v>384</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>366</v>
@@ -5072,36 +5069,36 @@
         <v>384</v>
       </c>
       <c r="I19" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="L19" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>366</v>
@@ -5110,16 +5107,16 @@
         <v>384</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>459</v>
-      </c>
       <c r="L20" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5130,16 +5127,16 @@
         <v>292</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E21" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>366</v>
@@ -5148,13 +5145,13 @@
         <v>384</v>
       </c>
       <c r="I21" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="J21" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>367</v>
@@ -5168,16 +5165,16 @@
         <v>292</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E22" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>366</v>
@@ -5186,13 +5183,13 @@
         <v>384</v>
       </c>
       <c r="I22" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>474</v>
-      </c>
       <c r="K22" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>367</v>
@@ -5206,16 +5203,16 @@
         <v>292</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>476</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>366</v>
@@ -5224,13 +5221,13 @@
         <v>384</v>
       </c>
       <c r="I23" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>367</v>
@@ -5244,16 +5241,16 @@
         <v>292</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>366</v>
@@ -5262,13 +5259,13 @@
         <v>384</v>
       </c>
       <c r="I24" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>367</v>
@@ -5282,16 +5279,16 @@
         <v>292</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>487</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>366</v>
@@ -5300,10 +5297,10 @@
         <v>384</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>371</v>
@@ -5320,16 +5317,16 @@
         <v>292</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>366</v>
@@ -5338,13 +5335,13 @@
         <v>384</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>367</v>
@@ -5358,31 +5355,31 @@
         <v>317</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>384</v>
       </c>
       <c r="I27" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>367</v>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318EE573-05E1-4A20-BF07-69F1FBA479D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E614CC0-811D-48F4-8E14-80A876525FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="547">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -217,118 +217,7 @@
 Reporte del año académico 2022 presentado ante el Ministerio de Educación de la Nación.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-CLÍNICA Y SALUD
-Total: 3288
-Mujeres: 2223
-Porcentaje : 68%
-INGENIERÍA
-2848
-681
-24%
-INFORMÁTICA
-534
-70
-13%
-CIENCIAS DE LA VIDA
-2538
-1563
-62%
-CIENCIAS FÍSICAS
-571
-355
-62%
-TOTAL
-9779
-4892
-50%
-Carreras 
-FCEN: Licenciatura en Ciencias Básicas: Orientación Física , Química o biología 
-Profesorado de Grado Universitario en Ciencias Básicas
-Licenciado/a en Geología
-FCM: 
-Grado 
-Medicina
-Licenciatura en Enfermería
-Ciclos de Licenciatura
-Ciclo de Licenciatura en Higiene y Seguridad en el Trabajo
-Pregrado
-Tecnicatura Universitaria en Diagnóstico por Imágenes
-Tecnicatura Universitaria en Laboratorio
-Tecnicatura Universitaria en Quirófano
-Tecnicatura Universitaria en Anestesia
-FING: 
-Arquitectura
-Ingeniería Civil
-Ingeniería en Petróleo
-Ingeniería Industrial
-Ingeniería Mecatrónica
-Licenciatura en Ciencias de la Computación
-Instituto Balseiro 
-LICENCIATURA EN FÍSICA
-INGENIERÍA NUCLEAR
-INGENIERÍA MECÁNICA
-INGENIERÍA EN TELECOMUNICACIONES
-FCAI 
-Bromatología
-Tecnicatura Universitaria en Enología y Viticultura
-Ingeniería en Alimentos
-Ingeniería Química
-Ingeniería Mecánica
-Profesorado Universitario en Química
-ITU 
-Tecnicatura Universitaria en Desarrollo de Software
-Tecnicatura Universitaria en Redes de Datos y Telecomunicaciones
-Tecnicatura Universitaria en Gestión de Empresas
-Tecnicatura Universitaria en Higiene y Seguridad en el Trabajo
-Tecnicatura Universitaria en Logística y Transporte
-Tecnicatura Universitaria en Marketing
-Tecnicatura Universitaria en Producción Industrial y Automatización
-Tecnicatura Universitaria en Mantenimiento e Instalaciones Industriales
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dato no disponible </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 años </t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=143XSpQEAiPwBAdakSXnUJQnqFILuWAuY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA VALIJA CIENTÍFICA
-Visitas a escuelas secundarias para realizar dinámicas de acercamiento y sensibilización a las ciencias básicas. 
-A cargo de estudiantes de la Facultad de Ciencias Exactas y Naturales UNCUYO -Proyecto de extensión.
-EXPO EDUCATIVA 
-Evento anual presencial y virtual organizado por la UNCUYO para promocionar sus carreras con estudiantes secundarios como público objetivo.
--Tipo de actividad :Feria 
--Su principal objetivo: Informar a estudiantes secundarios y egresados sobre oportunidades de estudio a nivel superior de grado y pregrado. 
--Formato de la actividad (virtual, presencial, blended) Blended ( evento presencial con actividades online y página web exclusiva) 
--Frecuencia: anual 
--Estrategia(s) de comunicación: Campañas de redes sociales, vía pública y televisión, alianzas con municipios y contacto directo con la Dirección General de Escuelas de Mendoza y los gabinetes de orientación pedagógica de colegios secundarios de toda la provincia. 
--Público objetivo : Estudiantes de últimos años de colegios secundarios y egresados de nivel medio.
--Lugar donde se desarrolla la actividad:  Nave Universitaria, Mendoza 
--Estrategias que se utilizaron para garantizar el éxito de la actividad
-FERIA DE CIENCIAS/ OLIMPÍADA ARGENTINA DE CIENCIAS JUNIOR
-Feria de ciencias / Olimpíada Argentina de Ciencias Junior
--Tipo de actividad :Feria / competencia 
--Su principal objetivo: promover vocaciones en los jóvenes por las Ciencias Experimentales y la valoración del quehacer científico desde temprana edad e incentivar a los docentes a una continua actualización en los contenidos, de tal forma de colaborar con el sistema educativo en el mejoramiento de la enseñanza de las ciencias experimentales
--Formato de la actividad: Presencial con una feria  de ciencias y evaluaciones para las olimpiadas en diversos colegios de Mendoza. 
--Frecuencia: anual 
--Estrategia(s) de comunicación: Campañas de redes sociales y contacto con los gabinetes de orientación pedagógica de colegios secundarios de toda la provincia. 
--Público objetivo : Estudiantes de últimos años de colegios primarios y  secundarios.
--Lugar donde se desarrolla la actividad:  Nave Universitaria, Mendoza 
-CONCURSO EMPRENDE U 
--Tipo de actividad :Competencia 
--Su principal objetivo: promover vocaciones en los jóvenes por las Ciencias Experimentales y la valoración del quehacer científico desde temprana edad e incentivar a los docentes a una continua actualización en los contenidos, de tal forma de colaborar con el sistema educativo en el mejoramiento de la enseñanza de las ciencias experimentales
--Formato de la actividad: Presencial con una feria  de ciencias y evaluaciones para las olimpiadas en diversos colegios de Mendoza. 
--Frecuencia: anual 
--Estrategia(s) de comunicación: Campañas de redes sociales y contacto con los gabinetes de orientación pedagógica de colegios secundarios de toda la provincia. 
--Público objetivo : Estudiantes de últimos años de colegios primarios y  secundarios.
--Lugar donde se desarrolla la actividad:  Nave Universitaria, Mendoza 
- El objetivo principal es estimular entre los participantes  de nivel primario y secundario la capacidad para abordar problemas en el contexto local, a través de ideas innovadoras respaldadas por avances tecnológicos que tengan un impacto positivo en los ámbitos social, ambiental, económico y cultural.
-</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1Us66-jMg7g7CNg5Ww86Xi8DWsgzR3paB</t>
@@ -381,37 +270,10 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">La UNCUYO dentro su época fuerte de promoción dle ingreso elabora lo que se llama "Laboratorio abierto" en el que se invita a chicos de escuelas secundarias a conocer las instalaciones de investigación de las distintas Unidades académcias de la UNCUYO. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">La UNCUYO ofrece un programa de becas general ( sin distinción de género ni carrera ) para aquellos estudiantes secundarios que deseen estudiar en nuestra universidad. Luego facultades como Ciencias Exactas y Naturales  tienen becas propias para sus estudiantes una vez inscriptos. En algunos casos incluso se cuenta con becas financiadas por empresas.
-A nivel Nacional existen becas nacionales para carreras consideradas como estratégicas para la República Argentina y dentro de ellas se encuentran multiples diplomas de la línea STEM . 
-Esta línea de becas se llama Manuel Belgrano y BECAS progresar 
-https://www.argentina.gob.ar/educacion/becas/becas-manuel-belgrano
-Progresar carreras estratégicas 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dato no relevado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No aplica </t>
-  </si>
-  <si>
-    <t>no aplica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cada Facultad posee un  Servicio de Apoyo Pedagógico y Orientación al Estudiante (SAPOE) que junto con TRACES ( coordinación de Trayectorias Académicas y Articulación Interinstitucional ) buscan captar y acompañar a estudiantes en riesgo de deserción . </t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financiamiento para finalización de doctorados exclusivo para mujeres 
-</t>
   </si>
   <si>
     <t xml:space="preserve">El 54% del staff docente UNCUYO es femenino. 
@@ -439,9 +301,6 @@
   </si>
   <si>
     <t>b) 26-50%</t>
-  </si>
-  <si>
-    <t>e) Departamento de relaciones internacionales</t>
   </si>
   <si>
     <t>El principal obstáculo es no contar con una política universitaria que priorice a   las carreras STEM ni a la  perspectiva de género en las mismas.</t>
@@ -532,13 +391,6 @@
     <t>https://drive.google.com/open?id=15ZykW4EvXQB5KXuVt8_PCTuVc2GIE-xz</t>
   </si>
   <si>
-    <t xml:space="preserve">1.	Talleres Hands On STEAM: actividades que fomentan la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas. Se realizan en el campus de manera trimestral.   
-2.	Visitas a centros educativos: espacio breve que nos ceden en los centros seleccionados para mostrar la oferta académica disponible; está sujeto a la disponibilidad de cada centro, ya visitamos el suyo, si requieren otra visita, nos notifican. 
-3.	Visitas guiadas individuales y grupales: grupos de interesados que visitan nuestro campus y conocen la oferta académica e informaciones relevantes de espacio, beneficios, servicios, laboratorios y áreas comunes de la institución. Las individuales se realizan los viernes a las 3:30 p.m. y las grupales requieren de una coordinación previa conforme a la cantidad de estudiantes que estarán y disponibilidad del centro educativo. Pueden agendar aquí https://www.intec.edu.do/acerca-de-intec/el-campus/visitas-guiadas 
-4.	Jornadas informativas y charlas de orientación vocacional virtual/presencial: servicio de asesoría brindado en campus y centros educativos para que los interesados indecisos puedan tener un poco de claridad en la decisión a tomar sobre la carrera que les apasiona. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">274. Todos siguen estudiando actualmente. </t>
   </si>
   <si>
@@ -587,20 +439,6 @@
     <t>No</t>
   </si>
   <si>
-    <t xml:space="preserve">Intec creo en el 1987 el Programa Intec con los estudiantes sobresalientes, A través de este programa otorgamos becas a estudiantes destacados de escuelas públicas y privadas en todo el país, reconociendo su esfuerzo y altos índices académicos. Somos pionero en el reconocimiento y otorgamiento de becas totales y parciales a jóvenes que han demostrado talento.
-Este año el programa fue enfocado específicamente a carreras STEM. 
-Conocer más aquí:
-https://youtu.be/s2za9OjuOE8?si=r5tq9Yn2bSELCJhb
-https://www.intec.edu.do/admisiones/informacion-financiera/becas
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El programa de becas PIES, tiene un total de 168 estudiantes activos matriculados, de los cuales aprox. el 75% cursan carreras STEM.
-37% hombres
-63% mujeres
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Las calificaciones con las que los candidatos deben de cumplir para tomar en cuenta su participación en la convocatoria, son las siguientes: 
 	Haber obtenido, durante los grados 3°, 4°, 5° y 6° de la secundaria, un mínimo de noventa (90) puntos en las asignaturas de Lengua Española, Matemáticas, Ciencias Sociales y Ciencias de la Naturaleza en el año escolar.
 	Haber obtenido, durante los grados 3º, 4º, 5º y 6º del nivel secundario, un mínimo de ochenta (80) puntos en cada una del resto de las asignaturas cursadas en cada año.
@@ -615,25 +453,13 @@
 </t>
   </si>
   <si>
-    <t>Existen dos tipos: Voluntaria e Involuntaria. La voluntaria se da cuando el estudiante por temas financieros, familiares o por financiamiento para otra institución dentro o fuera del país, decide irse.  La Involuntaria ocurre cuando el estudiante es separado por la institución por no cumplir con los requerimientos de reglamentos (Índice académico, permanencia, por retiro de asignaturas, prueba académica, etc.)</t>
-  </si>
-  <si>
     <t>La universidad cuenta con un área de consejería académica en desarrollo profesoral, que son centros consejeros que brindan apoyo a los estudiantes. En la unidad de Desarrollo Estudiantil, el área de consejería estudiantil, para brindarles asistencia académica a los estudiantes, a su vez, en sus áreas académicas y coordinadores de carrera, también se les brinda apoyo a los estudiantes.  También se realizan evaluaciones de los riesgos académicos, en donde trimestralmente se les envían notificaciones vía correo electrónico en caso de que el estudiante caiga en una condición académica que ponga en riesgo su permanencia en la universidad. A nivel de sistema, se colocan niveles de alerta dependiendo la magnitud del riesgo que enfrente, desde el área de consejería académica. Estas estrategias son indistintas para hombres y mujeres.</t>
   </si>
   <si>
     <t>La mayor estrategia es el acompañamiento continuo a los estudiantes por sus coordinadores académicos, consejería estudiantil y docentes consejeros.</t>
   </si>
   <si>
-    <t>Si. Anexo enlaces a las informaciones.
-https://hoy.intec.edu.do/evento/mujeres-en-stem-2023/
-https://www.intec.edu.do/notas-de-prensa/item/intec-y-bhd-firman-declaracion-en-apoyo-a-formacion-de-mujeres-en-carreras-stem
-https://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales</t>
-  </si>
-  <si>
     <t>No existe discriminación por sexo en las estrategias que la universidad implementa</t>
-  </si>
-  <si>
-    <t>https://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales</t>
   </si>
   <si>
     <t>28.29% (114 de 403 profesores)</t>
@@ -794,23 +620,6 @@
     <t>https://drive.google.com/open?id=1lWND5O6iEU0UuNxiPDRcJ3pwsEmnKliu</t>
   </si>
   <si>
-    <t xml:space="preserve">Se realizan distinto tipo de actividades en colaboración con los colegios. Desde actividades puntuales como charlas, paneles, jornadas o talleres hasta actividades inmersivas, ferias o acciones de acompañamiento y formación de orientadores en los colegios. En el último período (campaña 2024) se realizaron:
-- 1 actividad de formación en Institutos de Formación docente a la que asistieron 1193 personas. 
-- 1 Actividad Especial "Destino ITBA" en la que participaron 202 personas
-- 1 Semanas de las vocaciones, en la que participaron 113 personas.
-- 10 charlas virtuales, 3 clases abiertas, 3 clases para colegios, 38 charlas a equipos colegios, 12 visitas de Colegios al ITBA con una participación de 2000 personas.
-- Talleres de distinto tipo: de las carreras en el ITBA, de las carreras en los colegios, Orientación Vocacional en colegios, Orientación Vocacional en el ITBA orientado a 600 personas.
-- Ferias: en CABA, en las provincias.
-- Entrevistas de relacionamiento con colegios
-- Experiencias inmersivas y de aproximación al mundo profesional.
-- Encuentros con graduados/as en sus empresas, recibiendo a más de 100 futuros estudiantes en el programa "Aliados de tu futuro".
-En este período se realizaron acciones en la que participaron 8234 personas.
-Información disponible en: 
-Desafío ITBA: https://www.itba.edu.ar/desafio-itba-en-negocios/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=AO2024&amp;utm_source_platform=google&amp;utm_creative_format=textads&amp;utm_content=Eve_Gra_DesafioITBA_Marca&amp;gad_source=1&amp;gclid=Cj0KCQjwpNuyBhCuARIsANJqL9Pxe5E-xSKxMRM8nsNvp5m7PMm18RKeJ2DskWcK8Jom1JIZgVpTMSsaAjpsEALw_wcB
-ITBA FUTURE DAY 2024: https://www.itba.edu.ar/future-day/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=AO2024&amp;utm_source_platform=Google&amp;utm_creative_format=textads&amp;utm_content=Eve_Gra_FutureDay_Mar&amp;gad_source=1&amp;gclid=Cj0KCQjwpNuyBhCuARIsANJqL9Mq6vo46kClJ3X1YfgVCIdfrBhLysu8EG_DXz6cH4lY8WjVX7StSK0aAnVCEALw_wcB
-</t>
-  </si>
-  <si>
     <t>https://drive.google.com/open?id=1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7</t>
   </si>
   <si>
@@ -874,10 +683,6 @@
   </si>
   <si>
     <t>Los diferentes tipos de becas ofrecidos por la Universidad se dan a conocer a través de la página institucional del ITBA, difusiones y eventos en colegios organizados por el departamento de Ingreso del ITBA, así como diferentes actividades y encuentros realizados en la Universidad y difusión en Redes Sociales.</t>
-  </si>
-  <si>
-    <t>Reorientación vocacional/cambio de área de estudio, motivos económicos, dificultades en el rendimiento académico, motivos personales, mudanza a otro país.
-Los motivos son detallados por ellos mismos, dado que siempre que solicitan o consultan por temas de baja tienen la opción de acceder a una breve entrevista personal, y luego completar un formulario de baja donde pueden detallar estos mismos.</t>
   </si>
   <si>
     <t xml:space="preserve">Desde el área de Bienestar Estudiantil, el cual se compone de Tutorías, Bienestar y Becas se implementan acciones destinadas a identificar y apoyar a los estudiantes en riesgo:
@@ -2230,9 +2035,6 @@
     <t>Nombre de la iniciativa</t>
   </si>
   <si>
-    <t>Objectivo</t>
-  </si>
-  <si>
     <t>Resumen/Descripción</t>
   </si>
   <si>
@@ -2278,12 +2080,6 @@
     <t>Nave Universitaria, Mendoza</t>
   </si>
   <si>
-    <t>Promover vocaciones en los jóvenes por las Ciencias Experimentales y la valoración del quehacer científico desde temprana edad e incentivar a los docentes a una continua actualización en los contenidos.</t>
-  </si>
-  <si>
-    <t>Feria de ciencias / Olimpíada Argentina de Ciencias Junior</t>
-  </si>
-  <si>
     <t>Anual</t>
   </si>
   <si>
@@ -2293,21 +2089,12 @@
     <t>Feria</t>
   </si>
   <si>
-    <t>Blended (evento presencial con actividades online y página web exclusiva)</t>
-  </si>
-  <si>
-    <t>Informar a estudiantes secundarios y egresados sobre oportunidades de estudio a nivel superior de grado y pregrado.</t>
-  </si>
-  <si>
     <t>Evento anual presencial y virtual organizado por la UNCUYO para promocionar sus carreras con estudiantes secundarios como público objetivo.</t>
   </si>
   <si>
     <t>FERIA DE CIENCIAS/ OLIMPÍADA ARGENTINA DE CIENCIAS JUNIOR</t>
   </si>
   <si>
-    <t>Primaria/Secundaria</t>
-  </si>
-  <si>
     <t>Estudiantes de últimos años de colegios primarios y secundarios</t>
   </si>
   <si>
@@ -2326,9 +2113,6 @@
     <t>Atracción</t>
   </si>
   <si>
-    <t>Talleres Hands On STEAM</t>
-  </si>
-  <si>
     <t>Estudiantes de colegio</t>
   </si>
   <si>
@@ -2338,97 +2122,22 @@
     <t>Campus INTEC</t>
   </si>
   <si>
-    <t>Fomentar la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas</t>
-  </si>
-  <si>
     <t>Actividades que fomentan la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas. Se realizan en el campus de manera trimestral.</t>
   </si>
   <si>
     <t>Trimestral</t>
   </si>
   <si>
-    <t>Visitas a centros educativos</t>
-  </si>
-  <si>
-    <t>Charlas</t>
-  </si>
-  <si>
-    <t>Centros educativos seleccionados</t>
-  </si>
-  <si>
-    <t>Mostrar la oferta académica disponible en el INTEC</t>
-  </si>
-  <si>
     <t>Espacio breve que ceden los centros seleccionados para mostrar la oferta académica disponible; está sujeto a la disponibilidad de cada centro.</t>
   </si>
   <si>
-    <t>Según disponibilidad del centro educativo</t>
-  </si>
-  <si>
-    <t>Visitas guiadas individuales y grupales</t>
-  </si>
-  <si>
-    <t>Visitas guiadas</t>
-  </si>
-  <si>
-    <t>Conocer la oferta académica e informaciones relevantes de espacio, beneficios, servicios, laboratorios y áreas comunes de la institución</t>
-  </si>
-  <si>
-    <t>Grupos de interesados que visitan el campus y conocen la oferta académica e informaciones relevantes de espacio, beneficios, servicios, laboratorios y áreas comunes de la institución. Las individuales se realizan los viernes a las 3:30 p.m. y las grupales requieren de una coordinación previa conforme a la cantidad de estudiantes que estarán y disponibilidad del centro educativo.</t>
-  </si>
-  <si>
-    <t>Viernes a las 3:30 p.m. (visitas individuales), previa coordinación (visitas grupales)</t>
-  </si>
-  <si>
-    <t>Jornadas informativas y charlas de orientación vocacional</t>
-  </si>
-  <si>
-    <t>Charlas de orientación vocacional</t>
-  </si>
-  <si>
-    <t>Virtual/Presencial</t>
-  </si>
-  <si>
     <t>Campus INTEC y centros educativos</t>
   </si>
   <si>
-    <t>Servicio de asesoría para que los interesados indecisos puedan tener claridad en la decisión a tomar sobre la carrera que les apasiona</t>
-  </si>
-  <si>
     <t>Servicio de asesoría brindado en campus y centros educativos para que los interesados indecisos puedan tener un poco de claridad en la decisión a tomar sobre la carrera que les apasiona.</t>
   </si>
   <si>
     <t>Según demanda</t>
-  </si>
-  <si>
-    <t>Destino ITBA</t>
-  </si>
-  <si>
-    <t>Charlas, talleres</t>
-  </si>
-  <si>
-    <t>ITBA, CABA, y provincias</t>
-  </si>
-  <si>
-    <t>Orientar a estudiantes sobre las carreras del ITBA</t>
-  </si>
-  <si>
-    <t>Charlas y talleres en el ITBA y colegios, con participación de 202 personas en la actividad especial 'Destino ITBA'</t>
-  </si>
-  <si>
-    <t>Semana de las vocaciones</t>
-  </si>
-  <si>
-    <t>Charlas y talleres en el ITBA y colegios, con participación de 113 personas en la actividad especial 'Semana de las vocaciones'</t>
-  </si>
-  <si>
-    <t>Future Day</t>
-  </si>
-  <si>
-    <t>Mostrar los desarrollos y laboratorios del ITBA</t>
-  </si>
-  <si>
-    <t>Actividad abierta a la comunidad donde se abren todos los laboratorios y los desarrollos (auto electrónico, el cohete, el auto de carrera) de la Universidad con una convocatoria de más de 1000 personas por edición.</t>
   </si>
   <si>
     <t>Ferias universitarias en colegios</t>
@@ -2674,6 +2383,695 @@
   </si>
   <si>
     <t>Licenciatura (Pregrado)</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>Reorientación vocacional/cambio de área de estudio, motivos económicos, dificultades en el rendimiento académico, motivos personales, mudanza a otro país.
+Los motivos son detallados por ellos mismos, dado que siempre que solicitan o consultan por temas de baja tienen la opción de acceder a una breve entrevista personal, y luego completar un formulario de baja donde pueden detallar estos mismos.                                                                                                                                                                                                                                                                                                                       En específico, al tener tan bajo porcentaje de abandono y al realizar seguimiento de trayectorias de manera robusta no se posee un sistema de métrica para medir deserción como sería en el caso de una Universidad Pública en nuestro país o masiva. Sin embargo, sí existe una métrica institucional a considerar que es el abandono de dos semestres consecutivos. Esta supone una baja automática del estudiante. 
+Al tratarse de una Universidad privada y especializada en temas de Ciencia y Tecnología, en términos comparativos posee una matrícula en la que es posible realizar seguimiento de trayectorias. Por este motivo, poseemos baja deserción y las razones de la misma suelen darse por los motivos esgrimidos en el formulario: reorientación vocacional, motivos económicos, motivos personales como mudanzas a otros países, etc. 
+Existen muy pocos casos, de ninguna manera significativos en términos estadísticos de expulsión (por faltas graves al Código de conducta de la Universidad).
+En todos los casos una baja se encuentra relacionada a una entrevista personal con el estudiante con el equipo de Vida Universitaria que forma parte de la Secretaría Académica de la Universidad. 
+En términos de indicadores, para realizar seguimiento de trayectoria que podrían tener impacto en eventuales decisiones de deserción se tiene en cuenta:
+-	Factores económicos y relación con el sistema de becas de la Universidad para garantizar de la manera más plena la terminalidad de las trayectorias.
+-	Rendimiento académico: cantidad de materias cursadas por cuatrimestre (es deseable un mínimo de 4 materias por cuatrimestre), cantidad de materias aprobadas por cuatrimestre (es deseable un mínimo de 2 materias aprobadas por cuatrimestre) y cantidad de veces que se recursa de una misma materia (en la actualidad y aunque se encuentra en proceso de cambio, los/as estudiantes pueden recursar las materias sin límite de oportunidades. Pero 3 intentos es motivo de entrevista con el área responsable de seguimiento de trayectorias). Es importante considerar que un estudiante ITBA posee una dedicación semanal de 24 horas presenciales en la Universidad. 
+-	Promedio 
+-	Adecuaciones curriculares necesarias y actualización de informes. sociopsicodiagnóstico de los/as estudiantes (cuando se requiere).
+-	Situaciones personales y/o familiares que pudieran afectar el rendimiento académico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se realizan distinto tipo de actividades en colaboración con los colegios. Desde actividades puntuales como charlas, paneles, jornadas o talleres hasta actividades inmersivas, ferias o acciones de acompañamiento y formación de orientadores en los colegios. En el último período (campaña 2024) se realizaron:
+- 1 actividad de formación en Institutos de Formación docente a la que asistieron 1193 personas. 
+- 1 Actividad Especial "Destino ITBA" en la que participaron 202 personas
+- 1 Semanas de las vocaciones, en la que participaron 113 personas.
+- 10 charlas virtuales, 3 clases abiertas, 3 clases para colegios, 38 charlas a equipos colegios, 12 visitas de Colegios al ITBA con una participación de 2000 personas.
+- Talleres de distinto tipo: de las carreras en el ITBA, de las carreras en los colegios, Orientación Vocacional en colegios, Orientación Vocacional en el ITBA orientado a 600 personas.
+- Ferias: en CABA, en las provincias.
+- Entrevistas de relacionamiento con colegios
+- Experiencias inmersivas y de aproximación al mundo profesional.
+- Encuentros con graduados/as en sus empresas, recibiendo a más de 100 futuros estudiantes en el programa "Aliados de tu futuro".
+En este período se realizaron acciones en la que participaron 8234 personas.
+Desafío ITBA
+•	Tipo de actividad: concurso 
+•	Su principal objetivo o problema que pretende abordar: abordar temáticas relevantes y vinculadas al campo de los negocios y las tecnologías desde una metodología específica. Propiciar el análisis de los temas y el acercamiento a una experiencia de debate en la Universidad. 
+A partir de un concurso, estudiantes de 17 a 19 años presentan ensayos breves sobre el tema del año. En esto se valora la originalidad, la referencias (Autores y Papers), la estructura (Introducción, desarrollo y conclusiones), el enfoque (Desde dónde abordaron la temática planteada), la profundidad de análisis (Las conclusiones a las que arriban deben tener coherencia con el desarrollo del ensayo) y las conclusiones/Propuesta. 
+Los ensayos seleccionados son presentados y debatidos con expertos/as y otros/as jóvenes en jornadas. Los/as estudiantes destacados/as son reconocidos con premios y becas para estudiar en la Universidad.
+•	Formato de la actividad: presencial
+•	Frecuencia: una vez al año
+•	Estrategia(s) de comunicación: redes, publicaciones en medios de comunicación social, comunicación direccionada a escuelas secundarias del país, avisos en boletines institucionales de graduados/as, internos, otros.
+•	Público objetivo: alumnos/as regulares de escuela secundaria cursando su último año o egresados/as de colegio (no mayor a 19 años y no habiendo iniciado estudios en ITBA).
+•	Lugar donde se desarrolla la actividad: ITBA
+•	Estrategias utilizadas para garantizar el éxito de la actividad: abordaje de temas de actualidad y relevancia en el campo de los negocios y las tecnologías (por ejemplo en el 2023: El impacto de la Inteligencia Artificial (IA) en la sociedad), metodologías de trabajo centradas en el debate, participación de expertos/as destacados en las temáticas, retroalimentación de las presentaciones realizadas, otorgamiento de becas para estudiar en la Universidad.
+•	¿La actividad cumplió con su objetivo principal? ¿Cómo se evalúa su impacto?: desde el 2013 se realiza una edición anual de manera sostenida. Muchos/as estudiantes que participan de esta actividad son aspirantes de Ingreso a la Universidad y quiénes son reconocidos con becas del 75% y 50% estudian en ITBA.
+Taller para Orientadores vocacionales de Escuelas Secundarias
+•	Tipo de actividad: taller + red virtual
+•	Su principal objetivo o problema que pretende abordar: generar un espacio de reflexión sobre la orientación vocacional (abordajes, metodologías, experiencias) en la escuela secundaria, con especial referencia a carreras de STEM. Propiciar el diálogo entre escuela y universidad y fortalecer lazos de colaboración entre instituciones para el acompañamiento de estudiantes jóvenes en los procesos de decisión vocacional.
+•	Formato de la actividad: el taller es presencial y la red es virtual
+•	Frecuencia: una vez al año 
+•	Estrategia(s) de comunicación: por invitación. Comunicación direccionada a Escuelas secundarias de nuestro país.
+•	Público objetivo: profesionales que se desempeñan en áreas vinculadas a la orientación vocacional en las escuelas: tutores, mentores, psicólogos, psicopedagógos, preceptores, otros.
+•	Lugar donde se desarrolla la actividad: ITBA
+•	Estrategias utilizadas para garantizar el éxito de la actividad: dinámicas que integran espacios para la presentación de experiencias y la discusión abierta de problemáticas comunes. La participación de conferencistas especializados. Trabajo colaborativo y dinámicas de networking. Acciones pre-taller y acciones comunes pos-taller.
+•	¿La actividad cumplió con su objetivo principal? ¿Cómo se evalúa su impacto? (opcional): Sí. Se realizó como prototipo de actividad el año pasado y a partir de su éxito se armaron dos experiencias más en el segundo semestre del año pasado y para este año a solicitud de las escuelas participantes, sumando para la edición de agosto de este año a nuevas escuelas secundarias. Se fortaleció el vínculo con las escuelas lo que posibilitó una nueva gama de consultas y diseño de actividades en las escuelas con estudiantes, algunas de ellas codiseñadas entre la Universidad y los equipos escolares.                                                                                                                                                                                                                                      Información disponible en: 
+Desafío ITBA: https://www.itba.edu.ar/desafio-itba-en-negocios/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=AO2024&amp;utm_source_platform=google&amp;utm_creative_format=textads&amp;utm_content=Eve_Gra_DesafioITBA_Marca&amp;gad_source=1&amp;gclid=Cj0KCQjwpNuyBhCuARIsANJqL9Pxe5E-xSKxMRM8nsNvp5m7PMm18RKeJ2DskWcK8Jom1JIZgVpTMSsaAjpsEALw_wcB
+ITBA FUTURE DAY 2024: https://www.itba.edu.ar/future-day/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=AO2024&amp;utm_source_platform=Google&amp;utm_creative_format=textads&amp;utm_content=Eve_Gra_FutureDay_Mar&amp;gad_source=1&amp;gclid=Cj0KCQjwpNuyBhCuARIsANJqL9Mq6vo46kClJ3X1YfgVCIdfrBhLysu8EG_DXz6cH4lY8WjVX7StSK0aAnVCEALw_wcB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intec creo en el 1987 el Programa Intec con los estudiantes sobresalientes, A través de este programa otorgamos becas a estudiantes destacados de escuelas públicas y privadas en todo el país, reconociendo su esfuerzo y altos índices académicos. Somos pionero en el reconocimiento y otorgamiento de becas totales y parciales a jóvenes que han demostrado talento.
+Este año el programa fue enfocado específicamente a carreras STEM. 
+Cobertura para Becas PIES                                                                                                                                                                                                                                                                                                                       Tipo Beca A: Cubre 100% de la matrícula y derecho a inscripción.
+Tipo Beca B: Cubre 85% de la matrícula y derecho a inscripción.
+Tipo Beca C: Cubre 75% de la matrícula y derecho a inscripción.
+Tipo Beca D: Cubre 60% de la matrícula y derecho a inscripción.
+Tipo Beca E: Cubre 50% de la matrícula y derecho a inscripción.
+Tipo Beca F: Cubre 40% de la matrícula y derecho a inscripción.
+El programa INTEC con los estudiantes sobresalientes (PIES), no ofrece a sus beneficiarios alojamiento, alimentación y/o transporte.Conocer más aquí:
+https://youtu.be/s2za9OjuOE8?si=r5tq9Yn2bSELCJhb
+https://www.intec.edu.do/admisiones/informacion-financiera/becas
+</t>
+  </si>
+  <si>
+    <t>El programa de becas PIES, tiene un total de 168 estudiantes activos matriculados, de los cuales aprox. el 75% cursan carreras STEM.
+37% hombres
+63% mujeres
+Por el momento para las poblaciones subrepresentadas de estudiantes becados PIES con discapacidad se realiza a través de la Encuesta de Nuevo Ingreso (ENI) del INTEC en la cual se levantan las preguntas del grupo Washington (https://idrr.cbm.org/es/card/cuestionario-de-washington-group ), pero no de la población total. La ENI se está realizando desde el segundo trimestre del 2023 (ver las observaciones dentro del Excel “Estudiantes STEM con algún tipo de discapacidad”. Dentro de los 76 becados en STEM, solo 19 completaron la encuesta y 1 se identificaba con mucha dificultad.
+Otros grupos subrepresentados no han sido identificados.</t>
+  </si>
+  <si>
+    <t>Existen dos tipos: Voluntaria e Involuntaria. La voluntaria se da cuando el estudiante por temas financieros, familiares o por financiamiento para otra institución dentro o fuera del país, decide irse.  La Involuntaria ocurre cuando el estudiante es separado por la institución por no cumplir con los requerimientos de reglamentos (Índice académico, permanencia, por retiro de asignaturas, prueba académica, etc.)                                                                                                                                                                                                                                                           Las métricas de deserción reglamentarias serian estas:
+Artículo 118. Un estudiante quedará separado del INTEC cuando:
+a) Obtenga la condición de Prueba Académica por cuarta vez.
+b) Exceda el tiempo máximo de permanencia en la institución establecido en artículo 113 de este reglamento.
+c) Curse una misma asignatura o su equivalente el número máximo de veces establecido en el Art.110 sin aprobarla.
+d) Cuando su condición de progreso académico, en términos de permanencia institucional, indique que no concluirá satisfactoriamente su plan de estudio acorde a lo establecido en el artículo 112.
+Aquí el link del reglamento de grado:
+chrome-extension://efaidnbmnnnibpcajpcglclefindmkaj/https://www.intec.edu.do/downloads/documents/institucionales/reglamentos/INTEC-RGA-001_Reglamento_Academico_de_Grado.pdf</t>
+  </si>
+  <si>
+    <t>Actividad: Mujeres en STEM 2023
+Objetivo: Durante esta actividad se presentaron los retos que enfrenta la mujer dominicana al entrar a carreras STEM, así como su desarrollo y éxito en las mismas. Las panelistas explicaron de qué forma se puede intentar cerrar la brecha de género.
+Frecuencia: Única vez
+Link: Grabación: https://www.youtube.com/watch?v=8-ZNaQ9XWW0
+Evento: https://hoy.intec.edu.do/evento/mujeres-en-stem-2023/
+Más información: https://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales
+________________________________________
+Actividad: INTEC y BHD firman declaración en apoyo a formación de mujeres en carreras STEM
+Objetivo: Promover que más mujeres dominicanas estudien carreras vinculadas a ciencia, tecnología, ingeniería y matemáticas (STEM), con el propósito de promover el desarrollo en sectores de vanguardia y potenciar el crecimiento del capital tecnológico en nuestro país.
+Frecuencia: Única vez
+Link: https://www.intec.edu.do/notas-de-prensa/item/intec-y-bhd-firman-declaracion-en-apoyo-a-formacion-de-mujeres-en-carreras-stem
+________________________________________
+Actividad: Pese a ser mayoría en universidades, mujeres tienen menor participación en carreras de ciencias, matemáticas, ingeniería y tecnologías
+Objetivo: Un informe preparado por el Centro de Estudios de Género del INTEC revela que en las profesiones sobre Tecnologías de la Información y la Comunicación, solo un 18 % de la matrícula corresponde a mujeres.
+Frecuencia: Única vez
+Link: https://www.intec.edu.do/notas-de-prensa/item/pese-a-ser-mayoria-en-universidades-mujeres-tienen-menor-participacion-en-carreras-de-ciencias-matematicas-ingenieria-y-tecnologias
+________________________________________
+Actividad: INTEC lleva la educación STEM a las escuelas
+Objetivo: El Instituto Tecnológico de Santo Domingo (INTEC) ha alcanzado a 882 estudiantes y 91 docentes de 11 centros educativos a nivel nacional con el programa STEM-INTEC, a través del cual la universidad promueve la formación en ciencia, tecnología, ingeniería y matemáticas por medio de experiencias de enseñanza innovadoras.
+Frecuencia: Única vez
+Link: https://elnuevodiario.com.do/intec-lleva-la-educacion-stem-a-las-escuelas/
+________________________________________
+Actividad: Centro de Estudios de Género de INTEC recomienda implementar política de igualdad de género en todos los niveles educativos
+Objetivo: El Centro de Estudios de Género del Instituto Tecnológico de Santo Domingo (CEG-INTEC) abogó por el diseño y la implementación de una política de igualdad de género en todos los niveles y modalidades educativas en República Dominicana.
+Frecuencia: Única vez
+Link: https://www.intec.edu.do/notas-de-prensa/item/centro-de-estudios-de-genero-de-intec-recomienda-implementar-politica-de-igualdad-de-genero-en-todos-los-niveles-educativos?highlight=WyJtdWplciIsIm11amVyZXMiXQ==Si. Anexo enlaces a las informaciones.
+https://hoy.intec.edu.do/evento/mujeres-en-stem-2023/
+https://www.intec.edu.do/notas-de-prensa/item/intec-y-bhd-firman-declaracion-en-apoyo-a-formacion-de-mujeres-en-carreras-stem
+https://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales</t>
+  </si>
+  <si>
+    <t>Actividad: Mujeres en STEM 2023
+Objetivo: Durante esta actividad se presentaron los retos que enfrenta la mujer dominicana al entrar a carreras STEM, así como su desarrollo y éxito en las mismas. Las panelistas explicaron de qué forma se puede intentar cerrar la brecha de género.
+Frecuencia: Única vez
+Link: Grabación: https://www.youtube.com/watch?v=8-ZNaQ9XWW0
+Evento: https://hoy.intec.edu.do/evento/mujeres-en-stem-2023/
+Más información: https://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales
+________________________________________
+Actividad: INTEC y BHD firman declaración en apoyo a formación de mujeres en carreras STEM
+Objetivo: Promover que más mujeres dominicanas estudien carreras vinculadas a ciencia, tecnología, ingeniería y matemáticas (STEM), con el propósito de promover el desarrollo en sectores de vanguardia y potenciar el crecimiento del capital tecnológico en nuestro país.
+Frecuencia: Única vez
+Link: https://www.intec.edu.do/notas-de-prensa/item/intec-y-bhd-firman-declaracion-en-apoyo-a-formacion-de-mujeres-en-carreras-stemhttps://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Facultad de Ciencias Exactas y Naturales (FCEN):
+Licenciatura en Ciencias Básicas: Orientación Física, Química o biología 
+Profesorado de Grado Universitario en Ciencias Básicas
+Licenciado/a en Geología
+Facultad de Ciencias Médicas (FCM): 
+Medicina
+Licenciatura en Enfermería
+Ciclo de Licenciatura en Higiene y Seguridad en el Trabajo
+Tecnicatura Universitaria en Diagnóstico por Imágenes
+Tecnicatura Universitaria en Laboratorio
+Tecnicatura Universitaria en Quirófano
+Tecnicatura Universitaria en Anestesia
+Facultad de Ingeniería (FING): 
+Arquitectura
+Ingeniería Civil
+Ingeniería en Petróleo
+Ingeniería Industrial
+Ingeniería Mecatrónica
+Licenciatura en Ciencias de la Computación
+Instituto Balseiro (IB) 
+Licenciatura en Física
+Ingeniería Nuclear
+Ingeniería Mecánica
+Ingeniería en Telecomunicaciones
+Facultad de Ciencias Aplicadas a la Industria (FCAI) 
+Bromatología
+Tecnicatura Universitaria en Enología y Viticultura
+Ingeniería en Alimentos
+Ingeniería Química
+Ingeniería Mecánica
+Profesorado Universitario en Química
+Facultad de Ciencias Agrarias (FCA) 
+Tecnicatura Universitaria en Enología y Viticultura
+Bromatología
+Ingeniería Agronómica
+Ingeniería en Recursos Naturales Renovables
+Licenciatura en Bromatología
+Instituto Tecnológico Universitario (ITU) 
+Tecnicatura Universitaria en Desarrollo de Software
+Tecnicatura Universitaria en Redes de Datos y Telecomunicaciones
+Tecnicatura Universitaria en Gestión de Empresas
+Tecnicatura Universitaria en Higiene y Seguridad en el Trabajo
+Tecnicatura Universitaria en Logística y Transporte
+Tecnicatura Universitaria en Marketing
+Tecnicatura Universitaria en Producción Industrial y Automatización
+Tecnicatura Universitaria en Mantenimiento e Instalaciones Industriales
+Numero adjuntados por el área de estadística de la UNCUYO 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En UNCUYO la tasa de deserción es del 83 % ( dato obtenido por el área de Estadística UNCUYO) (ver documento adjunto ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los porcentajes informados son sobre “INGRESANTES” ( se adjunta documento) 
+Esta Dirección no dispone de la misma información para la totalidad de Estudiantes, debido a que es un dato solicitado al momento de ingresar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La única variable relevada y procesada por la dirección de estadística UNCUYO  que puede evidenciar nivel socioeconómico de los estudiantes,  es situación de trabajo. Se adjunta documento. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">61% gran mendoza 
+18% no informado
+0% del extranjero 
+3% resto del país
+18% otros departamentos de Mendoza 
+Se adjunta gráfico </t>
+  </si>
+  <si>
+    <t>Se adjunta documento</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eifflGhIC_z-HgaDlM-xaG5mMd9gqUPk</t>
+  </si>
+  <si>
+    <t>Carlos Francisco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I.	Actividad: Talleres Hands On STEAM  
+Tipo: Taller  
+Objetivo principal: Fomentar la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas.  
+Formato: Presencial  
+Frecuencia: Trimestral  
+Estrategias de comunicación: 
+- Publicaciones regulares, historias y contenido interactivo en plataformas como Instagram, Facebook, LinkedIn y WhatsApp.
+- Envío de correos informativos personalizados y recordatorios de eventos.
+- Utilización de herramientas de chat en vivo para responder preguntas en tiempo real.
+- Uso de plataformas como WhatsApp para una comunicación rápida y personalizada.
+- Identificación de diferentes segmentos de estudiantes (por ejemplo, interesados en ciencias, artes, tecnología) y personalización de los mensajes para cada grupo.
+- Uso de datos para adaptar la comunicación a las necesidades y preferencias de los estudiantes.  
+Público objetivo: 
+- Egresados de secundaria
+- Estudiantes de secundaria
+- Interesados en carreras STEM  
+Lugar donde se desarrolla: Campus INTEC  
+Estrategias utilizadas para garantizar el éxito de la actividad: 
+- Utilizar plataformas digitales como Instagram, Facebook y TikTok para generar interés y engagement.
+- Enviar correos electrónicos personalizados con información sobre eventos y actividades próximas.
+- Colocar campañas de publicidad pagada en redes sociales para alcanzar a una audiencia más amplia y segmentada según intereses, ubicación y comportamiento en línea.
+- Desarrollar campañas temáticas que resalten cómo las actividades permiten al interesado conocer parte de lo que verán en sus estudios de carrera y también, lo que harán al egreso del programa.
+II.	Actividad: Jornadas informativas y charlas de orientación vocacional virtual/presencial  
+Tipo: Charla / conversatorio  
+Objetivo principal: Asesorar a los interesados indecisos en la decisión sobre la carrera que les apasiona.  
+Formato: Presencial / virtual  
+Frecuencia: Trimestral  
+Estrategias de comunicación: 
+- Publicaciones regulares, historias y contenido interactivo en plataformas como Instagram, Facebook, LinkedIn y WhatsApp.
+- Envío de correos informativos personalizados y recordatorios de eventos.
+- Utilización de herramientas de chat en vivo para responder preguntas en tiempo real.
+- Uso de plataformas como WhatsApp para una comunicación rápida y personalizada.
+- Identificación de diferentes segmentos de estudiantes (por ejemplo, interesados en ciencias, artes, tecnología) y personalización de los mensajes para cada grupo.
+- Uso de datos para adaptar la comunicación a las necesidades y preferencias de los estudiantes.  
+Público objetivo: 
+- Egresados de secundaria
+- Estudiantes de secundaria
+- Interesados en carreras
+- Orientadores escolares  
+Lugar donde se desarrolla: 
+- Campus INTEC
+- ZOOM
+Estrategias utilizadas para garantizar el éxito de la actividad: 
+-	Utilizar plataformas digitales como Instagram, Facebook y TikTok para generar interés y engagement.
+-	Enviar correos electrónicos personalizados con información sobre eventos y actividades próximas.
+-	Colocar campañas de publicidad pagada en redes sociales para alcanzar a una audiencia más amplia y segmentada según intereses, ubicación, y comportamiento en línea.
+-	Desarrollar campañas temáticas que resalten cómo las actividades permiten al interesado conocer parte de lo que verán en sus estudios de carrera y también, lo que harán al egreso del programa. 
+III.	Actividad: Visitas a centros educativos  
+Tipo: Charla  
+Objetivo principal: Promover la oferta académica disponible en la institución.  
+Formato: Presencial / virtual  
+Frecuencia: De septiembre a mayo  
+Estrategias de comunicación: 
+- Publicaciones regulares, historias y contenido interactivo en plataformas como Instagram, Facebook, LinkedIn y WhatsApp.
+- Envío de correos informativos personalizados y recordatorios de eventos.
+- Utilización de herramientas de chat en vivo para responder preguntas en tiempo real.
+- Uso de plataformas como WhatsApp para una comunicación rápida y personalizada.
+- Identificación de diferentes segmentos de estudiantes (por ejemplo, interesados en ciencias, artes, tecnología) y personalización de los mensajes para cada grupo.
+- Uso de datos para adaptar la comunicación a las necesidades y preferencias de los estudiantes.  
+Público objetivo: 
+- Egresados de secundaria
+- Estudiantes de secundaria
+- Interesados en carreras
+- Orientadores escolares  
+Lugar donde se desarrolla: 
+- Centros educativos
+- ZOOM
+Estrategias utilizadas para garantizar el éxito de la actividad: 
+-	Enviar correos electrónicos personalizados con información sobre eventos y actividades próximas.
+-	Realizar jornadas de llamadas a los centros para validar la disponibilidad de agenda de cada centro. 
+Conversar con los coordinadores y orientadores de centros educativos para validar la preferencia en carreras de los estudiantes de 5to. y 6to. de secundaria.
+IV.	Actividad: Visitas guiadas individuales y grupales  
+Tipo: Charla  
+Objetivo principal: Promover la oferta académica disponible en la institución y aclarar dudas sobre las mismas.  
+Formato: Presencial  
+Frecuencia: Semanal (las individuales se realizan los viernes a las 3:30 p.m. y las grupales se agendan conforme a la cantidad de estudiantes y disponibilidad de los espacios en campus).  
+Estrategias de comunicación: 
+- Publicaciones regulares, historias y contenido interactivo en plataformas como Instagram, Facebook, LinkedIn y WhatsApp.
+- Envío de correos informativos personalizados y recordatorios de eventos.
+- Utilización de herramientas de chat en vivo para responder preguntas en tiempo real.
+- Uso de plataformas como WhatsApp para una comunicación rápida y personalizada.
+- Identificación de diferentes segmentos de estudiantes (por ejemplo, interesados en ciencias, artes, tecnología) y personalización de los mensajes para cada grupo.
+- Uso de datos para adaptar la comunicación a las necesidades y preferencias de los estudiantes.  
+Público objetivo: 
+- Estudiantes de secundaria
+- Interesados en carreras STEM
+- Docentes y orientadores escolares
+- Instituciones educativas
+- Universitarios interesados en cambiar de carrera
+- Padres, madres y tutores de estudiantes y egresados de secundaria  
+Lugar donde se desarrolla: Campus INTEC
+Estrategias utilizadas para garantizar el éxito de la actividad: 
+Promover el enlace de registro a las visitas guiadas a través de nuestras redes sociales y correo electrónico. Ver espacio web aquí  https://www.intec.edu.do/acerca-de-intec/el-campus/visitas-guiadas.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomentar la curiosidad y creatividad mientras aprenden habilidades en ciencias, tecnologías, ingenierías, artes y matemáticas.  </t>
+  </si>
+  <si>
+    <t>Estrategias de comunicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Publicaciones regulares, historias y contenido interactivo en plataformas como Instagram, Facebook, LinkedIn y WhatsApp.
+•	Envío de correos informativos personalizados y recordatorios de eventos.
+•	Utilización de herramientas de chat en vivo para responder preguntas en tiempo real.
+•	Uso de plataformas como WhatsApp para una comunicación rápida y personalizada.
+•	Identificación de diferentes segmentos de estudiantes (por ejemplo, interesados en ciencias, artes, tecnología) y personalización de los mensajes para cada grupo.
+•	Uso de datos para adaptar la comunicación a las necesidades y preferencias de los estudiantes.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Egresados de secundaria
+•	Estudiantes de secundaria
+•	Interesados en carreras STEM  </t>
+  </si>
+  <si>
+    <t>Charlas / Conversatorio</t>
+  </si>
+  <si>
+    <t>Presencial / Virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asesorar a los interesados indecisos en la decisión sobre la carrera que les apasiona.  </t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornadas informativas y charlas de orientación vocacional virtual/presencial  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Egresados de secundaria
+•	Estudiantes de secundaria
+•	Interesados en carreras
+•	Orientadores escolares  </t>
+  </si>
+  <si>
+    <t>Campus INTEC/ ZOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitas a centros educativos  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promover la oferta académica disponible en la institución.  </t>
+  </si>
+  <si>
+    <t>De septiembre a Mayo</t>
+  </si>
+  <si>
+    <t>Centros educativos / ZOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitas guiadas individuales y grupales  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Estudiantes de secundaria
+•	Interesados en carreras STEM
+•	Docentes y orientadores escolares
+•	Instituciones educativas
+•	Universitarios interesados en cambiar de carrera
+•	Padres, madres y tutores de estudiantes y egresados de secundaria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promover la oferta académica disponible en la institución y aclarar dudas sobre las mismas. </t>
+  </si>
+  <si>
+    <t>Soporte</t>
+  </si>
+  <si>
+    <t>Talleres Hands On STEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estudiantes de colegio y egresados de colegio</t>
+  </si>
+  <si>
+    <t>Charla / Conversatorio</t>
+  </si>
+  <si>
+    <t>Promover las diferentes áreas de estudio que oferta la Universidad a través de actividades lúdicas, juegos interactivos, charlas y conferencias.</t>
+  </si>
+  <si>
+    <t>Evento anual dónde los jóvenes conocen las áreas de emprendimiento, innovación y tecnología a través de actividades lúdicas, juegos interactivos, charlas y conferencias de coordinadores académicos, estudiantes activos y egresados jóvenes destacados.</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/C5qr4VQuFpd/</t>
+  </si>
+  <si>
+    <t>Estudiantes de colegio, egresados de colegio, interesados en carreras</t>
+  </si>
+  <si>
+    <t>Aclarar dudas sobre la carrera que les apasiona  a las personas interesadas (posibles estudiantes)</t>
+  </si>
+  <si>
+    <t>Encuentros con coordinadores de programas donde el interesado o estudiante puede aclarar dudas sobre la carrera que le apasiona.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La UNCUYO no posee estrategias específicas de promoción de carreras  STEM ya que promueve todas sus carreras con igual interés. Se pueden nombrar acciones específicas por facultad (principalmente ingeniería y ciencias exactas)  como lo son visitas a escuelas y  talleres en conjunto con escuelas técnicas . Las ciencias de la salud no realizan estrategias de promoción al ser altamente demandadas por su apreciación social y carácter internacional. Ingeniería utiliza su trayectoria en dobles diplomas internacionales como una gran aliciente al momento de promocionar sus diplomas. 
+A nivel universidad se pueden nombrar eventos como los laboratorios abiertos, ferias de ciencia abierta y Jornadas de investigación. A nivel redes sociales, todos los años se desarrollan estrategias para el día de la mujer y la niña en la ciencia y para el día del investigador argentino/a. 
+Actividades 
+Jornadas de investigación 
+Frecuencia: cada dos años 
+Tipo de evento: presencial, feria 
+Objetivo : Divulgación científica. Mostrar a la comunidad los resultados y los procesos de investigación de los investigadores UNCUYO
+https://youtu.be/9aYsTxbBj1Q?feature=shared
+https://youtu.be/9aYsTxbBj1Q?feature=shared
+Feria de Ciencia Abierta 
+Frecuencia: anual ( desde 2023) 
+Tipo de evento: presencial, feria 
+Objetivo : Divulgación científica. Mostrar a la comunidad los resultados y los procesos de investigación de los investigadores UNCUYO que trabajan en línea de OPEN SCIENCE. 
+https://www.instagram.com/p/CzMqGg6pJUc/?img_index=1
+https://www.instagram.com/p/Cy6vR1ZJG_Q/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA==
+Campañas de redes para efemérides 
+Frecuencia: anual - Día del investigador argentina y día de la mujer y la niña en la ciencia entre otros 
+Tipo de evento: online
+Objetivo : Divulgación científica. Reconocer a los investigadores UNCUYO en su día y fomentar las vocaciones científicas dentro y fuera de la universidad .
+https://www.instagram.com/reel/CohraZjL6kb/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA==
+https://www.instagram.com/p/CohuPH8rbSo/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA==
+https://www.instagram.com/reel/Cq1v6r8r8JD/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA==
+Campañas de redes 
+Frecuencia: no definida 
+Tipo de evento: online
+Objetivo : fomentar las vocaciones científicas dentro y fuera de la universidad Ejemplo: Más ciencia que ficción (adjunto )
+Charlas-debate (día de la mujer y la niña en la ciencia) 
+Frecuencia: no definida 
+Tipo de evento: presencial. Conversatorio 
+Objetivo :reunir a mujeres científicas para discutir el estado de la ciencia con visión de género y generar o proponer soluciones. 
+https://youtu.be/zr08b5qok5c
+https://www.uncuyo.edu.ar/ciencia_tecnica_y_posgrado/cienciaartemujeres
+https://www.uncuyo.edu.ar/ciencia_tecnica_y_posgrado/debatieron-el-rol-de-la-mujer-y-la-ciencia-en-la-universidad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No hemos implementado living labs tal cual lo describe el formulario. Lo que tenemos son visitas guiadas a los mismos en las épocas de ingreso a las facultades o para el día del investigador. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Universidad Nacional de Cuyo (UNCuyo) tiene un sistema estructurado para otorgar becas y apoyos financieros a estudiantes de pregrado, incluyendo aquellos en carreras STEM. Estos criterios suelen estar delineados en las convocatorias anuales de becas en las siguientes líneas : 
+Estudiantes de Tecnicatura.
+Estudiantes de Grado.
+Alojamiento.
+Comedor.
+Ayuda económica.
+Discapacidad.
+Pueblos Originarios y Escuelas Rurales.
+Identidades Plurales.
+Residencia Universitaria.
+Jardines Maternales
+Promoción del egreso ( para estudiantes avanzados) 
+Las misma son gestionadas por la Secretaría de Bienestar Universitario UNCUYO  y ofrecen los siguientes beneficios:
+Ayuda económica: Un monto mensual para apoyar a los estudiantes en sus gastos.
+Comedor: Acceso a servicios de comedor universitario con opciones vegetarianas y para celíacos.
+Alojamiento: Alojamiento en múltiples sedes para estudiantes que lo necesiten.
+Transporte: Beneficios de transporte para facilitar el desplazamiento a la universidad.
+Dispositivo tecnológico: En el caso de la beca de Conectividad, se proporciona un dispositivo tecnológico para apoyar el acceso a recursos digitales.
+Iniciativas deportivas y turísticas: Actividades deportivas y turísticas para promover la integración y el bienestar de los estudiantes.
+Jardín maternal: Servicios de jardín maternal para apoyar a estudiantes con hijos.
+Servicios de discapacidad: Apoyo específico para estudiantes con discapacidad.
+Apoyo a pueblos originarios y escuelas rurales: Programas para estudiantes de pueblos originarios y escuelas rurales.
+Apoyo a identidades plurales: Iniciativas para promover la inclusión y el respeto a la diversidad de género y otras identidades.
+Estos beneficios están diseñados para mejorar la calidad de vida de los estudiantes, apoyar su permanencia en la universidad y promover su éxito académico. 
+Algunas facultades, como la FCEN ofrece becas específicas para sus estudiantes en las que ofrece anualmente  becas  de ayuda económica para la articulación entre el ciclo básico ( que se cursa en diversas partes del territorio mendocino) y el ciclo orientado  ( que se cursa sólo en sede campus y Malargüe. Es decir que se entregan becas a alumnos de segundo o tercer año para garantizar su continuidad. Asimismo existen becas de ayuda económica para fomentar áreas específicas dentro de las   disciplinas como pueden ser  geología o física experimental. Las becas de articulación están sujetas a criterios económicos y las de fortalecimiento, destinadas a estudiantes avanzados, están sujetas a criterios académicos.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No podemos responder a esta pregunta debido a que las becas pueden ser nacionales, provinciales o de la misma institución y no poseemos una medición que aúne a todas. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los requisitos generales para todas ellas son: 
+Presentarse a la convocatoria de becas correspondiente, en tiempo y forma.
+Acreditar el ingreso a alguna carrera de la UNCUYO (excluyendo Instituto Balseiro y IUSP).
+Tener una situación socioeconómica que justifique el otorgamiento (se demuestra a través de comprobantes de ingresos de todo el grupo familiar) 
+Tener nacionalidad argentina, residencia permanente o ser solicitante de refugio en trámite.
+No tener título de grado universitario.
+Y luego se pueden sumar requisitos específicos como ser padre/madre (beca de jardín), pertenecer a una comunidad autóctona o provenir de una escuela de línea rural, entre otras. 
+Las becas se otorgan previo  o post  ingreso a la universidad por pedido del/la estudiante y se sostienen a lo largo de la carrera si el/la  estudiante garantiza:
+En un año académico (hasta el 31 de marzo) haber aprobado como mínimo el 10% de las materias de la carrera.
+Reinscripción anual a la carrera.
+Asistir a instancias obligatorias definidas por la Dirección de Acción Social (D.A.S.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaña anual de BECAS uncuyo (3 meses aprox). Redes sociales, afiches  e informadores en expo educativa y sitio web de la facultad. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desde TRACES nos informan que las razones más comunes  son:
+-La maternidad, 
+-La “idea” de una futura falta de inserción laboral de los graduados y 
+- La complejidad y exigencias de la misma carrera que imposibilitan la posibilidad de trabajar en paralelo.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Universidad Nacional de Cuyo (UNCuyo) ha implementado diversas estrategias para mejorar la retención estudiantil en carreras STEM. Estas estrategias están alineadas con las mejores prácticas internacionales y se adaptan a las necesidades específicas de sus estudiantes. A continuación, se detallan algunas de las estrategias exitosas que han funcionado en la UNCuyo:
+Programas de Tutorías y Mentorías:
+Tutorías Académicas: La UNCuyo ha implementado programas de tutorías donde estudiantes avanzados o graduados ayudan a los nuevos estudiantes en materias complejas, brindando apoyo académico y orientación.
+Mentorías Profesionales: Los programas de mentorías conectan a los estudiantes con profesionales en el campo STEM, ayudándolos a comprender mejor las expectativas laborales y a recibir consejos prácticos para su desarrollo profesional.
+Apoyo Psicológico y Bienestar Estudiantil:
+Servicios de Consejería: Se ofrecen servicios de apoyo psicológico para ayudar a los estudiantes a manejar el estrés, la ansiedad y otros problemas de salud mental que pueden afectar su rendimiento académico.
+Programas de Bienestar: Iniciativas que promueven el bienestar físico y mental, incluyendo actividades deportivas, talleres de manejo del estrés y programas de alimentación saludable.
+Becas y Apoyos Financieros:
+Becas de Mantenimiento: Ofrecen apoyo financiero para cubrir gastos de manutención, permitiendo a los estudiantes concentrarse en sus estudios sin preocuparse por las dificultades económicas.
+Becas de Excelencia Académica: Reconocen y premian a los estudiantes con alto rendimiento académico, incentivando la continuidad y el esfuerzo en sus estudios.
+Programas Nacionales: Como por ejemplo el Programa Graduar que favorece el egreso. 
+Fortalecimiento de las Habilidades Básicas:
+Cursos de Nivelación: Programas de nivelación en matemáticas, física, y otras materias fundamentales para preparar mejor a los estudiantes antes de comenzar los cursos regulares.
+Talleres de Competencias Básicas: Talleres que refuerzan habilidades como la escritura académica, el pensamiento crítico y la resolución de problemas.
+Integración Social y Académica:
+Comunidades de Aprendizaje: Crear grupos de estudio y comunidades de aprendizaje colaborativo donde los estudiantes pueden apoyarse mutuamente.
+Eventos y Actividades Extracurriculares: Organizar eventos científicos, ferias de carreras y actividades extracurriculares que fomenten el sentido de pertenencia y el compromiso con la carrera.
+Mejoras en la Infraestructura y Recursos:
+Laboratorios y Equipamiento: Inversión en laboratorios modernos y equipamiento adecuado para garantizar una experiencia de aprendizaje práctica y relevante.
+Bibliotecas y Recursos Digitales: Ampliación de los recursos bibliográficos y acceso a bases de datos científicas y recursos digitales que apoyen la investigación y el estudio.
+Innovación en la Enseñanza:
+Métodos de Enseñanza Activa: Implementación de metodologías de enseñanza activa, como el aprendizaje basado en proyectos, que involucran a los estudiantes de manera más dinámica en su proceso de aprendizaje.
+Uso de Tecnología: Integración de tecnologías educativas, como plataformas de aprendizaje en línea y herramientas interactivas, para complementar la enseñanza tradicional.
+Evaluación y Seguimiento Continuo:
+Sistema de Monitoreo: Desarrollo de un sistema de seguimiento y monitoreo del progreso académico de los estudiantes para identificar a tiempo las dificultades y ofrecer el apoyo necesario.
+Estas estrategias no solo buscan mejorar la retención estudiantil en carreras STEM, sino también asegurar que los estudiantes tengan una experiencia educativa enriquecedora y que estén bien preparados para enfrentar los desafíos profesionales después de la graduación. La implementación de estas estrategias en la UNCuyo refleja un compromiso integral con la calidad educativa y el éxito estudiantil.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciativas con Enfoque de Género en la UNCuyo para Estudiantes de Carreras STEM
+Convocatoria de Proyectos con Perspectiva de Género en Facultades de Ingeniería:
+La Facultad de Ingeniería de la UNCuyo lanzó una convocatoria para presentar proyectos que integren la perspectiva de género en el ámbito de la ingeniería. Esta iniciativa busca promover la igualdad de género y fomentar proyectos que aborden las barreras que enfrentan las mujeres en carreras STEM .
+-Proyecto de Reflexión sobre la Arquitectura desde una Perspectiva de Género:
+Se desarrolló un proyecto específico que invita a reflexionar sobre la arquitectura con una perspectiva de género. Este proyecto busca analizar y diseñar espacios que consideren las necesidades y experiencias de todas las personas, promoviendo una visión inclusiva en la arquitectura .
+-Día Internacional de la Mujer y la Niña en la Ciencia:
+La UNCuyo celebra el Día Internacional de la Mujer y la Niña en la Ciencia destacando que el 54.9% de su comunidad investigadora está compuesta por mujeres. Durante este día, se realizan actividades y eventos que buscan visibilizar y promover la participación de mujeres en las ciencias, inspirando a futuras generaciones .
+-Conversatorios sobre Equidad de Género en Ciencias:
+La Facultad de Ciencias Exactas y Naturales organiza conversatorios y encuentros enfocados en la equidad de género y la participación de mujeres y diversidades en ciencias. Estos eventos buscan sensibilizar y educar a la comunidad académica sobre la importancia de la diversidad en el ámbito científico .
+-Capacitación en Perspectiva de Género y Ley Micaela:
+La UNCuyo implementa capacitaciones obligatorias en perspectiva de género y prevención de la violencia de género conforme a la Ley Micaela. Estas capacitaciones están dirigidas a todo el personal, asegurando que la comunidad universitaria esté informada y comprometida con la equidad de género .
+-Ciclos de Encuentros sobre Género y Derechos Humanos:
+Diversas facultades, como la Facultad de Odontología, organizan ciclos de encuentros que abordan temas de género y derechos humanos, creando un espacio para la reflexión y el diálogo sobre estos temas cruciales .
+-Día de la Mujer en la Ingeniería:
+La Facultad de Ciencias Agrarias celebra el Día de la Mujer en la Ingeniería con actividades que destacan los logros y desafíos de las mujeres en este campo, promoviendo la visibilidad y reconocimiento de su contribución a la ingeniería y alentando a más mujeres a seguir esta carrera .
+Perspectiva de género en salud
+La Facultad de Ciencias Médicas ofrece un curso sobre la perspectiva de género en salud, abordando la importancia de la equidad y los desafíos específicos en este ámbito.
+-Encuentro institucional de sensibilización y prevención de la violencia laboral y de género
+La Facultad de Ciencias Exactas y Naturales organiza un encuentro institucional enfocado en la sensibilización y prevención de la violencia laboral y de género, promoviendo un ambiente de trabajo seguro e inclusivo.
+</t>
+  </si>
+  <si>
+    <t>c) Facultad de Ciencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo con el anuario_estadistico_educativo_2022.pdf, Argentina posee 4.056.769 alumnos matriculados en educación secundaria en modalidad común para el año 2022, en Argentina. De ellos  951.272 se encuentran  dentro de escuelas rurales:  
+289.263 están inscriptos en escuelas secundarias de educación común 
+63 están inscriptos en escuelas secundarias de educación especial 
+31.809   están inscriptos en escuelas secundarias  para jóvenes y adultos 
+</t>
+  </si>
+  <si>
+    <t>Jornadas de investigación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feria </t>
+  </si>
+  <si>
+    <t>Divulgación científica: Mostrar a la comunidad los resultados y los procesos de investigación de los investigadores UNCUYO</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Cada dos años</t>
+  </si>
+  <si>
+    <t>Feria de Ciencia Abierta</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9aYsTxbBj1Q</t>
+  </si>
+  <si>
+    <t>Anual (desde 2023)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divulgación científica. Mostrar a la comunidad los resultados y los procesos de investigación de los investigadores UNCUYO que trabajan en línea de OPEN SCIENCE. </t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CzMqGg6pJUc/?img_index=1
+https://www.instagram.com/p/Cy6vR1ZJG_Q/?utm_source=ig_web_copy_link&amp;igsh=MzRlODBiNWFlZA==</t>
+  </si>
+  <si>
+    <t>Charlas-debate (día de la mujer y la niña en la ciencia)</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>Conversatorio</t>
+  </si>
+  <si>
+    <t>Reunir a mujeres científicas para discutir el estado de la ciencia con visión de género y generar o proponer soluciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No definida </t>
+  </si>
+  <si>
+    <t>Acercamiento y sensibilización a las ciencias</t>
+  </si>
+  <si>
+    <t>Visitas a escuelas secundarias para realizar dinámicas de acercamiento y sensibilización a las ciencias básicas. A cargo de estudiantes de la Facultad de Ciencias Exactas y Naturales UNCUYO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar a estudiantes secundarios y egresados sobre oportunidades de estudio a nivel superior de grado y pregrado. </t>
+  </si>
+  <si>
+    <t>Blended (evento presencial con actividades online y página web exclusiva)/ Presencial / Virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campañas de redes sociales, vía pública y televisión, alianzas con municipios y contacto directo con la Dirección General de Escuelas de Mendoza y los gabinetes de orientación pedagógica de colegios secundarios de toda la provincia. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Us66-jMg7g7CNg5Ww86Xi8DWsgzR3paB/view</t>
+  </si>
+  <si>
+    <t>Promover vocaciones en los jóvenes por las Ciencias Experimentales y la valoración del quehacer científico desde temprana edad e incentivar a los docentes a una continua actualización en los contenidos, de tal forma de colaborar con el sistema educativo en el mejoramiento de la enseñanza de las ciencias experimentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campañas de redes sociales y contacto con los gabinetes de orientación pedagógica de colegios secundarios de toda la provincia. </t>
+  </si>
+  <si>
+    <t>Primaria/Bachillerato (Secundaria)</t>
+  </si>
+  <si>
+    <t>INTEC FEST</t>
+  </si>
+  <si>
+    <t>Conversatorio de Carreras</t>
+  </si>
+  <si>
+    <t>Desafío ITBA</t>
+  </si>
+  <si>
+    <t>Redes, publicaciones en medios de comunicación social, comunicación direccionada a escuelas secundarias del país, avisos en boletines institucionales de graduados/as, internos, otros.</t>
+  </si>
+  <si>
+    <t>Alumnos/as regulares de escuela secundaria cursando su último año o egresados/as de colegio (no mayor a 19 años y no habiendo iniciado estudios en ITBA).</t>
+  </si>
+  <si>
+    <t>Concurso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anual </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view</t>
+  </si>
+  <si>
+    <t>Abordar temáticas relevantes y vinculadas al campo de los negocios y las tecnologías desde una metodología específica. Propiciar el análisis de los temas y el acercamiento a una experiencia de debate en la Universidad. 
+A partir de un concurso, estudiantes de 17 a 19 años presentan ensayos breves sobre el tema del año. En esto se valora la originalidad, la referencias (Autores y Papers), la estructura (Introducción, desarrollo y conclusiones), el enfoque (Desde dónde abordaron la temática planteada), la profundidad de análisis (Las conclusiones a las que arriban deben tener coherencia con el desarrollo del ensayo) y las conclusiones/Propuesta. 
+Los ensayos seleccionados son presentados y debatidos con expertos/as y otros/as jóvenes en jornadas. Los/as estudiantes destacados/as son reconocidos con premios y becas para estudiar en la Universidad.</t>
+  </si>
+  <si>
+    <t>Concurso donde estudiantes presentan ensayos breves sobre temas relevantes. Los ensayos seleccionados son presentados y debatidos con expertos/as y otros/as jóvenes en jornadas. Los/as estudiantes destacados/as son reconocidos con premios y becas para estudiar en la Universidad.</t>
+  </si>
+  <si>
+    <t>Taller para Orientadores vocacionales de Escuelas Secundarias</t>
+  </si>
+  <si>
+    <t>Taller / Red virtual</t>
+  </si>
+  <si>
+    <t>Presencial (Taller) / Virtual (Red Virtual)</t>
+  </si>
+  <si>
+    <t>Profesionales que se desempeñan en áreas vinculadas a la orientación vocacional en las escuelas: tutores, mentores, psicólogos, psicopedagógos, preceptores, otros.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view ; https://www.itba.edu.ar/desafio-itba-en-negocios/?utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=AO2024&amp;utm_source_platform=google&amp;utm_creative_format=textads&amp;utm_content=Eve_Gra_DesafioITBA_Marca&amp;gad_source=1&amp;gclid=Cj0KCQjwpNuyBhCuARIsANJqL9Pxe5E-xSKxMRM8nsNvp5m7PMm18RKeJ2DskWcK8Jom1JIZgVpTMSsaAjpsEALw_wcB</t>
+  </si>
+  <si>
+    <t>Generar un espacio de reflexión sobre la orientación vocacional (abordajes, metodologías, experiencias) en la escuela secundaria, con especial referencia a carreras de STEM. Propiciar el diálogo entre escuela y universidad y fortalecer lazos de colaboración entre instituciones para el acompañamiento de estudiantes jóvenes en los procesos de decisión vocacional.</t>
+  </si>
+  <si>
+    <t>Por invitación. Comunicación direccionada a Escuelas secundarias de nuestro país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espacio de reflexión sobre la orientación vocacional con especial referencia a carreras de STEM. </t>
   </si>
 </sst>
 </file>
@@ -2739,7 +3137,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2764,6 +3162,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2778,17 +3212,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2828,11 +3256,49 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3053,1290 +3519,1309 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF8"/>
+  <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="AN1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:BE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="63" width="18.85546875" style="7" customWidth="1"/>
-    <col min="64" max="16384" width="12.5703125" style="7"/>
+    <col min="1" max="5" width="18.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
+    <col min="7" max="63" width="18.85546875" style="5" customWidth="1"/>
+    <col min="64" max="16384" width="12.5703125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="G1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="O1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="13" t="s">
+      <c r="Q1" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="V1" s="13" t="s">
+      <c r="U1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="X1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Y1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA1" s="13" t="s">
+      <c r="Z1" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AB1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AE1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="13" t="s">
+      <c r="AG1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AH1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AI1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AK1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AL1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AM1" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="AN1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AO1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AP1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AS1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AT1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AU1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AV1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AW1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AX1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AY1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="AZ1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BA1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="13" t="s">
+      <c r="BB1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="13" t="s">
+      <c r="BC1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BD1" s="13" t="s">
+      <c r="BD1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="BE1" s="13" t="s">
+      <c r="BE1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="J2" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="X2" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="6" t="s">
+      <c r="Z2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AA2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AC2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AG2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AH2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AI2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AJ2" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AR2" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="AS2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="6" t="s">
+      <c r="AT2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="AV2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AW2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AX2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AY2" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AM2" s="6" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="BA2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AO2" s="6" t="s">
+      <c r="BB2" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="BC2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AP2" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="BD2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AR2" s="6" t="s">
+      <c r="BE2" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="W3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="X3" s="17" t="s">
+        <v>465</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="AA3" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="AB3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="AD3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
+      <c r="AE3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="AF3" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="AG3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="AH3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="AI3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="AO3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="AP3" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="AQ3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="AR3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AS3" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="AT3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AU3" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AW3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AX3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="BA3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="BB3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="BC3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="BD3" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="BE3" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AU3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="6" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="AB4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="AC4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="AD4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="AE4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="AG4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="AH4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="AI4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="AK4" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="AL4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="AM4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="AN4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="AO4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="AP4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="AR4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="AS4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="AT4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="AU4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AV4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AW4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="BC4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="BD4" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="BE4" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="AG4" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH4" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AI4" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK4" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM4" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP4" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AQ4" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AS4" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="AT4" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU4" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AV4" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX4" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB4" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC4" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="BD4" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="BE4" s="6" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="AI5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="AJ5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="AK5" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="AM5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="AN5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="AR5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="AS5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="R5" s="6" t="s">
+      <c r="AT5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="AU5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="AV5" s="9">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AW5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="AX5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="BA5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="X5" s="6" t="s">
+      <c r="BC5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" s="6" t="s">
+      <c r="BD5" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="AA5" s="6" t="s">
+      <c r="BE5" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE5" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG5" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH5" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ5" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="AK5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM5" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN5" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="AP5" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="AQ5" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AR5" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AS5" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AT5" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AU5" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AV5" s="11">
-        <v>0.39710000000000001</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AY5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="BA5" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BC5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="BD5" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="BE5" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="Y6" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC6" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL6" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="AM6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="AN6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="6" t="s">
+      <c r="AO6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="AP6" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="AR6" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="AU6" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AV6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AX6" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="AY6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="BC6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="BD6" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="BE6" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="AF6" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG6" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK6" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM6" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AN6" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AP6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AR6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AS6" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="AT6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AU6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AV6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AX6" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY6" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="AZ6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA6" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="BB6" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC6" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="BD6" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="BE6" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="V7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AH7" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="AI7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="15" t="s">
+      <c r="AK7" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="AM7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="AN7" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="AO7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="AP7" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="AQ7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="AV7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="U7" s="6" t="s">
+      <c r="AW7" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="AX7" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA7" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="BB7" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="Z7" s="6" t="s">
+      <c r="BC7" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="AA7" s="6" t="s">
+      <c r="BD7" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="AB7" s="6" t="s">
+      <c r="BE7" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="BF7" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE7" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="AG7" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="AH7" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="AI7" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AJ7" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="AK7" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="AM7" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AN7" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="AO7" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="AP7" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="AQ7" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AR7" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="AS7" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="AT7" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="AV7" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="AW7" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX7" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AZ7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA7" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="BB7" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="BC7" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="BD7" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BE7" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="BF7" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC8" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="AD8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="AH8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="AI8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="AK8" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="AN8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="AP8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="AQ8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AS8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="AT8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="AV8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="AW8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="AY8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="AZ8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="BD8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="W8" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AQ8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AR8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AS8" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AU8" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX8" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="BC8" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="BD8" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="BE8" s="2" t="s">
-        <v>343</v>
+      <c r="BE8" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" ht="24" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="W2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Y2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="AC2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="AF2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="W3" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AF3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="AU3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="V4" r:id="rId8" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
-    <hyperlink ref="W4" r:id="rId9" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
-    <hyperlink ref="Y4" r:id="rId10" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
-    <hyperlink ref="AL4" r:id="rId11" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
-    <hyperlink ref="AC5" r:id="rId12" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
-    <hyperlink ref="Y6" r:id="rId13" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
-    <hyperlink ref="AF6" r:id="rId14" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
-    <hyperlink ref="AL6" r:id="rId15" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
-    <hyperlink ref="V7" r:id="rId16" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
-    <hyperlink ref="W7" r:id="rId17" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
-    <hyperlink ref="AC7" r:id="rId18" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
-    <hyperlink ref="AF7" r:id="rId19" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
-    <hyperlink ref="D5" r:id="rId20" xr:uid="{57D62C1D-393D-435A-9A1B-0D02167BBBBD}"/>
-    <hyperlink ref="W8" r:id="rId21" xr:uid="{C8E2F297-8DC0-4EA9-957E-954715C49733}"/>
-    <hyperlink ref="AC8" r:id="rId22" xr:uid="{A0020179-35AE-4CD0-BBB8-1DBB7C26E259}"/>
+    <hyperlink ref="W3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AF3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AU3" r:id="rId3" display="https://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V4" r:id="rId4" xr:uid="{CBAD83A7-2245-4AB8-95D7-2BA100074C67}"/>
+    <hyperlink ref="W4" r:id="rId5" xr:uid="{0DC5EF29-D887-45D4-B134-144D925BF557}"/>
+    <hyperlink ref="Y4" r:id="rId6" xr:uid="{4D0DC796-CD3E-4473-AA1F-9F31FFE35C4F}"/>
+    <hyperlink ref="AL4" r:id="rId7" xr:uid="{2C4655BA-4EB5-436D-9FC9-3B0286431074}"/>
+    <hyperlink ref="AC5" r:id="rId8" xr:uid="{4E13BA17-F08A-47BC-8529-5F1B8A1E990D}"/>
+    <hyperlink ref="Y6" r:id="rId9" xr:uid="{23A49CD5-5F4E-4A77-8790-17858B4797C1}"/>
+    <hyperlink ref="AF6" r:id="rId10" xr:uid="{14A302AD-14B5-4096-9C97-4BC295108FDD}"/>
+    <hyperlink ref="AL6" r:id="rId11" xr:uid="{2DE0A2CB-35A2-4DEF-9E31-9A3C53C2977F}"/>
+    <hyperlink ref="V7" r:id="rId12" xr:uid="{9755E0F1-166C-4289-8DF4-01FCB105E7B8}"/>
+    <hyperlink ref="W7" r:id="rId13" xr:uid="{641DA91B-CE7D-49C2-9930-E9D57EABF0C1}"/>
+    <hyperlink ref="AC7" r:id="rId14" xr:uid="{05101669-8C92-4A55-8FAF-3F9D2D30F07B}"/>
+    <hyperlink ref="AF7" r:id="rId15" xr:uid="{EB15CB2B-F90E-4C6C-8DF1-06C417AEB3C9}"/>
+    <hyperlink ref="D5" r:id="rId16" xr:uid="{57D62C1D-393D-435A-9A1B-0D02167BBBBD}"/>
+    <hyperlink ref="W8" r:id="rId17" xr:uid="{C8E2F297-8DC0-4EA9-957E-954715C49733}"/>
+    <hyperlink ref="AC8" r:id="rId18" xr:uid="{A0020179-35AE-4CD0-BBB8-1DBB7C26E259}"/>
+    <hyperlink ref="AF2" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="AC2" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Y2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="W2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4344,1048 +4829,1305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A20"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="3" customWidth="1"/>
-    <col min="6" max="12" width="18.7109375" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="3"/>
+    <col min="1" max="3" width="18.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
+    <col min="6" max="13" width="18.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:14" s="22" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>523</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>524</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D4" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>526</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="N5" s="27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>516</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>528</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>485</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>479</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="N13" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="J14" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>537</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="L15" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="M15" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15" s="32" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>540</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>544</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="M16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>359</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F18" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>358</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>360</v>
+      <c r="I18" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="K18" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H2" s="20" t="s">
+    <row r="19" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>383</v>
+      </c>
+      <c r="J19" s="24" t="s">
         <v>384</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>368</v>
+      <c r="K19" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24" t="s">
+        <v>377</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C3" s="20" t="s">
+    <row r="20" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I20" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="K20" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>368</v>
+      <c r="J21" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C4" s="20" t="s">
+    <row r="22" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="J22" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="K22" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="M22" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L4" s="20" t="s">
-        <v>368</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="J5" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>368</v>
+    <row r="23" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="J6" s="3" t="s">
+    <row r="24" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="K24" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>419</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I26" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="K26" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>388</v>
+      <c r="M26" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>394</v>
+    <row r="27" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>423</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>388</v>
+    <row r="28" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="M28" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>406</v>
+    <row r="29" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="M29" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>412</v>
+    <row r="30" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>429</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="M30" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>132</v>
+    <row r="31" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>418</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="K31" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
+    <row r="32" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
+    <hyperlink ref="N15" r:id="rId2" display="https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view" xr:uid="{C7396F2C-A109-44A9-A08F-22F5D5D8B44A}"/>
+    <hyperlink ref="N16" r:id="rId3" xr:uid="{A756A827-0076-449D-B585-1BD34EDE13DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E614CC0-811D-48F4-8E14-80A876525FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22A18F-DFDC-498E-B734-E6B81BED18DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="546">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -188,9 +188,6 @@
   </si>
   <si>
     <t>cooperacion@uncu.edu.ar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNCUYO </t>
   </si>
   <si>
     <t xml:space="preserve">4.056.769 alumnos matriculados en educación secundaria en modalidad común para el año 2022, en Argentina.
@@ -3521,8 +3518,8 @@
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView topLeftCell="AN1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:BE8"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3541,40 +3538,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>196</v>
-      </c>
       <c r="K1" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="11" t="s">
-        <v>200</v>
-      </c>
       <c r="N1" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O1" s="11" t="s">
         <v>3</v>
@@ -3583,7 +3580,7 @@
         <v>4</v>
       </c>
       <c r="Q1" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R1" s="11" t="s">
         <v>5</v>
@@ -3595,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="U1" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V1" s="11" t="s">
         <v>8</v>
@@ -3610,7 +3607,7 @@
         <v>11</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AA1" s="11" t="s">
         <v>12</v>
@@ -3649,7 +3646,7 @@
         <v>23</v>
       </c>
       <c r="AM1" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AN1" s="11" t="s">
         <v>24</v>
@@ -3718,152 +3715,152 @@
         <v>44</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="J2" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="Y2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" s="4" t="s">
+      <c r="AK2" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="AP2" s="4" t="s">
+      <c r="AR2" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="AQ2" s="4" t="s">
+      <c r="AS2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AR2" s="4" t="s">
+      <c r="AT2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AV2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AT2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU2" s="4" t="s">
+      <c r="AW2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB2" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="AV2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA2" s="4" t="s">
+      <c r="BC2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="BB2" s="4" t="s">
-        <v>503</v>
-      </c>
-      <c r="BC2" s="4" t="s">
+      <c r="BD2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="BD2" s="4" t="s">
+      <c r="BE2" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,149 +3869,149 @@
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="R3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="U3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="W3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="X3" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="17" t="s">
-        <v>465</v>
-      </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AD3" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AG3" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" s="4" t="s">
+      <c r="AH3" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AH3" s="4" t="s">
+      <c r="AI3" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AI3" s="4" t="s">
+      <c r="AJ3" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AJ3" s="4" t="s">
+      <c r="AK3" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AK3" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AM3" s="4" t="s">
+      <c r="AO3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="AN3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AO3" s="4" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="4" t="s">
+      <c r="AR3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS3" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="AQ3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR3" s="4" t="s">
+      <c r="AT3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AS3" s="20" t="s">
+      <c r="AU3" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AU3" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AX3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4023,154 +4020,154 @@
         <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="K4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="R4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="S4" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="U4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="X4" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="X4" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Z4" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AB4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AC4" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="AC4" s="4" t="s">
+      <c r="AD4" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="AD4" s="4" t="s">
+      <c r="AE4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="AE4" s="4" t="s">
+      <c r="AG4" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AH4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AI4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AJ4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AK4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AL4" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AM4" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="AM4" s="4" t="s">
+      <c r="AN4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="AN4" s="4" t="s">
+      <c r="AO4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="AO4" s="4" t="s">
+      <c r="AP4" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="AP4" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AR4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AS4" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AT4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AU4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AV4" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="AW4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB4" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AW4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA4" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB4" s="4" t="s">
+      <c r="BC4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="BC4" s="4" t="s">
+      <c r="BD4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BD4" s="4" t="s">
+      <c r="BE4" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4179,145 +4176,145 @@
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>279</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="P5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="S5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AK5" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AM5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AK5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AO5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AN5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AR5" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AS5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AT5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AU5" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="AV5" s="9">
         <v>0.39710000000000001</v>
       </c>
       <c r="AW5" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AX5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="BA5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB5" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="BA5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB5" s="4" t="s">
+      <c r="BC5" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="BC5" s="4" t="s">
+      <c r="BD5" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="BE5" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4326,154 +4323,154 @@
         <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>240</v>
-      </c>
       <c r="K6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="4" t="s">
+      <c r="S6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" s="4" t="s">
+      <c r="U6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="V6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="X6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="Y6" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Z6" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="AA6" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AD6" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AE6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AF6" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AG6" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AH6" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AK6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AL6" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AM6" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AN6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AP6" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AR6" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AR6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AU6" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AV6" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX6" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="AV6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AX6" s="4" t="s">
+      <c r="AY6" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AY6" s="4" t="s">
+      <c r="AZ6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB6" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AZ6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BC6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BD6" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BE6" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4482,154 +4479,154 @@
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>276</v>
-      </c>
       <c r="O7" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q7" s="4" t="s">
+      <c r="S7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="U7" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="V7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="V7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="W7" s="7" t="s">
+      <c r="Z7" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="AA7" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH7" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="Z7" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AC7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AI7" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AK7" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AM7" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="AJ7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AN7" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AO7" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AP7" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="AP7" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AR7" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="AR7" s="4" t="s">
+      <c r="AS7" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AT7" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AU7" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AV7" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AW7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="AW7" s="4" t="s">
+      <c r="AX7" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA7" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AX7" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BB7" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BC7" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BD7" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="BD7" s="4" t="s">
+      <c r="BE7" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BE7" s="4" t="s">
+      <c r="BF7" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="BF7" s="4" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4637,151 +4634,151 @@
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="K8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="AL8" s="2"/>
       <c r="AM8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="AO8" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AS8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AQ8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AU8" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AT8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AW8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="BD8" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AZ8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="BE8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:58" ht="24" x14ac:dyDescent="0.2">
@@ -4789,13 +4786,13 @@
         <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -4831,9 +4828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4847,1276 +4844,1276 @@
   <sheetData>
     <row r="1" spans="1:14" s="22" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="E1" s="22" t="s">
+      <c r="K1" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>467</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>339</v>
-      </c>
       <c r="N1" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E2" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>343</v>
-      </c>
       <c r="F2" s="27" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G2" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>519</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>520</v>
+      </c>
+      <c r="K2" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>346</v>
-      </c>
       <c r="L2" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M2" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="F3" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>521</v>
+      </c>
+      <c r="J3" s="27" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="K3" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="L3" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="H3" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="L3" s="27" t="s">
+      <c r="M3" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="N3" s="27" t="s">
         <v>524</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>525</v>
+      </c>
+      <c r="J4" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="K4" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4" s="27" t="s">
         <v>526</v>
       </c>
-      <c r="J4" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>527</v>
-      </c>
       <c r="M4" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I5" s="27" t="s">
         <v>506</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="J5" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="L5" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="H5" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>346</v>
-      </c>
       <c r="M5" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G6" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>512</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="L6" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="H6" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="M6" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="N6" s="28" t="s">
         <v>513</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>514</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>516</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="G7" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" s="27" t="s">
         <v>517</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="J7" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>518</v>
+      </c>
+      <c r="L7" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="H7" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>346</v>
-      </c>
       <c r="M7" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>528</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="G8" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>357</v>
-      </c>
       <c r="J8" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L8" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M8" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N8" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F9" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="M9" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="N9" s="27" t="s">
         <v>345</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>466</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="30" t="s">
         <v>474</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="F10" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J10" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>476</v>
-      </c>
       <c r="N10" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="L11" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="M11" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="L11" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>480</v>
-      </c>
       <c r="N11" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="F12" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" s="29" t="s">
         <v>482</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>393</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>483</v>
       </c>
       <c r="J12" s="29"/>
       <c r="K12" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N12" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E13" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="F13" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="G13" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I13" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G13" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I13" s="29" t="s">
+      <c r="J13" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="K13" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="N13" s="31" t="s">
         <v>489</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I14" s="29" t="s">
+      <c r="J14" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>493</v>
-      </c>
       <c r="K14" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M14" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N14" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>533</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>536</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>537</v>
+      </c>
+      <c r="K15" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="L15" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>537</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>535</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>532</v>
-      </c>
       <c r="M15" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>538</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="D16" s="29" t="s">
-        <v>342</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>542</v>
-      </c>
-      <c r="F16" s="29" t="s">
+      <c r="G16" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="G16" s="29" t="s">
-        <v>541</v>
-      </c>
       <c r="H16" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I16" s="29" t="s">
+        <v>543</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>545</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="L16" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="J16" s="29" t="s">
-        <v>546</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>545</v>
-      </c>
       <c r="M16" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="F17" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>370</v>
-      </c>
       <c r="G17" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I17" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="K17" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>374</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F18" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>376</v>
-      </c>
       <c r="G18" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I18" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="J18" s="24" t="s">
         <v>378</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="K18" s="24" t="s">
         <v>379</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>380</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="D19" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F19" s="24" t="s">
+      <c r="G19" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I19" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="J19" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="K19" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>385</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="D20" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="F20" s="24" t="s">
+      <c r="G20" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I20" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I20" s="24" t="s">
+      <c r="J20" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="K20" s="24" t="s">
         <v>389</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>390</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>391</v>
       </c>
-      <c r="D21" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>393</v>
-      </c>
       <c r="G21" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="24" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="F22" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="G22" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="J22" s="24" t="s">
         <v>398</v>
       </c>
-      <c r="G22" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>399</v>
-      </c>
       <c r="K22" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E23" s="24" t="s">
+      <c r="F23" s="24" t="s">
         <v>401</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="G23" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="J23" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K23" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="M23" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C24" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="F24" s="24" t="s">
+      <c r="G24" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="I24" s="24" t="s">
         <v>408</v>
       </c>
-      <c r="G24" s="24" t="s">
-        <v>345</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>409</v>
-      </c>
       <c r="J24" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="K24" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="K24" s="24" t="s">
-        <v>406</v>
-      </c>
       <c r="M24" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C25" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>411</v>
       </c>
-      <c r="D25" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E25" s="24" t="s">
+      <c r="F25" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="G25" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I25" s="24" t="s">
         <v>413</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="J25" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="K25" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="M25" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C26" s="24" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="D26" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E26" s="24" t="s">
+      <c r="F26" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="G26" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H26" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I26" s="24" t="s">
         <v>419</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="J26" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="K26" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="M26" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="F27" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I27" s="24" t="s">
         <v>423</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="J27" s="24" t="s">
+        <v>424</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="M27" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C28" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="E28" s="24" t="s">
+      <c r="F28" s="24" t="s">
         <v>428</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="G28" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I28" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="J28" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="K28" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="M28" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C29" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>448</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="F29" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I29" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="G29" s="24" t="s">
+      <c r="J29" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="M29" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C30" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="F30" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I30" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="G30" s="24" t="s">
+      <c r="J30" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="K30" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="M30" s="24" t="s">
         <v>345</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C31" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" s="24" t="s">
         <v>442</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="F31" s="24" t="s">
+      <c r="G31" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="H31" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="I31" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="H31" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="I31" s="24" t="s">
+      <c r="J31" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="J31" s="24" t="s">
+      <c r="K31" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="K31" s="24" t="s">
-        <v>447</v>
-      </c>
       <c r="M31" s="24" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B22A18F-DFDC-498E-B734-E6B81BED18DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EBE3A0-F2A4-46FE-A0A2-D2F1A9268371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="604">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -1527,9 +1528,6 @@
 Además, la falta de suficiente apoyo académico, especialmente en cursos más avanzados, y la percepción negativa sobre la dificultad y utilidad de las carreras STEM también contribuyen a este problema. Es fundamental abordar la falta de un sentido de pertenencia entre grupos minoritarios, como estudiantes extranjeros y aquellos con discapacidades, así como promover la participación activa de las mujeres en las STEM. Esto implica crear entornos inclusivos que apoyen a todos los estudiantes a lo largo de sus carreras, asegurando que se sientan acompañados y valorados dentro de la comunidad académica.</t>
   </si>
   <si>
-    <t>Izabel.antle@uc.cl</t>
-  </si>
-  <si>
     <t>Izabel Antle</t>
   </si>
   <si>
@@ -2050,9 +2048,6 @@
     <t>Público objetivo (egresados de colegio, estudiantes de colegio, padres de familia, mujeres, estudiantes de familias con bajos ingresos, minorías étnicas, comunidades rurales, otro)</t>
   </si>
   <si>
-    <t>Lugar del Eevnto</t>
-  </si>
-  <si>
     <t>UNCUYO</t>
   </si>
   <si>
@@ -2155,18 +2150,12 @@
     <t>Charlas y talleres para dar a conocer las carreras universitarias</t>
   </si>
   <si>
-    <t>Diario</t>
-  </si>
-  <si>
     <t>Invitaciones internas a las instalaciones de la universidad para los colegios</t>
   </si>
   <si>
     <t>Recorrido y charla</t>
   </si>
   <si>
-    <t>En las instalaciones de la universidad</t>
-  </si>
-  <si>
     <t>Dar a conocer las carreras e instalaciones de la universidad</t>
   </si>
   <si>
@@ -2182,27 +2171,12 @@
     <t>Cursos de temas de carreras STEM</t>
   </si>
   <si>
-    <t>Enseñar acerca de diferentes temas como inteligencia artificial, blockchain entre otros a estudiantes de colegio que se inscriban y paguen el o los cursos</t>
-  </si>
-  <si>
-    <t>Cursos de temas como inteligencia artificial y blockchain</t>
-  </si>
-  <si>
     <t>Dos veces al año</t>
   </si>
   <si>
     <t>Hackathones</t>
   </si>
   <si>
-    <t>Concursos para estudiantes de colegios</t>
-  </si>
-  <si>
-    <t>Sumergirse en empresas reales para identificar una problemática y desarrollar soluciones innovadoras y aplicables</t>
-  </si>
-  <si>
-    <t>Concursos para estudiantes de colegios para desarrollar soluciones innovadoras</t>
-  </si>
-  <si>
     <t>Una vez al año</t>
   </si>
   <si>
@@ -2215,12 +2189,6 @@
     <t>Charla</t>
   </si>
   <si>
-    <t>En el centro de eventos donde se desarrolla anualmente la feria del libro en la capital</t>
-  </si>
-  <si>
-    <t>Charlas, talleres y demostraciones</t>
-  </si>
-  <si>
     <t>Expojaveriana</t>
   </si>
   <si>
@@ -2230,37 +2198,16 @@
     <t>Charla, convocatoria</t>
   </si>
   <si>
-    <t>Charlas y recorridos por facultades con estudiantes y profesores</t>
-  </si>
-  <si>
-    <t>ACTIVIDAD 1: OPEN HOUSE</t>
-  </si>
-  <si>
     <t>Colegios</t>
   </si>
   <si>
     <t>Open House</t>
   </si>
   <si>
-    <t>Campus Santiago / Campus Santo Domingo</t>
-  </si>
-  <si>
-    <t>Apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios</t>
-  </si>
-  <si>
-    <t>Establecer alianzas con colegios y centros educativos</t>
-  </si>
-  <si>
     <t>Cada ciclo</t>
   </si>
   <si>
-    <t>ACTIVIDAD 2: VISITA A COLEGIOS</t>
-  </si>
-  <si>
     <t>Visita a colegios</t>
-  </si>
-  <si>
-    <t>Apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios y que estos conozcan la institución</t>
   </si>
   <si>
     <t xml:space="preserve">Rango de Edad/Nivel Escolar
@@ -2271,18 +2218,9 @@
     <t>SaviaLab</t>
   </si>
   <si>
-    <t>Profesores de liceos rurales</t>
-  </si>
-  <si>
     <t>Taller formativo</t>
   </si>
   <si>
-    <t>Desarrollar proyectos innovadores con estudiantes de enseñanza media</t>
-  </si>
-  <si>
-    <t>Diseñado y ejecutado por la Universidad Católica de Chile, desde la unidad académica DILAB, con financiamiento de la Fundación para la Innovación Agraria (FIA) de Chile. Ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos.</t>
-  </si>
-  <si>
     <t>Clases semanales entre abril y octubre en cada colegio participante, complementado con eventos presenciales en la Universidad.</t>
   </si>
   <si>
@@ -2295,42 +2233,21 @@
     <t>Torneo competitivo</t>
   </si>
   <si>
-    <t>Fomentar la colaboración y el pensamiento crítico entre estudiantes de enseñanza media</t>
-  </si>
-  <si>
-    <t>Diseñado por Fundación Enseña Chile, con apoyo logístico y ejecución de la Universidad Católica de Chile desde la subdirección de Preingeniería. Fomenta la colaboración y el pensamiento crítico entre estudiantes de enseñanza media.</t>
-  </si>
-  <si>
     <t>Academia STEM</t>
   </si>
   <si>
-    <t>Escolares y egresados</t>
-  </si>
-  <si>
     <t>Explorar temas STEAM entre escolares de 1ro a 4to medio y egresados</t>
   </si>
   <si>
-    <t>Organizado por la Escuela de Ingeniería UC, este taller formativo se enfoca en explorar temas STEAM entre escolares de 1ro a 4to medio y egresados.</t>
-  </si>
-  <si>
     <t>Dos veces al año durante vacaciones, con clases semanales.</t>
   </si>
   <si>
     <t>Coding</t>
   </si>
   <si>
-    <t>Estudiantes de 7mo a 2do medio</t>
-  </si>
-  <si>
-    <t>Taller</t>
-  </si>
-  <si>
     <t>Introducir a estudiantes de 7mo a 2do medio en programación</t>
   </si>
   <si>
-    <t>Este taller, también de la Escuela de Ingeniería UC, introduce a estudiantes de 7mo a 2do medio en programación.</t>
-  </si>
-  <si>
     <t>Clases presenciales semanales durante 10 sesiones</t>
   </si>
   <si>
@@ -2340,15 +2257,6 @@
     <t>Adolescentes mujeres de 1ro a 4to medio</t>
   </si>
   <si>
-    <t>Abordar temas STEM con baja representación femenina</t>
-  </si>
-  <si>
-    <t>Dirigido a adolescentes mujeres de 1ro a 4to medio, este taller anual aborda temas STEM con baja representación femenina.</t>
-  </si>
-  <si>
-    <t>Escuelas Tecnológicas</t>
-  </si>
-  <si>
     <t>Adolescentes de 11 a 15 años</t>
   </si>
   <si>
@@ -2361,19 +2269,7 @@
     <t>Intensivamente durante vacaciones de verano e invierno</t>
   </si>
   <si>
-    <t>Visitas guiadas y ferias universitarias</t>
-  </si>
-  <si>
-    <t>Charlas, visitas guiadas, ferias</t>
-  </si>
-  <si>
-    <t>Presencial, virtual</t>
-  </si>
-  <si>
     <t>Acortar la distancia entre estudiantes de enseñanza media y el mundo universitario</t>
-  </si>
-  <si>
-    <t>Charlas informativas, rondas de preguntas y visitas a los diferentes laboratorios lideradas por monitoras y monitores. Participación en ferias universitarias y charlas en colegios, tanto en la región Metropolitana como en otras ciudades.</t>
   </si>
   <si>
     <t>Duración promedio de 2 horas, aproximadamente 15 veces al mes. Charlas y visitas durante todo el año.</t>
@@ -2585,9 +2481,6 @@
   </si>
   <si>
     <t>https://drive.google.com/open?id=1eifflGhIC_z-HgaDlM-xaG5mMd9gqUPk</t>
-  </si>
-  <si>
-    <t>Carlos Francisco</t>
   </si>
   <si>
     <t xml:space="preserve">I.	Actividad: Talleres Hands On STEAM  
@@ -3069,6 +2962,296 @@
   </si>
   <si>
     <t xml:space="preserve">Espacio de reflexión sobre la orientación vocacional con especial referencia a carreras de STEM. </t>
+  </si>
+  <si>
+    <t>Carlos Francisco Rodriguez Herrera</t>
+  </si>
+  <si>
+    <t>crodrigu@uniandes.edu.co</t>
+  </si>
+  <si>
+    <t>Preparatoria/Bachillerato/Educación Media</t>
+  </si>
+  <si>
+    <t>Diario, se tiene un calendario de colegios.</t>
+  </si>
+  <si>
+    <t>Promoción dada por parte de los colegios</t>
+  </si>
+  <si>
+    <t>Promoción en colegios, redes sociales y página web</t>
+  </si>
+  <si>
+    <t>Enseñar acerca de diferentes temas como inteligencia artificial, blockchain entre otros a estudiantes de colegio que se inscriban y paguen el o los cursos. Y de esa manera incentivara a entrara a una carrera dentro del área.</t>
+  </si>
+  <si>
+    <t>Cursos sobre temas como IA y blockchain para despertar interés en carreras STEM</t>
+  </si>
+  <si>
+    <t>https://educacionvirtual.javeriana.edu.co/escuela-de-verano</t>
+  </si>
+  <si>
+    <t>Concursos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los estudiantes tienen la oportunidad de sumergirse en empresas reales para identificar una problemática y desarrollar soluciones innovadoras y aplicables.
+</t>
+  </si>
+  <si>
+    <t>Concursos donde los estudiantes trabajan en soluciones para problemáticas empresariales</t>
+  </si>
+  <si>
+    <t>Charlas, talleres y demostraciones en la feria del libro de la ciudad de Bogotá para promocionar carreras</t>
+  </si>
+  <si>
+    <t>Promoción de pabellón universitario</t>
+  </si>
+  <si>
+    <t>En el centro de eventos donde se desarrolla anualmente la feria del libro en la capital (Bogotá, Colombia)</t>
+  </si>
+  <si>
+    <t>Open campus donde los colegios van a la universidad y hacen un recorrido por facultades donde encontraran estudiantes y profesores hablando y resolviendo dudas de las diferentes carreras.</t>
+  </si>
+  <si>
+    <t>Campus Pontificia Universidad Javeriana</t>
+  </si>
+  <si>
+    <t>Entrega premio Ada Byron</t>
+  </si>
+  <si>
+    <t>https://www.javeriana.edu.co/expojaveriana/pregrados
+https://www.instagram.com/explore/tags/expojaveriana/</t>
+  </si>
+  <si>
+    <t>Mujeres en el área STEM</t>
+  </si>
+  <si>
+    <t>Premio, reconocimiento</t>
+  </si>
+  <si>
+    <t>Atracción/ Retención</t>
+  </si>
+  <si>
+    <t>Reconocer la labor de mujeres en ciencia y tecnología</t>
+  </si>
+  <si>
+    <t>Premio que visibiliza la trayectoria de mujeres en STEM</t>
+  </si>
+  <si>
+    <t>Promoción en edes sociales y página web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open House </t>
+  </si>
+  <si>
+    <t>Actividad académica que busca apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios de diferentes centros educativos.</t>
+  </si>
+  <si>
+    <t>Visitas guiadas a la universidad para conocer las carreras y orientarse sobre decisiones académicas</t>
+  </si>
+  <si>
+    <t>Establecer alianzas con colegios y centros educativos para promover la actividad entre sus estudiantes.
+Enviar invitaciones y material promocional a través de los canales de comunicación de los colegios (boletines, redes sociales, anuncios en clases).
+Publicar anuncios y artículos en periódicos locales y regionales.
+Utilizar redes sociales y la página web de la universidad para promocionar el evento.
+Enviar boletines informativos a las bases de datos de contactos existentes.
+Implementar campañas publicitarias en radio y televisión local.</t>
+  </si>
+  <si>
+    <t>Visita académica</t>
+  </si>
+  <si>
+    <t>Actividad académica que busca apoyar la toma de decisiones de carreras en los jóvenes preuniversitarios de diferentes centros educativos y que estos conozcan la institución.</t>
+  </si>
+  <si>
+    <t>Visitas de la universidad a colegios para promover sus carreras y programas</t>
+  </si>
+  <si>
+    <t>Lugar del Evento</t>
+  </si>
+  <si>
+    <t>Promover una perspectiva integral de la Ingeniería Industrial y de Sistemas, mostrando áreas poco conocidas y oportunidades de desarrollo en este campo.</t>
+  </si>
+  <si>
+    <t>Campus de la Pontificia Universidad Católica Madre y Maestra (PUCMM), Santiago, R.D.</t>
+  </si>
+  <si>
+    <t>Seminario que muestra áreas poco conocidas y oportunidades en Ingeniería Industrial y de Sistemas</t>
+  </si>
+  <si>
+    <t>Seminario</t>
+  </si>
+  <si>
+    <t>Seminario de Ingeniería Industrial y de Sistemas</t>
+  </si>
+  <si>
+    <t>Estudiantes interesados en Ingeniería Industrial y de Sistemas</t>
+  </si>
+  <si>
+    <t>Preparatoria/Bachillerato/Educación Media | Licenciatura (Pregrado)</t>
+  </si>
+  <si>
+    <t>Garantizar el desarrollo profesional de estudiantes con conocimientos actualizados sobre el crecimiento de las ciudades y los retos e innovaciones en la Ingeniería Civil.</t>
+  </si>
+  <si>
+    <t>Estudiantes de Ingeniería Civil y afines</t>
+  </si>
+  <si>
+    <t>Seminario de Ingeniería Civil</t>
+  </si>
+  <si>
+    <t>Seminario que aborda el crecimiento de ciudades y retos en Ingeniería Civil</t>
+  </si>
+  <si>
+    <t>Entrega de certificaciones</t>
+  </si>
+  <si>
+    <t>Retención</t>
+  </si>
+  <si>
+    <t>Reconocer y certificar a los estudiantes de ingeniería en áreas especializadas de alta demanda en el mercado laboral.</t>
+  </si>
+  <si>
+    <t>Ocasional (previo a la ceremonia de graduación)</t>
+  </si>
+  <si>
+    <t>Estudiantes de ingeniería</t>
+  </si>
+  <si>
+    <t>Certificación de competencias adquiridas durante la formación académica</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1mFAqZg1pwV-Li0ta-ZmvH-We-Sl5SFLl/view</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1IUk9lhbSd1ZkeoOZuGPon3_BNau8F5n_/view</t>
+  </si>
+  <si>
+    <t>Proporcionar a los estudiantes conocimientos y experiencias sobre el mercado laboral de las telecomunicaciones y cómo ha evolucionado con el tiempo</t>
+  </si>
+  <si>
+    <t>Estudiantes de Ingeniería Telemática y carreras afines</t>
+  </si>
+  <si>
+    <t>Panel Mercado laboral en
+Ingeniería Telemática</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1yS8cLDELkfkARBBpq3fLVoKQUuq8omQX/view</t>
+  </si>
+  <si>
+    <t>Conferencias, charlas y paneles sobre la relevancia de la telecomunicaciones en el mercado laboral y cómo ha evolucionado con el tiempo</t>
+  </si>
+  <si>
+    <t>Profesores de liceos rurales  /  Estudiantes de enseñanza media a través de sus profesores</t>
+  </si>
+  <si>
+    <t>Presencial (clases semanales y eventos presenciales)</t>
+  </si>
+  <si>
+    <t>Desarrollar proyectos innovadores con estudiantes de enseñanza media/ Capacitar a profesores en didácticas de la innovación temprana por medio de aprendizaje basado en proyectos</t>
+  </si>
+  <si>
+    <t>invitación por correo directa a directores de liceos con currículum técnico profesional agropecuario o científico humanista en entornos rurales.</t>
+  </si>
+  <si>
+    <t>SaviaLab ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos. Dirigido a profesores de liceos rurales, el programa capacita a desarrollar proyectos innovadores con estudiantes de enseñanza media.</t>
+  </si>
+  <si>
+    <t>Colegios participantes / Campus Universidad Católica de Chile</t>
+  </si>
+  <si>
+    <t>https://savialab.fia.cl/</t>
+  </si>
+  <si>
+    <t>https://www.redcrecemos.cl/colegios/dagoberto-godoy-lo-prado/noticias/tdg-lo-prado-participa-en-torneo-interescolar-descifra-orientado-a</t>
+  </si>
+  <si>
+    <t>Campus Universidad Católica de Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interescolar Descifra es un torneo competitivo que fomenta la colaboración y el pensamiento crítico entre estudiantes de enseñanza media. Los desafíos en equipo integran conocimientos teóricos para encontrar soluciones innovadoras</t>
+  </si>
+  <si>
+    <t>Diusión interna por Red Enseña Chile, por sus canales de comunicación.</t>
+  </si>
+  <si>
+    <t>Fomentar la colaboración y el pensamiento crítico en habilidades STEAM entre estudiantes de enseñanza media</t>
+  </si>
+  <si>
+    <t>Estudiantes de 1ro a 4to medio y egresados</t>
+  </si>
+  <si>
+    <t>La difusión se hace por redes sociales, web UC y medios, asegurando alta participación.</t>
+  </si>
+  <si>
+    <t>Este taller, organizado por la Escuela de Ingeniería UC, se realiza durante las vacaciones y se enfoca en temas STEAM con clases semanales.</t>
+  </si>
+  <si>
+    <t>https://www.ing.uc.cl/vinculacion-con-el-medio/preingenieria/academia-stem-uc/</t>
+  </si>
+  <si>
+    <t>Estudiantes de 2mo a 7do medio</t>
+  </si>
+  <si>
+    <t>Taller semanal que introduce a estudiantes a la programación, organizado por la Escuela de Ingeniería UC.</t>
+  </si>
+  <si>
+    <t>Difusión por Instagram y web UC</t>
+  </si>
+  <si>
+    <t>https://www.ing.uc.cl/vinculacion-con-el-medio/preingenieria/seeding-clases-de-programacion-para-escolares/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promover la representación femenina en temas STEM </t>
+  </si>
+  <si>
+    <t>Taller anual dirigido a adolescentes mujeres, enfocado en temas STEM con baja representación femenina. Organizado por la UC con apoyo del Banco Scotiabank.</t>
+  </si>
+  <si>
+    <t>Escuelas Tecnológicas UC</t>
+  </si>
+  <si>
+    <t>Difusión por redes sociales, web UC y correos.</t>
+  </si>
+  <si>
+    <t>https://www.ing.uc.cl/vinculacion-con-el-medio/preingenieria/escuelas-tecnologicas/</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1lx_ymprme7o1646e9SnHdL8HUYett3B4/view</t>
+  </si>
+  <si>
+    <t>Estudiantes de enseñanza media interesados en carreras universitarias</t>
+  </si>
+  <si>
+    <t>Charlas, visitas guiadas</t>
+  </si>
+  <si>
+    <t>Campus Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Visitas guiadas a la Universidad</t>
+  </si>
+  <si>
+    <t>Visitas guiadas a la distintas facultades y universidad en general, que incluyen charlas informativas, rondas de preguntas y visitas a los laboratorios, realizadas por monitores estudiantes.</t>
+  </si>
+  <si>
+    <t>Folletos, sitio web, formularios de consulta y respuestas digitales crean nuestro ecosistema comunicacional, el cual permite mostrar de manera completa toda la información necesaria para el estudiante, ya sea sobre carreras, ingreso, postulaciones y vida universitaria.</t>
+  </si>
+  <si>
+    <t>Ferias Universitarias</t>
+  </si>
+  <si>
+    <t>Stand Informativo / Charla</t>
+  </si>
+  <si>
+    <t>Difundir información sobre las carreras ofrecidas por la universidad</t>
+  </si>
+  <si>
+    <t>Participación en ferias universitarias, con stands informativos y charlas sobre los planes de estudios, realizados tanto en la región Metropolitana como en otras ciudades.</t>
+  </si>
+  <si>
+    <t>Folletos, sitio web, formularios de consulta y respuestas digitales crean nuestro ecosistema comunicacional, el cual permite mostrar de manera completa toda la información necesaria para el estudiante, ya sea sobre carreras, ingreso, postulaciones y vida universitaria. Utilización de redes sociales (Instagram y TikTok) para mantener el contacto y compartir contenidos relevantes.</t>
   </si>
 </sst>
 </file>
@@ -3209,7 +3392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3220,9 +3403,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3230,9 +3410,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3262,9 +3439,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3274,21 +3448,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -3297,6 +3460,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3518,8 +3705,8 @@
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="P1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="BF8" sqref="BF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3531,180 +3718,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>330</v>
-      </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="11" t="s">
+      <c r="W1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="X1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Y1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="Z1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AA1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AB1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="11" t="s">
+      <c r="AD1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AE1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AK1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AL1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="11" t="s">
+      <c r="AM1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="AN1" s="11" t="s">
+      <c r="AN1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AO1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="11" t="s">
+      <c r="AP1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AR1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="18" t="s">
+      <c r="AS1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AT1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AU1" s="18" t="s">
+      <c r="AU1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="11" t="s">
+      <c r="AV1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="11" t="s">
+      <c r="AW1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AX1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AY1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="11" t="s">
+      <c r="BA1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BB1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BC1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BD1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BE1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
+      <c r="A2" s="18"/>
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
@@ -3714,11 +3901,11 @@
       <c r="D2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>339</v>
+      <c r="F2" s="11" t="s">
+        <v>337</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>45</v>
@@ -3730,7 +3917,7 @@
         <v>47</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -3740,33 +3927,33 @@
         <v>49</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="6" t="s">
         <v>51</v>
       </c>
       <c r="Z2" s="4" t="s">
@@ -3778,7 +3965,7 @@
       <c r="AB2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AD2" s="4" t="s">
@@ -3787,7 +3974,7 @@
       <c r="AE2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="6" t="s">
         <v>58</v>
       </c>
       <c r="AG2" s="4" t="s">
@@ -3800,28 +3987,28 @@
         <v>61</v>
       </c>
       <c r="AJ2" s="4" t="s">
-        <v>494</v>
+        <v>458</v>
       </c>
       <c r="AK2" s="4" t="s">
-        <v>495</v>
+        <v>459</v>
       </c>
       <c r="AM2" s="4" t="s">
-        <v>496</v>
+        <v>460</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="AO2" s="4" t="s">
-        <v>498</v>
+        <v>462</v>
       </c>
       <c r="AP2" s="4" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="AQ2" s="4" t="s">
         <v>62</v>
       </c>
       <c r="AR2" s="4" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="AS2" s="4" t="s">
         <v>63</v>
@@ -3830,7 +4017,7 @@
         <v>63</v>
       </c>
       <c r="AU2" s="4" t="s">
-        <v>501</v>
+        <v>465</v>
       </c>
       <c r="AV2" s="4" t="s">
         <v>64</v>
@@ -3851,7 +4038,7 @@
         <v>69</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="BC2" s="4" t="s">
         <v>70</v>
@@ -3864,7 +4051,7 @@
       </c>
     </row>
     <row r="3" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>42</v>
       </c>
@@ -3874,10 +4061,10 @@
       <c r="D3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>75</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -3917,11 +4104,11 @@
       <c r="U3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="17" t="s">
-        <v>464</v>
+      <c r="X3" s="15" t="s">
+        <v>428</v>
       </c>
       <c r="Z3" s="4" t="s">
         <v>87</v>
@@ -3929,7 +4116,7 @@
       <c r="AA3" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="17" t="s">
+      <c r="AB3" s="15" t="s">
         <v>89</v>
       </c>
       <c r="AD3" s="4" t="s">
@@ -3938,7 +4125,7 @@
       <c r="AE3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="6" t="s">
         <v>92</v>
       </c>
       <c r="AG3" s="4" t="s">
@@ -3954,10 +4141,10 @@
         <v>96</v>
       </c>
       <c r="AK3" s="4" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
       <c r="AM3" s="4" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="AN3" s="4" t="s">
         <v>97</v>
@@ -3966,7 +4153,7 @@
         <v>98</v>
       </c>
       <c r="AP3" s="4" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
       <c r="AQ3" s="4" t="s">
         <v>99</v>
@@ -3974,14 +4161,14 @@
       <c r="AR3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AS3" s="20" t="s">
-        <v>454</v>
+      <c r="AS3" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AU3" s="7" t="s">
-        <v>455</v>
+      <c r="AU3" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="AV3" s="4" t="s">
         <v>102</v>
@@ -4015,7 +4202,7 @@
       </c>
     </row>
     <row r="4" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
@@ -4025,10 +4212,10 @@
       <c r="D4" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>113</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -4064,16 +4251,16 @@
       <c r="U4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="6" t="s">
         <v>126</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="Y4" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y4" s="6" t="s">
         <v>127</v>
       </c>
       <c r="Z4" s="4" t="s">
@@ -4109,7 +4296,7 @@
       <c r="AK4" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="6" t="s">
         <v>139</v>
       </c>
       <c r="AM4" s="4" t="s">
@@ -4122,7 +4309,7 @@
         <v>142</v>
       </c>
       <c r="AP4" s="4" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="AQ4" s="4" t="s">
         <v>143</v>
@@ -4171,20 +4358,20 @@
       </c>
     </row>
     <row r="5" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="12" t="s">
         <v>153</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -4206,7 +4393,7 @@
         <v>159</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R5" s="4" t="s">
         <v>160</v>
@@ -4235,7 +4422,7 @@
       <c r="AB5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AC5" s="6" t="s">
         <v>169</v>
       </c>
       <c r="AD5" s="4" t="s">
@@ -4254,7 +4441,7 @@
         <v>174</v>
       </c>
       <c r="AJ5" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>175</v>
@@ -4263,13 +4450,13 @@
         <v>176</v>
       </c>
       <c r="AN5" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AP5" s="4" t="s">
         <v>283</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="AQ5" s="4" t="s">
         <v>177</v>
@@ -4286,7 +4473,7 @@
       <c r="AU5" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AV5" s="9">
+      <c r="AV5" s="8">
         <v>0.39710000000000001</v>
       </c>
       <c r="AW5" s="4" t="s">
@@ -4318,7 +4505,7 @@
       </c>
     </row>
     <row r="6" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
@@ -4328,10 +4515,10 @@
       <c r="D6" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>239</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -4373,7 +4560,7 @@
       <c r="X6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="6" t="s">
         <v>210</v>
       </c>
       <c r="Z6" s="4" t="s">
@@ -4394,7 +4581,7 @@
       <c r="AE6" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="6" t="s">
         <v>217</v>
       </c>
       <c r="AG6" s="4" t="s">
@@ -4412,7 +4599,7 @@
       <c r="AK6" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" s="6" t="s">
         <v>223</v>
       </c>
       <c r="AM6" s="4" t="s">
@@ -4474,42 +4661,42 @@
       </c>
     </row>
     <row r="7" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>275</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>240</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q7" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>241</v>
@@ -4518,19 +4705,19 @@
         <v>48</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="6" t="s">
         <v>244</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>245</v>
@@ -4541,7 +4728,7 @@
       <c r="AB7" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC7" s="6" t="s">
         <v>248</v>
       </c>
       <c r="AD7" s="4" t="s">
@@ -4550,35 +4737,35 @@
       <c r="AE7" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF7" s="6" t="s">
         <v>251</v>
       </c>
       <c r="AG7" s="4" t="s">
         <v>252</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AI7" s="4" t="s">
         <v>253</v>
       </c>
       <c r="AJ7" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK7" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="AM7" s="4" t="s">
         <v>254</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AO7" s="4" t="s">
         <v>255</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AQ7" s="4" t="s">
         <v>256</v>
@@ -4625,142 +4812,141 @@
       <c r="BE7" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="BF7" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="BF7" s="4"/>
     </row>
     <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="15" t="s">
+      <c r="K8" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="X8" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="Y8" s="2"/>
       <c r="Z8" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AD8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE8" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="AF8" s="2"/>
       <c r="AG8" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AI8" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
+      <c r="AK8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AK8" s="1" t="s">
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO8" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="AN8" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR8" s="34" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS8" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="AQ8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AR8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AS8" s="1" t="s">
+      <c r="AT8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU8" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AT8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="AW8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AX8" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY8" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="AZ8" s="1" t="s">
         <v>68</v>
@@ -4771,28 +4957,31 @@
       <c r="BB8" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BC8" s="1" t="s">
-        <v>322</v>
+      <c r="BC8" s="34" t="s">
+        <v>321</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="BE8" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
+      </c>
+      <c r="BE8" s="34" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="9" spans="1:58" ht="24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:58" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E9" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>448</v>
+      <c r="F9" s="11" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -4819,18 +5008,91 @@
     <hyperlink ref="AC2" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="Y2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="W2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId23" xr:uid="{539A9A7D-F54B-48D6-A9EF-E54DF6403BCA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260E2B5-701E-4782-8AFD-C2C80FB78957}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="6.7109375" style="21" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="98.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="85" style="21" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>413</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{BDB5B2B2-685B-4519-8345-E9E7C112831B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -4842,1289 +5104,1603 @@
     <col min="14" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="22" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:14" s="19" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="K1" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>542</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>473</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>475</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="22"/>
+      <c r="M27" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>555</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="L28" s="22"/>
+      <c r="M28" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" s="22"/>
+      <c r="M29" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>569</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>571</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>578</v>
+      </c>
+      <c r="J31" s="32" t="s">
+        <v>576</v>
+      </c>
+      <c r="K31" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="32" t="s">
+        <v>577</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>581</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H33" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="J33" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="K33" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="L33" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="K35" s="32" t="s">
         <v>409</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>332</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>483</v>
+      <c r="L35" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>591</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>340</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E2" s="27" t="s">
+    <row r="36" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="F2" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>524</v>
+      <c r="H36" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I36" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="K36" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="L36" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="M36" s="32" t="s">
+        <v>575</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>348</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E3" s="27" t="s">
+    <row r="37" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>522</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>524</v>
+      <c r="H37" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="L37" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>575</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I4" s="27" t="s">
-        <v>525</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="L4" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="M4" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="N4" s="27" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>504</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I5" s="27" t="s">
-        <v>506</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K5" s="27" t="s">
-        <v>508</v>
-      </c>
-      <c r="L5" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="N5" s="27" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I6" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="J6" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>511</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>515</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>518</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>354</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>527</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>355</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I8" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="J8" s="27" t="s">
-        <v>507</v>
-      </c>
-      <c r="K8" s="27" t="s">
-        <v>347</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>526</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="N8" s="27" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I9" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="N9" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="27" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>473</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="G10" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="H10" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="K10" s="29" t="s">
-        <v>362</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="M10" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>470</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I11" s="29" t="s">
-        <v>477</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="K11" s="29" t="s">
-        <v>478</v>
-      </c>
-      <c r="L11" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="M11" s="29" t="s">
-        <v>479</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>481</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="H12" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="M12" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="N12" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>485</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="H13" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I13" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="L13" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="M13" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>529</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="G14" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="H14" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="J14" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="L14" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>530</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>532</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>533</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>344</v>
-      </c>
-      <c r="H15" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>536</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>537</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="L15" s="29" t="s">
-        <v>531</v>
-      </c>
-      <c r="M15" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="32" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>538</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>541</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>539</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>540</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>357</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>543</v>
-      </c>
-      <c r="J16" s="29" t="s">
-        <v>545</v>
-      </c>
-      <c r="K16" s="29" t="s">
-        <v>347</v>
-      </c>
-      <c r="L16" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="M16" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" s="32" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>375</v>
-      </c>
-      <c r="G18" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I18" s="24" t="s">
-        <v>377</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>378</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="G19" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>382</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>385</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>387</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>388</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>391</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>392</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>394</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>397</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>398</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>384</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>399</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="G23" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>403</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>406</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>400</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="G24" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>408</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>410</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>414</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>415</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>416</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>418</v>
-      </c>
-      <c r="G26" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>419</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>420</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>421</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>423</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>425</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>426</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>430</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>431</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>432</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>434</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>436</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>437</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>440</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>441</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>341</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>417</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="G31" s="24" t="s">
-        <v>443</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>444</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>445</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
     <hyperlink ref="N15" r:id="rId2" display="https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view" xr:uid="{C7396F2C-A109-44A9-A08F-22F5D5D8B44A}"/>
     <hyperlink ref="N16" r:id="rId3" xr:uid="{A756A827-0076-449D-B585-1BD34EDE13DF}"/>
+    <hyperlink ref="N19" r:id="rId4" xr:uid="{2ADFADF7-BD71-492B-896D-3593FCA21669}"/>
+    <hyperlink ref="N26" r:id="rId5" xr:uid="{82E366EF-1647-49A7-9298-8F296140885C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EBE3A0-F2A4-46FE-A0A2-D2F1A9268371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604DB7D-CD52-4E8A-828C-01EFA724D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="10920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="720">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2405,79 +2405,6 @@
 Objetivo: Promover que más mujeres dominicanas estudien carreras vinculadas a ciencia, tecnología, ingeniería y matemáticas (STEM), con el propósito de promover el desarrollo en sectores de vanguardia y potenciar el crecimiento del capital tecnológico en nuestro país.
 Frecuencia: Única vez
 Link: https://www.intec.edu.do/notas-de-prensa/item/intec-y-bhd-firman-declaracion-en-apoyo-a-formacion-de-mujeres-en-carreras-stemhttps://www.intec.edu.do/notas-de-prensa/item/abogan-por-mayor-formacion-de-mujeres-en-carreras-stem-para-enfrentar-estereotipos-culturales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Facultad de Ciencias Exactas y Naturales (FCEN):
-Licenciatura en Ciencias Básicas: Orientación Física, Química o biología 
-Profesorado de Grado Universitario en Ciencias Básicas
-Licenciado/a en Geología
-Facultad de Ciencias Médicas (FCM): 
-Medicina
-Licenciatura en Enfermería
-Ciclo de Licenciatura en Higiene y Seguridad en el Trabajo
-Tecnicatura Universitaria en Diagnóstico por Imágenes
-Tecnicatura Universitaria en Laboratorio
-Tecnicatura Universitaria en Quirófano
-Tecnicatura Universitaria en Anestesia
-Facultad de Ingeniería (FING): 
-Arquitectura
-Ingeniería Civil
-Ingeniería en Petróleo
-Ingeniería Industrial
-Ingeniería Mecatrónica
-Licenciatura en Ciencias de la Computación
-Instituto Balseiro (IB) 
-Licenciatura en Física
-Ingeniería Nuclear
-Ingeniería Mecánica
-Ingeniería en Telecomunicaciones
-Facultad de Ciencias Aplicadas a la Industria (FCAI) 
-Bromatología
-Tecnicatura Universitaria en Enología y Viticultura
-Ingeniería en Alimentos
-Ingeniería Química
-Ingeniería Mecánica
-Profesorado Universitario en Química
-Facultad de Ciencias Agrarias (FCA) 
-Tecnicatura Universitaria en Enología y Viticultura
-Bromatología
-Ingeniería Agronómica
-Ingeniería en Recursos Naturales Renovables
-Licenciatura en Bromatología
-Instituto Tecnológico Universitario (ITU) 
-Tecnicatura Universitaria en Desarrollo de Software
-Tecnicatura Universitaria en Redes de Datos y Telecomunicaciones
-Tecnicatura Universitaria en Gestión de Empresas
-Tecnicatura Universitaria en Higiene y Seguridad en el Trabajo
-Tecnicatura Universitaria en Logística y Transporte
-Tecnicatura Universitaria en Marketing
-Tecnicatura Universitaria en Producción Industrial y Automatización
-Tecnicatura Universitaria en Mantenimiento e Instalaciones Industriales
-Numero adjuntados por el área de estadística de la UNCUYO 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En UNCUYO la tasa de deserción es del 83 % ( dato obtenido por el área de Estadística UNCUYO) (ver documento adjunto ) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los porcentajes informados son sobre “INGRESANTES” ( se adjunta documento) 
-Esta Dirección no dispone de la misma información para la totalidad de Estudiantes, debido a que es un dato solicitado al momento de ingresar.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La única variable relevada y procesada por la dirección de estadística UNCUYO  que puede evidenciar nivel socioeconómico de los estudiantes,  es situación de trabajo. Se adjunta documento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">61% gran mendoza 
-18% no informado
-0% del extranjero 
-3% resto del país
-18% otros departamentos de Mendoza 
-Se adjunta gráfico </t>
-  </si>
-  <si>
-    <t>Se adjunta documento</t>
   </si>
   <si>
     <t>https://drive.google.com/open?id=1eifflGhIC_z-HgaDlM-xaG5mMd9gqUPk</t>
@@ -3253,6 +3180,961 @@
   <si>
     <t>Folletos, sitio web, formularios de consulta y respuestas digitales crean nuestro ecosistema comunicacional, el cual permite mostrar de manera completa toda la información necesaria para el estudiante, ya sea sobre carreras, ingreso, postulaciones y vida universitaria. Utilización de redes sociales (Instagram y TikTok) para mantener el contacto y compartir contenidos relevantes.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Estudiantes matriculados Educación Media (Año 2022): 1.379.937
+Estudiantes matriculados Educación Media (Año 2022) Hombres: 647.190
+Estudiantes matriculados Educación Media (Año 2022) Mujeres: 732.747
+Fuente: Boletín técnico Educación Formal (EDUC) 2022 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasas de deserción en Educación Media (Año 2022) Hombres: 3,3%
+Tasas de deserción en Educación Media (Año 2022) Mujeres: 2,4%
+Fuente: Boletín técnico Educación Formal (EDUC) 2022 [pag. 25]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porcentaje de estudiantes en Educación Media (Año 2022) Colegios Urbanos: 59,8%
+Porcentaje de estudiantes en Educación Media (Año 2022) Colegios Rurales: 40,2%
+Fuente: Boletín técnico Educación Formal (EDUC) 2022 
+</t>
+  </si>
+  <si>
+    <t>Estudiantes matriculados pregrado Uniandes (Segundo semestre Año 2023) : 14.712
+Estudiantes matriculados pregrado Uniandes (Segundo semestre Año 2023) Hombres: 7.820
+Estudiantes matriculados pregrado Uniandes (Segundo semestre Año 2023) Mujeres: 6.892
+Los datos presentados corresponden al segundo semestre de 2023 y han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1NeJdt7FVPvFYUtUniqMoaAJ34LwM7a5s</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=10-jRqqlh-UBB8ZfWzrm2acyuKzLBNuv1</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Facultades de Ingeniería y  Ciencias realizan actividades de promoción y reclutamiento para niñas y jóvenes. Ejemplos de esto son el evento Ciencia, mujer y tecnología de las Facultades de Ciencia e Ingeniería (https://ingenieria.uniandes.edu.co/es/eventos/ciencia-mujer-tecnologia-2023) , en la cual se invita a que estudiantes de los grados 6° y 8° de colegio de Colombia asistan a un evento presencial en el que se reúnen con las profesoras y Decanas de las Facultad para conversar sobre su rol como mujeres en el avance de sus disciplinas y visitar los laboratorios y el campus. 
+Otra de las estrategias diseñadas y lideradas por la Facultad de Ingeniería para la promoción de carreras STEM para mujeres es la creación del podcast Ingeniosas (https://ingenieria.uniandes.edu.co/es/podcast-ingeniosas) . A través de este podcast se visibilizan modelos de mujeres en la Ciencia e Ingeniería. El podcast tiene tres temporadas y en cada capitulo una profesora cuenta su historia y aportes como mujer a su disciplina. 
+A su vez la Facultad de Ciencias promociona en redes sociales (https://www.tiktok.com/@cienciasuniandes/video/7208544813673614598)  a las profesoras de departamentos como Matemáticas donde históricamente hay menos representación femenina.  También programan eventos como el día de la mujer en la ciencia (https://ciencias.uniandes.edu.co/index.php/profesores/bienestar/50-noticias-estudiantes/510-dia-de-la-mujer-en-la-ciencia-primer-evento-del-comite-de-bienestar)  en los que buscan visibilizar el trabajo de las mujeres en las diferentes áreas científicas. 
+En el caso de la Facultad de Economía, la Facultad se asegura que en todas las actividades de promoción de sus programas de pregrado y posgrado sean liderados por profesoras. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Universidad de los Andes cuenta con diferentes recursos de apoyo para los estudiantes en riesgo de abandonar los programas de carreras STEM, como por ejemplo la comunidad ORION Uniandes (https://comunidadorion.uniandes.edu.co/). Sin embargo, hasta ahora no se ha realizado un ejercicio de priorización de las mujeres en las estrategias. </t>
+  </si>
+  <si>
+    <t>c) Doctorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facultad de Ingeniería; Admisiones; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Matemáticas: 24 mujeres, 84 hombres, total 108.
+- Ingeniería de Alimentos: 24 mujeres, 12 hombres, total 36.
+- Ingeniería Ambiental: 104 mujeres, 48 hombres, total 152.
+- Ingeniería Biomédica: 259 mujeres, 237 hombres, total 496.
+- Ingeniería Civil: 122 mujeres, 387 hombres, total 509.
+- Ingeniería Eléctrica: 15 mujeres, 74 hombres, total 89.
+- Ingeniería Electrónica: 48 mujeres, 271 hombres, total 319.
+- Ingeniería Industrial: 458 mujeres, 745 hombres, total 1203.
+- Ingeniería Mecánica: 80 mujeres, 472 hombres, total 552.
+- Ingeniería Química: 170 mujeres, 154 hombres, total 324.
+- Ingeniería de Sistemas: 183 mujeres, 830 hombres, total 1013.
+- Biología: 125 mujeres, 75 hombres, total 200.
+- Física: 112 mujeres, 241 hombres, total 353.
+- Geociencias: 38 mujeres, 64 hombres, total 102.
+- Microbiología: 117 mujeres, 62 hombres, total 179.
+- Química: 48 mujeres, 38 hombres, total 86.
+Los datos presentados corresponden al segundo semestre de 2023 y han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de deserción en el primer año:
+- Matemáticas: Mujeres 9%, Hombres 13%, Total 12%
+- Ingeniería de Alimentos: Mujeres -, Hombres -, Total -
+- Ingeniería Ambiental: Mujeres 7%, Hombres 10%, Total 9%
+- Ingeniería Biomédica: Mujeres 8%, Hombres 10%, Total 9%
+- Ingeniería Civil: Mujeres 2%, Hombres 5%, Total 4%
+- Ingeniería Eléctrica: Mujeres -, Hombres 4%, Total 4%
+- Ingeniería Electrónica: Mujeres 3%, Hombres 6%, Total 5%
+- Ingeniería Industrial: Mujeres 4%, Hombres 5%, Total 5%
+- Ingeniería Mecánica: Mujeres 9%, Hombres 10%, Total 10%
+- Ingeniería Química: Mujeres 8%, Hombres 10%, Total 9%
+- Ingeniería de Sistemas: Mujeres 2%, Hombres 10%, Total 9%
+- Biología: Mujeres 8%, Hombres 10%, Total 9%
+- Física: Mujeres 13%, Hombres 10%, Total 11%
+- Geociencias: Mujeres 7%, Hombres 12%, Total 10%
+- Microbiología: Mujeres 11%, Hombres 10%, Total 11%
+- Química: Mujeres 6%, Hombres 12%, Total 9%
+Tasa de deserción en general:
+- Matemáticas: Mujeres 33%, Hombres 34%, Total 34%
+- Ingeniería de Alimentos: Mujeres -, Hombres -, Total -
+- Ingeniería Ambiental: Mujeres 19%, Hombres 27%, Total 23%
+- Ingeniería Biomédica: Mujeres 16%, Hombres 23%, Total 19%
+- Ingeniería Civil: Mujeres 9%, Hombres 22%, Total 19%
+- Ingeniería Eléctrica: Mujeres 22%, Hombres 25%, Total 24%
+- Ingeniería Electrónica: Mujeres 22%, Hombres 22%, Total 22%
+- Ingeniería Industrial: Mujeres 9%, Hombres 16%, Total 14%
+- Ingeniería Mecánica: Mujeres 14%, Hombres 22%, Total 21%
+- Ingeniería Química: Mujeres 13%, Hombres 22%, Total 18%
+- Ingeniería de Sistemas: Mujeres 7%, Hombres 29%, Total 26%
+- Biología: Mujeres 15%, Hombres 23%, Total 18%
+- Física: Mujeres 31%, Hombres 25%, Total 26%
+- Geociencias: Mujeres 18%, Hombres 27%, Total 24%
+- Microbiología: Mujeres 16%, Hombres 28%, Total 19%
+- Química: Mujeres 24%, Hombres 39%, Total 33%
+Los datos presentados corresponden al valor de la deserción estimada como en el SPADIES, es decir, calculando la tasa de deserción acumulada en 14 semestres y, han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.
+</t>
+  </si>
+  <si>
+    <t>Carreras STEM - Porcentaje de estudiantes de pregrado de Uniandes que provienen de (2023-2)
+- Matemáticas: Colegio privado 88%, Colegio público 10%, Colegio Extranjero 2%
+- Ingeniería de Alimentos: Colegio privado 86%, Colegio público 11%, Colegio Extranjero 3%
+- Ingeniería Ambiental: Colegio privado 84%, Colegio público 13%, Colegio Extranjero 3%
+- Ingeniería Biomédica: Colegio privado 82%, Colegio público 17%, Colegio Extranjero 1%
+- Ingeniería Civil: Colegio privado 84%, Colegio público 15%, Colegio Extranjero 1%
+- Ingeniería Eléctrica: Colegio privado 72%, Colegio público 28%, Colegio Extranjero 0%
+- Ingeniería Electrónica: Colegio privado 81%, Colegio público 19%, Colegio Extranjero 0%
+- Ingeniería Industrial: Colegio privado 95%, Colegio público 4%, Colegio Extranjero 1%
+- Ingeniería Mecánica: Colegio privado 90%, Colegio público 9%, Colegio Extranjero 2%
+- Ingeniería Química: Colegio privado 88%, Colegio público 10%, Colegio Extranjero 2%
+- Ingeniería de Sistemas: Colegio privado 85%, Colegio público 14%, Colegio Extranjero 1%
+- Biología: Colegio privado 84%, Colegio público 15%, Colegio Extranjero 2%
+- Física: Colegio privado 76%, Colegio público 24%, Colegio Extranjero 0%
+- Geociencias: Colegio privado 81%, Colegio público 17%, Colegio Extranjero 2%
+- Microbiología: Colegio privado 81%, Colegio público 18%, Colegio Extranjero 1%
+- Química: Colegio privado 82%, Colegio público 16%, Colegio Extranjero 1%
+Porcentaje de estudiantes de pregrado de Uniandes que provienen de (2023-20): Total (teniendo en cuenta las carreras STEM)
+- Colegio privado 86%
+- Colegio público 13%
+- Colegio Extranjero 1%
+Los datos presentados corresponden al segundo semestre de 2023 y han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.</t>
+  </si>
+  <si>
+    <t>Carreras STEM - Porcentaje de estudiantes de pregrado de Uniandes que pertenecen a los estratos/niveles socioeconómicos (2023-20):
+- Matemáticas: Estrato 1: 2%, Estrato 2: 13%, Estrato 3: 16%, Estrato 4: 26%, Estrato 5: 22%, Estrato 6: 21%
+- Ingeniería de Alimentos: Estrato 1: 3%, Estrato 2: 8%, Estrato 3: 25%, Estrato 4: 19%, Estrato 5: 19%, Estrato 6: 25%
+- Ingeniería Ambiental: Estrato 1: 3%, Estrato 2: 11%, Estrato 3: 28%, Estrato 4: 25%, Estrato 5: 18%, Estrato 6: 16%
+- Ingeniería Biomédica: Estrato 1: 6%, Estrato 2: 15%, Estrato 3: 21%, Estrato 4: 27%, Estrato 5: 18%, Estrato 6: 13%
+- Ingeniería Civil: Estrato 1: 10%, Estrato 2: 14%, Estrato 3: 18%, Estrato 4: 24%, Estrato 5: 17%, Estrato 6: 17%
+- Ingeniería Eléctrica: Estrato 1: 10%, Estrato 2: 24%, Estrato 3: 15%, Estrato 4: 28%, Estrato 5: 17%, Estrato 6: 7%
+- Ingeniería Electrónica: Estrato 1: 7%, Estrato 2: 19%, Estrato 3: 21%, Estrato 4: 25%, Estrato 5: 20%, Estrato 6: 8%
+- Ingeniería Industrial: Estrato 1: 2%, Estrato 2: 4%, Estrato 3: 9%, Estrato 4: 22%, Estrato 5: 26%, Estrato 6: 37%
+- Ingeniería Mecánica: Estrato 1: 3%, Estrato 2: 10%, Estrato 3: 18%, Estrato 4: 28%, Estrato 5: 20%, Estrato 6: 21%
+- Ingeniería Química: Estrato 1: 4%, Estrato 2: 14%, Estrato 3: 19%, Estrato 4: 30%, Estrato 5: 20%, Estrato 6: 14%
+- Ingeniería de Sistemas: Estrato 1: 4%, Estrato 2: 13%, Estrato 3: 19%, Estrato 4: 29%, Estrato 5: 21%, Estrato 6: 14%
+- Biología: Estrato 1: 4%, Estrato 2: 15%, Estrato 3: 18%, Estrato 4: 30%, Estrato 5: 18%, Estrato 6: 16%
+- Física: Estrato 1: 8%, Estrato 2: 20%, Estrato 3: 24%, Estrato 4: 23%, Estrato 5: 16%, Estrato 6: 9%
+- Geociencias: Estrato 1: 4%, Estrato 2: 18%, Estrato 3: 25%, Estrato 4: 36%, Estrato 5: 13%, Estrato 6: 5%
+- Microbiología: Estrato 1: 7%, Estrato 2: 16%, Estrato 3: 23%, Estrato 4: 30%, Estrato 5: 14%, Estrato 6: 10%
+- Química: Estrato 1: 4%, Estrato 2: 15%, Estrato 3: 35%, Estrato 4: 32%, Estrato 5: 8%, Estrato 6: 6%
+Los datos presentados corresponden al segundo semestre de 2023 y han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.</t>
+  </si>
+  <si>
+    <t>Carreras STEM - Porcentaje de estudiantes de pregrado que son originarios de (2023-20):
+- Matemáticas: Bogotá (Ciudad donde se encuentra ubicada la universidad): 69%, Resto del país: 31%
+- Ingeniería de Alimentos: Bogotá (Ciudad donde se encuentra ubicada la universidad): 67%, Resto del país: 33%
+- Ingeniería Ambiental: Bogotá (Ciudad donde se encuentra ubicada la universidad): 61%, Resto del país: 39%
+- Ingeniería Biomédica: Bogotá (Ciudad donde se encuentra ubicada la universidad): 53%, Resto del país: 47%
+- Ingeniería Civil: Bogotá (Ciudad donde se encuentra ubicada la universidad): 43%, Resto del país: 57%
+- Ingeniería Eléctrica: Bogotá (Ciudad donde se encuentra ubicada la universidad): 48%, Resto del país: 52%
+- Ingeniería Electrónica: Bogotá (Ciudad donde se encuentra ubicada la universidad): 57%, Resto del país: 43%
+- Ingeniería Industrial: Bogotá (Ciudad donde se encuentra ubicada la universidad): 63%, Resto del país: 37%
+- Ingeniería Mecánica: Bogotá (Ciudad donde se encuentra ubicada la universidad): 54%, Resto del país: 46%
+- Ingeniería Química: Bogotá (Ciudad donde se encuentra ubicada la universidad): 59%, Resto del país: 41%
+- Ingeniería de Sistemas: Bogotá (Ciudad donde se encuentra ubicada la universidad): 60%, Resto del país: 40%
+- Biología: Bogotá (Ciudad donde se encuentra ubicada la universidad): 57%, Resto del país: 43%
+- Física: Bogotá (Ciudad donde se encuentra ubicada la universidad): 49%, Resto del país: 51%
+- Geociencias: Bogotá (Ciudad donde se encuentra ubicada la universidad): 50%, Resto del país: 50%
+- Microbiología: Bogotá (Ciudad donde se encuentra ubicada la universidad): 58%, Resto del país: 42%
+- Química: Bogotá (Ciudad donde se encuentra ubicada la universidad): 60%, Resto del país: 40%
+Los datos presentados corresponden al segundo semestre de 2023 y han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carreras STEM - Porcentaje de estudiantes de pregrado según su edad (2023-20):
+- Matemáticas: 16 años o menos: 0%, 17 años: 1%, 18 años: 3%, 19 años o más: 96%
+- Ingeniería de Alimentos: 16 años o menos: 0%, 17 años: 0%, 18 años: 6%, 19 años o más: 94%
+- Ingeniería Ambiental: 16 años o menos: 0%, 17 años: 0%, 18 años: 1%, 19 años o más: 99%
+- Ingeniería Biomédica: 16 años o menos: 0%, 17 años: 0%, 18 años: 3%, 19 años o más: 97%
+- Ingeniería Civil: 16 años o menos: 0%, 17 años: 0%, 18 años: 4%, 19 años o más: 96%
+- Ingeniería Eléctrica: 16 años o menos: 0%, 17 años: 0%, 18 años: 4%, 19 años o más: 96%
+- Ingeniería Electrónica: 16 años o menos: 0%, 17 años: 0%, 18 años: 7%, 19 años o más: 93%
+- Ingeniería Industrial: 16 años o menos: 0%, 17 años: 0%, 18 años: 2%, 19 años o más: 98%
+- Ingeniería Mecánica: 16 años o menos: 0%, 17 años: 0%, 18 años: 4%, 19 años o más: 96%
+- Ingeniería Química: 16 años o menos: 0%, 17 años: 0%, 18 años: 4%, 19 años o más: 96%
+- Ingeniería de Sistemas: 16 años o menos: 0%, 17 años: 0%, 18 años: 7%, 19 años o más: 93%
+- Biología: 16 años o menos: 0%, 17 años: 0%, 18 años: 6%, 19 años o más: 94%
+- Física: 16 años o menos: 0%, 17 años: 0%, 18 años: 5%, 19 años o más: 95%
+- Geociencias: 16 años o menos: 0%, 17 años: 0%, 18 años: 8%, 19 años o más: 92%
+- Microbiología: 16 años o menos: 0%, 17 años: 0%, 18 años: 4%, 19 años o más: 96%
+- Química: 16 años o menos: 0%, 17 años: 0%, 18 años: 7%, 19 años o más: 93%
+Los datos presentados corresponden al segundo semestre de 2023 y han sido estimados por la Dirección de Planeación y Evaluación, responsable de calcular estas cifras para el boletín estadístico de la universidad. Esta información está respaldada en el archivo Excel adjunto a esta sección.</t>
+  </si>
+  <si>
+    <t>Porcentaje de profesores (Campo STEM) 
+Hombres: 65% 
+Mujeres: 35%</t>
+  </si>
+  <si>
+    <t>15 a 16 años</t>
+  </si>
+  <si>
+    <t>La Universidad de los Andes ha implementado una especie de "Living Labs" a través de su programa CREA, un laboratorio de fabricación diseñado para incentivar a niños y jóvenes a conocer y estudiar carreras de ciencia, tecnología, ingeniería y matemáticas (STEM). El laboratorio CREA, ubicado en el Centro Cívico Universitario, está equipado con tecnología de vanguardia, incluyendo impresoras 3D, drones y sistemas de realidad virtual, lo que permite a los estudiantes de diferentes colegios aprender y divertirse mediante actividades lúdicas.
+En CREA, los estudiantes asumen el rol de ‘Fab Managers’, voluntarios encargados del laboratorio, y ejecutan proyectos en programación, electrónica, física, robótica y diseño 3D. Para acceder a las instalaciones del laboratorio, es necesario hacer una reserva a través de la plataforma oficial: crea.uniandes.edu.co.
+Cabe destacar que la Universidad también incorpora temas de arte en las dinámicas del laboratorio. CREA incluye estaciones como Drones y Robótica, Inteligencia Artificial, Mecánica y Electrónica, Realidad Virtual y Aumentada, y Fabricación Digital. Además de estar dentro de las instalaciones de la Universidad de los Andes, específicamente en el edificio conocido como Centro Cívico, las actividades y novedades del laboratorio se pueden conocer a través de su Instagram oficial: instagram.com/crea_uniandes.
+Este enfoque integral busca fomentar el interés y la participación en disciplinas STEM de una manera innovadora y atractiva.</t>
+  </si>
+  <si>
+    <t>No se cuenta con la infromación para Carreras STEM</t>
+  </si>
+  <si>
+    <t>La única variable relevada y procesada por la dirección de estadística UNCUYO  que puede evidenciar nivel socioeconómico de los estudiantes,  es situación de trabajo: Situación de trabajo de estudiantes de nivel universitario de grado y pregrado:
+Trabajan: 31%
+No trabajan: 61%
+No contestan: 8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los porcentajes informados son sobre “INGRESANTES” Esta Dirección no dispone de la misma información para la totalidad de Estudiantes, debido a que es un dato solicitado al momento de ingresar. Jurisdicción del establecimiento secundario del cual provienen (Ingresantes):
+Estatal: 45.9%
+Privada: 27.4%
+UNCUYO: 10.4%
+Extranjera: 0.9%
+Sin título secundario: 1.3%
+Sin datos: 14.0%
+</t>
+  </si>
+  <si>
+    <t>Procedencia de estudiantes de nivel universitario:
+Originarios del Gran Mendoza: 61%
+De otros departamentos de Mendoza: 18%
+Resto del país: 3%
+Otros países: 0%
+Sin datos: 18%</t>
+  </si>
+  <si>
+    <t>En UNCUYO la tasa de deserción es del 17 % ( dato obtenido por el área de Estadística UNCUYO- AÑO LECTIVO 2022) Bromatología: 20%
+Ingeniero Agrónomo: 12%
+Ingeniero en Recursos Naturales Renovables: 16%
+Licenciado en Bromatología: 20%
+Bromatología: 23%
+Ingeniero en Alimentos: 39%
+Ingeniero Mecánico: 36%
+Ingeniero Químico: 28%
+Profesor Universitario en Química: 33%
+Licenciado en Ciencias Básicas con orientación en Biología: 27%
+Licenciado en Ciencias Básicas con orientación en Física: 22%
+Licenciado en Ciencias Básicas con orientación en Matemática: 27%
+Licenciado en Ciencias Básicas con orientación en Química: 25%
+Licenciado en Geología: 21%
+Ingeniero en Petróleo: 15%
+Ingeniero en Mecatrónica: 10%
+Ingeniero en Telecomunicaciones: 20%
+Ingeniero en Informática: 0%
+Licenciado en Ciencias de la Computación: 0%
+Ingeniero en Telecomunicaciones: 0%
+Ingeniero Mecánico: 14%
+Licenciado en Física: 4%
+Técnico Universitario en Mantenimiento e Instalaciones Industriales: 8%
+Técnico Universitario en Producción Industrial y Automatización: 8%
+Técnico Universitario en Redes de Datos y Telecomunicaciones: 6%</t>
+  </si>
+  <si>
+    <t>Bromatólogo
+Total: 183
+Hombres: 27
+Mujeres: 156
+Ingeniero Agrónomo
+Total: 795
+Hombres: 403
+Mujeres: 392
+Ingeniero en Recursos Naturales Renovables
+Total: 401
+Hombres: 130
+Mujeres: 271
+Licenciado en Bromatología
+Total: 252
+Hombres: 44
+Mujeres: 208
+Bromatólogo
+Total: 76
+Hombres: 33
+Mujeres: 43
+Ingeniero en Alimentos
+Total: 77
+Hombres: 19
+Mujeres: 58
+Ingeniero Mecánico
+Total: 108
+Hombres: 59
+Mujeres: 49
+Ingeniero Químico
+Total: 358
+Hombres: 174
+Mujeres: 184
+Profesor Universitario en Química
+Total: 16
+Hombres: 11
+Mujeres: 5
+Licenciado en Ciencias Básicas con orientación en Biología
+Total: 39
+Hombres: 9
+Mujeres: 30
+Licenciado en Ciencias Básicas con orientación en Física
+Total: 18
+Hombres: 0
+Mujeres: 18
+Licenciado en Ciencias Básicas con orientación en Química
+Total: 17
+Hombres: 9
+Mujeres: 8
+Licenciado en Geología
+Total: 31
+Hombres: 21
+Mujeres: 10
+Profesor de Grado Universitario en Ciencias Básicas con orientación en Biología
+Total: 27
+Hombres: 9
+Mujeres: 18
+Profesor de Grado Universitario en Ciencias Básicas con orientación en Física
+Total: 16
+Hombres: 6
+Mujeres: 10
+Profesor de Grado Universitario en Ciencias Básicas con orientación en Matemática
+Total: 11
+Hombres: 0
+Mujeres: 11
+Ingeniero Civil
+Total: 749
+Hombres: 491
+Mujeres: 258
+Ingeniero de Petróleos
+Total: 289
+Hombres: 198
+Mujeres: 91
+Ingeniero en Mecatrónica
+Total: 209
+Hombres: 179
+Mujeres: 30
+Ingeniero Industrial
+Total: 318
+Hombres: 237
+Mujeres: 81
+Licenciado en Ciencias de la Computación
+Total: 148
+Hombres: 120
+Mujeres: 28
+Ingeniero en Telecomunicaciones
+Total: 39
+Hombres: 19
+Mujeres: 20
+Ingeniero Mecánico
+Total: 40
+Hombres: 23
+Mujeres: 17
+Ingeniero Nuclear
+Total: 49
+Hombres: 29
+Mujeres: 20
+Licenciado en Física
+Total: 42
+Hombres: 26
+Mujeres: 16
+Técnico Universitario en Mantenimiento e Instalaciones Industriales
+Total: 145
+Hombres: 93
+Mujeres: 52
+Técnico Universitario en Producción Industrial y Automatización
+Total: 150
+Hombres: 109
+Mujeres: 41
+Técnico Universitario en Redes de Datos y Telecomunicaciones
+Total: 368
+Hombres: 354
+Mujeres: 14 (Matriculados para le año lectivo 2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.La universidad utiliza una combinación de estrategias para promover las oportunidades de apoyo financiero disponibles:
+Estrategia "Always on" en redes sociales: Se ejecuta una campaña constante a través de plataformas como Google, Facebook e Instagram. El contenido publicado incluye información sobre becas, fechas clave y procedimientos de solicitud.
+Difusión en otros medios: La universidad publica anuncios en medios de comunicación nacionales, como las revistas y periódicos Semana y El Tiempo, con el fin de alcanzar un público más amplio.
+Charlas informativas:
+Frecuencia: Charlas semanales a través de Scouting y quincenalmente para cada grupo de admitidos.
+Contenido: Se explican los procesos y fechas de matrícula, así como los distintos apoyos financieros disponibles.
+Ponente principal: La exposición es realizada por la encargada de la oficina de servicios financieros.
+Promoción en colegios: El equipo de experiencia de la Dirección de Admisiones visita colegios y participa en ferias educativas para informar sobre las opciones de apoyo financiero.
+Esta estrategia integral busca no solo informar a los estudiantes sobre las opciones disponibles, sino también incentivar la postulación y facilitar los procesos de aplicación.
+</t>
+  </si>
+  <si>
+    <t>La universidad utiliza un proceso de selección riguroso y transparente para otorgar becas y apoyos financieros. Este proceso consta de varios pasos y criterios clave:
+Preselección académica: Se seleccionan los estudiantes con los puntajes de ingreso más altos que hayan solicitado beca.
+Formulario de becas: Los preseleccionados deben completar un formulario y presentar la documentación requerida.
+Score total: La calificación final se basa en un 60% de criterios académicos y socioeconómicos y un 40% en la entrevista.
+Criterios académicos: Evaluación de las notas de noveno, décimo y undécimo grado, reconocimientos académicos, deportivos y actividades extracurriculares.
+Criterios socioeconómicos: Se valoran los ingresos familiares, la estructura familiar y el número de adultos que sostienen el hogar.
+Entrevista: Realizada por psicólogas de la decanatura de estudiantes, donde se evalúan la elección de carrera, competencias psicoemocionales y redes de apoyo.
+ No hay criterios específicos relacionados con el género ni políticas de equidad de género en el proceso de selección. El detalle específico de la ponderación de los criterios no se divulga más allá de la proporción 60% (académico y socioeconómico) y 40% (entrevista).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La universidad otorga un apoyo financiero significativo a los estudiantes de carreras STEM, logrando una cobertura notable en diferentes áreas de estudio. A continuación, se detalla la distribución del apoyo financiero:
+Porcentaje de estudiantes apoyados (2023):
+•	Ciencias: 62%
+•	Ingeniería: 40%
+Distribución por género:
+•	En Ciencias, 353 mujeres y 396 hombres reciben apoyo financiero.
+•	En Ingeniería, 734 mujeres y 1467 hombres cuentan con algún tipo de ayuda.
+Distribución por estrato socioeconómico:
+Se observa un mayor número de estudiantes de estratos 1, 2 y 3 beneficiados, indicando un enfoque en apoyar a estudiantes provenientes de entornos de bajos ingresos:
+•	En Ciencias, predominan los estudiantes de estratos 2 y 3.
+•	En Ingeniería, el mayor porcentaje de apoyo también se concentra en estratos 2 y 3.
+Distribución por tipo de apoyo financiero:
+•	Ciencias: 664 estudiantes apoyados por la universidad, 226 por el gobierno, 120 por entidades externas.
+•	Ingeniería: 1665 apoyados por la universidad, 682 por el gobierno y 586 por entidades externas.
+La universidad no cuenta con información específica sobre otros grupos subrepresentados como grupos étnicos, discapacitados o personas desplazadas. La información socioeconómica se refleja en la distribución por estratos.
+</t>
+  </si>
+  <si>
+    <t>La universidad ofrece una variedad de programas de becas y apoyos financieros diseñados para estudiantes admitidos que demuestran excelencia académica y necesidad económica. Cabe destacar que las becas enumeradas a continuación son de carácter general, es decir, están disponibles para estudiantes de todos los programas de la universidad y no están limitadas exclusivamente a las carreras STEM. La única beca específicamente asociada a carreras STEM es la Beca Preferente. Además, existen becas ofrecidas por el Distrito (Bogotá D.C.) y el Gobierno Nacional, que no se incluyen en esta lista.
+1. Quiero Estudiar
+Este programa es uno de los principales pilares de apoyo financiero de la universidad. Está dirigido a estudiantes que demuestran excelencia académica y necesidad económica. La beca cubre hasta el 95% del valor de la matrícula y se otorga a estudiantes admitidos con los mejores puntajes de ingreso. Además de la cobertura financiera, el programa ofrece acompañamiento personalizado durante el desarrollo de la carrera, con el objetivo de fomentar el rendimiento académico y la permanencia.
+Requisitos: Demostrar necesidad económica y tener un excelente desempeño académico en el proceso de admisión.
+Cobertura: Hasta el 95% de la matrícula.
+Más información: https://apoyofinanciero.uniandes.edu.co/pregrado/estudiantes-nuevos/quiero-estudiar.
+Recurso multimedia: https://www.youtube.com/watch?v=bZp6LGicoeI.
+2. Palante Caribe y Palante Pacífico
+Este programa se enfoca en estudiantes de las regiones Caribe y Pacífico de Colombia, específicamente en aquellos provenientes de los estratos socioeconómicos 1, 2 y 3. La beca cubre hasta el 98% de la matrícula, brindando apoyo a estudiantes que cumplen con los requisitos de necesidad económica y excelencia académica. Aunque esta beca no está dirigida exclusivamente a las carreras STEM, es una opción disponible para estudiantes de todas las áreas de la universidad.
+Requisitos: Ser admitido a la universidad, pertenecer a las regiones Caribe o Pacífico y demostrar necesidad económica.
+Cobertura: Hasta el 98% de la matrícula.
+Más información:
+Palante Caribe: https://apoyofinanciero.uniandes.edu.co/pregrado/estudiantes-nuevos/pa-lante-caribe.
+Palante Pacífico: https://apoyofinanciero.uniandes.edu.co/pregrado/estudiantes-nuevos/pa-lante-pacifico.
+Recursos multimedia:
+Video Caribe: https://www.youtube.com/watch?v=NxnG9zMKDqM&amp;list=PL7vYTBjTHAqSQDOECqwhSTA0XCaR0E2va&amp;index=3.
+Video Pacífico: https://www.youtube.com/watch?v=ONYutDgAA78&amp;list=PL7vYTBjTHAqSAo0DT1DwBMXTUiaAN_8kgv.
+3. Beca Preferente (Asociada a Carreras STEM)
+Esta es la única beca dentro de los programas generales de la universidad que se enfoca específicamente en incentivar la entrada de estudiantes a ciertas carreras STEM. La Beca Preferente está destinada a estudiantes admitidos en programas como Biología, Geociencias, Matemáticas, Microbiología, Química, Gobierno e Ingeniería Electrónica. Ofrece una cobertura parcial de la matrícula, con descuentos del 30% y 20%, dependiendo del programa académico.
+Requisitos: Ser admitido a uno de los programas prioritarios mencionados.
+Cobertura: 30% o 20% de la matrícula.
+Más información: https://apoyofinanciero.uniandes.edu.co/pregrado/estudiantes-nuevos/beca-preferente.
+4. Progresandes 75% Cero Interés
+Este programa consiste en un préstamo que cubre el 75% de la matrícula y está diseñado para ser pagado en cinco cuotas mensuales, sin intereses y sin la necesidad de un codeudor. Aunque no está limitado a las carreras STEM, brinda una opción financiera flexible para los estudiantes de cualquier programa de la universidad.
+Requisitos: Ningún requisito de codeudor.
+Cobertura: Préstamo del 75% de la matrícula.
+Más información: https://apoyofinanciero.uniandes.edu.co/pregrado/estudiantes-nuevos/progresandes-75-cero-interes.
+Estas becas demuestran el compromiso de la universidad con el apoyo financiero, aunque la mayoría se ofrecen a estudiantes de todas las disciplinas y no exclusivamente a aquellos en carreras STEM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La Decanatura de Estudiantes con apoyo de la Facultad de Economía corre semestralmente un modelo predictivo de deserción llamado SPADIES-Uniandes. Este modelo genera la probabilidad de desertar de cada cohorte de ingreso así como de los estudiantes con bajo desempeño académico (promedio acumulado inferior a 3,4/5). Los estudiantes a quienes se les corre el modelo son clasificados en 5 quintiles, en donde el quintil 5 es aquel donde se ubican los estudiantes con mayor probabilidad de desertar. Esta información es cargada a la plataforma Advise, la cual es la plataforma de consejería académica de la Universidad a la cual acceden los profesores consejeros así como los coordinadores académicos de cada programa. Este quintil es una de las variables que conforman el "índice de monitoreo" que se calcula a cada estudiantes. Este índice permita clasificar a los estudisantes de acuerdo a su necesidad de ser monitoreados en consejería, dada su vulnerabilidad académica. Cada semestre, en cuanto esta información es subida y calculada en Advise, se informa a todos los programas académicos de modo que inicien los primeros contactos con los estudiantes aconsejados, priorizando aquellos cuyo índice sea más bajo. 
+Una de las variables predictivas que tiene en cuenta el modelo del SPADIES, es el género, dado que histórcamente se ha evidenciado que las mujeres tienden a desertar menos que los hombres, así como la Facultad a la cual ingresan los estudiantes. 
+Por favor, proporcione una descripción corta pero clara sobre las campañas implementadas
+La consejería académica es una de las estrategias de la Universidad que contribuye a la toma de decisiones oportuna del estudiante, así como a la revisión de sus dificultades y fortalezas, con el fin de promover su desempeño académico. También permite que el profesor oriente a sis aconsejados hacia otras instancias de ayuda institucionales y los direccione a donde corresponda, cuando sus dificultades superen el terreno de lo académico. De esta manera, el estudiante encuentra un vínculo con su programa y con la Universidad, que lo protege ante las dificultades reforzando su permanencia en la institución. Esta labor es reconocida dentro del estatuto profesoral y el reglamento estudiantil, de manera hace parte de la docencia directa a cargo de los profesores. Para equiparlos en estos temas de consejería, la Decanatura de Estudiantes implementa talleres de formación en habilidades para ello, y acompaña los casos de los estudiantes que los profesores direccionan para atender problemáticas personales.
+Adicionalmente, desde la Decanatura de Estudiantes (Centro de Apoyo) se detecta a los estudiantes de bajo desempeño y se les ofrece consejería para revisar su situación y orientar la toma decisiones académicas. Se ofrecen igualmente espacios de trabajo grupal como talleres y se les envía a su correo electrónico información clave a lo largo del semestre académico. Además, a los estudiantes que ya están suspendidos académicamente se les invita a realizar un taller obligatorio para quienes deseen reingresar a la Universidad, en el cual se fortalece su capacidad de reflexionar y evaluar su situación general, motivándolos a que regresen el siguiente semestre con mayores claridades frente a cómo asumir los retos de la vida universitaria.
+Por otro lado, la Decanatura de Estudiantes (Centro de Apoyo) lidera el funcionamiento de un sistema de alertas tempranas que detecta cada semestre la población académicamente vulnerable para ofrecer ayudas y medir el impacto de las mismas. Por ejemplo, dado que un porcentaje importante de los estudiantes que desertan se encuentra en su primer año de estudios, la Decanatura de Estudiantes ofrece un curso para ellos llamado Herramientas para la Vida Universitaria, el cual prepara a los nuevos estudiantes en este nuevo entorno fortaleciendo su capacidad para adaptarse, para conocer los recursos de ayuda de la Universidad, para manejar su tiempo y sus habilidades de estudio, entre otros temas. Este sistema ha permitido estudiar el impacto de este curso en el cual se ha evidenciado que quienes lo toman, obtiene un promedio semestral más alto que aquellos que no lo hacen y en determinados grupos, reduce la probabilidad de deserción. En segundo lugar, este sistema levanta alertas a los estudiantes de las materias con más altas tasas de reprobación, de modo que puedan obtener tutorías en esos temas de manera oportuna evitando que reprueben el curso o que lo retiren. Ese impacto se ha podido corroborar en las evaluaciones realizadas de manera sistemática cada año desde el 2015. Por último, ese sistema detecta estudiantes de primer semestre que llegan con una baja percepción en sus habilidades socio-emocionales, por lo que esta unidad les envía información específica de acuerdo a su necesidad, invitándolos a aprovechar los recursos de ayuda que la Universidad tiene para ellos.
+En temas de género, desde la Decanatura de Estudiantes (Centro de Diversidad), se han realizado varias actividades para estudiantes de pregrado y postgrado: charlas con el fin de promover la reflexión acerca de la construcción de estereotipos y prejuicios en personas LGBTI y talleres sobre "Orientación Sexual", con el fin de orientar sobre temas relacionados con diversidad sexual, con el fin ayudar a les participantes a tener mayor claridad frente a las dudas que tienen sobre su sexualidad. Igualmente, talleres para personas Trans, con el fin de promover y fortalecer un espacio de reflexión frente a la resiliencia en la vida de les participantes. Adicionalmente, de la mano de GHDO se han realizado charlas sobre lenguaje inclusivo y neutro para la comunidad administrativa uniandina. 
+Asimismo, la Universidad de Los Andes promueve, facilita e implementa acciones y prácticas institucionales que promueven la equidad de género e igualdad de oportunidades con un enfoque interseccional. 
+Ejemplos de esto en Ingeniería:
+https://ingenieria.uniandes.edu.co/es/podcast-ingeniosas
+https://ingenieria.uniandes.edu.co/sites/default/files/facultad-ingenieria/revista-contacto/revista-contacto-mujer-e-ingenieria.pdf
+https://ingenieria.uniandes.edu.co/es/eventos/ciencia-mujer-tecnologia-2021</t>
+  </si>
+  <si>
+    <t>Mantener la atención de los estudiantes durante las actividades:
+•	Desafío: Varios miembros del personal mencionaron que uno de los mayores retos es mantener la atención de los estudiantes, especialmente en grupos grandes de adolescentes o jóvenes que pueden distraerse fácilmente. Este problema se agrava cuando las actividades no logran captar su interés o cuando hay demasiadas personas en un solo espacio.
+•	Solución: Se están proponiendo estrategias prácticas, como la incorporación de actividades "hands-on", que permiten una mayor interacción y participación activa. Esto ayuda a mantener el interés de los estudiantes y reducir las distracciones. También se ha implementado el uso de equipos llamativos en los laboratorios y la elección de temas de actualidad, como la energía, para atraer más la atención de los jóvenes.
+Financiación de las actividades y movilidad de invitadas:
+•	Desafío: Otro reto importante es la falta de financiación para apoyar la movilidad de invitadas o expertas que puedan participar en eventos, lo que limita el alcance y la calidad de las actividades.
+•	Solución: El equipo encargado está atento a oportunidades de financiación, tanto internas como externas, para poder costear los gastos necesarios para traer invitadas y asegurar la calidad del evento.
+Difusión de los eventos y alcance del público:
+•	Desafío: Garantizar la difusión oportuna de los eventos ha sido otro obstáculo, ya que un mal manejo del calendario puede afectar la asistencia y el impacto de las actividades.
+•	Solución: Se ha mejorado la planificación y el seguimiento del calendario para asegurar que la promoción de los eventos se realice con tiempo suficiente. Además, se han innovado los formatos de los eventos, como con la creación de un evento satélite llamado “El día de la mujer y la niña en la ciencia”, lo cual ha generado un mayor interés y conciencia en el público sobre las iniciativas de mujeres en la ciencia.
+Variabilidad de los públicos y diseño de actividades adecuadas:
+•	Desafío: Manejar los tiempos y diseñar actividades que se adapten a diferentes públicos también ha sido un reto. En algunos casos, grupos enteros no han asistido a ciertas actividades, lo que genera problemas de planificación y ejecución.
+•	Solución: Aunque no se cuenta con una solución implementada a nivel general, se sugiere una mayor colaboración entre los profesores y el personal encargado de los laboratorios para diseñar actividades que estén alineadas con el programa académico y que tomen en cuenta las particularidades pedagógicas de cada grupo.
+Fomentar el interés en eventos específicos para mujeres en ciencias:
+•	Desafío: Atraer la atención del público en general a eventos relacionados con mujeres en ciencias ha sido difícil, ya que el interés suele ser menor en comparación con otras actividades.
+•	Solución: El equipo ha trabajado en innovar los formatos de estos eventos, incluyendo la creación de actividades complementarias que aumenten la visibilidad y fomenten una mayor cultura de participación en torno a este tipo de iniciativas.</t>
+  </si>
+  <si>
+    <t>Página Web: Información y convocatorias se publican en el portal oficial de la universidad y la página de aspirantes.
+Redes Sociales: Instagram, TikTok, Facebook, y YouTube son las principales plataformas para la divulgación.
+ChatBot y WhatsApp: Para responder preguntas y mantener la comunicación directa con los aspirantes.
+Email Marketing y Salesforce CRM: Uso de Salesforce para gestionar contactos, seguimiento de leads y organización de campañas de email marketing.</t>
+  </si>
+  <si>
+    <t>No se cuenta con ninguna restricción concreta sobre herramientas o plataformas que no se puedan utilizar. La universidad parece mantener un enfoque flexible en el uso de medios digitales para su estrategia de promoción</t>
+  </si>
+  <si>
+    <t>La estrategia de comunicación de la universidad para potenciar la promoción de todas sus carreras, incluyendo STEM, se basa en una estructura organizada que incluye diferentes canales y áreas de enfoque:
+1.	División de Roles: Dentro de la universidad, la comunicación y promoción se maneja a través de dos oficinas principales: la Oficina de Comunicaciones Estratégicas y la Dirección de Admisiones. La Oficina de Comunicaciones Estratégicas se encarga del branding general, la gestión de noticias, reportajes y resultados de investigaciones, así como de la administración de la página web y las redes sociales de la universidad. La Dirección de Admisiones, por su parte, está orientada a la atracción de aspirantes tanto de pregrado como de posgrado y se divide en tres áreas: Admisiones, Mercadeo y Experiencia del Aspirante.
+2.	Área de Mercadeo: Esta área es responsable de la generación de leads, campañas pagas en redes sociales y actividades de promoción. Trabaja en conjunto con la Dirección de Admisiones para diseñar y ejecutar estrategias que permitan atraer y mantener el interés de los posibles aspirantes a las carreras de la universidad.
+3.	Canales de Comunicación:
+o	Página web de aspirantes: La página "aspirantes.uniandes.edu.co" es la segunda más visitada de la universidad, sirviendo como un centro de información para los estudiantes interesados. Incluye detalles de programas académicos, eventos, apoyo financiero, y ofrece formularios de inscripción gestionados a través de Salesforce.
+o	Redes Sociales: La Dirección de Admisiones utiliza redes sociales como Instagram, TikTok, Facebook y YouTube, gestionando campañas pagas y contenido estratégico para la promoción de las actividades. Aunque las redes sociales son manejadas por el área de mercadeo, el contenido es coordinado con la oficina de experiencia para asegurar su relevancia.
+o	Smart Center: Este centro de gestión de relaciones permite el contacto directo con aspirantes a través de correos electrónicos, llamadas y conversaciones de WhatsApp. Es una herramienta clave para realizar seguimiento personalizado a los aspirantes desde el primer contacto hasta su matriculación.
+o	Email Marketing: A través de Salesforce CRM, se envían correos electrónicos personalizados a los aspirantes y a los colegios, proporcionando información relevante sobre actividades, programas, apoyo financiero y procesos de admisión.
+o	Chatbot: La universidad cuenta con un chatbot en su página web que permite responder preguntas frecuentes de manera automatizada, facilitando el acceso a la información para los estudiantes y padres interesados.
+4.	Actividades Promocionales:
+o	Visitas guiadas y eventos: La universidad organiza eventos como "Uniandes Fest" y "Family Fest" para padres y estudiantes. Estas actividades incluyen stands informativos, charlas, y experiencias prácticas en laboratorios, que se publicitan mediante campañas en redes sociales, correo electrónico y comunicación directa con colegios.
+o	Relación Directa con Colegios: La Dirección de Admisiones centraliza el contacto y la comunicación con los colegios, segmentándolos por nivel de aportación (número de estudiantes que ingresan a la universidad) y necesidades (apoyo financiero, por ejemplo). Mantiene chats con orientadores y realiza campañas de divulgación específicas, además de gestionar solicitudes de visitas a la universidad.
+5.	Campañas de Redes Sociales: La universidad utiliza campañas pagas, gestionadas en conjunto con una agencia externa, para promocionar las actividades y programas académicos. Las campañas se orientan a recoger leads y se coordinan con el Smart Center para el seguimiento personalizado de los interesados.
+6.	Evaluación de Impacto: Cada seis meses, el equipo de admisiones realiza un análisis de los resultados, enfocándose en la cifra de matriculados. Se llevan a cabo seguimientos semanales y mensuales para medir el impacto de las campañas, la efectividad de las actividades y los canales de comunicación utilizados.
+Esta estrategia de comunicación es integral y dinámica, involucrando una combinación de medios digitales, eventos presenciales, campañas de marketing y seguimiento personalizado para atraer y retener el interés de los estudiantes en carreras STEM, junto con otras ofertas académicas de la universidad</t>
+  </si>
+  <si>
+    <t>Día de la Mujer y la Niña en la Ciencia:
+•	Tipo de actividad: Evento y charlas.
+•	Objetivo: Fomentar el interés de niñas y jóvenes en la ciencia y tecnología, abordando la brecha de género en áreas STEM.
+•	Formato: Presencial.
+•	Frecuencia: Anual (organizado en abril de 2022).
+•	Estrategia(s) de comunicación:
+o	Convocatoria a través de alianzas con colegios, contacto directo con orientadores y comunicaciones en redes sociales.
+o	Divulgación en la página web de la universidad.
+•	Público objetivo: Mujeres estudiantes de colegio.
+•	Lugar: Universidad de los Andes, en los laboratorios de la Facultad de Ciencias e Ingeniería.
+•	Estrategias de éxito:
+o	Alianzas con Movistar Colombia.
+o	Invitación a participar en experiencias prácticas en laboratorios, y la oferta de una beca para la estudiante con mejor promedio de pregrado.
+o	Organización de charlas cortas y dinámicas para mantener el interés de las asistentes.
+Prográmate con tu Programa y Caminando en Uniandes:
+•	Tipo de actividad: Visitas guiadas y charlas informativas.
+•	Objetivo: Brindar a los estudiantes la oportunidad de conocer el campus y las diferentes carreras que ofrece la universidad, con un enfoque especial en STEM.
+•	Formato: Presencial.
+•	Frecuencia: Todos los martes y jueves.
+•	Estrategia(s) de comunicación:
+o	Convocatoria a través de redes sociales, página web y contacto directo con los orientadores de los colegios.
+•	Público objetivo: Estudiantes de colegio interesados en ingresar a la universidad.
+•	Lugar: Campus de la Universidad de los Andes.
+•	Estrategias de éxito:
+o	Ofrecer una experiencia completa que incluya recorridos por laboratorios y áreas de las facultades.
+o	Atención personalizada y grupos pequeños para fomentar la interacción y responder dudas específicas.
+Relación con Orientadores de Colegios:
+•	Tipo de actividad: Grupos focales y talleres.
+•	Objetivo: Mantener un canal directo de comunicación con los orientadores escolares para promover las carreras STEM y actividades de la universidad.
+•	Formato: Virtual y presencial.
+•	Frecuencia: Periódica, con sesiones de actualización y talleres anuales.
+•	Estrategia(s) de comunicación:
+o	Contacto directo con orientadores y participación en eventos organizados por la comunidad educativa.
+•	Público objetivo: Orientadores de colegios.
+•	Lugar: Virtual y presencial en la universidad o en los colegios.
+•	Estrategias de éxito:
+o	Charlas personalizadas sobre la oferta académica y programas de apoyo financiero.</t>
+  </si>
+  <si>
+    <t>Tras la implementación de las actividades conjuntas con colegios para promover las carreras STEM, la universidad ha identificado varias lecciones aprendidas y oportunidades de mejora que buscan fortalecer los esfuerzos de atracción y retención de estudiantes:
+Lecciones Aprendidas:
+Importancia de la Diversidad en las Estrategias de Comunicación:
+o	Durante la realización de actividades como el Día de la Mujer y la Niña en la Ciencia y el evento Mujer, Ciencia y Tecnología, se aprendió que la diversidad en los canales de comunicación es fundamental para alcanzar diferentes públicos. Por ejemplo, el uso de redes sociales, contacto directo con colegios y las páginas web se complementan para llegar a estudiantes, padres y orientadores.
+o	Las actividades presenciales tienen un impacto más fuerte en la motivación e interés de los estudiantes, pero las estrategias virtuales permiten ampliar el alcance y cubrir áreas geográficas más amplias, como se evidenció en los eventos llevados a cabo durante la pandemia.
+Necesidad de Adaptar Contenidos y Formatos:
+o	Al llevar a cabo talleres y eventos para públicos de diferentes edades y perfiles, como niñas de 8 a 13 años o estudiantes de secundaria, la universidad aprendió que los contenidos deben ser adaptados de acuerdo con la edad y los intereses de los participantes. Se identificó que los talleres prácticos y actividades interactivas resultan mucho más efectivos que las charlas tradicionales.
+o	Por ejemplo, se observó que las charlas largas tienden a disminuir la atención de los participantes, mientras que actividades dinámicas, como laboratorios y juegos, logran captar su interés y transmitir la importancia de las áreas STEM de manera efectiva.
+Relevancia de la Experiencia Práctica:
+o	Actividades como las visitas guiadas al campus y la interacción directa en laboratorios han demostrado ser clave para que los estudiantes tengan una experiencia práctica de lo que implica estudiar una carrera STEM. Esto se ha identificado como una estrategia efectiva para motivar a los estudiantes a considerar estas áreas de estudio, ya que les permite vivir la ciencia y tecnología de primera mano.
+o	La experiencia práctica también ayuda a desmitificar ciertas percepciones negativas o de dificultad en torno a las carreras STEM, motivando a un mayor número de estudiantes, especialmente a mujeres y estudiantes de colegios públicos.
+Colaboración con Colegios:
+o	La colaboración directa con orientadores y colegios ha sido crucial para el éxito de las actividades. Se aprendió que mantener una relación cercana con los colegios y orientadores facilita la organización de eventos y garantiza una convocatoria efectiva.
+o	También se identificó que los colegios que reciben información sobre apoyo financiero tienden a tener una mayor tasa de estudiantes interesados en carreras STEM, lo que indica la importancia de comunicar las oportunidades de financiamiento y becas de manera temprana en el proceso.
+Oportunidades de Mejora:
+Ampliación del Alcance Geográfico:
+•	Si bien las actividades presenciales en la universidad son muy efectivas, se ha identificado la necesidad de llegar a estudiantes de otras regiones. Se sugiere expandir las actividades virtuales y crear alianzas con colegios de diferentes ciudades para organizar talleres y charlas en áreas rurales y otras regiones del país.
+Implementación de Más Programas de Mentoría:
+•	Las actividades como el taller de habilidades profesionales han demostrado que la mentoría tiene un impacto significativo en la motivación de las estudiantes interesadas en STEM. Por ello, se propone ampliar los programas de mentoría con profesionales y estudiantes universitarios para fomentar el interés de los estudiantes y guiarlos en su proceso de selección de carrera.
+Mayor Inclusión de Contenidos sobre Apoyo Financiero:
+•	Se identificó que la información sobre opciones de apoyo financiero es crucial para que más estudiantes, especialmente aquellos de familias de bajos ingresos, consideren las carreras STEM. Se propone incluir de manera más destacada esta información en todas las actividades y materiales de promoción, así como invitar al equipo de apoyo financiero a participar activamente en eventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Evento Mujer, Ciencia y Tecnología:
+•	Tipo de actividad: Evento/taller.
+•	Objetivo: Promover las carreras de ingeniería y ciencias entre niñas para impulsar su interés en STEM.
+•	Formato: Presencial.
+•	Frecuencia: Anual.
+•	Estrategia(s) de comunicación:
+o	Contacto directo con colegios a través de listas de orientadores y coordinadores, enfocándose en colegios públicos y privados de la región.
+o	Uso de redes sociales y boletines informativos.
+•	Público objetivo: Niñas entre 8 y 13 años de colegios públicos y privados.
+•	Lugar: Universidad de los Andes, en los laboratorios de las facultades de Ingeniería y Ciencias.
+•	Estrategias de éxito:
+o	Experiencias prácticas en laboratorios, evitando charlas largas.
+o	Organización de actividades dinámicas e interactivas para mantener la atención e interés de las niñas.
+Taller de Habilidades Profesionales para Jóvenes Científicas:
+•	Tipo de actividad: Taller.
+•	Objetivo: Fortalecer las habilidades profesionales en jóvenes mujeres interesadas en carreras STEM.
+•	Formato: Presencial.
+•	Frecuencia: Realizado en 2019.
+•	Estrategia(s) de comunicación:
+o	Convocatoria a través de contactos en colegios y redes sociales de la universidad.
+•	Público objetivo: Mujeres jóvenes estudiantes interesadas en áreas científicas.
+•	Lugar: Universidad de los Andes.
+•	Estrategias de éxito:
+o	Talleres prácticos y dinámicos liderados por expertas en STEM.
+Participación en Ferias de Colegios:
+•	Tipo de actividad: Ferias informativas.
+•	Objetivo: Presentar la oferta académica de la universidad, incluyendo carreras STEM, y fomentar el interés de estudiantes y padres.
+•	Formato: Presencial y virtual (según la necesidad).
+•	Frecuencia: Periódicamente, a lo largo del año (31 ciudades en Colombia).
+•	Estrategia(s) de comunicación:
+o	Invitaciones personalizadas a colegios, uso de redes sociales y página web.
+•	Público objetivo: Estudiantes de colegios y padres de familia.
+•	Lugar: Ferias regionales, campus universitario, y ferias en colegios.
+•	Estrategias de éxito:
+o	Presencia de stands interactivos y charlas con profesionales en STEM.
+o	Materiales informativos adaptados para responder a las preguntas de los estudiantes.
+Club de los Tesos:
+•	Tipo de actividad: Campaña de divulgación y aplicación móvil.
+•	Objetivo: Inspirar a estudiantes de colegios a interesarse en carreras STEM al mostrar la vida y logros de personajes destacados en estas áreas.
+•	Formato: Virtual (redes sociales, aplicación móvil).
+•	Frecuencia: Publicaciones mensuales.
+•	Estrategia(s) de comunicación:
+o	Publicación de contenido ilustrado en las redes sociales oficiales de la Facultad de Ingeniería.
+•	Público objetivo: Estudiantes de colegio.
+•	Lugar: Redes sociales y aplicación móvil desarrollada por el Departamento de Ingeniería de Sistemas y Computación.
+•	Estrategias de éxito:
+o	Desarrollo de una aplicación móvil que permite a los estudiantes interactuar con contenido y aprender de manera dinámica.
+Uniandes Family Fest y Uniandes Fest:
+•	Tipo de actividad: Feria de promoción universitaria.
+•	Objetivo: Dar a conocer la oferta académica de la universidad, incluyendo las carreras STEM, y brindar un espacio de interacción entre la universidad y estudiantes potenciales.
+•	Formato: Presencial.
+•	Frecuencia: Anual (Uniandes Fest en octubre y Family Fest en marzo).
+•	Estrategia(s) de comunicación:
+o	Uso de redes sociales, página web de la universidad, boletines informativos y relaciones directas con colegios.
+•	Público objetivo: Estudiantes de colegio, padres de familia y la comunidad en general.
+•	Lugar: Campus de la Universidad de los Andes.
+•	Estrategias de éxito:
+o	Creación de actividades experienciales y stands informativos de las facultades.
+o	Incorporación de experiencias interactivas que permiten a los estudiantes conocer de manera práctica lo que implica estudiar una carrera STEM.
+Charlas para Admitidos:
+•	Tipo de actividad: Charlas informativas.
+•	Objetivo: Orientar a los estudiantes admitidos y promover la retención, destacando las oportunidades en programas STEM.
+•	Formato: Presencial y virtual.
+•	Frecuencia: Tres veces por semestre.
+•	Estrategia(s) de comunicación:
+o	Invitaciones personalizadas por correo electrónico, llamadas de seguimiento.
+•	Público objetivo: Estudiantes admitidos y sus familias.
+•	Lugar: Campus de la universidad y a través de plataformas virtuales.
+•	Estrategias de éxito:
+o	Invitación a conocer los laboratorios, las instalaciones y a participar en actividades experienciales relacionadas con STEM.
+ ExpoAndes (Semana de la Innovación):
+•	Tipo de actividad: Feria estudiantil.
+•	Objetivo: Mostrar los proyectos desarrollados por estudiantes en los programas STEM y retener a los estudiantes de la universidad.
+•	Formato: Presencial, con apoyo de contenido multimedia en redes sociales.
+•	Frecuencia: Dos veces al año.
+•	Estrategia(s) de comunicación:
+o	Convocatoria a través de redes sociales, la página web y boletines informativos internos.
+•	Público objetivo: Estudiantes de la universidad, estudiantes de colegio y público externo.
+•	Lugar: Campus de la universidad.
+•	Estrategias de éxito:
+o	Promoción del trabajo innovador de estudiantes en STEM y talleres demostrativos.
+o	Inclusión de charlas con expertos y actividades interactivas para retener a los estudiantes actuales y atraer a los futuros.
+</t>
+  </si>
+  <si>
+    <t>Las actividades autónomas de la universidad para la promoción de carreras STEM han generado valiosas lecciones aprendidas y oportunidades de mejora para fortalecer la atracción y retención de estudiantes:
+Lecciones Aprendidas:
+Éxito de los Eventos Masivos (Uniandes Fest y Family Fest):
+o	La realización de eventos masivos como "Uniandes Fest" y "Family Fest" ha sido exitosa en atraer a miles de estudiantes y sus familias. La universidad aprendió que la oferta de experiencias interactivas y stands informativos, donde los estudiantes pueden experimentar actividades relacionadas con las carreras STEM, genera un alto nivel de interés y compromiso.
+o	Además, la convocatoria a través de redes sociales y contacto directo con colegios ha sido clave para lograr una gran asistencia. La universidad identificó que es importante iniciar la promoción de estos eventos con suficiente antelación y ofrecer una variedad de actividades prácticas que aborden diferentes aspectos de la vida universitaria.
+Importancia del Relacionamiento Continuo con los Estudiantes:
+o	A través del "Smart Center", se identificó la importancia de mantener una comunicación continua con los estudiantes interesados en las carreras de la universidad. La estrategia de contacto por email marketing, llamadas y WhatsApp ha demostrado ser efectiva para guiar a los estudiantes en su proceso de decisión, inscripción y matrícula.
+o	Sin embargo, se aprendió que la comunicación debe ser personalizada y segmentada según la etapa del proceso en la que se encuentra el estudiante, ya que esto permite responder a sus necesidades y preocupaciones específicas.
+Experiencia del Campus como Factor de Decisión:
+o	Las visitas guiadas al campus, como parte de la actividad "Prográmate con tu Programa", han demostrado ser un factor decisivo para que los estudiantes elijan estudiar una carrera STEM en la universidad. La oportunidad de recorrer las instalaciones, interactuar con profesores y conocer de primera mano los laboratorios y centros de investigación tiene un impacto positivo en la percepción de los aspirantes.
+o	Se aprendió que es fundamental ofrecer estas visitas de manera periódica y brindar una experiencia completa y personalizada para los estudiantes.
+Necesidad de Adaptar la Oferta de Actividades:
+o	La universidad identificó que la oferta de actividades debe ser diversa y ajustarse a las necesidades y perfiles de los estudiantes. Por ejemplo, actividades como "ExpoAndes" permiten que los estudiantes actuales presenten sus proyectos y sirvan de inspiración para los aspirantes, destacando así la aplicación práctica y los resultados tangibles de las carreras STEM.
+Oportunidades de Mejora:
+Ampliación de las Actividades Virtuales:
+o	La universidad considera que debe fortalecer su oferta de actividades virtuales para llegar a un mayor número de estudiantes que no pueden asistir presencialmente al campus. Esto incluiría la creación de charlas virtuales, talleres y recorridos virtuales por los laboratorios de las facultades.
+o	Además, se sugiere implementar una plataforma virtual de mentoría donde los estudiantes puedan interactuar con profesores y profesionales de las carreras STEM.
+Desarrollo de Materiales de Promoción Segmentados:
+o	La universidad ha identificado la oportunidad de crear materiales informativos segmentados según las diferentes áreas de interés dentro de STEM. Esto permitirá que los estudiantes tengan acceso a información más específica y orientada a sus necesidades, mejorando la eficacia de las campañas de promoción.
+Fortalecimiento de la Evaluación de Impacto:
+o	Aunque se realizan seguimientos de los estudiantes a través del "Smart Center", se ha identificado la necesidad de implementar un sistema de evaluación más riguroso que permita medir el impacto de cada actividad en términos de atracción y retención de estudiantes. Esto facilitará la identificación de los enfoques más efectivos y permitirá optimizar los recursos y estrategias utilizados.
+Colaboración más Estrecha con Apoyo Financiero:
+o	Se propone involucrar más activamente al equipo de apoyo financiero en las actividades de promoción y difusión, asegurando que la información sobre becas y financiamiento llegue a los estudiantes desde el primer contacto.
+Ampliación del Alcance Geográfico:
+•	La universidad también planea llevar eventos como "Uniandes Fest" y "Family Fest" a diferentes regiones, replicando la experiencia completa de la universidad en localidades como Bucaramanga, Barranquilla y Cali.</t>
+  </si>
+  <si>
+    <t>Los resultados más destacados relacionados con el aumento del interés de los estudiantes en carreras STEM como resultado de las actividades realizadas por la universidad se pueden analizar a través de varios indicadores:
+1.	Participación en Ferias de Colegios y Actividades de Scouting:
+o	Durante el 2022, la universidad participó en 94 ferias regionales y en Bogotá, logrando atender a 36,378 aspirantes. Esto representa un esfuerzo significativo para acercar a los estudiantes de colegio a la oferta académica de la universidad, incluidas las carreras STEM. De este número, muchos estudiantes mostraron interés en las áreas de ingeniería, como se evidencia en los contactos generados para los distintos programas
+2.	Actividades con Facultades y Atención Personalizada:
+o	Se realizaron 10 actividades específicas con las facultades, las cuales atendieron a 1,318 aspirantes. Además, se ofreció asesoría personalizada a 1,180 estudiantes interesados, lo que demuestra un enfoque directo y dedicado para captar la atención de los estudiantes hacia las carreras STEM
+3.	Embudo de Atención y Seguimiento a Aspirantes:
+o	El embudo de atención utilizado por la oficina de Scouting y Promoción pregrado incluye etapas desde la exploración hasta la decisión. La universidad ha logrado establecer un canal continuo de seguimiento, manteniendo el interés de los estudiantes durante todo el proceso de selección, inscripción y matriculación. Se evidencia que la estrategia de comunicación multicanal ha sido efectiva, logrando 10,767 leads calificados para la Facultad de Ingeniería durante el periodo 2021-2022
+4.	Número de Ingresos a Carreras STEM (2022-2024):
+o	En el período 2022-1 a 2023-2, la Facultad de Ingeniería ha recibido un número considerable de inscritos en las diferentes carreras STEM. Por ejemplo, la Ingeniería de Sistemas y Computación tuvo 4517 interesados en 2023-1, mientras que Ingeniería Industrial registró 310 interesados en 2022-2. Esto indica un crecimiento sostenido en el interés por las áreas STEM, impulsado por las actividades de promoción en conjunto con los colegios
+5.	Retención y Graduación de Estudiantes Ingresados:
+o	Aunque los datos sobre la cantidad exacta de estudiantes que se graduaron en el periodo 2022-2024  no se tienen de manera detallada, existe una tendencia positiva en la matrícula de estudiantes que provienen de colegios donde la universidad ha realizado actividades de promoción. Las cifras muestran una tasa de matriculación superior al 50% para los estudiantes admitidos, lo que sugiere que las actividades organizadas por la universidad no solo atraen el interés inicial, sino que también contribuyen a la retención de los estudiantes en carreras STEM.
+6.	Resultados de Participación por Programa:
+o	La participación y el interés de los aspirantes por las diferentes ramas de ingeniería también se refleja en la cantidad de contactos obtenidos por actividad. Por ejemplo, las ferias Uniandes y las ferias en colegios han sido especialmente efectivas, generando 2,785 y 2,593 contactos respectivamente para los programas de ingeniería. Dentro de las carreras STEM, Ingeniería de Sistemas y Computación se destaca con un 30.7% de participación, seguida por Ingeniería Industrial con 16.4% y Ingeniería Biomédica con 9.1%, demostrando una preferencia notable de los estudiantes hacia ciertas disciplinas dentro del ámbito STEM</t>
+  </si>
+  <si>
+    <t>La implementación de una estrategia de comunicación integral y las actividades de promoción llevadas a cabo por la universidad han generado logros importantes en el aumento del interés:
+1. Aumento en el Número de Leads e Interés por Carreras STEM:
+•	Como resultado de las campañas de marketing y las actividades de promoción, la universidad logró generar 10,767 leads calificados para la Facultad de Ingeniería durante el período 2021-2022 Esta cifra indica un crecimiento en el interés por las carreras STEM y refleja la efectividad de las estrategias de comunicación empleadas, como el uso del "Smart Center" y la gestión de campañas en redes sociales.
+•	Las estrategias de contacto directo con colegios, el uso de redes sociales, y eventos como "Uniandes Fest" y "Family Fest" lograron captar el interés de estudiantes y sus familias, lo que se traduce en un mayor número de aspirantes a los programas de ingeniería y ciencias.
+2. Crecimiento en el Número de Aspirantes e Interés en Carreras Específicas:
+•	Se observa un notable incremento en el interés por ciertas carreras STEM dentro de la Facultad de Ingeniería. Por ejemplo, en el período 2022-2023:
+o	Ingeniería de Sistemas y Computación presentó un crecimiento significativo en la cantidad de interesados, registrando 4,517 aspirantes en 2023-1.
+o	Ingeniería Biomédica mostró un aumento constante, destacándose como una de las opciones más populares entre los estudiantes interesados en la aplicación de la tecnología y la medicina.
+o	Ingeniería Industrial también mantuvo un interés elevado, con 310 aspirantes registrados en 2022-2.
+3. Éxito de los Eventos Masivos y su Impacto en la Matriculación:
+•	Eventos como "Uniandes Fest" y "Family Fest" lograron atraer a miles de personas, con una asistencia récord de más de 7,000 participantes en Uniandes Fest 2023. Estas actividades brindan a los estudiantes y sus familias la oportunidad de explorar el campus, conocer las carreras y participar en experiencias prácticas, incrementando el interés en las carreras STEM.
+•	La Universidad ha identificado que la participación en estos eventos tiene un impacto positivo en la tasa de matriculación. Se estima que la tasa de matriculación para los estudiantes que participaron en estos eventos supera el 50%, lo que demuestra la efectividad de estos encuentros en la decisión de los estudiantes de inscribirse en carreras STEM.
+4. Aumento en la Presencia en Regiones y Diversificación del Perfil de Aspirantes:
+•	Con el enfoque en ampliar el alcance geográfico y la realización de actividades en diferentes regiones del país, como Bucaramanga, Barranquilla, y Cali, la universidad ha incrementado la diversidad del perfil de aspirantes interesados en carreras STEM. Las visitas a colegios en estas regiones y la oferta de charlas y actividades han permitido llegar a estudiantes de diferentes contextos socioeconómicos, contribuyendo al aumento en las cifras de aspirantes matriculados provenientes de áreas rurales y minorías étnicas.
+5. Consolidación de una Estrategia de Comunicación Efectiva:
+•	La universidad ha consolidado una estrategia de comunicación efectiva que incluye campañas en redes sociales, el uso de la página de aspirantes, y el "Smart Center" para el seguimiento personalizado. Esta estrategia ha resultado en un aumento considerable en el número de seguidores y el engagement en redes sociales. Por ejemplo, en 2024, se logró incrementar los seguidores en Instagram de 500 a 3,017 y en TikTok de 80 a 1,055, reflejando el impacto positivo de las campañas y la presencia digital de la universidad.
+•	Las campañas de marketing digital para la captación de leads e interesados generaron, entre octubre y diciembre de 2023, 2,026 leads y alcanzaron 3,669,072 impresiones en medios, lo que demuestra la amplia visibilidad y el interés que la universidad ha generado hacia las carreras STEM</t>
+  </si>
+  <si>
+    <t>Día de la Mujer y la Niña en la Ciencia</t>
+  </si>
+  <si>
+    <t>Mujeres estudiantes de colegio</t>
+  </si>
+  <si>
+    <t>Evento y charlas</t>
+  </si>
+  <si>
+    <t>Fomentar el interés de niñas y jóvenes en la ciencia y tecnología, abordando la brecha de género en áreas STEM.</t>
+  </si>
+  <si>
+    <t>Evento anual organizado para inspirar a niñas y jóvenes a involucrarse en carreras STEM. Incluye experiencias prácticas en laboratorios y ofrece una beca a la estudiante con mejor promedio.</t>
+  </si>
+  <si>
+    <t>Anual (organizado en abril de 2022)</t>
+  </si>
+  <si>
+    <t>Convocatoria a través de alianzas con colegios, contacto directo con orientadores y comunicaciones en redes sociales.</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes, laboratorios de la Facultad de Ciencias e Ingeniería</t>
+  </si>
+  <si>
+    <t>Prográmate con tu Programa y Caminando en Uniandes</t>
+  </si>
+  <si>
+    <t>Estudiantes de colegio interesados en ingresar a la universidad</t>
+  </si>
+  <si>
+    <t>Visitas guiadas y charlas informativas</t>
+  </si>
+  <si>
+    <t>Brindar a los estudiantes la oportunidad de conocer el campus y las diferentes carreras que ofrece la universidad, con un enfoque especial en STEM.</t>
+  </si>
+  <si>
+    <t>Todos los martes y jueves</t>
+  </si>
+  <si>
+    <t>Convocatoria a través de redes sociales, página web y contacto directo con los orientadores de los colegios.</t>
+  </si>
+  <si>
+    <t>Campus de la Universidad de los Andes</t>
+  </si>
+  <si>
+    <t>Relación con Orientadores de Colegios</t>
+  </si>
+  <si>
+    <t>Orientadores de colegios</t>
+  </si>
+  <si>
+    <t>Grupos focales y talleres</t>
+  </si>
+  <si>
+    <t>Virtual y presencial</t>
+  </si>
+  <si>
+    <t>Mantener un canal directo de comunicación con los orientadores escolares para promover las carreras STEM y actividades de la universidad.</t>
+  </si>
+  <si>
+    <t>Sesiones de actualización y talleres anuales que ofrecen charlas personalizadas sobre la oferta académica y programas de apoyo financiero.</t>
+  </si>
+  <si>
+    <t>Periódica, con sesiones anuales</t>
+  </si>
+  <si>
+    <t>Contacto directo con orientadores y participación en eventos organizados por la comunidad educativa.</t>
+  </si>
+  <si>
+    <t>Virtual y presencial en la universidad o en los colegios</t>
+  </si>
+  <si>
+    <t>Evento Mujer, Ciencia y Tecnología</t>
+  </si>
+  <si>
+    <t>Niñas entre 8 y 13 años de colegios públicos y privados</t>
+  </si>
+  <si>
+    <t>Evento/taller</t>
+  </si>
+  <si>
+    <t>Promover las carreras de ingeniería y ciencias entre niñas para impulsar su interés en STEM.</t>
+  </si>
+  <si>
+    <t>Contacto directo con colegios a través de listas de orientadores y coordinadores, uso de redes sociales y boletines informativos.</t>
+  </si>
+  <si>
+    <t>Participación en Ferias de Colegios</t>
+  </si>
+  <si>
+    <t>Estudiantes de colegios y padres de familia</t>
+  </si>
+  <si>
+    <t>Ferias informativas</t>
+  </si>
+  <si>
+    <t>Presencial y virtual</t>
+  </si>
+  <si>
+    <t>Presentar la oferta académica de la universidad, incluyendo carreras STEM, y fomentar el interés de estudiantes y padres.</t>
+  </si>
+  <si>
+    <t>Ferias informativas con stands interactivos y charlas con profesionales en STEM, adaptadas para responder a preguntas de los estudiantes.</t>
+  </si>
+  <si>
+    <t>Periódicamente, a lo largo del año (31 ciudades en Colombia)</t>
+  </si>
+  <si>
+    <t>Invitaciones personalizadas a colegios, uso de redes sociales y página web.</t>
+  </si>
+  <si>
+    <t>Ferias regionales, campus universitario, y ferias en colegios</t>
+  </si>
+  <si>
+    <t>Club de los Tesos</t>
+  </si>
+  <si>
+    <t>Campaña de divulgación y aplicación móvil</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Inspirar a estudiantes de colegios a interesarse en carreras STEM al mostrar la vida y logros de personajes destacados en estas áreas.</t>
+  </si>
+  <si>
+    <t>Publicación de contenido en redes sociales oficiales de la Facultad de Ingeniería.</t>
+  </si>
+  <si>
+    <t>Redes sociales y aplicación móvil desarrollada por el Departamento de Ingeniería de Sistemas y Computación</t>
+  </si>
+  <si>
+    <t>Uniandes Family Fest y Uniandes Fest</t>
+  </si>
+  <si>
+    <t>Estudiantes de colegio, padres de familia y la comunidad en general</t>
+  </si>
+  <si>
+    <t>Feria de promoción universitaria</t>
+  </si>
+  <si>
+    <t>Dar a conocer la oferta académica de la universidad, incluyendo las carreras STEM, y brindar un espacio de interacción entre la universidad y estudiantes potenciales.</t>
+  </si>
+  <si>
+    <t>Uso de redes sociales, página web de la universidad, boletines informativos y relaciones directas con colegios.</t>
+  </si>
+  <si>
+    <t>Charlas para Admitidos</t>
+  </si>
+  <si>
+    <t>Estudiantes admitidos y sus familias</t>
+  </si>
+  <si>
+    <t>Charlas informativas</t>
+  </si>
+  <si>
+    <t>Orientar a los estudiantes admitidos y promover la retención, destacando las oportunidades en programas STEM.</t>
+  </si>
+  <si>
+    <t>Charlas informativas que invitan a conocer los laboratorios, las instalaciones y a participar en actividades relacionadas con STEM.</t>
+  </si>
+  <si>
+    <t>Tres veces por semestre</t>
+  </si>
+  <si>
+    <t>Invitaciones personalizadas por correo electrónico y llamadas de seguimiento.</t>
+  </si>
+  <si>
+    <t>Campus de la universidad y plataformas virtuales</t>
+  </si>
+  <si>
+    <t>ExpoAndes (Semana de la Innovación)</t>
+  </si>
+  <si>
+    <t>Feria estudiantil</t>
+  </si>
+  <si>
+    <t>Presencial y redes sociales</t>
+  </si>
+  <si>
+    <t>Redes sociales y boletines.</t>
+  </si>
+  <si>
+    <t>Campus de la universidad</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/p/CcqKtfaKtMH/</t>
+  </si>
+  <si>
+    <t>Visitas guiadas por el campus que incluyen recorridos por laboratorios y áreas de las facultades, con atención personalizada y grupos pequeños. Es una actividad organizada por la Oficina de Scouting y Promoción, para que los aspirantes a programas de Pregrado consigan mayor información sobre las principales características de la universidad, el proceso de admisión, costos y apoyo financiero. También es un espacio  para visitar y charlar con representantes de los programas ddonde se puede recibir  recibir información específica y resolver dudas. Adicionalmente,se  conoce el campus.</t>
+  </si>
+  <si>
+    <t>https://aspirantes.uniandes.edu.co/es/eventos/programate-con-tu-programa</t>
+  </si>
+  <si>
+    <t>Presencial/Virtual</t>
+  </si>
+  <si>
+    <t>Universidad de los Andes, laboratorios de las facultades de Ingeniería y Ciencias / ZOOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiencias prácticas en laboratorios y actividades dinámicas para mantener la atención e interés de las niñas. Es un evento para conmemorar el Día Internacional de la Mujer y la Niña compartiendo una jornada con las más destacadas científicas e ingenieras uniandinas. Se ofrecen charlas con profesoras, estudiantes y egresadas de Ciencias e Ingenierías, seguida de una visita interactiva por los laboratorios. También se ofrece un taller gratuito para profesores sobre buenas prácticas para la enseñanza de STEM (science, engineering, technology and math) en las nuevas generaciones. En paralelo, las conferencias que se realizan son  transmitidas vía Zoom para los colegios que deseen participar de forma virtual. </t>
+  </si>
+  <si>
+    <t>https://ingenieria.uniandes.edu.co/es/eventos/ciencia-mujer-tecnologia-2023</t>
+  </si>
+  <si>
+    <t>https://ingenieria.uniandes.edu.co/es/el-club-de-los-tesos</t>
+  </si>
+  <si>
+    <t>Publicaciones permanentes en página</t>
+  </si>
+  <si>
+    <t>El Club de los Tesos es una actividad virtual diseñada para inspirar a los estudiantes de colegios a interesarse en carreras STEM. A través de un divertido y sencillo quiz de personalidad, los estudiantes descubren con cuál de los personajes destacados en el mundo STEM tienen más cosas en común. Al lograr este 'match', pueden explorar otros personajes y aprender sobre los logros e historias de estos íconos del ámbito científico y tecnológico. La actividad se lleva a cabo en redes sociales y una aplicación móvil, brindando una experiencia interactiva y educativa para los jóvenes.</t>
+  </si>
+  <si>
+    <t>https://economia.uniandes.edu.co/noticia/2024/uniandes-fest</t>
+  </si>
+  <si>
+    <t>Preparatoria/Bachillerato/Educación Media | Licenciatura (Pregrado)|</t>
+  </si>
+  <si>
+    <t>Estudiantes de pregrado y público externo</t>
+  </si>
+  <si>
+    <t>Anual (Uniandes Fest en octubre y Family Fest en mayo)</t>
+  </si>
+  <si>
+    <t>Son actividades diseñadas para que los aspirantes y sus familias conozcan a fondo la experiencia universitaria en la Universidad de los Andes. El evento tiene como objetivo brindar información clave que les ayude a tomar una decisión sobre su futuro, abarcando aspectos personales, académicos y sociales que influyen en su desarrollo y proyección profesional.
+Durante el festival, los asistentes pueden visitar stands informativos de las distintas facultades, participar en encuentros con los programas de pregrado y disfrutar de espacios temáticos. Además, se ofrecen charlas sobre el proceso de admisión y las opciones de financiación disponibles, facilitando así la toma de decisiones de los futuros estudiantes.</t>
+  </si>
+  <si>
+    <t>Dos veces al año (Finalizando cada semestre)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feria con promoción del trabajo innovador de estudiantes. Es un evento organizado por la Universidad de los Andes y la Asociación de Egresados – Uniandinos compuesto por diferentes iniciativas de estudiantes  en donde se promueven los espacios de innovación y emprendimiento, mediante el uso de ciencia y tecnología.   </t>
+  </si>
+  <si>
+    <t>El objetivo de ExpoAndes (Semana de la Innovación) es mostrar los proyectos de estudiantes de carreras STEM, promoviendo espacios de innovación y emprendimiento a través de la ciencia y la tecnología. La actividad busca incentivar el trabajo realizado por los estudiantes de ingeniería durante su primer semestre, así como presentar a la comunidad universitaria y externa el potencial y los proyectos desarrollados dentro de la universidad.</t>
+  </si>
+  <si>
+    <t>https://ingenieria.uniandes.edu.co/es/eventos/semana-innovacion-2023-1/proyectos-expoandes</t>
+  </si>
 </sst>
 </file>
 
@@ -3261,7 +4143,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3270,20 +4152,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF0000FF"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
@@ -3296,28 +4165,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color theme="10"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3350,18 +4253,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3378,6 +4269,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3388,106 +4321,111 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{207C5C62-7236-4C04-B2FB-E74CA270255C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3699,1289 +4637,3457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="A38:XFD47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>640</v>
+      </c>
+      <c r="F38" s="35" t="s">
+        <v>641</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38" s="35" t="s">
+        <v>642</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>643</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>644</v>
+      </c>
+      <c r="L38" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="M38" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="N38" s="35" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E39" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>649</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I39" s="35" t="s">
+        <v>650</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>702</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="L39" s="35" t="s">
+        <v>652</v>
+      </c>
+      <c r="M39" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>656</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>657</v>
+      </c>
+      <c r="H40" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>658</v>
+      </c>
+      <c r="J40" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="K40" s="35" t="s">
+        <v>660</v>
+      </c>
+      <c r="L40" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E41" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="F41" s="35" t="s">
+        <v>665</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>704</v>
+      </c>
+      <c r="H41" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I41" s="35" t="s">
+        <v>666</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="K41" s="35" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" s="35" t="s">
+        <v>667</v>
+      </c>
+      <c r="M41" s="35" t="s">
+        <v>705</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>668</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>669</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>670</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I42" s="35" t="s">
+        <v>672</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="K42" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="L42" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="M42" s="35" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>677</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>356</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>678</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I43" s="35" t="s">
+        <v>680</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>710</v>
+      </c>
+      <c r="K43" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="L43" s="35" t="s">
+        <v>681</v>
+      </c>
+      <c r="M43" s="35" t="s">
+        <v>682</v>
+      </c>
+      <c r="N43" s="35" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>683</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>684</v>
+      </c>
+      <c r="F44" s="35" t="s">
+        <v>685</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I44" s="35" t="s">
+        <v>686</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>715</v>
+      </c>
+      <c r="K44" s="35" t="s">
+        <v>714</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>687</v>
+      </c>
+      <c r="M44" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="N44" s="35" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>688</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>689</v>
+      </c>
+      <c r="F45" s="35" t="s">
+        <v>690</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>671</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I45" s="35" t="s">
+        <v>691</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>692</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>693</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>694</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>696</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>712</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>713</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>697</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>698</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>718</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>717</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>716</v>
+      </c>
+      <c r="L46" s="35" t="s">
+        <v>699</v>
+      </c>
+      <c r="M46" s="35" t="s">
+        <v>700</v>
+      </c>
+      <c r="N46" s="35" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
+    <hyperlink ref="N15" r:id="rId2" display="https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view" xr:uid="{C7396F2C-A109-44A9-A08F-22F5D5D8B44A}"/>
+    <hyperlink ref="N16" r:id="rId3" xr:uid="{A756A827-0076-449D-B585-1BD34EDE13DF}"/>
+    <hyperlink ref="N19" r:id="rId4" xr:uid="{2ADFADF7-BD71-492B-896D-3593FCA21669}"/>
+    <hyperlink ref="N26" r:id="rId5" xr:uid="{82E366EF-1647-49A7-9298-8F296140885C}"/>
+    <hyperlink ref="N4" r:id="rId6" xr:uid="{2C75F824-B076-4E75-A110-2378D76B68E9}"/>
+    <hyperlink ref="N5" r:id="rId7" xr:uid="{938B6AEA-5229-4D2D-AEC9-44308F66FE06}"/>
+    <hyperlink ref="N8" r:id="rId8" xr:uid="{D89DAA58-0116-4FEB-A9B6-2E8083A04C86}"/>
+    <hyperlink ref="N30" r:id="rId9" xr:uid="{FA87CE05-646B-4D2A-A1E9-E061817DA8F6}"/>
+    <hyperlink ref="N31" r:id="rId10" xr:uid="{302184D7-8A0E-4FAE-A9C4-B5DB4D059E47}"/>
+    <hyperlink ref="N39" r:id="rId11" xr:uid="{61D44785-0D04-4FA0-8935-1411D8ED7E5C}"/>
+    <hyperlink ref="N41" r:id="rId12" xr:uid="{E8C5FBA5-3ABA-4B05-AA11-98B44181680E}"/>
+    <hyperlink ref="N43" r:id="rId13" xr:uid="{23F5D34D-B094-44B7-8C96-AD9D158CC527}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="BF8" sqref="BF8"/>
+    <sheetView topLeftCell="U3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="18.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="5" customWidth="1"/>
-    <col min="7" max="63" width="18.85546875" style="5" customWidth="1"/>
-    <col min="64" max="16384" width="12.5703125" style="5"/>
+    <col min="1" max="5" width="18.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
+    <col min="7" max="25" width="18.85546875" style="25" customWidth="1"/>
+    <col min="26" max="26" width="18.85546875" style="17" customWidth="1"/>
+    <col min="27" max="41" width="18.85546875" style="25" customWidth="1"/>
+    <col min="42" max="44" width="18.85546875" style="17" customWidth="1"/>
+    <col min="45" max="54" width="18.85546875" style="25" customWidth="1"/>
+    <col min="55" max="63" width="18.85546875" style="17" customWidth="1"/>
+    <col min="64" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AR1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AS1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AT1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="AU1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="BC1" s="9" t="s">
+      <c r="BC1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="BD1" s="9" t="s">
+      <c r="BD1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="BE1" s="9" t="s">
+      <c r="BE1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+      <c r="J2" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="22" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="V2" s="23" t="s">
         <v>421</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="W2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y2" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB2" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>452</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="AN2" s="22" t="s">
+        <v>455</v>
+      </c>
+      <c r="AO2" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="AP2" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="AQ2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR2" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="AS2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="AV2" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW2" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA2" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB2" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="BC2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH2" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AJ2" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="AK2" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="AN2" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AO2" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP2" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="AQ2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR2" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AS2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AT2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AW2" s="4" t="s">
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF3" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI3" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ3" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL3" s="22"/>
+      <c r="AM3" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="AN3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO3" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="AQ3" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR3" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS3" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="AT3" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU3" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="AV3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW3" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY3" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA3" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="BC3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BD3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BE3" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="U4" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="X4" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="Y4" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="AB4" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC4" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE4" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH4" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI4" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ4" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AK4" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL4" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM4" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN4" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP4" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="AQ4" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR4" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS4" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT4" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU4" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV4" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW4" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX4" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="AY2" s="4" t="s">
+      <c r="AY4" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="AZ2" s="4" t="s">
+      <c r="AZ4" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA4" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB4" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="BC4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="BD4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="V5" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="W5" s="26"/>
+      <c r="X5" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA5" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC5" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD5" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE5" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI5" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ5" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="AK5" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM5" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN5" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="AO5" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="AP5" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AQ5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS5" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="AT5" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU5" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="AV5" s="25">
+        <v>0.39710000000000001</v>
+      </c>
+      <c r="AW5" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="AX5" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY5" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ5" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA5" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB5" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="BC5" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="BD5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="BE5" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="S6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="W6" s="26"/>
+      <c r="X6" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y6" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB6" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="AC6" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD6" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE6" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF6" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="AG6" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH6" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI6" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ6" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK6" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL6" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM6" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN6" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO6" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP6" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ6" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR6" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS6" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU6" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV6" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX6" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY6" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="AZ6" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA6" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB6" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="BD6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="BE6" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="P7" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="R7" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="S7" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="U7" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="V7" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="X7" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB7" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD7" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE7" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG7" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH7" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="AI7" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ7" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK7" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="AN7" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="AO7" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP7" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="AQ7" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR7" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="AS7" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="AT7" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU7" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV7" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="AW7" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="AX7" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ7" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="BA2" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB2" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="BC2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE2" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="BA7" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB7" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="BC7" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD7" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="BE7" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="BF7" s="19"/>
     </row>
-    <row r="3" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="4" t="s">
+    <row r="8" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJ3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AK3" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="AM3" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="AN3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP3" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="AQ3" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AR3" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS3" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AT3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="AV3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY3" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA3" s="4" t="s">
+      <c r="C8" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q8" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="R8" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="S8" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="T8" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="V8" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="W8" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="X8" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="AA8" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB8" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="AC8" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD8" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="AE8" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="AH8" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="AI8" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ8" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK8" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM8" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="AN8" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO8" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP8" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AQ8" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AR8" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="AS8" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT8" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="AU8" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AV8" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AW8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX8" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY8" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ8" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA8" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="BB3" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="BC3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="BD3" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="BE3" s="4" t="s">
-        <v>110</v>
+      <c r="BB8" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="BC8" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="BD8" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="BE8" s="31" t="s">
+        <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="4" t="s">
+    <row r="9" spans="1:58" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="Y4" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK4" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL4" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM4" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN4" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="AP4" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="AQ4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="AR4" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="AS4" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="AT4" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU4" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AV4" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY4" s="4" t="s">
+      <c r="C9" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>601</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q9" s="25" t="s">
+        <v>610</v>
+      </c>
+      <c r="R9" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>612</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>614</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>602</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="X9" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="33" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA9" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB9" s="33" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE9" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33" t="s">
+        <v>630</v>
+      </c>
+      <c r="AH9" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="AI9" s="33" t="s">
+        <v>638</v>
+      </c>
+      <c r="AJ9" s="33" t="s">
+        <v>617</v>
+      </c>
+      <c r="AK9" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN9" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="AO9" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="AP9" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AQ9" s="34" t="s">
+        <v>628</v>
+      </c>
+      <c r="AR9" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AS9" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="AT9" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="AU9" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AV9" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="AW9" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="AX9" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="AZ4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA4" s="4" t="s">
+      <c r="AZ9" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA9" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="BB4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="BC4" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE4" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV5" s="8">
-        <v>0.39710000000000001</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BE5" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF6" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH6" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL6" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM6" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN6" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO6" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR6" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AS6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT6" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AU6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AV6" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AZ6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="BA6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="BB6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="BD6" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="BE6" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC7" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF7" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="BE7" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="BF7" s="4"/>
-    </row>
-    <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AH8" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="AI8" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AK8" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AL8" s="2"/>
-      <c r="AM8" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="AN8" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="AO8" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="AP8" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="AQ8" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="AR8" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="AS8" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AT8" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="AU8" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AV8" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AW8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AX8" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY8" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="AZ8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BA8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BB8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC8" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="BD8" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BE8" s="34" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>413</v>
+      <c r="BB9" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="BC9" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="BD9" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="BE9" s="32" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -5009,1698 +8115,8 @@
     <hyperlink ref="Y2" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="W2" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D9" r:id="rId23" xr:uid="{539A9A7D-F54B-48D6-A9EF-E54DF6403BCA}"/>
+    <hyperlink ref="V2" r:id="rId24" xr:uid="{A0392BE6-81E0-4EC9-8BC9-8DB3B85BD859}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3260E2B5-701E-4782-8AFD-C2C80FB78957}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" style="21" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="98.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="85" style="21" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>413</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{BDB5B2B2-685B-4519-8345-E9E7C112831B}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="18.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="2" customWidth="1"/>
-    <col min="6" max="13" width="18.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="19" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="M1" s="19" t="s">
-        <v>542</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>483</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>484</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>487</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>489</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>476</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>478</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>479</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>481</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>491</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>432</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>431</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="N14" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>520</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="22" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="N22" s="22" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L24" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>355</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L25" s="22" t="s">
-        <v>538</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="L27" s="22"/>
-      <c r="M27" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>555</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="L28" s="22"/>
-      <c r="M28" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="H29" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="L29" s="22"/>
-      <c r="M29" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>568</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="J30" s="32" t="s">
-        <v>571</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>570</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>572</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E31" s="32" t="s">
-        <v>396</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>578</v>
-      </c>
-      <c r="J31" s="32" t="s">
-        <v>576</v>
-      </c>
-      <c r="K31" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="L31" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="N31" s="32" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>579</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="J32" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="K32" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="L32" s="32" t="s">
-        <v>580</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="N32" s="32" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>583</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H33" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>584</v>
-      </c>
-      <c r="K33" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="L33" s="32" t="s">
-        <v>585</v>
-      </c>
-      <c r="M33" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="N33" s="32" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>405</v>
-      </c>
-      <c r="F34" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H34" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="J34" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="K34" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="L34" s="32" t="s">
-        <v>585</v>
-      </c>
-      <c r="M34" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="N34" s="32" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="J35" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="K35" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="L35" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="M35" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="N35" s="32" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="32" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C36" s="32" t="s">
-        <v>596</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="F36" s="32" t="s">
-        <v>594</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H36" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I36" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="J36" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="L36" s="32" t="s">
-        <v>603</v>
-      </c>
-      <c r="M36" s="32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>512</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>593</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>600</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="I37" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="J37" s="32" t="s">
-        <v>602</v>
-      </c>
-      <c r="L37" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="M37" s="32" t="s">
-        <v>575</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
-    <hyperlink ref="N15" r:id="rId2" display="https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view" xr:uid="{C7396F2C-A109-44A9-A08F-22F5D5D8B44A}"/>
-    <hyperlink ref="N16" r:id="rId3" xr:uid="{A756A827-0076-449D-B585-1BD34EDE13DF}"/>
-    <hyperlink ref="N19" r:id="rId4" xr:uid="{2ADFADF7-BD71-492B-896D-3593FCA21669}"/>
-    <hyperlink ref="N26" r:id="rId5" xr:uid="{82E366EF-1647-49A7-9298-8F296140885C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-</worksheet>
 </file>
--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5604DB7D-CD52-4E8A-828C-01EFA724D5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B56172-4539-4B8C-9056-E35049DBB22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="721">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -3226,9 +3225,6 @@
   </si>
   <si>
     <t>c) Doctorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Facultad de Ingeniería; Admisiones; </t>
   </si>
   <si>
     <t xml:space="preserve">- Matemáticas: 24 mujeres, 84 hombres, total 108.
@@ -4111,9 +4107,6 @@
     <t>https://economia.uniandes.edu.co/noticia/2024/uniandes-fest</t>
   </si>
   <si>
-    <t>Preparatoria/Bachillerato/Educación Media | Licenciatura (Pregrado)|</t>
-  </si>
-  <si>
     <t>Estudiantes de pregrado y público externo</t>
   </si>
   <si>
@@ -4134,6 +4127,27 @@
   </si>
   <si>
     <t>https://ingenieria.uniandes.edu.co/es/eventos/semana-innovacion-2023-1/proyectos-expoandes</t>
+  </si>
+  <si>
+    <t>Una de las iniciativas más destacadas con enfoque de género que ha desarrollado la Universidad de los Andes es el podcast "Ingeniosas", una serie de audio que se enfoca en visibilizar y destacar las historias de mujeres inspiradoras en las áreas de ciencia, tecnología, ingeniería y matemáticas (STEM). Esta iniciativa tiene como objetivo romper los estereotipos de género y motivar a más mujeres a ingresar y continuar en carreras STEM, promoviendo así la igualdad de oportunidades en estos campos.
+Detalles de la iniciativa:
+Nombre de la iniciativa: Podcast "Ingeniosas".
+Descripción: "Ingeniosas" es un podcast en el que se cuentan las historias de mujeres que inspiran a las nuevas generaciones a explorar y desarrollarse en las áreas STEM. Los episodios presentan testimonios de mujeres vinculadas con la Universidad de los Andes, incluidas profesoras, estudiantes y administrativas, que narran sus experiencias, retos y logros en el ámbito científico y tecnológico.
+Objetivo: El principal objetivo del podcast es visibilizar el papel de las mujeres en STEM y crear referentes positivos para las nuevas generaciones. A través de relatos personales y experiencias, la iniciativa busca motivar a más niñas y jóvenes a considerar las carreras STEM como una opción de vida profesional.
+Formato: El podcast se presenta en formato digital, con episodios publicados en la página web oficial de la Facultad de Ingeniería de la Universidad de los Andes y en plataformas de streaming de audio. Cada episodio aborda una historia diferente, ofreciendo a los oyentes una visión amplia y diversa de lo que significa ser mujer en el campo STEM.
+Estrategias de comunicación: Para promover el podcast y llegar a un público amplio, la universidad utiliza una estrategia multicanal que incluye:
+Publicaciones en redes sociales oficiales de la Facultad de Ingeniería (Instagram, Facebook, Twitter).
+Difusión a través del sitio web de la Facultad de Ingeniería, donde se proporciona acceso a los episodios y se comparten detalles sobre las invitadas y los temas discutidos.
+Envío de boletines informativos y correos electrónicos dirigidos a estudiantes y profesores, así como a instituciones educativas externas, para dar a conocer el podcast y fomentar su escucha.
+Impacto: La iniciativa "Ingeniosas" ha contribuido significativamente a crear una comunidad que reconoce y celebra la participación de las mujeres en STEM. Al compartir historias de éxito y resiliencia, el podcast brinda una fuente de inspiración y empoderamiento para las estudiantes y profesionales, motivándolas a seguir adelante en sus trayectorias académicas y profesionales. Además, al ser accesible de forma gratuita en línea, amplía su alcance a una audiencia más diversa, incluyendo estudiantes de otros colegios y universidades.
+Enfoque de género: El podcast se enfoca específicamente en destacar la experiencia femenina en áreas tradicionalmente dominadas por hombres. Al proporcionar un espacio donde las mujeres pueden contar sus historias, compartir desafíos y éxitos, "Ingeniosas" fomenta la conversación sobre la igualdad de género y el papel de las mujeres en la ciencia y la tecnología. También busca crear conciencia sobre la importancia de contar con una mayor representación femenina en estos campos.
+Vinculación con la comunidad universitaria: Los testimonios presentados en el podcast son narrados por miembros de la comunidad universitaria, incluidas profesoras, estudiantes y administrativas. Esta vinculación directa con la Universidad de los Andes permite que las oyentes se identifiquen con las experiencias compartidas y vean a la universidad como un espacio inclusivo y comprometido con la igualdad de género. link: https://ingenieria.uniandes.edu.co/es/podcast-ingeniosas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Facultad de Ingeniería; Dirección de Admisiones; </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Licenciatura (Pregrado)|</t>
   </si>
 </sst>
 </file>
@@ -4220,7 +4234,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4305,12 +4319,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4326,7 +4334,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4414,13 +4422,6 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4638,11 +4639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="A38:XFD47"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6242,394 +6243,393 @@
         <v>589</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="F38" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E38" s="35" t="s">
-        <v>640</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>641</v>
-      </c>
-      <c r="G38" s="35" t="s">
+      <c r="E39" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H39" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I38" s="35" t="s">
-        <v>642</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>643</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>644</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>645</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>646</v>
-      </c>
-      <c r="N38" s="35" t="s">
+      <c r="I39" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>701</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>702</v>
+      </c>
     </row>
-    <row r="39" spans="1:14" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B40" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C39" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="D39" s="35" t="s">
+      <c r="C40" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E39" s="35" t="s">
-        <v>648</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>649</v>
-      </c>
-      <c r="G39" s="35" t="s">
+      <c r="E40" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="H39" s="35" t="s">
+      <c r="H44" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I39" s="35" t="s">
-        <v>650</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>651</v>
-      </c>
-      <c r="L39" s="35" t="s">
+      <c r="I44" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="M39" s="35" t="s">
-        <v>653</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>703</v>
+      <c r="N44" s="1" t="s">
+        <v>710</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B45" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C40" s="35" t="s">
-        <v>654</v>
-      </c>
-      <c r="D40" s="35" t="s">
+      <c r="C45" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E40" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>656</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>657</v>
-      </c>
-      <c r="H40" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I40" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>659</v>
-      </c>
-      <c r="K40" s="35" t="s">
-        <v>660</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>661</v>
-      </c>
-      <c r="M40" s="35" t="s">
-        <v>662</v>
+      <c r="E45" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="35" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B46" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>663</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="E41" s="35" t="s">
-        <v>664</v>
-      </c>
-      <c r="F41" s="35" t="s">
-        <v>665</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>704</v>
-      </c>
-      <c r="H41" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I41" s="35" t="s">
-        <v>666</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="L41" s="35" t="s">
-        <v>667</v>
-      </c>
-      <c r="M41" s="35" t="s">
-        <v>705</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>707</v>
+      <c r="C46" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>717</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>668</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>669</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>670</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>671</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>672</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>673</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>674</v>
-      </c>
-      <c r="L42" s="35" t="s">
-        <v>675</v>
-      </c>
-      <c r="M42" s="35" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>677</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="F43" s="35" t="s">
-        <v>678</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>679</v>
-      </c>
-      <c r="H43" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I43" s="35" t="s">
-        <v>680</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>709</v>
-      </c>
-      <c r="L43" s="35" t="s">
-        <v>681</v>
-      </c>
-      <c r="M43" s="35" t="s">
-        <v>682</v>
-      </c>
-      <c r="N43" s="35" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>683</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="F44" s="35" t="s">
-        <v>685</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="H44" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I44" s="35" t="s">
-        <v>686</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>715</v>
-      </c>
-      <c r="K44" s="35" t="s">
-        <v>714</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>687</v>
-      </c>
-      <c r="M44" s="35" t="s">
-        <v>653</v>
-      </c>
-      <c r="N44" s="35" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>688</v>
-      </c>
-      <c r="D45" s="35" t="s">
-        <v>506</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>689</v>
-      </c>
-      <c r="F45" s="35" t="s">
-        <v>690</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>671</v>
-      </c>
-      <c r="H45" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I45" s="35" t="s">
-        <v>691</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>692</v>
-      </c>
-      <c r="K45" s="35" t="s">
-        <v>693</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>694</v>
-      </c>
-      <c r="M45" s="35" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>413</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>696</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>712</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>713</v>
-      </c>
-      <c r="F46" s="35" t="s">
-        <v>697</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>698</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="I46" s="35" t="s">
-        <v>718</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>717</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>716</v>
-      </c>
-      <c r="L46" s="35" t="s">
-        <v>699</v>
-      </c>
-      <c r="M46" s="35" t="s">
-        <v>700</v>
-      </c>
-      <c r="N46" s="35" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
@@ -6658,8 +6658,8 @@
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView topLeftCell="U3" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6668,8 +6668,8 @@
     <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
     <col min="7" max="25" width="18.85546875" style="25" customWidth="1"/>
     <col min="26" max="26" width="18.85546875" style="17" customWidth="1"/>
-    <col min="27" max="41" width="18.85546875" style="25" customWidth="1"/>
-    <col min="42" max="44" width="18.85546875" style="17" customWidth="1"/>
+    <col min="27" max="42" width="18.85546875" style="25" customWidth="1"/>
+    <col min="43" max="44" width="18.85546875" style="17" customWidth="1"/>
     <col min="45" max="54" width="18.85546875" style="25" customWidth="1"/>
     <col min="55" max="63" width="18.85546875" style="17" customWidth="1"/>
     <col min="64" max="16384" width="12.5703125" style="17"/>
@@ -6799,7 +6799,7 @@
       <c r="AO1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AP1" s="13" t="s">
         <v>26</v>
       </c>
       <c r="AQ1" s="16" t="s">
@@ -6885,22 +6885,22 @@
         <v>49</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q2" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R2" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="T2" s="22" t="s">
         <v>620</v>
       </c>
-      <c r="S2" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>621</v>
-      </c>
       <c r="U2" s="22" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V2" s="23" t="s">
         <v>421</v>
@@ -6960,7 +6960,7 @@
       <c r="AO2" s="22" t="s">
         <v>456</v>
       </c>
-      <c r="AP2" s="19" t="s">
+      <c r="AP2" s="22" t="s">
         <v>457</v>
       </c>
       <c r="AQ2" s="19" t="s">
@@ -7115,7 +7115,7 @@
       <c r="AO3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="AP3" s="19" t="s">
+      <c r="AP3" s="22" t="s">
         <v>418</v>
       </c>
       <c r="AQ3" s="19" t="s">
@@ -7272,7 +7272,7 @@
       <c r="AO4" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AP4" s="25" t="s">
         <v>414</v>
       </c>
       <c r="AQ4" s="19" t="s">
@@ -7422,7 +7422,7 @@
       <c r="AO5" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="AP5" s="19" t="s">
+      <c r="AP5" s="25" t="s">
         <v>283</v>
       </c>
       <c r="AQ5" s="19" t="s">
@@ -7579,7 +7579,7 @@
       <c r="AO6" s="25" t="s">
         <v>226</v>
       </c>
-      <c r="AP6" s="19" t="s">
+      <c r="AP6" s="31" t="s">
         <v>227</v>
       </c>
       <c r="AQ6" s="19" t="s">
@@ -7738,7 +7738,7 @@
       <c r="AO7" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="AP7" s="19" t="s">
+      <c r="AP7" s="22" t="s">
         <v>292</v>
       </c>
       <c r="AQ7" s="19" t="s">
@@ -7960,7 +7960,7 @@
         <v>598</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>599</v>
@@ -7972,22 +7972,22 @@
         <v>601</v>
       </c>
       <c r="P9" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q9" s="25" t="s">
         <v>609</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="R9" s="25" t="s">
         <v>610</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="S9" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="T9" s="25" t="s">
         <v>612</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="U9" s="25" t="s">
         <v>613</v>
-      </c>
-      <c r="U9" s="25" t="s">
-        <v>614</v>
       </c>
       <c r="V9" s="26" t="s">
         <v>602</v>
@@ -7995,57 +7995,56 @@
       <c r="W9" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="X9" s="33" t="s">
+      <c r="X9" s="25" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA9" s="25" t="s">
         <v>633</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="33" t="s">
+      <c r="AB9" s="25" t="s">
+        <v>634</v>
+      </c>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="25" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE9" s="25" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="25" t="s">
+        <v>629</v>
+      </c>
+      <c r="AH9" s="25" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI9" s="25" t="s">
         <v>637</v>
       </c>
-      <c r="AA9" s="33" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB9" s="33" t="s">
-        <v>635</v>
-      </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="33" t="s">
-        <v>636</v>
-      </c>
-      <c r="AE9" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33" t="s">
-        <v>630</v>
-      </c>
-      <c r="AH9" s="33" t="s">
-        <v>631</v>
-      </c>
-      <c r="AI9" s="33" t="s">
-        <v>638</v>
-      </c>
-      <c r="AJ9" s="33" t="s">
-        <v>617</v>
-      </c>
-      <c r="AK9" s="34" t="s">
-        <v>627</v>
-      </c>
-      <c r="AL9" s="34"/>
-      <c r="AM9" s="34" t="s">
+      <c r="AJ9" s="25" t="s">
+        <v>616</v>
+      </c>
+      <c r="AK9" s="25" t="s">
         <v>626</v>
       </c>
-      <c r="AN9" s="34" t="s">
+      <c r="AM9" s="25" t="s">
         <v>625</v>
       </c>
-      <c r="AO9" s="34" t="s">
+      <c r="AN9" s="25" t="s">
         <v>624</v>
+      </c>
+      <c r="AO9" s="25" t="s">
+        <v>623</v>
       </c>
       <c r="AP9" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="AQ9" s="34" t="s">
-        <v>628</v>
+      <c r="AQ9" s="19" t="s">
+        <v>627</v>
       </c>
       <c r="AR9" s="32" t="s">
         <v>604</v>
@@ -8056,11 +8055,11 @@
       <c r="AT9" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AU9" s="32" t="s">
-        <v>604</v>
+      <c r="AU9" s="25" t="s">
+        <v>718</v>
       </c>
       <c r="AV9" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AW9" s="25" t="s">
         <v>607</v>
@@ -8078,10 +8077,10 @@
         <v>106</v>
       </c>
       <c r="BB9" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="BC9" s="34" t="s">
-        <v>629</v>
+        <v>719</v>
+      </c>
+      <c r="BC9" s="25" t="s">
+        <v>628</v>
       </c>
       <c r="BD9" s="32" t="s">
         <v>604</v>

--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B56172-4539-4B8C-9056-E35049DBB22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529675D3-3E79-41B9-B56A-7490528D3A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
-    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4234,24 +4234,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4261,25 +4249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4307,18 +4277,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4334,16 +4292,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4363,25 +4321,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4390,38 +4348,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4638,2040 +4571,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
-  <dimension ref="A1:N46"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="3" width="18.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
-    <col min="6" max="13" width="18.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>474</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>558</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="L29" s="6"/>
-      <c r="M29" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="N39" s="9" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="N44" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
-    <hyperlink ref="N15" r:id="rId2" display="https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view" xr:uid="{C7396F2C-A109-44A9-A08F-22F5D5D8B44A}"/>
-    <hyperlink ref="N16" r:id="rId3" xr:uid="{A756A827-0076-449D-B585-1BD34EDE13DF}"/>
-    <hyperlink ref="N19" r:id="rId4" xr:uid="{2ADFADF7-BD71-492B-896D-3593FCA21669}"/>
-    <hyperlink ref="N26" r:id="rId5" xr:uid="{82E366EF-1647-49A7-9298-8F296140885C}"/>
-    <hyperlink ref="N4" r:id="rId6" xr:uid="{2C75F824-B076-4E75-A110-2378D76B68E9}"/>
-    <hyperlink ref="N5" r:id="rId7" xr:uid="{938B6AEA-5229-4D2D-AEC9-44308F66FE06}"/>
-    <hyperlink ref="N8" r:id="rId8" xr:uid="{D89DAA58-0116-4FEB-A9B6-2E8083A04C86}"/>
-    <hyperlink ref="N30" r:id="rId9" xr:uid="{FA87CE05-646B-4D2A-A1E9-E061817DA8F6}"/>
-    <hyperlink ref="N31" r:id="rId10" xr:uid="{302184D7-8A0E-4FAE-A9C4-B5DB4D059E47}"/>
-    <hyperlink ref="N39" r:id="rId11" xr:uid="{61D44785-0D04-4FA0-8935-1411D8ED7E5C}"/>
-    <hyperlink ref="N41" r:id="rId12" xr:uid="{E8C5FBA5-3ABA-4B05-AA11-98B44181680E}"/>
-    <hyperlink ref="N43" r:id="rId13" xr:uid="{23F5D34D-B094-44B7-8C96-AD9D158CC527}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="18.85546875" style="17" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="17" customWidth="1"/>
-    <col min="7" max="25" width="18.85546875" style="25" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="17" customWidth="1"/>
-    <col min="27" max="42" width="18.85546875" style="25" customWidth="1"/>
-    <col min="43" max="44" width="18.85546875" style="17" customWidth="1"/>
-    <col min="45" max="54" width="18.85546875" style="25" customWidth="1"/>
-    <col min="55" max="63" width="18.85546875" style="17" customWidth="1"/>
+    <col min="7" max="63" width="18.85546875" style="17" customWidth="1"/>
     <col min="64" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
@@ -6862,105 +4776,105 @@
       <c r="E2" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="19" t="s">
         <v>622</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="19" t="s">
         <v>621</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="19" t="s">
         <v>620</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="U2" s="19" t="s">
         <v>617</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="19" t="s">
         <v>451</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="Y2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="Z2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="AA2" s="22" t="s">
+      <c r="AA2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="AB2" s="22" t="s">
+      <c r="AB2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="23" t="s">
+      <c r="AC2" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="22" t="s">
+      <c r="AD2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="AE2" s="22" t="s">
+      <c r="AE2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="23" t="s">
+      <c r="AF2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="AL2" s="22"/>
-      <c r="AM2" s="22" t="s">
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AN2" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="19" t="s">
         <v>457</v>
       </c>
       <c r="AQ2" s="19" t="s">
@@ -6969,34 +4883,34 @@
       <c r="AR2" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="AS2" s="22" t="s">
+      <c r="AS2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AT2" s="22" t="s">
+      <c r="AT2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="AU2" s="22" t="s">
+      <c r="AU2" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="AV2" s="22" t="s">
+      <c r="AV2" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="AW2" s="22" t="s">
+      <c r="AW2" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="AX2" s="22" t="s">
+      <c r="AX2" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AY2" s="22" t="s">
+      <c r="AY2" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AZ2" s="22" t="s">
+      <c r="AZ2" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BA2" s="22" t="s">
+      <c r="BA2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="BB2" s="22" t="s">
+      <c r="BB2" s="19" t="s">
         <v>460</v>
       </c>
       <c r="BC2" s="19" t="s">
@@ -7023,99 +4937,99 @@
       <c r="E3" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="U3" s="22" t="s">
+      <c r="U3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23" t="s">
+      <c r="V3" s="19"/>
+      <c r="W3" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="Y3" s="23"/>
+      <c r="Y3" s="19"/>
       <c r="Z3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" s="22" t="s">
+      <c r="AA3" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" s="22" t="s">
+      <c r="AB3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="22" t="s">
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AE3" s="22" t="s">
+      <c r="AE3" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" s="23" t="s">
+      <c r="AF3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AG3" s="22" t="s">
+      <c r="AG3" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AK3" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="AL3" s="22"/>
-      <c r="AM3" s="22" t="s">
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="AN3" s="22" t="s">
+      <c r="AN3" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AO3" s="22" t="s">
+      <c r="AO3" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AP3" s="22" t="s">
+      <c r="AP3" s="19" t="s">
         <v>418</v>
       </c>
       <c r="AQ3" s="19" t="s">
@@ -7124,34 +5038,34 @@
       <c r="AR3" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="AS3" s="22" t="s">
+      <c r="AS3" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="AT3" s="22" t="s">
+      <c r="AT3" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="AU3" s="22" t="s">
+      <c r="AU3" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="AV3" s="22" t="s">
+      <c r="AV3" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AW3" s="22" t="s">
+      <c r="AW3" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="AX3" s="22" t="s">
+      <c r="AX3" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="AY3" s="22" t="s">
+      <c r="AY3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="AZ3" s="22" t="s">
+      <c r="AZ3" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="BA3" s="22" t="s">
+      <c r="BA3" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="BB3" s="22" t="s">
+      <c r="BB3" s="19" t="s">
         <v>107</v>
       </c>
       <c r="BC3" s="19" t="s">
@@ -7178,101 +5092,100 @@
       <c r="E4" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="25" t="s">
+      <c r="Q4" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="S4" s="25" t="s">
+      <c r="S4" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="T4" s="25" t="s">
+      <c r="T4" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="25" t="s">
+      <c r="U4" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="V4" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="X4" s="25" t="s">
+      <c r="X4" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="17" t="s">
         <v>127</v>
       </c>
       <c r="Z4" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="AB4" s="25" t="s">
+      <c r="AB4" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="AE4" s="25" t="s">
+      <c r="AE4" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="AH4" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AI4" s="25" t="s">
+      <c r="AI4" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AJ4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="AK4" s="25" t="s">
+      <c r="AK4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="AL4" s="25" t="s">
+      <c r="AL4" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="AM4" s="25" t="s">
+      <c r="AM4" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="AN4" s="25" t="s">
+      <c r="AN4" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="AO4" s="25" t="s">
+      <c r="AO4" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="AP4" s="25" t="s">
+      <c r="AP4" s="17" t="s">
         <v>414</v>
       </c>
       <c r="AQ4" s="19" t="s">
@@ -7281,34 +5194,34 @@
       <c r="AR4" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="AS4" s="25" t="s">
+      <c r="AS4" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="AT4" s="25" t="s">
+      <c r="AT4" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="AU4" s="25" t="s">
+      <c r="AU4" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="AV4" s="25" t="s">
+      <c r="AV4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="AW4" s="25" t="s">
+      <c r="AW4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" s="25" t="s">
+      <c r="AX4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AY4" s="25" t="s">
+      <c r="AY4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AZ4" s="25" t="s">
+      <c r="AZ4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="BA4" s="25" t="s">
+      <c r="BA4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BB4" s="25" t="s">
+      <c r="BB4" s="17" t="s">
         <v>149</v>
       </c>
       <c r="BC4" s="19" t="s">
@@ -7329,100 +5242,97 @@
       <c r="C5" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="21" t="s">
         <v>277</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="T5" s="25" t="s">
+      <c r="T5" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="U5" s="25" t="s">
+      <c r="U5" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="W5" s="26"/>
-      <c r="X5" s="25" t="s">
+      <c r="X5" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="Y5" s="26"/>
       <c r="Z5" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="AA5" s="25" t="s">
+      <c r="AA5" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="AC5" s="26" t="s">
+      <c r="AC5" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="AE5" s="25" t="s">
+      <c r="AE5" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="25" t="s">
+      <c r="AG5" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="AH5" s="25" t="s">
+      <c r="AH5" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="AI5" s="25" t="s">
+      <c r="AI5" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="AJ5" s="25" t="s">
+      <c r="AJ5" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="AK5" s="25" t="s">
+      <c r="AK5" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="AM5" s="25" t="s">
+      <c r="AM5" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="AN5" s="25" t="s">
+      <c r="AN5" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="AO5" s="25" t="s">
+      <c r="AO5" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="AP5" s="25" t="s">
+      <c r="AP5" s="17" t="s">
         <v>283</v>
       </c>
       <c r="AQ5" s="19" t="s">
@@ -7431,34 +5341,34 @@
       <c r="AR5" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="AS5" s="25" t="s">
+      <c r="AS5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="AT5" s="25" t="s">
+      <c r="AT5" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="AU5" s="25" t="s">
+      <c r="AU5" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="AV5" s="25">
+      <c r="AV5" s="17">
         <v>0.39710000000000001</v>
       </c>
-      <c r="AW5" s="25" t="s">
+      <c r="AW5" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="AX5" s="25" t="s">
+      <c r="AX5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="AY5" s="25" t="s">
+      <c r="AY5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="AZ5" s="25" t="s">
+      <c r="AZ5" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="BA5" s="25" t="s">
+      <c r="BA5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BB5" s="25" t="s">
+      <c r="BB5" s="17" t="s">
         <v>184</v>
       </c>
       <c r="BC5" s="19" t="s">
@@ -7485,101 +5395,100 @@
       <c r="E6" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="P6" s="25" t="s">
+      <c r="P6" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="Q6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="S6" s="25" t="s">
+      <c r="S6" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="25" t="s">
+      <c r="T6" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="U6" s="25" t="s">
+      <c r="U6" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="V6" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="W6" s="26"/>
-      <c r="X6" s="25" t="s">
+      <c r="X6" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="Y6" s="26" t="s">
+      <c r="Y6" s="17" t="s">
         <v>210</v>
       </c>
       <c r="Z6" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="AA6" s="25" t="s">
+      <c r="AA6" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="AC6" s="26" t="s">
+      <c r="AC6" s="17" t="s">
         <v>214</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="AE6" s="25" t="s">
+      <c r="AE6" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="AF6" s="26" t="s">
+      <c r="AF6" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="AG6" s="25" t="s">
+      <c r="AG6" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="AH6" s="25" t="s">
+      <c r="AH6" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="AI6" s="25" t="s">
+      <c r="AI6" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="AJ6" s="25" t="s">
+      <c r="AJ6" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="AK6" s="25" t="s">
+      <c r="AK6" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="AL6" s="25" t="s">
+      <c r="AL6" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="AM6" s="25" t="s">
+      <c r="AM6" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="AN6" s="25" t="s">
+      <c r="AN6" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="AO6" s="25" t="s">
+      <c r="AO6" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="AP6" s="31" t="s">
+      <c r="AP6" s="23" t="s">
         <v>227</v>
       </c>
       <c r="AQ6" s="19" t="s">
@@ -7588,34 +5497,34 @@
       <c r="AR6" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="AS6" s="25" t="s">
+      <c r="AS6" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="AT6" s="25" t="s">
+      <c r="AT6" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="AU6" s="25" t="s">
+      <c r="AU6" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="AV6" s="25" t="s">
+      <c r="AV6" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="AW6" s="25" t="s">
+      <c r="AW6" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AX6" s="25" t="s">
+      <c r="AX6" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="AY6" s="25" t="s">
+      <c r="AY6" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="AZ6" s="25" t="s">
+      <c r="AZ6" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="BA6" s="25" t="s">
+      <c r="BA6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="BB6" s="25" t="s">
+      <c r="BB6" s="17" t="s">
         <v>233</v>
       </c>
       <c r="BC6" s="19" t="s">
@@ -7639,106 +5548,106 @@
       <c r="D7" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="P7" s="22" t="s">
+      <c r="P7" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="Q7" s="22" t="s">
+      <c r="Q7" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="R7" s="22" t="s">
+      <c r="R7" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="S7" s="22" t="s">
+      <c r="S7" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="U7" s="22" t="s">
+      <c r="U7" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="V7" s="23" t="s">
+      <c r="V7" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="W7" s="23" t="s">
+      <c r="W7" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="X7" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="Y7" s="23"/>
+      <c r="Y7" s="19"/>
       <c r="Z7" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="AA7" s="22" t="s">
+      <c r="AA7" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="AB7" s="22" t="s">
+      <c r="AB7" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="AC7" s="23" t="s">
+      <c r="AC7" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AD7" s="22" t="s">
+      <c r="AD7" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="AE7" s="22" t="s">
+      <c r="AE7" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="AF7" s="23" t="s">
+      <c r="AF7" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="AG7" s="22" t="s">
+      <c r="AG7" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AH7" s="22" t="s">
+      <c r="AH7" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="AI7" s="22" t="s">
+      <c r="AI7" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="AJ7" s="22" t="s">
+      <c r="AJ7" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="AK7" s="22" t="s">
+      <c r="AK7" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22" t="s">
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="AN7" s="22" t="s">
+      <c r="AN7" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="AO7" s="22" t="s">
+      <c r="AO7" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="AP7" s="22" t="s">
+      <c r="AP7" s="19" t="s">
         <v>292</v>
       </c>
       <c r="AQ7" s="19" t="s">
@@ -7747,34 +5656,34 @@
       <c r="AR7" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="AS7" s="22" t="s">
+      <c r="AS7" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="AT7" s="22" t="s">
+      <c r="AT7" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AU7" s="22" t="s">
+      <c r="AU7" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AV7" s="22" t="s">
+      <c r="AV7" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AW7" s="22" t="s">
+      <c r="AW7" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AX7" s="22" t="s">
+      <c r="AX7" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="AY7" s="22" t="s">
+      <c r="AY7" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="AZ7" s="22" t="s">
+      <c r="AZ7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BA7" s="22" t="s">
+      <c r="BA7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="BB7" s="22" t="s">
+      <c r="BB7" s="19" t="s">
         <v>264</v>
       </c>
       <c r="BC7" s="19" t="s">
@@ -7793,150 +5702,148 @@
       <c r="B8" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="23" t="s">
         <v>294</v>
       </c>
       <c r="E8" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="K8" s="25" t="s">
+      <c r="K8" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="M8" s="25" t="s">
+      <c r="M8" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="N8" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="O8" s="25" t="s">
+      <c r="O8" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="P8" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="S8" s="25" t="s">
+      <c r="S8" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="T8" s="25" t="s">
+      <c r="T8" s="17" t="s">
         <v>305</v>
       </c>
-      <c r="U8" s="25" t="s">
+      <c r="U8" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="V8" s="26" t="s">
+      <c r="V8" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="W8" s="26" t="s">
+      <c r="W8" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="X8" s="25" t="s">
+      <c r="X8" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="30" t="s">
+      <c r="Z8" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="AA8" s="25" t="s">
+      <c r="AA8" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="AB8" s="25" t="s">
+      <c r="AB8" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="AC8" s="26" t="s">
+      <c r="AC8" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="AD8" s="25" t="s">
+      <c r="AD8" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="AE8" s="25" t="s">
+      <c r="AE8" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="25" t="s">
+      <c r="AG8" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="AH8" s="25" t="s">
+      <c r="AH8" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="AI8" s="25" t="s">
+      <c r="AI8" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="AJ8" s="25" t="s">
+      <c r="AJ8" s="17" t="s">
         <v>317</v>
       </c>
-      <c r="AK8" s="25" t="s">
+      <c r="AK8" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="AM8" s="25" t="s">
+      <c r="AM8" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="AN8" s="25" t="s">
+      <c r="AN8" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="AO8" s="25" t="s">
+      <c r="AO8" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="AP8" s="31" t="s">
+      <c r="AP8" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="AQ8" s="31" t="s">
+      <c r="AQ8" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="AR8" s="31" t="s">
+      <c r="AR8" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="AS8" s="25" t="s">
+      <c r="AS8" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="AT8" s="25" t="s">
+      <c r="AT8" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="AU8" s="25" t="s">
+      <c r="AU8" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="AV8" s="25" t="s">
+      <c r="AV8" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="AW8" s="25" t="s">
+      <c r="AW8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="AX8" s="25" t="s">
+      <c r="AX8" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="AY8" s="25" t="s">
+      <c r="AY8" s="17" t="s">
         <v>326</v>
       </c>
-      <c r="AZ8" s="25" t="s">
+      <c r="AZ8" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="BA8" s="25" t="s">
+      <c r="BA8" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BB8" s="25" t="s">
+      <c r="BB8" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="BC8" s="31" t="s">
+      <c r="BC8" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="BD8" s="30" t="s">
+      <c r="BD8" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="BE8" s="31" t="s">
+      <c r="BE8" s="23" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7947,145 +5854,143 @@
       <c r="C9" s="17" t="s">
         <v>504</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="21" t="s">
         <v>505</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="17" t="s">
         <v>615</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="O9" s="25" t="s">
+      <c r="O9" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="P9" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="17" t="s">
         <v>610</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="17" t="s">
         <v>612</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="17" t="s">
         <v>613</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="X9" s="25" t="s">
+      <c r="X9" s="17" t="s">
         <v>632</v>
       </c>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="30" t="s">
+      <c r="Z9" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="AA9" s="25" t="s">
+      <c r="AA9" s="17" t="s">
         <v>633</v>
       </c>
-      <c r="AB9" s="25" t="s">
+      <c r="AB9" s="17" t="s">
         <v>634</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="25" t="s">
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="AE9" s="25" t="s">
+      <c r="AE9" s="17" t="s">
         <v>631</v>
       </c>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="25" t="s">
+      <c r="AG9" s="17" t="s">
         <v>629</v>
       </c>
-      <c r="AH9" s="25" t="s">
+      <c r="AH9" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="AI9" s="25" t="s">
+      <c r="AI9" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="AJ9" s="25" t="s">
+      <c r="AJ9" s="17" t="s">
         <v>616</v>
       </c>
-      <c r="AK9" s="25" t="s">
+      <c r="AK9" s="17" t="s">
         <v>626</v>
       </c>
-      <c r="AM9" s="25" t="s">
+      <c r="AM9" s="17" t="s">
         <v>625</v>
       </c>
-      <c r="AN9" s="25" t="s">
+      <c r="AN9" s="17" t="s">
         <v>624</v>
       </c>
-      <c r="AO9" s="25" t="s">
+      <c r="AO9" s="17" t="s">
         <v>623</v>
       </c>
-      <c r="AP9" s="32" t="s">
+      <c r="AP9" s="17" t="s">
         <v>604</v>
       </c>
       <c r="AQ9" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="AR9" s="32" t="s">
+      <c r="AR9" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="AS9" s="25" t="s">
+      <c r="AS9" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="AT9" s="25" t="s">
+      <c r="AT9" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="AU9" s="25" t="s">
+      <c r="AU9" s="17" t="s">
         <v>718</v>
       </c>
-      <c r="AV9" s="25" t="s">
+      <c r="AV9" s="17" t="s">
         <v>614</v>
       </c>
-      <c r="AW9" s="25" t="s">
+      <c r="AW9" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="AX9" s="25" t="s">
+      <c r="AX9" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="AY9" s="25" t="s">
+      <c r="AY9" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="AZ9" s="25" t="s">
+      <c r="AZ9" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="BA9" s="25" t="s">
+      <c r="BA9" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="BB9" s="25" t="s">
+      <c r="BB9" s="17" t="s">
         <v>719</v>
       </c>
-      <c r="BC9" s="25" t="s">
+      <c r="BC9" s="17" t="s">
         <v>628</v>
       </c>
-      <c r="BD9" s="32" t="s">
+      <c r="BD9" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="BE9" s="32" t="s">
+      <c r="BE9" s="17" t="s">
         <v>604</v>
       </c>
     </row>
@@ -8118,4 +6023,2018 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
+  <dimension ref="A1:N46"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="18.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="1" customWidth="1"/>
+    <col min="6" max="13" width="18.7109375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L26" s="6"/>
+      <c r="M26" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="6"/>
+      <c r="M27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="L28" s="6"/>
+      <c r="M28" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L29" s="6"/>
+      <c r="M29" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N13" r:id="rId1" xr:uid="{CD7CB311-E8A8-4267-9081-4D2C11375DF3}"/>
+    <hyperlink ref="N15" r:id="rId2" display="https://drive.google.com/file/d/1SkxgSTrIP9K1Vk7o2iwFVeF1QVtYDvJ7/view" xr:uid="{C7396F2C-A109-44A9-A08F-22F5D5D8B44A}"/>
+    <hyperlink ref="N16" r:id="rId3" xr:uid="{A756A827-0076-449D-B585-1BD34EDE13DF}"/>
+    <hyperlink ref="N19" r:id="rId4" xr:uid="{2ADFADF7-BD71-492B-896D-3593FCA21669}"/>
+    <hyperlink ref="N26" r:id="rId5" xr:uid="{82E366EF-1647-49A7-9298-8F296140885C}"/>
+    <hyperlink ref="N4" r:id="rId6" xr:uid="{2C75F824-B076-4E75-A110-2378D76B68E9}"/>
+    <hyperlink ref="N5" r:id="rId7" xr:uid="{938B6AEA-5229-4D2D-AEC9-44308F66FE06}"/>
+    <hyperlink ref="N8" r:id="rId8" xr:uid="{D89DAA58-0116-4FEB-A9B6-2E8083A04C86}"/>
+    <hyperlink ref="N30" r:id="rId9" xr:uid="{FA87CE05-646B-4D2A-A1E9-E061817DA8F6}"/>
+    <hyperlink ref="N31" r:id="rId10" xr:uid="{302184D7-8A0E-4FAE-A9C4-B5DB4D059E47}"/>
+    <hyperlink ref="N39" r:id="rId11" xr:uid="{61D44785-0D04-4FA0-8935-1411D8ED7E5C}"/>
+    <hyperlink ref="N41" r:id="rId12" xr:uid="{E8C5FBA5-3ABA-4B05-AA11-98B44181680E}"/>
+    <hyperlink ref="N43" r:id="rId13" xr:uid="{23F5D34D-B094-44B7-8C96-AD9D158CC527}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
+</worksheet>
 </file>
--- a/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
+++ b/LATAM - Proyecto ELA4ATTRACT(Respuestas).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Arroyo\Downloads\erasmus base de datos finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529675D3-3E79-41B9-B56A-7490528D3A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B08074A-EF8C-468F-B127-9A2D96A8D8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="720">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -2051,9 +2051,6 @@
   </si>
   <si>
     <t>LA VALIJA CIENTÍFICA</t>
-  </si>
-  <si>
-    <t>Preparatoria/Bachillerato</t>
   </si>
   <si>
     <t>Estudiantes de últimos años de colegios secundarios y egresados de nivel medio</t>
@@ -3079,9 +3076,6 @@
   </si>
   <si>
     <t>invitación por correo directa a directores de liceos con currículum técnico profesional agropecuario o científico humanista en entornos rurales.</t>
-  </si>
-  <si>
-    <t>SaviaLab ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos. Dirigido a profesores de liceos rurales, el programa capacita a desarrollar proyectos innovadores con estudiantes de enseñanza media.</t>
   </si>
   <si>
     <t>Colegios participantes / Campus Universidad Católica de Chile</t>
@@ -4149,6 +4143,9 @@
   <si>
     <t xml:space="preserve"> Licenciatura (Pregrado)|</t>
   </si>
+  <si>
+    <t>SaviaLab ofrece un espacio formativo centrado en didácticas de la innovación temprana mediante el aprendizaje basado en proyectos. Dirigido a profesores de liceos rurales, el programa capacita para desarrollar proyectos innovadores con estudiantes de enseñanza media.</t>
+  </si>
 </sst>
 </file>
 
@@ -4234,7 +4231,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4277,6 +4274,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4292,7 +4295,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4355,6 +4358,16 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -4577,8 +4590,8 @@
   </sheetPr>
   <dimension ref="A1:BF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="E1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4789,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
@@ -4799,31 +4812,31 @@
         <v>49</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="R2" s="19" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="S2" s="19" t="s">
+        <v>616</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="T2" s="19" t="s">
-        <v>620</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="V2" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="W2" s="19" t="s">
         <v>50</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Y2" s="19" t="s">
         <v>51</v>
@@ -4859,29 +4872,29 @@
         <v>61</v>
       </c>
       <c r="AJ2" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK2" s="19" t="s">
         <v>452</v>
-      </c>
-      <c r="AK2" s="19" t="s">
-        <v>453</v>
       </c>
       <c r="AL2" s="19"/>
       <c r="AM2" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="AN2" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="AN2" s="19" t="s">
+      <c r="AO2" s="19" t="s">
         <v>455</v>
       </c>
-      <c r="AO2" s="19" t="s">
+      <c r="AP2" s="19" t="s">
         <v>456</v>
-      </c>
-      <c r="AP2" s="19" t="s">
-        <v>457</v>
       </c>
       <c r="AQ2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="AR2" s="19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AS2" s="19" t="s">
         <v>63</v>
@@ -4890,7 +4903,7 @@
         <v>63</v>
       </c>
       <c r="AU2" s="19" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AV2" s="19" t="s">
         <v>64</v>
@@ -4911,7 +4924,7 @@
         <v>69</v>
       </c>
       <c r="BB2" s="19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="BC2" s="19" t="s">
         <v>70</v>
@@ -4982,7 +4995,7 @@
         <v>86</v>
       </c>
       <c r="X3" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Y3" s="19"/>
       <c r="Z3" s="19" t="s">
@@ -5017,11 +5030,11 @@
         <v>96</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AL3" s="19"/>
       <c r="AM3" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN3" s="19" t="s">
         <v>97</v>
@@ -5030,7 +5043,7 @@
         <v>98</v>
       </c>
       <c r="AP3" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AQ3" s="19" t="s">
         <v>99</v>
@@ -5039,13 +5052,13 @@
         <v>100</v>
       </c>
       <c r="AS3" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AT3" s="19" t="s">
         <v>101</v>
       </c>
       <c r="AU3" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AV3" s="19" t="s">
         <v>102</v>
@@ -5135,7 +5148,7 @@
         <v>126</v>
       </c>
       <c r="X4" s="17" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="Y4" s="17" t="s">
         <v>127</v>
@@ -5186,7 +5199,7 @@
         <v>142</v>
       </c>
       <c r="AP4" s="17" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AQ4" s="19" t="s">
         <v>143</v>
@@ -5852,122 +5865,122 @@
         <v>42</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>504</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>505</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>190</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G9" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="J9" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="I9" s="17" t="s">
+      <c r="O9" s="17" t="s">
         <v>599</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="P9" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="V9" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="W9" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="P9" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="R9" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="T9" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="V9" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="W9" s="17" t="s">
-        <v>603</v>
-      </c>
       <c r="X9" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA9" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB9" s="17" t="s">
         <v>632</v>
-      </c>
-      <c r="Z9" s="23" t="s">
-        <v>636</v>
-      </c>
-      <c r="AA9" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB9" s="17" t="s">
-        <v>634</v>
       </c>
       <c r="AC9" s="19"/>
       <c r="AD9" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="AG9" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="AI9" s="17" t="s">
         <v>635</v>
       </c>
-      <c r="AE9" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="AG9" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="AH9" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="AI9" s="17" t="s">
-        <v>637</v>
-      </c>
       <c r="AJ9" s="17" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AK9" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AM9" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="AN9" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="AO9" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="AP9" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AQ9" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="AN9" s="17" t="s">
-        <v>624</v>
-      </c>
-      <c r="AO9" s="17" t="s">
-        <v>623</v>
-      </c>
-      <c r="AP9" s="17" t="s">
+      <c r="AR9" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AS9" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT9" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="AQ9" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="AR9" s="17" t="s">
-        <v>604</v>
-      </c>
-      <c r="AS9" s="17" t="s">
+      <c r="AU9" s="17" t="s">
+        <v>716</v>
+      </c>
+      <c r="AV9" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="AW9" s="17" t="s">
         <v>605</v>
-      </c>
-      <c r="AT9" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="AU9" s="17" t="s">
-        <v>718</v>
-      </c>
-      <c r="AV9" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="AW9" s="17" t="s">
-        <v>607</v>
       </c>
       <c r="AX9" s="17" t="s">
         <v>325</v>
@@ -5982,16 +5995,16 @@
         <v>106</v>
       </c>
       <c r="BB9" s="17" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="BC9" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="BD9" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="BE9" s="17" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -6029,9 +6042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEB42D9-1F0C-4AB3-A5A2-9A8684BF6A39}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -6054,7 +6067,7 @@
         <v>330</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>336</v>
@@ -6069,7 +6082,7 @@
         <v>333</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>331</v>
@@ -6078,13 +6091,13 @@
         <v>332</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6097,38 +6110,38 @@
       <c r="C2" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="L2" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6139,40 +6152,40 @@
         <v>337</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="K3" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>481</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6183,40 +6196,40 @@
         <v>337</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="K4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>484</v>
-      </c>
       <c r="M4" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6227,40 +6240,40 @@
         <v>337</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="M5" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6271,40 +6284,40 @@
         <v>337</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>339</v>
+        <v>466</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>505</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6315,37 +6328,37 @@
         <v>337</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="J7" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>343</v>
-      </c>
       <c r="M7" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6356,40 +6369,40 @@
         <v>337</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6400,40 +6413,40 @@
         <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="N9" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6444,40 +6457,40 @@
         <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>433</v>
-      </c>
       <c r="N10" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6488,40 +6501,40 @@
         <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>437</v>
-      </c>
       <c r="N11" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6532,38 +6545,38 @@
         <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6574,40 +6587,40 @@
         <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6618,84 +6631,84 @@
         <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>494</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>491</v>
+      </c>
+      <c r="L15" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="M15" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>500</v>
+      <c r="N15" s="27" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6706,40 +6719,40 @@
         <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I16" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>502</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6750,37 +6763,37 @@
         <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6791,37 +6804,37 @@
         <v>153</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="L18" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6832,81 +6845,81 @@
         <v>153</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="L19" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="F20" s="24" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="G20" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="K20" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>520</v>
+      <c r="L20" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="6" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6917,37 +6930,37 @@
         <v>153</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>383</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6958,40 +6971,40 @@
         <v>153</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>520</v>
-      </c>
       <c r="N22" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7002,37 +7015,37 @@
         <v>153</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H23" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="J23" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7043,37 +7056,37 @@
         <v>239</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="M24" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>210</v>
@@ -7087,37 +7100,37 @@
         <v>239</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>535</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>210</v>
@@ -7131,38 +7144,38 @@
         <v>239</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7173,38 +7186,38 @@
         <v>239</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7215,35 +7228,35 @@
         <v>239</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H28" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>551</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7254,38 +7267,38 @@
         <v>239</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K29" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7296,40 +7309,40 @@
         <v>270</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="M30" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>565</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7340,84 +7353,84 @@
         <v>270</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C32" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="D32" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>571</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>392</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I32" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="K32" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>572</v>
+      </c>
+      <c r="M32" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="N32" s="24" t="s">
         <v>574</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7428,40 +7441,40 @@
         <v>270</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E33" s="1" t="s">
+      <c r="J33" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="M33" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="N33" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7472,40 +7485,40 @@
         <v>270</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>405</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7516,81 +7529,81 @@
         <v>270</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="N35" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="K35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:14" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>585</v>
+      </c>
+      <c r="F36" s="24" t="s">
+        <v>586</v>
+      </c>
+      <c r="G36" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I36" s="24" t="s">
         <v>409</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="M35" s="1" t="s">
+      <c r="J36" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="N35" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="K36" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="L36" s="24" t="s">
+        <v>595</v>
+      </c>
+      <c r="M36" s="24" t="s">
         <v>587</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -7601,34 +7614,34 @@
         <v>295</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="J37" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -7636,43 +7649,43 @@
         <v>190</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E38" s="1" t="s">
+      <c r="G38" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="J38" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>645</v>
-      </c>
       <c r="N38" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
@@ -7680,43 +7693,43 @@
         <v>190</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="J39" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="L39" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="L39" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="N39" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -7724,40 +7737,40 @@
         <v>190</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I40" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="J40" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="L40" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
@@ -7765,43 +7778,43 @@
         <v>190</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="J41" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>666</v>
-      </c>
       <c r="M41" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="N41" s="9" t="s">
         <v>704</v>
-      </c>
-      <c r="N41" s="9" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -7809,84 +7822,84 @@
         <v>190</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="J42" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="K42" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="E43" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="M42" s="1" t="s">
+      <c r="F43" s="24" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="G43" s="24" t="s">
         <v>676</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I43" s="24" t="s">
         <v>677</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="J43" s="24" t="s">
+        <v>707</v>
+      </c>
+      <c r="K43" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="L43" s="24" t="s">
         <v>678</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="M43" s="24" t="s">
         <v>679</v>
       </c>
-      <c r="J43" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>707</v>
+      <c r="N43" s="24" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -7894,43 +7907,43 @@
         <v>190</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="J44" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>686</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -7938,40 +7951,40 @@
         <v>190</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="G45" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="L45" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -7979,43 +7992,43 @@
         <v>190</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="L46" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="M46" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="N46" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="M46" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>717</v>
       </c>
     </row>
   </sheetData>
